--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uapt33090-my.sharepoint.com/personal/alexandrerrodrigues_ua_pt/Documents/Desktop/Universidade/ESTUDO/4o ano/MC/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="240" documentId="8_{F6C52FA1-06A6-4BA5-A029-C2E64A93D517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB956BCF-8C11-44B9-B9ED-E35465767B0D}"/>
+  <xr:revisionPtr revIDLastSave="273" documentId="8_{F6C52FA1-06A6-4BA5-A029-C2E64A93D517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA103F9A-C8BC-4724-817B-F69EB44543F6}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{C9739BE2-A4AE-4755-88B7-610C6B0CB3CA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="15">
   <si>
     <t>Epsilon</t>
   </si>
@@ -383,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -424,21 +424,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -449,30 +479,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -789,10 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55691D49-D26C-48B8-8327-BF16DAADEBD8}">
-  <dimension ref="B1:K50"/>
+  <dimension ref="B1:K74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="E3" sqref="E3:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,31 +848,31 @@
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="20">
+      <c r="B3" s="30">
         <v>0.01</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="25">
         <v>2</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="25">
         <v>2</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="25">
         <v>16</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="25">
         <v>0.45</v>
       </c>
-      <c r="H3" s="27">
+      <c r="H3" s="26">
         <v>176667.9</v>
       </c>
       <c r="I3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="25">
+      <c r="J3" s="15">
         <v>212129.6</v>
       </c>
       <c r="K3" s="13">
@@ -874,17 +880,17 @@
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="21"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="28"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="23"/>
       <c r="I4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="16">
         <v>11529070</v>
       </c>
       <c r="K4" s="7">
@@ -892,17 +898,17 @@
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="21"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="28"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="23"/>
       <c r="I5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="16">
         <v>619736.69999999995</v>
       </c>
       <c r="K5" s="7">
@@ -910,783 +916,1113 @@
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="21"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="17"/>
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="21"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="17" t="s">
+      <c r="B7" s="31"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="31"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="31"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G9" s="18">
         <v>0.72914400000000001</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H9" s="22">
         <v>4359112</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J9" s="16">
         <v>705682.5</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K9" s="7">
         <v>1.3322970000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="21"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="1" t="s">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="31"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="26">
+      <c r="J10" s="16">
         <v>2225222</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K10" s="7">
         <v>14.465457000000001</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="21"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="1" t="s">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="31"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="26">
+      <c r="J11" s="16">
         <v>660124.1</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K11" s="7">
         <v>10.886081000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="21"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="7"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="21"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="7"/>
-    </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="21"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" s="1"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="17"/>
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="21"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="17"/>
       <c r="K13" s="7"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="21"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="7"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="21"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="14">
-        <v>4</v>
-      </c>
-      <c r="E15" s="14">
-        <v>256</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="14">
-        <v>101.49420600000001</v>
-      </c>
-      <c r="H15" s="30">
-        <v>212488.9</v>
-      </c>
+      <c r="B15" s="31"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
       <c r="I15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="26">
-        <v>12340.35</v>
-      </c>
-      <c r="K15" s="7">
-        <v>16.791563</v>
-      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="7"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="21"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="28"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
       <c r="I16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="26">
+      <c r="J16" s="1"/>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="31"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="31"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="31"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="31"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="31"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="18">
+        <v>4</v>
+      </c>
+      <c r="E21" s="18">
+        <v>256</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="18">
+        <v>101.49420600000001</v>
+      </c>
+      <c r="H21" s="22">
+        <v>212488.9</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" s="16">
+        <v>12340.35</v>
+      </c>
+      <c r="K21" s="7">
+        <v>16.791563</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="31"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="16">
         <v>2336120</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K22" s="7">
         <v>185.11459099999999</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="21"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="7"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="21"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="7"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="21"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="17" t="s">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="31"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="17">
+        <v>31037.17</v>
+      </c>
+      <c r="K23" s="7">
+        <v>149.405631</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="31"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="31"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="7"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="31"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="7"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="31"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G27" s="18">
         <v>115.934093</v>
       </c>
-      <c r="H19" s="30">
+      <c r="H27" s="22">
         <v>3701125</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J19" s="26">
-        <v>33721.24</v>
-      </c>
-      <c r="K19" s="7">
-        <v>20.339644</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="21"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J20" s="26">
-        <v>101856.5</v>
-      </c>
-      <c r="K20" s="7">
-        <v>222.647008</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="21"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" s="26">
-        <v>57493.65</v>
-      </c>
-      <c r="K21" s="7">
-        <v>158.42156499999999</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="21"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="7"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="21"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J23" s="1"/>
-      <c r="K23" s="7"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="21"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J24" s="1"/>
-      <c r="K24" s="7"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="21"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="7"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="21"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="9"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="21"/>
-      <c r="C27" s="14">
-        <v>4</v>
-      </c>
-      <c r="D27" s="14">
-        <v>1</v>
-      </c>
-      <c r="E27" s="14">
-        <v>16</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="G27" s="14">
-        <v>0.317722</v>
-      </c>
-      <c r="H27" s="30">
-        <v>474584.2</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J27" s="26">
-        <v>331863.7</v>
+      <c r="J27" s="16">
+        <v>33721.24</v>
       </c>
       <c r="K27" s="7">
-        <v>0.548176</v>
+        <v>20.339644</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="21"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="28"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
       <c r="I28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J28" s="26">
-        <v>13625090</v>
+      <c r="J28" s="16">
+        <v>101856.5</v>
       </c>
       <c r="K28" s="7">
-        <v>6.7326189999999997</v>
+        <v>222.647008</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="21"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="7"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="16">
+        <v>57493.65</v>
+      </c>
+      <c r="K29" s="7">
+        <v>158.42156499999999</v>
+      </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="21"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="17"/>
       <c r="K30" s="7"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="21"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="17" t="s">
+      <c r="B31" s="31"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="7"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="31"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="7"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="31"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J33" s="1"/>
+      <c r="K33" s="7"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="31"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G31" s="14">
-        <v>0.38735700000000001</v>
-      </c>
-      <c r="H31" s="30">
-        <v>16262100</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J31" s="26">
-        <v>650386.69999999995</v>
-      </c>
-      <c r="K31" s="7">
-        <v>0.74470800000000004</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="21"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J32" s="26">
-        <v>2193882</v>
-      </c>
-      <c r="K32" s="7">
-        <v>6.8030730000000004</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="21"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J33" s="26">
-        <v>942008.9</v>
-      </c>
-      <c r="K33" s="7">
-        <v>6.4122909999999997</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="21"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="7"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="21"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J35" s="1"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
       <c r="K35" s="7"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="21"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J36" s="1"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
       <c r="K36" s="7"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="21"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="7"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="21"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="7"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="9"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="21"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="14">
-        <v>2</v>
-      </c>
-      <c r="E39" s="14">
-        <v>256</v>
-      </c>
-      <c r="F39" s="14" t="s">
+      <c r="B39" s="31"/>
+      <c r="C39" s="18">
+        <v>4</v>
+      </c>
+      <c r="D39" s="18">
+        <v>1</v>
+      </c>
+      <c r="E39" s="18">
+        <v>16</v>
+      </c>
+      <c r="F39" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G39" s="14">
-        <v>84.790594999999996</v>
-      </c>
-      <c r="H39" s="30">
-        <v>2851762</v>
+      <c r="G39" s="18">
+        <v>0.317722</v>
+      </c>
+      <c r="H39" s="22">
+        <v>474584.2</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J39" s="26">
-        <v>47179.11</v>
+      <c r="J39" s="16">
+        <v>331863.7</v>
       </c>
       <c r="K39" s="7">
-        <v>8.8544219999999996</v>
+        <v>0.548176</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="21"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="28"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="23"/>
       <c r="I40" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J40" s="26">
+      <c r="J40" s="16">
+        <v>13625090</v>
+      </c>
+      <c r="K40" s="7">
+        <v>6.7326189999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="31"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41" s="17">
+        <v>1180069</v>
+      </c>
+      <c r="K41" s="7">
+        <v>5.528448</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="31"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="7"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="31"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="7"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="31"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="7"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45" s="31"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="18">
+        <v>0.38735700000000001</v>
+      </c>
+      <c r="H45" s="22">
+        <v>16262100</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J45" s="16">
+        <v>650386.69999999995</v>
+      </c>
+      <c r="K45" s="7">
+        <v>0.74470800000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="31"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J46" s="16">
+        <v>2193882</v>
+      </c>
+      <c r="K46" s="7">
+        <v>6.8030730000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="31"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J47" s="16">
+        <v>942008.9</v>
+      </c>
+      <c r="K47" s="7">
+        <v>6.4122909999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48" s="31"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="7"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49" s="31"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="7"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B50" s="31"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="7"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B51" s="31"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J51" s="1"/>
+      <c r="K51" s="7"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B52" s="31"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J52" s="1"/>
+      <c r="K52" s="7"/>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B53" s="31"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="7"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B54" s="31"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="7"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B55" s="31"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="7"/>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B56" s="31"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="7"/>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B57" s="31"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="18">
+        <v>2</v>
+      </c>
+      <c r="E57" s="18">
+        <v>256</v>
+      </c>
+      <c r="F57" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G57" s="18">
+        <v>84.790594999999996</v>
+      </c>
+      <c r="H57" s="22">
+        <v>2851762</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J57" s="16">
+        <v>47179.11</v>
+      </c>
+      <c r="K57" s="7">
+        <v>8.8544219999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B58" s="31"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J58" s="16">
         <v>2740762</v>
       </c>
-      <c r="K40" s="7">
+      <c r="K58" s="7">
         <v>99.518772999999996</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="21"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="7"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="21"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="7"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="21"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="17" t="s">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B59" s="31"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J59" s="17">
+        <v>107213.4</v>
+      </c>
+      <c r="K59" s="7">
+        <v>91.634449000000004</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B60" s="31"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="7"/>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B61" s="31"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="7"/>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B62" s="31"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="7"/>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B63" s="31"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="G43" s="14">
+      <c r="G63" s="18">
         <v>95.217349999999996</v>
       </c>
-      <c r="H43" s="30">
+      <c r="H63" s="22">
         <v>23730060</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I63" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J43" s="26">
+      <c r="J63" s="16">
         <v>111611.2</v>
       </c>
-      <c r="K43" s="7">
+      <c r="K63" s="7">
         <v>8.5029830000000004</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="21"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="1" t="s">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B64" s="31"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J44" s="26">
+      <c r="J64" s="16">
         <v>427874.5</v>
       </c>
-      <c r="K44" s="7">
+      <c r="K64" s="7">
         <v>99.513177999999996</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="21"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="1" t="s">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B65" s="31"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J45" s="26">
+      <c r="J65" s="16">
         <v>179575.6</v>
       </c>
-      <c r="K45" s="7">
+      <c r="K65" s="7">
         <v>91.038011999999995</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="21"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="7"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="21"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="18" t="s">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B66" s="31"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="17"/>
+      <c r="K66" s="7"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B67" s="31"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="7"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B68" s="31"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="7"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B69" s="31"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="1" t="s">
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J47" s="1"/>
-      <c r="K47" s="7"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="21"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="1" t="s">
+      <c r="J69" s="1"/>
+      <c r="K69" s="7"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B70" s="31"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J48" s="1"/>
-      <c r="K48" s="7"/>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B49" s="21"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="7"/>
-    </row>
-    <row r="50" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="22"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="11"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="7"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B71" s="31"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="7"/>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B72" s="31"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="7"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B73" s="31"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="19"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="7"/>
+    </row>
+    <row r="74" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="32"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="20"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="H47:H50"/>
-    <mergeCell ref="G47:G50"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="G39:G42"/>
-    <mergeCell ref="H39:H42"/>
-    <mergeCell ref="G43:G46"/>
-    <mergeCell ref="H43:H46"/>
-    <mergeCell ref="G31:G34"/>
-    <mergeCell ref="H31:H34"/>
-    <mergeCell ref="G35:G38"/>
-    <mergeCell ref="H35:H38"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="H27:H30"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="E3:E14"/>
-    <mergeCell ref="E15:E26"/>
-    <mergeCell ref="C3:C26"/>
-    <mergeCell ref="D3:D14"/>
-    <mergeCell ref="D15:D26"/>
-    <mergeCell ref="F39:F42"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="F47:F50"/>
-    <mergeCell ref="B3:B50"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="C27:C50"/>
-    <mergeCell ref="D27:D38"/>
-    <mergeCell ref="E27:E38"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="D39:D50"/>
-    <mergeCell ref="E39:E50"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="F57:F62"/>
+    <mergeCell ref="F63:F68"/>
+    <mergeCell ref="F69:F74"/>
+    <mergeCell ref="B3:B74"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="F33:F38"/>
+    <mergeCell ref="C39:C74"/>
+    <mergeCell ref="D39:D56"/>
+    <mergeCell ref="E39:E56"/>
+    <mergeCell ref="F39:F44"/>
+    <mergeCell ref="F45:F50"/>
+    <mergeCell ref="F51:F56"/>
+    <mergeCell ref="D57:D74"/>
+    <mergeCell ref="E57:E74"/>
+    <mergeCell ref="F3:F8"/>
+    <mergeCell ref="F9:F14"/>
+    <mergeCell ref="F15:F20"/>
+    <mergeCell ref="F21:F26"/>
+    <mergeCell ref="E3:E20"/>
+    <mergeCell ref="E21:E38"/>
+    <mergeCell ref="C3:C38"/>
+    <mergeCell ref="D3:D20"/>
+    <mergeCell ref="D21:D38"/>
+    <mergeCell ref="G3:G8"/>
+    <mergeCell ref="H3:H8"/>
+    <mergeCell ref="G21:G26"/>
+    <mergeCell ref="H21:H26"/>
+    <mergeCell ref="H39:H44"/>
+    <mergeCell ref="G39:G44"/>
+    <mergeCell ref="G9:G14"/>
+    <mergeCell ref="H9:H14"/>
+    <mergeCell ref="G15:G20"/>
+    <mergeCell ref="H15:H20"/>
+    <mergeCell ref="H69:H74"/>
+    <mergeCell ref="G69:G74"/>
+    <mergeCell ref="G27:G32"/>
+    <mergeCell ref="H27:H32"/>
+    <mergeCell ref="G33:G38"/>
+    <mergeCell ref="H33:H38"/>
+    <mergeCell ref="G57:G62"/>
+    <mergeCell ref="H57:H62"/>
+    <mergeCell ref="G63:G68"/>
+    <mergeCell ref="H63:H68"/>
+    <mergeCell ref="G45:G50"/>
+    <mergeCell ref="H45:H50"/>
+    <mergeCell ref="G51:G56"/>
+    <mergeCell ref="H51:H56"/>
   </mergeCells>
+  <conditionalFormatting sqref="K1:K1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uapt33090-my.sharepoint.com/personal/alexandrerrodrigues_ua_pt/Documents/Desktop/Universidade/ESTUDO/4o ano/MC/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="273" documentId="8_{F6C52FA1-06A6-4BA5-A029-C2E64A93D517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA103F9A-C8BC-4724-817B-F69EB44543F6}"/>
+  <xr:revisionPtr revIDLastSave="351" documentId="8_{F6C52FA1-06A6-4BA5-A029-C2E64A93D517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E740963F-AC32-4CBC-AD69-A9151AF4D300}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{C9739BE2-A4AE-4755-88B7-610C6B0CB3CA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="17">
   <si>
     <t>Epsilon</t>
   </si>
@@ -80,6 +80,12 @@
   <si>
     <t>Good4U</t>
   </si>
+  <si>
+    <t>WaitingOnAWar</t>
+  </si>
+  <si>
+    <t>ForeverAfterAll</t>
+  </si>
 </sst>
 </file>
 
@@ -383,7 +389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -436,39 +442,27 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -479,6 +473,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -795,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55691D49-D26C-48B8-8327-BF16DAADEBD8}">
-  <dimension ref="B1:K74"/>
+  <dimension ref="B1:K98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,7 +820,7 @@
     <col min="6" max="6" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="2"/>
@@ -848,25 +860,25 @@
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="30">
+      <c r="B3" s="26">
         <v>0.01</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="30">
         <v>2</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="30">
         <v>2</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="30">
         <v>16</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="30">
         <v>0.45</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="31">
         <v>176667.9</v>
       </c>
       <c r="I3" s="12" t="s">
@@ -880,13 +892,13 @@
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="31"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="23"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="32"/>
       <c r="I4" s="1" t="s">
         <v>10</v>
       </c>
@@ -898,13 +910,13 @@
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="31"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="23"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="32"/>
       <c r="I5" s="1" t="s">
         <v>14</v>
       </c>
@@ -916,1090 +928,1542 @@
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="31"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="7"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="17">
+        <v>5809108</v>
+      </c>
+      <c r="K6" s="7">
+        <v>18.390322999999999</v>
+      </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="31"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="17"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="19"/>
       <c r="K7" s="7"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="31"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
       <c r="G8" s="21"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="19"/>
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="31"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="28" t="s">
+      <c r="B9" s="27"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="27"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="27"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G11" s="20">
         <v>0.72914400000000001</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H11" s="34">
         <v>4359112</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J11" s="16">
         <v>705682.5</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K11" s="7">
         <v>1.3322970000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="31"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="1" t="s">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="27"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J12" s="16">
         <v>2225222</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K12" s="7">
         <v>14.465457000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="31"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="1" t="s">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="27"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J13" s="16">
         <v>660124.1</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K13" s="7">
         <v>10.886081000000001</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="31"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="7"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="31"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="7"/>
-    </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="31"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="28"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="23"/>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="7"/>
+      <c r="I14" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="19">
+        <v>1354439</v>
+      </c>
+      <c r="K14" s="7">
+        <v>13.437670000000001</v>
+      </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="31"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="27" t="s">
+      <c r="B15" s="27"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="19">
+        <v>1537735</v>
+      </c>
+      <c r="K15" s="7">
+        <v>14.239753</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="27"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="27"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="27"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="27"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="1" t="s">
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="7"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="31"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="7"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="31"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="7"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="31"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="7"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="31"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="7"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="31"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="24"/>
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
-      <c r="I20" s="1"/>
+      <c r="I20" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="J20" s="1"/>
       <c r="K20" s="7"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="31"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="18">
-        <v>4</v>
-      </c>
-      <c r="E21" s="18">
-        <v>256</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="18">
-        <v>101.49420600000001</v>
-      </c>
-      <c r="H21" s="22">
-        <v>212488.9</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J21" s="16">
-        <v>12340.35</v>
-      </c>
-      <c r="K21" s="7">
-        <v>16.791563</v>
-      </c>
+      <c r="B21" s="27"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="14"/>
+      <c r="K21" s="7"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="31"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J22" s="16">
-        <v>2336120</v>
-      </c>
-      <c r="K22" s="7">
-        <v>185.11459099999999</v>
-      </c>
+      <c r="B22" s="27"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="18"/>
+      <c r="K22" s="7"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="31"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" s="17">
-        <v>31037.17</v>
-      </c>
-      <c r="K23" s="7">
-        <v>149.405631</v>
-      </c>
+      <c r="B23" s="27"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="7"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="31"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="23"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
       <c r="I24" s="14"/>
-      <c r="J24" s="17"/>
+      <c r="J24" s="14"/>
       <c r="K24" s="7"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="31"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="17"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
       <c r="K25" s="7"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="31"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="24"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="7"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="31"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="28" t="s">
+      <c r="B27" s="27"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="20">
+        <v>4</v>
+      </c>
+      <c r="E27" s="20">
+        <v>256</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="20">
+        <v>101.49420600000001</v>
+      </c>
+      <c r="H27" s="34">
+        <v>212488.9</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" s="16">
+        <v>12340.35</v>
+      </c>
+      <c r="K27" s="7">
+        <v>16.791563</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="27"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G27" s="18">
-        <v>115.934093</v>
-      </c>
-      <c r="H27" s="22">
-        <v>3701125</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J27" s="16">
-        <v>33721.24</v>
-      </c>
-      <c r="K27" s="7">
-        <v>20.339644</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="31"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="J28" s="16">
-        <v>101856.5</v>
+        <v>2336120</v>
       </c>
       <c r="K28" s="7">
-        <v>222.647008</v>
+        <v>185.11459099999999</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="31"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="1" t="s">
+      <c r="B29" s="27"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J29" s="16">
-        <v>57493.65</v>
+      <c r="J29" s="17">
+        <v>31037.17</v>
       </c>
       <c r="K29" s="7">
-        <v>158.42156499999999</v>
+        <v>149.405631</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="31"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="7"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="19">
+        <v>819778</v>
+      </c>
+      <c r="K30" s="7">
+        <v>232.664593</v>
+      </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="31"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="17"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="19"/>
       <c r="K31" s="7"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="31"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="28"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
       <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="19"/>
       <c r="K32" s="7"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="31"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J33" s="1"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="17"/>
       <c r="K33" s="7"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="31"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="B34" s="27"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="7"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="31"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="7"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="20">
+        <v>115.934093</v>
+      </c>
+      <c r="H35" s="34">
+        <v>3701125</v>
+      </c>
+      <c r="I35" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J35" s="16">
+        <v>33721.24</v>
+      </c>
+      <c r="K35" s="7">
+        <v>20.339644</v>
+      </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="31"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="7"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J36" s="16">
+        <v>101856.5</v>
+      </c>
+      <c r="K36" s="7">
+        <v>222.647008</v>
+      </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="31"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="7"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37" s="16">
+        <v>57493.65</v>
+      </c>
+      <c r="K37" s="7">
+        <v>158.42156499999999</v>
+      </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="31"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="27"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="23"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="9"/>
+      <c r="I38" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" s="19">
+        <v>95785.41</v>
+      </c>
+      <c r="K38" s="7">
+        <v>227.46677600000001</v>
+      </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="31"/>
-      <c r="C39" s="18">
-        <v>4</v>
-      </c>
-      <c r="D39" s="18">
-        <v>1</v>
-      </c>
-      <c r="E39" s="18">
+      <c r="B39" s="27"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="G39" s="18">
-        <v>0.317722</v>
-      </c>
-      <c r="H39" s="22">
-        <v>474584.2</v>
-      </c>
-      <c r="I39" s="1" t="s">
+      <c r="J39" s="19">
+        <v>108402.3</v>
+      </c>
+      <c r="K39" s="7">
+        <v>184.123064</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="27"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="7"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="27"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="7"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="27"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="7"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="27"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="J39" s="16">
-        <v>331863.7</v>
-      </c>
-      <c r="K39" s="7">
-        <v>0.548176</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="31"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="1" t="s">
+      <c r="J43" s="1"/>
+      <c r="K43" s="7"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="27"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J40" s="16">
-        <v>13625090</v>
-      </c>
-      <c r="K40" s="7">
-        <v>6.7326189999999997</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="31"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J41" s="17">
-        <v>1180069</v>
-      </c>
-      <c r="K41" s="7">
-        <v>5.528448</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="31"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="7"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="31"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="7"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="31"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="7"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="31"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="28" t="s">
+      <c r="B45" s="27"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J45" s="14"/>
+      <c r="K45" s="7"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="27"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J46" s="18"/>
+      <c r="K46" s="7"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="27"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="7"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48" s="27"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="7"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49" s="27"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="7"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B50" s="27"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="9"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B51" s="27"/>
+      <c r="C51" s="20">
+        <v>4</v>
+      </c>
+      <c r="D51" s="20">
+        <v>1</v>
+      </c>
+      <c r="E51" s="20">
+        <v>16</v>
+      </c>
+      <c r="F51" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G51" s="20">
+        <v>0.317722</v>
+      </c>
+      <c r="H51" s="34">
+        <v>474584.2</v>
+      </c>
+      <c r="I51" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J51" s="16">
+        <v>331863.7</v>
+      </c>
+      <c r="K51" s="7">
+        <v>0.548176</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B52" s="27"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G45" s="18">
+      <c r="J52" s="16">
+        <v>13625090</v>
+      </c>
+      <c r="K52" s="7">
+        <v>6.7326189999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B53" s="27"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J53" s="17">
+        <v>1180069</v>
+      </c>
+      <c r="K53" s="7">
+        <v>5.528448</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B54" s="27"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J54" s="17">
+        <v>7563889</v>
+      </c>
+      <c r="K54" s="7">
+        <v>7.4477599999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B55" s="27"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="7"/>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B56" s="27"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="7"/>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B57" s="27"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="7"/>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B58" s="27"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="7"/>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B59" s="27"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="20">
         <v>0.38735700000000001</v>
       </c>
-      <c r="H45" s="22">
+      <c r="H59" s="34">
         <v>16262100</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="I59" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="J45" s="16">
+      <c r="J59" s="16">
         <v>650386.69999999995</v>
       </c>
-      <c r="K45" s="7">
+      <c r="K59" s="7">
         <v>0.74470800000000004</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="31"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="1" t="s">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B60" s="27"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J46" s="16">
+      <c r="J60" s="16">
         <v>2193882</v>
       </c>
-      <c r="K46" s="7">
+      <c r="K60" s="7">
         <v>6.8030730000000004</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="31"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="1" t="s">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B61" s="27"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J47" s="16">
+      <c r="J61" s="16">
         <v>942008.9</v>
       </c>
-      <c r="K47" s="7">
+      <c r="K61" s="7">
         <v>6.4122909999999997</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="31"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="7"/>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B49" s="31"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="7"/>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B50" s="31"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="7"/>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B51" s="31"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="27" t="s">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B62" s="27"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J62" s="17">
+        <v>2000102</v>
+      </c>
+      <c r="K62" s="7">
+        <v>8.2164800000000007</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B63" s="27"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J63" s="19">
+        <v>2282356</v>
+      </c>
+      <c r="K63" s="7">
+        <v>5.5617749999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B64" s="27"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="18"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="7"/>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B65" s="27"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="7"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B66" s="27"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="7"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B67" s="27"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="1" t="s">
+      <c r="G67" s="20"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="J51" s="1"/>
-      <c r="K51" s="7"/>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B52" s="31"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J52" s="1"/>
-      <c r="K52" s="7"/>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B53" s="31"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="7"/>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B54" s="31"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="7"/>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B55" s="31"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="7"/>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B56" s="31"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="7"/>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B57" s="31"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="18">
-        <v>2</v>
-      </c>
-      <c r="E57" s="18">
-        <v>256</v>
-      </c>
-      <c r="F57" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G57" s="18">
-        <v>84.790594999999996</v>
-      </c>
-      <c r="H57" s="22">
-        <v>2851762</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J57" s="16">
-        <v>47179.11</v>
-      </c>
-      <c r="K57" s="7">
-        <v>8.8544219999999996</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B58" s="31"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J58" s="16">
-        <v>2740762</v>
-      </c>
-      <c r="K58" s="7">
-        <v>99.518772999999996</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B59" s="31"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="23"/>
-      <c r="I59" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J59" s="17">
-        <v>107213.4</v>
-      </c>
-      <c r="K59" s="7">
-        <v>91.634449000000004</v>
-      </c>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B60" s="31"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="23"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="17"/>
-      <c r="K60" s="7"/>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B61" s="31"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="23"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="7"/>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B62" s="31"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="24"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="7"/>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B63" s="31"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="G63" s="18">
-        <v>95.217349999999996</v>
-      </c>
-      <c r="H63" s="22">
-        <v>23730060</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J63" s="16">
-        <v>111611.2</v>
-      </c>
-      <c r="K63" s="7">
-        <v>8.5029830000000004</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B64" s="31"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J64" s="16">
-        <v>427874.5</v>
-      </c>
-      <c r="K64" s="7">
-        <v>99.513177999999996</v>
-      </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B65" s="31"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="19"/>
-      <c r="H65" s="19"/>
-      <c r="I65" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J65" s="16">
-        <v>179575.6</v>
-      </c>
-      <c r="K65" s="7">
-        <v>91.038011999999995</v>
-      </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B66" s="31"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="17"/>
-      <c r="K66" s="7"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B67" s="31"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="19"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="17"/>
+      <c r="J67" s="1"/>
       <c r="K67" s="7"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B68" s="31"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="28"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="24"/>
       <c r="G68" s="21"/>
       <c r="H68" s="21"/>
-      <c r="I68" s="1"/>
+      <c r="I68" s="18" t="s">
+        <v>10</v>
+      </c>
       <c r="J68" s="1"/>
       <c r="K68" s="7"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B69" s="31"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" s="18"/>
-      <c r="H69" s="18"/>
-      <c r="I69" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J69" s="1"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J69" s="18"/>
       <c r="K69" s="7"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B70" s="31"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="27"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J70" s="1"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J70" s="18"/>
       <c r="K70" s="7"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B71" s="31"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="27"/>
-      <c r="G71" s="19"/>
-      <c r="H71" s="19"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
       <c r="I71" s="14"/>
       <c r="J71" s="14"/>
       <c r="K71" s="7"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B72" s="31"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="19"/>
-      <c r="H72" s="19"/>
+      <c r="B72" s="27"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
       <c r="I72" s="14"/>
       <c r="J72" s="14"/>
       <c r="K72" s="7"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B73" s="31"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="27"/>
-      <c r="G73" s="19"/>
-      <c r="H73" s="19"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="7"/>
     </row>
-    <row r="74" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="32"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="29"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="20"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="10"/>
-      <c r="K74" s="11"/>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B74" s="27"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="7"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B75" s="27"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="20">
+        <v>2</v>
+      </c>
+      <c r="E75" s="20">
+        <v>256</v>
+      </c>
+      <c r="F75" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G75" s="20">
+        <v>84.790594999999996</v>
+      </c>
+      <c r="H75" s="34">
+        <v>2851762</v>
+      </c>
+      <c r="I75" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J75" s="16">
+        <v>47179.11</v>
+      </c>
+      <c r="K75" s="7">
+        <v>8.8544219999999996</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B76" s="27"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="32"/>
+      <c r="I76" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J76" s="16">
+        <v>2740762</v>
+      </c>
+      <c r="K76" s="7">
+        <v>99.518772999999996</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B77" s="27"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="32"/>
+      <c r="I77" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J77" s="17">
+        <v>107213.4</v>
+      </c>
+      <c r="K77" s="7">
+        <v>91.634449000000004</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B78" s="27"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="32"/>
+      <c r="I78" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J78" s="19">
+        <v>1142220</v>
+      </c>
+      <c r="K78" s="7">
+        <v>118.25625100000001</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B79" s="27"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="32"/>
+      <c r="I79" s="18"/>
+      <c r="J79" s="19"/>
+      <c r="K79" s="7"/>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B80" s="27"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="32"/>
+      <c r="I80" s="18"/>
+      <c r="J80" s="19"/>
+      <c r="K80" s="7"/>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B81" s="27"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="32"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="7"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B82" s="27"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="33"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="7"/>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B83" s="27"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="20">
+        <v>95.217349999999996</v>
+      </c>
+      <c r="H83" s="34">
+        <v>23730060</v>
+      </c>
+      <c r="I83" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J83" s="16">
+        <v>111611.2</v>
+      </c>
+      <c r="K83" s="7">
+        <v>8.5029830000000004</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B84" s="27"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="21"/>
+      <c r="I84" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J84" s="16">
+        <v>427874.5</v>
+      </c>
+      <c r="K84" s="7">
+        <v>99.513177999999996</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B85" s="27"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="21"/>
+      <c r="I85" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J85" s="16">
+        <v>179575.6</v>
+      </c>
+      <c r="K85" s="7">
+        <v>91.038011999999995</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B86" s="27"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="21"/>
+      <c r="H86" s="21"/>
+      <c r="I86" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J86" s="17">
+        <v>384482.7</v>
+      </c>
+      <c r="K86" s="7">
+        <v>132.50349</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B87" s="27"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J87" s="19">
+        <v>446750.7</v>
+      </c>
+      <c r="K87" s="7">
+        <v>103.774411</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B88" s="27"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="21"/>
+      <c r="I88" s="18"/>
+      <c r="J88" s="19"/>
+      <c r="K88" s="7"/>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B89" s="27"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="21"/>
+      <c r="I89" s="14"/>
+      <c r="J89" s="17"/>
+      <c r="K89" s="7"/>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B90" s="27"/>
+      <c r="C90" s="21"/>
+      <c r="D90" s="21"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="22"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="7"/>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B91" s="27"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="21"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G91" s="20"/>
+      <c r="H91" s="20"/>
+      <c r="I91" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J91" s="1"/>
+      <c r="K91" s="7"/>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B92" s="27"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="21"/>
+      <c r="I92" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J92" s="1"/>
+      <c r="K92" s="7"/>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B93" s="27"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="21"/>
+      <c r="I93" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J93" s="14"/>
+      <c r="K93" s="7"/>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B94" s="27"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="21"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="21"/>
+      <c r="I94" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J94" s="14"/>
+      <c r="K94" s="7"/>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B95" s="27"/>
+      <c r="C95" s="21"/>
+      <c r="D95" s="21"/>
+      <c r="E95" s="21"/>
+      <c r="F95" s="24"/>
+      <c r="G95" s="21"/>
+      <c r="H95" s="21"/>
+      <c r="I95" s="18"/>
+      <c r="J95" s="18"/>
+      <c r="K95" s="7"/>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B96" s="27"/>
+      <c r="C96" s="21"/>
+      <c r="D96" s="21"/>
+      <c r="E96" s="21"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="21"/>
+      <c r="H96" s="21"/>
+      <c r="I96" s="18"/>
+      <c r="J96" s="18"/>
+      <c r="K96" s="7"/>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B97" s="27"/>
+      <c r="C97" s="21"/>
+      <c r="D97" s="21"/>
+      <c r="E97" s="21"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="21"/>
+      <c r="H97" s="21"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="7"/>
+    </row>
+    <row r="98" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="28"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="29"/>
+      <c r="E98" s="29"/>
+      <c r="F98" s="25"/>
+      <c r="G98" s="29"/>
+      <c r="H98" s="29"/>
+      <c r="I98" s="10"/>
+      <c r="J98" s="10"/>
+      <c r="K98" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="F57:F62"/>
-    <mergeCell ref="F63:F68"/>
-    <mergeCell ref="F69:F74"/>
-    <mergeCell ref="B3:B74"/>
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="F33:F38"/>
-    <mergeCell ref="C39:C74"/>
-    <mergeCell ref="D39:D56"/>
-    <mergeCell ref="E39:E56"/>
-    <mergeCell ref="F39:F44"/>
-    <mergeCell ref="F45:F50"/>
-    <mergeCell ref="F51:F56"/>
-    <mergeCell ref="D57:D74"/>
-    <mergeCell ref="E57:E74"/>
-    <mergeCell ref="F3:F8"/>
-    <mergeCell ref="F9:F14"/>
-    <mergeCell ref="F15:F20"/>
-    <mergeCell ref="F21:F26"/>
-    <mergeCell ref="E3:E20"/>
-    <mergeCell ref="E21:E38"/>
-    <mergeCell ref="C3:C38"/>
-    <mergeCell ref="D3:D20"/>
-    <mergeCell ref="D21:D38"/>
-    <mergeCell ref="G3:G8"/>
-    <mergeCell ref="H3:H8"/>
-    <mergeCell ref="G21:G26"/>
-    <mergeCell ref="H21:H26"/>
-    <mergeCell ref="H39:H44"/>
-    <mergeCell ref="G39:G44"/>
-    <mergeCell ref="G9:G14"/>
-    <mergeCell ref="H9:H14"/>
-    <mergeCell ref="G15:G20"/>
-    <mergeCell ref="H15:H20"/>
-    <mergeCell ref="H69:H74"/>
-    <mergeCell ref="G69:G74"/>
-    <mergeCell ref="G27:G32"/>
-    <mergeCell ref="H27:H32"/>
-    <mergeCell ref="G33:G38"/>
-    <mergeCell ref="H33:H38"/>
-    <mergeCell ref="G57:G62"/>
-    <mergeCell ref="H57:H62"/>
-    <mergeCell ref="G63:G68"/>
-    <mergeCell ref="H63:H68"/>
-    <mergeCell ref="G45:G50"/>
-    <mergeCell ref="H45:H50"/>
-    <mergeCell ref="G51:G56"/>
-    <mergeCell ref="H51:H56"/>
+    <mergeCell ref="H91:H98"/>
+    <mergeCell ref="G91:G98"/>
+    <mergeCell ref="G35:G42"/>
+    <mergeCell ref="H35:H42"/>
+    <mergeCell ref="G43:G50"/>
+    <mergeCell ref="H43:H50"/>
+    <mergeCell ref="G75:G82"/>
+    <mergeCell ref="H75:H82"/>
+    <mergeCell ref="G83:G90"/>
+    <mergeCell ref="H83:H90"/>
+    <mergeCell ref="G59:G66"/>
+    <mergeCell ref="H59:H66"/>
+    <mergeCell ref="G67:G74"/>
+    <mergeCell ref="H67:H74"/>
+    <mergeCell ref="G3:G10"/>
+    <mergeCell ref="H3:H10"/>
+    <mergeCell ref="G27:G34"/>
+    <mergeCell ref="H27:H34"/>
+    <mergeCell ref="H51:H58"/>
+    <mergeCell ref="G51:G58"/>
+    <mergeCell ref="G11:G18"/>
+    <mergeCell ref="H11:H18"/>
+    <mergeCell ref="G19:G26"/>
+    <mergeCell ref="H19:H26"/>
+    <mergeCell ref="F19:F26"/>
+    <mergeCell ref="F27:F34"/>
+    <mergeCell ref="E3:E26"/>
+    <mergeCell ref="E27:E50"/>
+    <mergeCell ref="C3:C50"/>
+    <mergeCell ref="D3:D26"/>
+    <mergeCell ref="D27:D50"/>
+    <mergeCell ref="F75:F82"/>
+    <mergeCell ref="F83:F90"/>
+    <mergeCell ref="F91:F98"/>
+    <mergeCell ref="B3:B98"/>
+    <mergeCell ref="F35:F42"/>
+    <mergeCell ref="F43:F50"/>
+    <mergeCell ref="C51:C98"/>
+    <mergeCell ref="D51:D74"/>
+    <mergeCell ref="E51:E74"/>
+    <mergeCell ref="F51:F58"/>
+    <mergeCell ref="F59:F66"/>
+    <mergeCell ref="F67:F74"/>
+    <mergeCell ref="D75:D98"/>
+    <mergeCell ref="E75:E98"/>
+    <mergeCell ref="F3:F10"/>
+    <mergeCell ref="F11:F18"/>
   </mergeCells>
-  <conditionalFormatting sqref="K1:K1048576">
+  <conditionalFormatting sqref="K1:K13 K15:K29 K31:K77 K79:K1048576">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J13 J15:J29 J31:J77 J79:J1048576">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K78">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2011,7 +2475,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1048576">
+  <conditionalFormatting sqref="J78">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uapt33090-my.sharepoint.com/personal/alexandrerrodrigues_ua_pt/Documents/Desktop/Universidade/ESTUDO/4o ano/MC/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="518" documentId="8_{F6C52FA1-06A6-4BA5-A029-C2E64A93D517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D9627CD-709D-483A-BE91-7EF320A37F40}"/>
+  <xr:revisionPtr revIDLastSave="596" documentId="8_{F6C52FA1-06A6-4BA5-A029-C2E64A93D517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53BF57DD-FBC0-4671-BD0C-CFDB0FBF88C7}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{C9739BE2-A4AE-4755-88B7-610C6B0CB3CA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" activeTab="1" xr2:uid="{C9739BE2-A4AE-4755-88B7-610C6B0CB3CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="FIxedT" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="20">
   <si>
     <t>Epsilon</t>
   </si>
@@ -398,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -451,20 +452,53 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -476,27 +510,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -815,7 +828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55691D49-D26C-48B8-8327-BF16DAADEBD8}">
   <dimension ref="B1:O122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
@@ -869,25 +882,25 @@
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="24">
+      <c r="B3" s="35">
         <v>0.01</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="30">
         <v>2</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="30">
         <v>2</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="30">
         <v>16</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="30">
         <v>0.45</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="31">
         <v>176667.9</v>
       </c>
       <c r="I3" s="10" t="s">
@@ -901,13 +914,13 @@
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="25"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="30"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="28"/>
       <c r="I4" s="14" t="s">
         <v>10</v>
       </c>
@@ -919,13 +932,13 @@
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="25"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="30"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="28"/>
       <c r="I5" s="14" t="s">
         <v>14</v>
       </c>
@@ -937,13 +950,13 @@
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="25"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="30"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="28"/>
       <c r="I6" s="14" t="s">
         <v>15</v>
       </c>
@@ -955,13 +968,13 @@
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="25"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="30"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="28"/>
       <c r="I7" s="14" t="s">
         <v>16</v>
       </c>
@@ -979,19 +992,19 @@
         <f>AVERAGE(J4:J12)</f>
         <v>12677580.385714287</v>
       </c>
-      <c r="O7" s="33">
+      <c r="O7" s="22">
         <f>N7/N17</f>
         <v>5.6142868826005641</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="25"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="30"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="28"/>
       <c r="I8" s="14" t="s">
         <v>17</v>
       </c>
@@ -1003,13 +1016,13 @@
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="25"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="30"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="28"/>
       <c r="I9" s="14" t="s">
         <v>18</v>
       </c>
@@ -1021,13 +1034,13 @@
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="25"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="30"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="28"/>
       <c r="I10" s="14" t="s">
         <v>19</v>
       </c>
@@ -1039,41 +1052,41 @@
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="25"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="30"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="28"/>
       <c r="I11" s="14"/>
       <c r="J11" s="15"/>
       <c r="K11" s="6"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="25"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="31"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="29"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
       <c r="K12" s="6"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="25"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="21" t="s">
+      <c r="B13" s="36"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="26">
         <v>0.72914400000000001</v>
       </c>
-      <c r="H13" s="32">
+      <c r="H13" s="23">
         <v>4359112</v>
       </c>
       <c r="I13" s="14" t="s">
@@ -1087,13 +1100,13 @@
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="25"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
       <c r="I14" s="14" t="s">
         <v>10</v>
       </c>
@@ -1105,13 +1118,13 @@
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="25"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
       <c r="I15" s="14" t="s">
         <v>14</v>
       </c>
@@ -1123,13 +1136,13 @@
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="25"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
       <c r="I16" s="14" t="s">
         <v>15</v>
       </c>
@@ -1141,13 +1154,13 @@
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="25"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
       <c r="I17" s="14" t="s">
         <v>16</v>
       </c>
@@ -1175,13 +1188,13 @@
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="25"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
       <c r="I18" s="14" t="s">
         <v>17</v>
       </c>
@@ -1193,13 +1206,13 @@
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="25"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
       <c r="I19" s="14" t="s">
         <v>18</v>
       </c>
@@ -1211,13 +1224,13 @@
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="25"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
       <c r="I20" s="14" t="s">
         <v>19</v>
       </c>
@@ -1229,41 +1242,41 @@
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="25"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
       <c r="I21" s="14"/>
       <c r="J21" s="15"/>
       <c r="K21" s="6"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="25"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
       <c r="K22" s="6"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="25"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="22" t="s">
+      <c r="B23" s="36"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="26">
         <v>0.340559</v>
       </c>
-      <c r="H23" s="32">
+      <c r="H23" s="23">
         <v>4038082</v>
       </c>
       <c r="I23" s="14" t="s">
@@ -1277,13 +1290,13 @@
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="25"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
       <c r="I24" s="14" t="s">
         <v>10</v>
       </c>
@@ -1295,13 +1308,13 @@
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="25"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
       <c r="I25" s="14" t="s">
         <v>14</v>
       </c>
@@ -1313,13 +1326,13 @@
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="25"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
       <c r="I26" s="14" t="s">
         <v>15</v>
       </c>
@@ -1327,13 +1340,13 @@
       <c r="K26" s="6"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="25"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
       <c r="I27" s="14" t="s">
         <v>16</v>
       </c>
@@ -1349,13 +1362,13 @@
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="25"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
       <c r="I28" s="14" t="s">
         <v>17</v>
       </c>
@@ -1363,13 +1376,13 @@
       <c r="K28" s="6"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="25"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
       <c r="I29" s="14" t="s">
         <v>18</v>
       </c>
@@ -1377,13 +1390,13 @@
       <c r="K29" s="6"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="25"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
       <c r="I30" s="14" t="s">
         <v>19</v>
       </c>
@@ -1391,45 +1404,45 @@
       <c r="K30" s="6"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="25"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
       <c r="K31" s="6"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="25"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
       <c r="I32" s="14"/>
       <c r="J32" s="14"/>
       <c r="K32" s="6"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="25"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="18">
+      <c r="B33" s="36"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="26">
         <v>4</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="26">
         <v>256</v>
       </c>
-      <c r="F33" s="18" t="s">
+      <c r="F33" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="26">
         <v>101.49420600000001</v>
       </c>
-      <c r="H33" s="32">
+      <c r="H33" s="23">
         <v>212488.9</v>
       </c>
       <c r="I33" s="14" t="s">
@@ -1443,13 +1456,13 @@
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="25"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="30"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="28"/>
       <c r="I34" s="14" t="s">
         <v>10</v>
       </c>
@@ -1461,13 +1474,13 @@
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="25"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="30"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="28"/>
       <c r="I35" s="14" t="s">
         <v>14</v>
       </c>
@@ -1479,13 +1492,13 @@
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="25"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="30"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="28"/>
       <c r="I36" s="14" t="s">
         <v>15</v>
       </c>
@@ -1497,13 +1510,13 @@
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="25"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="30"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="28"/>
       <c r="I37" s="14" t="s">
         <v>16</v>
       </c>
@@ -1521,19 +1534,19 @@
         <f>AVERAGE(J34:J42)</f>
         <v>2169460.6385714286</v>
       </c>
-      <c r="O37" s="33">
+      <c r="O37" s="22">
         <f>N37/N47</f>
         <v>20.256352138604864</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="25"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="30"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="28"/>
       <c r="I38" s="14" t="s">
         <v>17</v>
       </c>
@@ -1545,13 +1558,13 @@
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="25"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="30"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="28"/>
       <c r="I39" s="14" t="s">
         <v>18</v>
       </c>
@@ -1563,13 +1576,13 @@
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="25"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="30"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="28"/>
       <c r="I40" s="14" t="s">
         <v>19</v>
       </c>
@@ -1581,41 +1594,41 @@
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="25"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="30"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="28"/>
       <c r="I41" s="14"/>
       <c r="J41" s="15"/>
       <c r="K41" s="6"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="25"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="31"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="29"/>
       <c r="I42" s="14"/>
       <c r="J42" s="14"/>
       <c r="K42" s="6"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B43" s="25"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="21" t="s">
+      <c r="B43" s="36"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="G43" s="18">
+      <c r="G43" s="26">
         <v>115.934093</v>
       </c>
-      <c r="H43" s="32">
+      <c r="H43" s="23">
         <v>3701125</v>
       </c>
       <c r="I43" s="14" t="s">
@@ -1629,13 +1642,13 @@
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="25"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
       <c r="I44" s="14" t="s">
         <v>10</v>
       </c>
@@ -1647,13 +1660,13 @@
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B45" s="25"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
       <c r="I45" s="14" t="s">
         <v>14</v>
       </c>
@@ -1665,13 +1678,13 @@
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B46" s="25"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
       <c r="I46" s="14" t="s">
         <v>15</v>
       </c>
@@ -1683,13 +1696,13 @@
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B47" s="25"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
       <c r="I47" s="14" t="s">
         <v>16</v>
       </c>
@@ -1717,13 +1730,13 @@
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B48" s="25"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
       <c r="I48" s="14" t="s">
         <v>17</v>
       </c>
@@ -1735,13 +1748,13 @@
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B49" s="25"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
       <c r="I49" s="14" t="s">
         <v>18</v>
       </c>
@@ -1753,13 +1766,13 @@
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B50" s="25"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
       <c r="I50" s="14" t="s">
         <v>19</v>
       </c>
@@ -1771,41 +1784,41 @@
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B51" s="25"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
       <c r="I51" s="14"/>
       <c r="J51" s="15"/>
       <c r="K51" s="6"/>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B52" s="25"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
       <c r="I52" s="14"/>
       <c r="J52" s="14"/>
       <c r="K52" s="6"/>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B53" s="25"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="22" t="s">
+      <c r="B53" s="36"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G53" s="18">
+      <c r="G53" s="26">
         <v>97.172319000000002</v>
       </c>
-      <c r="H53" s="32">
+      <c r="H53" s="23">
         <v>4766750</v>
       </c>
       <c r="I53" s="14" t="s">
@@ -1819,13 +1832,13 @@
       </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B54" s="25"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
       <c r="I54" s="14" t="s">
         <v>10</v>
       </c>
@@ -1837,13 +1850,13 @@
       </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B55" s="25"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
       <c r="I55" s="14" t="s">
         <v>14</v>
       </c>
@@ -1851,13 +1864,13 @@
       <c r="K55" s="6"/>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B56" s="25"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
       <c r="I56" s="14" t="s">
         <v>15</v>
       </c>
@@ -1865,13 +1878,13 @@
       <c r="K56" s="6"/>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B57" s="25"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
       <c r="I57" s="14" t="s">
         <v>16</v>
       </c>
@@ -1887,13 +1900,13 @@
       </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B58" s="25"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
       <c r="I58" s="14" t="s">
         <v>17</v>
       </c>
@@ -1901,13 +1914,13 @@
       <c r="K58" s="6"/>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B59" s="25"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
       <c r="I59" s="14" t="s">
         <v>18</v>
       </c>
@@ -1915,13 +1928,13 @@
       <c r="K59" s="6"/>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B60" s="25"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
       <c r="I60" s="14" t="s">
         <v>19</v>
       </c>
@@ -1929,47 +1942,47 @@
       <c r="K60" s="6"/>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B61" s="25"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24"/>
       <c r="I61" s="14"/>
       <c r="J61" s="14"/>
       <c r="K61" s="6"/>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B62" s="25"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="20"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27"/>
       <c r="I62" s="16"/>
       <c r="J62" s="16"/>
       <c r="K62" s="7"/>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B63" s="25"/>
-      <c r="C63" s="18">
+      <c r="B63" s="36"/>
+      <c r="C63" s="26">
         <v>4</v>
       </c>
-      <c r="D63" s="18">
+      <c r="D63" s="26">
         <v>1</v>
       </c>
-      <c r="E63" s="18">
+      <c r="E63" s="26">
         <v>16</v>
       </c>
-      <c r="F63" s="19" t="s">
+      <c r="F63" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G63" s="18">
+      <c r="G63" s="26">
         <v>0.317722</v>
       </c>
-      <c r="H63" s="32">
+      <c r="H63" s="23">
         <v>474584.2</v>
       </c>
       <c r="I63" s="14" t="s">
@@ -1983,13 +1996,13 @@
       </c>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B64" s="25"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="30"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="28"/>
       <c r="I64" s="14" t="s">
         <v>10</v>
       </c>
@@ -2001,13 +2014,13 @@
       </c>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B65" s="25"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="19"/>
-      <c r="H65" s="30"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="28"/>
       <c r="I65" s="14" t="s">
         <v>14</v>
       </c>
@@ -2019,13 +2032,13 @@
       </c>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B66" s="25"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="30"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="28"/>
       <c r="I66" s="14" t="s">
         <v>15</v>
       </c>
@@ -2037,13 +2050,13 @@
       </c>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B67" s="25"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="30"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="28"/>
       <c r="I67" s="14" t="s">
         <v>16</v>
       </c>
@@ -2061,19 +2074,19 @@
         <f>AVERAGE(J64:J72)</f>
         <v>15185858.285714285</v>
       </c>
-      <c r="O67" s="33">
+      <c r="O67" s="22">
         <f>N67/N77</f>
         <v>7.3677379683502018</v>
       </c>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B68" s="25"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="30"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="28"/>
       <c r="I68" s="14" t="s">
         <v>17</v>
       </c>
@@ -2085,13 +2098,13 @@
       </c>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B69" s="25"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="19"/>
-      <c r="H69" s="30"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="28"/>
       <c r="I69" s="14" t="s">
         <v>18</v>
       </c>
@@ -2103,13 +2116,13 @@
       </c>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B70" s="25"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="30"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="28"/>
       <c r="I70" s="14" t="s">
         <v>19</v>
       </c>
@@ -2121,41 +2134,41 @@
       </c>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B71" s="25"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
-      <c r="H71" s="30"/>
+      <c r="B71" s="36"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="28"/>
       <c r="I71" s="14"/>
       <c r="J71" s="15"/>
       <c r="K71" s="6"/>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B72" s="25"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="31"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="29"/>
       <c r="I72" s="14"/>
       <c r="J72" s="14"/>
       <c r="K72" s="6"/>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B73" s="25"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="21" t="s">
+      <c r="B73" s="36"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="G73" s="18">
+      <c r="G73" s="26">
         <v>0.38735700000000001</v>
       </c>
-      <c r="H73" s="32">
+      <c r="H73" s="23">
         <v>16262100</v>
       </c>
       <c r="I73" s="14" t="s">
@@ -2169,13 +2182,13 @@
       </c>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B74" s="25"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="19"/>
-      <c r="H74" s="19"/>
+      <c r="B74" s="36"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="24"/>
       <c r="I74" s="14" t="s">
         <v>10</v>
       </c>
@@ -2187,13 +2200,13 @@
       </c>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B75" s="25"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="19"/>
-      <c r="H75" s="19"/>
+      <c r="B75" s="36"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="33"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="24"/>
       <c r="I75" s="14" t="s">
         <v>14</v>
       </c>
@@ -2205,13 +2218,13 @@
       </c>
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B76" s="25"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="19"/>
-      <c r="H76" s="19"/>
+      <c r="B76" s="36"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="33"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="24"/>
       <c r="I76" s="14" t="s">
         <v>15</v>
       </c>
@@ -2223,13 +2236,13 @@
       </c>
     </row>
     <row r="77" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B77" s="25"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="19"/>
-      <c r="E77" s="19"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="19"/>
-      <c r="H77" s="19"/>
+      <c r="B77" s="36"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="33"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="24"/>
       <c r="I77" s="14" t="s">
         <v>16</v>
       </c>
@@ -2257,13 +2270,13 @@
       </c>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B78" s="25"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="19"/>
-      <c r="E78" s="19"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="19"/>
-      <c r="H78" s="19"/>
+      <c r="B78" s="36"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="33"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="24"/>
       <c r="I78" s="14" t="s">
         <v>17</v>
       </c>
@@ -2275,13 +2288,13 @@
       </c>
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B79" s="25"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="19"/>
-      <c r="E79" s="19"/>
-      <c r="F79" s="21"/>
-      <c r="G79" s="19"/>
-      <c r="H79" s="19"/>
+      <c r="B79" s="36"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="33"/>
+      <c r="G79" s="24"/>
+      <c r="H79" s="24"/>
       <c r="I79" s="14" t="s">
         <v>18</v>
       </c>
@@ -2293,13 +2306,13 @@
       </c>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B80" s="25"/>
-      <c r="C80" s="19"/>
-      <c r="D80" s="19"/>
-      <c r="E80" s="19"/>
-      <c r="F80" s="21"/>
-      <c r="G80" s="19"/>
-      <c r="H80" s="19"/>
+      <c r="B80" s="36"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="33"/>
+      <c r="G80" s="24"/>
+      <c r="H80" s="24"/>
       <c r="I80" s="14" t="s">
         <v>19</v>
       </c>
@@ -2311,41 +2324,41 @@
       </c>
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B81" s="25"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="21"/>
-      <c r="G81" s="19"/>
-      <c r="H81" s="19"/>
+      <c r="B81" s="36"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="33"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="24"/>
       <c r="I81" s="14"/>
       <c r="J81" s="15"/>
       <c r="K81" s="6"/>
     </row>
     <row r="82" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B82" s="25"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="19"/>
-      <c r="E82" s="19"/>
-      <c r="F82" s="21"/>
-      <c r="G82" s="20"/>
-      <c r="H82" s="20"/>
+      <c r="B82" s="36"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="33"/>
+      <c r="G82" s="27"/>
+      <c r="H82" s="27"/>
       <c r="I82" s="14"/>
       <c r="J82" s="14"/>
       <c r="K82" s="6"/>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B83" s="25"/>
-      <c r="C83" s="19"/>
-      <c r="D83" s="19"/>
-      <c r="E83" s="19"/>
-      <c r="F83" s="22" t="s">
+      <c r="B83" s="36"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G83" s="18">
+      <c r="G83" s="26">
         <v>0.73894599999999999</v>
       </c>
-      <c r="H83" s="32">
+      <c r="H83" s="23">
         <v>45744900</v>
       </c>
       <c r="I83" s="14" t="s">
@@ -2359,13 +2372,13 @@
       </c>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B84" s="25"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="19"/>
-      <c r="E84" s="19"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="19"/>
-      <c r="H84" s="19"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="24"/>
+      <c r="H84" s="24"/>
       <c r="I84" s="14" t="s">
         <v>10</v>
       </c>
@@ -2377,13 +2390,13 @@
       </c>
     </row>
     <row r="85" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B85" s="25"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="19"/>
-      <c r="E85" s="19"/>
-      <c r="F85" s="22"/>
-      <c r="G85" s="19"/>
-      <c r="H85" s="19"/>
+      <c r="B85" s="36"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="32"/>
+      <c r="G85" s="24"/>
+      <c r="H85" s="24"/>
       <c r="I85" s="14" t="s">
         <v>14</v>
       </c>
@@ -2391,13 +2404,13 @@
       <c r="K85" s="6"/>
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B86" s="25"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="19"/>
-      <c r="E86" s="19"/>
-      <c r="F86" s="22"/>
-      <c r="G86" s="19"/>
-      <c r="H86" s="19"/>
+      <c r="B86" s="36"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="32"/>
+      <c r="G86" s="24"/>
+      <c r="H86" s="24"/>
       <c r="I86" s="14" t="s">
         <v>15</v>
       </c>
@@ -2405,13 +2418,13 @@
       <c r="K86" s="6"/>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B87" s="25"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="19"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="22"/>
-      <c r="G87" s="19"/>
-      <c r="H87" s="19"/>
+      <c r="B87" s="36"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="32"/>
+      <c r="G87" s="24"/>
+      <c r="H87" s="24"/>
       <c r="I87" s="14" t="s">
         <v>16</v>
       </c>
@@ -2427,13 +2440,13 @@
       </c>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B88" s="25"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="19"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="22"/>
-      <c r="G88" s="19"/>
-      <c r="H88" s="19"/>
+      <c r="B88" s="36"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="32"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="24"/>
       <c r="I88" s="14" t="s">
         <v>17</v>
       </c>
@@ -2441,13 +2454,13 @@
       <c r="K88" s="6"/>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B89" s="25"/>
-      <c r="C89" s="19"/>
-      <c r="D89" s="19"/>
-      <c r="E89" s="19"/>
-      <c r="F89" s="22"/>
-      <c r="G89" s="19"/>
-      <c r="H89" s="19"/>
+      <c r="B89" s="36"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="32"/>
+      <c r="G89" s="24"/>
+      <c r="H89" s="24"/>
       <c r="I89" s="14" t="s">
         <v>18</v>
       </c>
@@ -2455,13 +2468,13 @@
       <c r="K89" s="6"/>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B90" s="25"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="19"/>
-      <c r="E90" s="19"/>
-      <c r="F90" s="22"/>
-      <c r="G90" s="19"/>
-      <c r="H90" s="19"/>
+      <c r="B90" s="36"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="24"/>
+      <c r="F90" s="32"/>
+      <c r="G90" s="24"/>
+      <c r="H90" s="24"/>
       <c r="I90" s="14" t="s">
         <v>19</v>
       </c>
@@ -2469,45 +2482,45 @@
       <c r="K90" s="6"/>
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B91" s="25"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="19"/>
-      <c r="E91" s="19"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="19"/>
-      <c r="H91" s="19"/>
+      <c r="B91" s="36"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="32"/>
+      <c r="G91" s="24"/>
+      <c r="H91" s="24"/>
       <c r="I91" s="14"/>
       <c r="J91" s="14"/>
       <c r="K91" s="6"/>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B92" s="25"/>
-      <c r="C92" s="19"/>
-      <c r="D92" s="19"/>
-      <c r="E92" s="19"/>
-      <c r="F92" s="22"/>
-      <c r="G92" s="20"/>
-      <c r="H92" s="20"/>
+      <c r="B92" s="36"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="32"/>
+      <c r="G92" s="27"/>
+      <c r="H92" s="27"/>
       <c r="I92" s="14"/>
       <c r="J92" s="14"/>
       <c r="K92" s="6"/>
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B93" s="25"/>
-      <c r="C93" s="19"/>
-      <c r="D93" s="18">
+      <c r="B93" s="36"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="26">
         <v>2</v>
       </c>
-      <c r="E93" s="18">
+      <c r="E93" s="26">
         <v>256</v>
       </c>
-      <c r="F93" s="18" t="s">
+      <c r="F93" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G93" s="18">
+      <c r="G93" s="26">
         <v>84.790594999999996</v>
       </c>
-      <c r="H93" s="32">
+      <c r="H93" s="23">
         <v>2851762</v>
       </c>
       <c r="I93" s="14" t="s">
@@ -2521,13 +2534,13 @@
       </c>
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B94" s="25"/>
-      <c r="C94" s="19"/>
-      <c r="D94" s="19"/>
-      <c r="E94" s="19"/>
-      <c r="F94" s="19"/>
-      <c r="G94" s="19"/>
-      <c r="H94" s="30"/>
+      <c r="B94" s="36"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="24"/>
+      <c r="H94" s="28"/>
       <c r="I94" s="14" t="s">
         <v>10</v>
       </c>
@@ -2539,13 +2552,13 @@
       </c>
     </row>
     <row r="95" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B95" s="25"/>
-      <c r="C95" s="19"/>
-      <c r="D95" s="19"/>
-      <c r="E95" s="19"/>
-      <c r="F95" s="19"/>
-      <c r="G95" s="19"/>
-      <c r="H95" s="30"/>
+      <c r="B95" s="36"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="24"/>
+      <c r="F95" s="24"/>
+      <c r="G95" s="24"/>
+      <c r="H95" s="28"/>
       <c r="I95" s="14" t="s">
         <v>14</v>
       </c>
@@ -2557,13 +2570,13 @@
       </c>
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B96" s="25"/>
-      <c r="C96" s="19"/>
-      <c r="D96" s="19"/>
-      <c r="E96" s="19"/>
-      <c r="F96" s="19"/>
-      <c r="G96" s="19"/>
-      <c r="H96" s="30"/>
+      <c r="B96" s="36"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="24"/>
+      <c r="H96" s="28"/>
       <c r="I96" s="14" t="s">
         <v>15</v>
       </c>
@@ -2575,13 +2588,13 @@
       </c>
     </row>
     <row r="97" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B97" s="25"/>
-      <c r="C97" s="19"/>
-      <c r="D97" s="19"/>
-      <c r="E97" s="19"/>
-      <c r="F97" s="19"/>
-      <c r="G97" s="19"/>
-      <c r="H97" s="30"/>
+      <c r="B97" s="36"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="24"/>
+      <c r="H97" s="28"/>
       <c r="I97" s="14" t="s">
         <v>16</v>
       </c>
@@ -2599,19 +2612,19 @@
         <f>AVERAGE(J94:J102)</f>
         <v>2569750.057142857</v>
       </c>
-      <c r="O97" s="33">
+      <c r="O97" s="22">
         <f>N97/N107</f>
         <v>6.064454326896576</v>
       </c>
     </row>
     <row r="98" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B98" s="25"/>
-      <c r="C98" s="19"/>
-      <c r="D98" s="19"/>
-      <c r="E98" s="19"/>
-      <c r="F98" s="19"/>
-      <c r="G98" s="19"/>
-      <c r="H98" s="30"/>
+      <c r="B98" s="36"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="24"/>
+      <c r="G98" s="24"/>
+      <c r="H98" s="28"/>
       <c r="I98" s="14" t="s">
         <v>17</v>
       </c>
@@ -2623,13 +2636,13 @@
       </c>
     </row>
     <row r="99" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B99" s="25"/>
-      <c r="C99" s="19"/>
-      <c r="D99" s="19"/>
-      <c r="E99" s="19"/>
-      <c r="F99" s="19"/>
-      <c r="G99" s="19"/>
-      <c r="H99" s="30"/>
+      <c r="B99" s="36"/>
+      <c r="C99" s="24"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="24"/>
+      <c r="F99" s="24"/>
+      <c r="G99" s="24"/>
+      <c r="H99" s="28"/>
       <c r="I99" s="14" t="s">
         <v>18</v>
       </c>
@@ -2641,13 +2654,13 @@
       </c>
     </row>
     <row r="100" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B100" s="25"/>
-      <c r="C100" s="19"/>
-      <c r="D100" s="19"/>
-      <c r="E100" s="19"/>
-      <c r="F100" s="19"/>
-      <c r="G100" s="19"/>
-      <c r="H100" s="30"/>
+      <c r="B100" s="36"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="24"/>
+      <c r="F100" s="24"/>
+      <c r="G100" s="24"/>
+      <c r="H100" s="28"/>
       <c r="I100" s="14" t="s">
         <v>19</v>
       </c>
@@ -2659,41 +2672,41 @@
       </c>
     </row>
     <row r="101" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B101" s="25"/>
-      <c r="C101" s="19"/>
-      <c r="D101" s="19"/>
-      <c r="E101" s="19"/>
-      <c r="F101" s="19"/>
-      <c r="G101" s="19"/>
-      <c r="H101" s="30"/>
+      <c r="B101" s="36"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="24"/>
+      <c r="F101" s="24"/>
+      <c r="G101" s="24"/>
+      <c r="H101" s="28"/>
       <c r="I101" s="14"/>
       <c r="J101" s="14"/>
       <c r="K101" s="6"/>
     </row>
     <row r="102" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B102" s="25"/>
-      <c r="C102" s="19"/>
-      <c r="D102" s="19"/>
-      <c r="E102" s="19"/>
-      <c r="F102" s="20"/>
-      <c r="G102" s="20"/>
-      <c r="H102" s="31"/>
+      <c r="B102" s="36"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="24"/>
+      <c r="F102" s="27"/>
+      <c r="G102" s="27"/>
+      <c r="H102" s="29"/>
       <c r="I102" s="14"/>
       <c r="J102" s="14"/>
       <c r="K102" s="6"/>
     </row>
     <row r="103" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B103" s="25"/>
-      <c r="C103" s="19"/>
-      <c r="D103" s="19"/>
-      <c r="E103" s="19"/>
-      <c r="F103" s="21" t="s">
+      <c r="B103" s="36"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="24"/>
+      <c r="F103" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="G103" s="18">
+      <c r="G103" s="26">
         <v>95.217349999999996</v>
       </c>
-      <c r="H103" s="32">
+      <c r="H103" s="23">
         <v>23730060</v>
       </c>
       <c r="I103" s="14" t="s">
@@ -2707,13 +2720,13 @@
       </c>
     </row>
     <row r="104" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B104" s="25"/>
-      <c r="C104" s="19"/>
-      <c r="D104" s="19"/>
-      <c r="E104" s="19"/>
-      <c r="F104" s="21"/>
-      <c r="G104" s="19"/>
-      <c r="H104" s="19"/>
+      <c r="B104" s="36"/>
+      <c r="C104" s="24"/>
+      <c r="D104" s="24"/>
+      <c r="E104" s="24"/>
+      <c r="F104" s="33"/>
+      <c r="G104" s="24"/>
+      <c r="H104" s="24"/>
       <c r="I104" s="14" t="s">
         <v>10</v>
       </c>
@@ -2725,13 +2738,13 @@
       </c>
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B105" s="25"/>
-      <c r="C105" s="19"/>
-      <c r="D105" s="19"/>
-      <c r="E105" s="19"/>
-      <c r="F105" s="21"/>
-      <c r="G105" s="19"/>
-      <c r="H105" s="19"/>
+      <c r="B105" s="36"/>
+      <c r="C105" s="24"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="24"/>
+      <c r="F105" s="33"/>
+      <c r="G105" s="24"/>
+      <c r="H105" s="24"/>
       <c r="I105" s="14" t="s">
         <v>14</v>
       </c>
@@ -2743,13 +2756,13 @@
       </c>
     </row>
     <row r="106" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B106" s="25"/>
-      <c r="C106" s="19"/>
-      <c r="D106" s="19"/>
-      <c r="E106" s="19"/>
-      <c r="F106" s="21"/>
-      <c r="G106" s="19"/>
-      <c r="H106" s="19"/>
+      <c r="B106" s="36"/>
+      <c r="C106" s="24"/>
+      <c r="D106" s="24"/>
+      <c r="E106" s="24"/>
+      <c r="F106" s="33"/>
+      <c r="G106" s="24"/>
+      <c r="H106" s="24"/>
       <c r="I106" s="14" t="s">
         <v>15</v>
       </c>
@@ -2761,13 +2774,13 @@
       </c>
     </row>
     <row r="107" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B107" s="25"/>
-      <c r="C107" s="19"/>
-      <c r="D107" s="19"/>
-      <c r="E107" s="19"/>
-      <c r="F107" s="21"/>
-      <c r="G107" s="19"/>
-      <c r="H107" s="19"/>
+      <c r="B107" s="36"/>
+      <c r="C107" s="24"/>
+      <c r="D107" s="24"/>
+      <c r="E107" s="24"/>
+      <c r="F107" s="33"/>
+      <c r="G107" s="24"/>
+      <c r="H107" s="24"/>
       <c r="I107" s="14" t="s">
         <v>16</v>
       </c>
@@ -2795,13 +2808,13 @@
       </c>
     </row>
     <row r="108" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B108" s="25"/>
-      <c r="C108" s="19"/>
-      <c r="D108" s="19"/>
-      <c r="E108" s="19"/>
-      <c r="F108" s="21"/>
-      <c r="G108" s="19"/>
-      <c r="H108" s="19"/>
+      <c r="B108" s="36"/>
+      <c r="C108" s="24"/>
+      <c r="D108" s="24"/>
+      <c r="E108" s="24"/>
+      <c r="F108" s="33"/>
+      <c r="G108" s="24"/>
+      <c r="H108" s="24"/>
       <c r="I108" s="14" t="s">
         <v>17</v>
       </c>
@@ -2813,13 +2826,13 @@
       </c>
     </row>
     <row r="109" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B109" s="25"/>
-      <c r="C109" s="19"/>
-      <c r="D109" s="19"/>
-      <c r="E109" s="19"/>
-      <c r="F109" s="21"/>
-      <c r="G109" s="19"/>
-      <c r="H109" s="19"/>
+      <c r="B109" s="36"/>
+      <c r="C109" s="24"/>
+      <c r="D109" s="24"/>
+      <c r="E109" s="24"/>
+      <c r="F109" s="33"/>
+      <c r="G109" s="24"/>
+      <c r="H109" s="24"/>
       <c r="I109" s="14" t="s">
         <v>18</v>
       </c>
@@ -2831,13 +2844,13 @@
       </c>
     </row>
     <row r="110" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B110" s="25"/>
-      <c r="C110" s="19"/>
-      <c r="D110" s="19"/>
-      <c r="E110" s="19"/>
-      <c r="F110" s="21"/>
-      <c r="G110" s="19"/>
-      <c r="H110" s="19"/>
+      <c r="B110" s="36"/>
+      <c r="C110" s="24"/>
+      <c r="D110" s="24"/>
+      <c r="E110" s="24"/>
+      <c r="F110" s="33"/>
+      <c r="G110" s="24"/>
+      <c r="H110" s="24"/>
       <c r="I110" s="14" t="s">
         <v>19</v>
       </c>
@@ -2849,41 +2862,41 @@
       </c>
     </row>
     <row r="111" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B111" s="25"/>
-      <c r="C111" s="19"/>
-      <c r="D111" s="19"/>
-      <c r="E111" s="19"/>
-      <c r="F111" s="21"/>
-      <c r="G111" s="19"/>
-      <c r="H111" s="19"/>
+      <c r="B111" s="36"/>
+      <c r="C111" s="24"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="24"/>
+      <c r="F111" s="33"/>
+      <c r="G111" s="24"/>
+      <c r="H111" s="24"/>
       <c r="I111" s="14"/>
       <c r="J111" s="15"/>
       <c r="K111" s="6"/>
     </row>
     <row r="112" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B112" s="25"/>
-      <c r="C112" s="19"/>
-      <c r="D112" s="19"/>
-      <c r="E112" s="19"/>
-      <c r="F112" s="21"/>
-      <c r="G112" s="20"/>
-      <c r="H112" s="20"/>
+      <c r="B112" s="36"/>
+      <c r="C112" s="24"/>
+      <c r="D112" s="24"/>
+      <c r="E112" s="24"/>
+      <c r="F112" s="33"/>
+      <c r="G112" s="27"/>
+      <c r="H112" s="27"/>
       <c r="I112" s="14"/>
       <c r="J112" s="14"/>
       <c r="K112" s="6"/>
     </row>
     <row r="113" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B113" s="25"/>
-      <c r="C113" s="19"/>
-      <c r="D113" s="19"/>
-      <c r="E113" s="19"/>
-      <c r="F113" s="22" t="s">
+      <c r="B113" s="36"/>
+      <c r="C113" s="24"/>
+      <c r="D113" s="24"/>
+      <c r="E113" s="24"/>
+      <c r="F113" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="G113" s="18">
+      <c r="G113" s="26">
         <v>88.165481999999997</v>
       </c>
-      <c r="H113" s="32">
+      <c r="H113" s="23">
         <v>47494650</v>
       </c>
       <c r="I113" s="14" t="s">
@@ -2897,13 +2910,13 @@
       </c>
     </row>
     <row r="114" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B114" s="25"/>
-      <c r="C114" s="19"/>
-      <c r="D114" s="19"/>
-      <c r="E114" s="19"/>
-      <c r="F114" s="22"/>
-      <c r="G114" s="19"/>
-      <c r="H114" s="19"/>
+      <c r="B114" s="36"/>
+      <c r="C114" s="24"/>
+      <c r="D114" s="24"/>
+      <c r="E114" s="24"/>
+      <c r="F114" s="32"/>
+      <c r="G114" s="24"/>
+      <c r="H114" s="24"/>
       <c r="I114" s="14" t="s">
         <v>10</v>
       </c>
@@ -2915,13 +2928,13 @@
       </c>
     </row>
     <row r="115" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B115" s="25"/>
-      <c r="C115" s="19"/>
-      <c r="D115" s="19"/>
-      <c r="E115" s="19"/>
-      <c r="F115" s="22"/>
-      <c r="G115" s="19"/>
-      <c r="H115" s="19"/>
+      <c r="B115" s="36"/>
+      <c r="C115" s="24"/>
+      <c r="D115" s="24"/>
+      <c r="E115" s="24"/>
+      <c r="F115" s="32"/>
+      <c r="G115" s="24"/>
+      <c r="H115" s="24"/>
       <c r="I115" s="14" t="s">
         <v>14</v>
       </c>
@@ -2929,13 +2942,13 @@
       <c r="K115" s="6"/>
     </row>
     <row r="116" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B116" s="25"/>
-      <c r="C116" s="19"/>
-      <c r="D116" s="19"/>
-      <c r="E116" s="19"/>
-      <c r="F116" s="22"/>
-      <c r="G116" s="19"/>
-      <c r="H116" s="19"/>
+      <c r="B116" s="36"/>
+      <c r="C116" s="24"/>
+      <c r="D116" s="24"/>
+      <c r="E116" s="24"/>
+      <c r="F116" s="32"/>
+      <c r="G116" s="24"/>
+      <c r="H116" s="24"/>
       <c r="I116" s="14" t="s">
         <v>15</v>
       </c>
@@ -2943,13 +2956,13 @@
       <c r="K116" s="6"/>
     </row>
     <row r="117" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B117" s="25"/>
-      <c r="C117" s="19"/>
-      <c r="D117" s="19"/>
-      <c r="E117" s="19"/>
-      <c r="F117" s="22"/>
-      <c r="G117" s="19"/>
-      <c r="H117" s="19"/>
+      <c r="B117" s="36"/>
+      <c r="C117" s="24"/>
+      <c r="D117" s="24"/>
+      <c r="E117" s="24"/>
+      <c r="F117" s="32"/>
+      <c r="G117" s="24"/>
+      <c r="H117" s="24"/>
       <c r="I117" s="14" t="s">
         <v>16</v>
       </c>
@@ -2965,13 +2978,13 @@
       </c>
     </row>
     <row r="118" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B118" s="25"/>
-      <c r="C118" s="19"/>
-      <c r="D118" s="19"/>
-      <c r="E118" s="19"/>
-      <c r="F118" s="22"/>
-      <c r="G118" s="19"/>
-      <c r="H118" s="19"/>
+      <c r="B118" s="36"/>
+      <c r="C118" s="24"/>
+      <c r="D118" s="24"/>
+      <c r="E118" s="24"/>
+      <c r="F118" s="32"/>
+      <c r="G118" s="24"/>
+      <c r="H118" s="24"/>
       <c r="I118" s="14" t="s">
         <v>17</v>
       </c>
@@ -2979,13 +2992,13 @@
       <c r="K118" s="6"/>
     </row>
     <row r="119" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B119" s="25"/>
-      <c r="C119" s="19"/>
-      <c r="D119" s="19"/>
-      <c r="E119" s="19"/>
-      <c r="F119" s="22"/>
-      <c r="G119" s="19"/>
-      <c r="H119" s="19"/>
+      <c r="B119" s="36"/>
+      <c r="C119" s="24"/>
+      <c r="D119" s="24"/>
+      <c r="E119" s="24"/>
+      <c r="F119" s="32"/>
+      <c r="G119" s="24"/>
+      <c r="H119" s="24"/>
       <c r="I119" s="14" t="s">
         <v>18</v>
       </c>
@@ -2993,13 +3006,13 @@
       <c r="K119" s="6"/>
     </row>
     <row r="120" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B120" s="25"/>
-      <c r="C120" s="19"/>
-      <c r="D120" s="19"/>
-      <c r="E120" s="19"/>
-      <c r="F120" s="22"/>
-      <c r="G120" s="19"/>
-      <c r="H120" s="19"/>
+      <c r="B120" s="36"/>
+      <c r="C120" s="24"/>
+      <c r="D120" s="24"/>
+      <c r="E120" s="24"/>
+      <c r="F120" s="32"/>
+      <c r="G120" s="24"/>
+      <c r="H120" s="24"/>
       <c r="I120" s="14" t="s">
         <v>19</v>
       </c>
@@ -3007,62 +3020,31 @@
       <c r="K120" s="6"/>
     </row>
     <row r="121" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B121" s="25"/>
-      <c r="C121" s="19"/>
-      <c r="D121" s="19"/>
-      <c r="E121" s="19"/>
-      <c r="F121" s="22"/>
-      <c r="G121" s="19"/>
-      <c r="H121" s="19"/>
+      <c r="B121" s="36"/>
+      <c r="C121" s="24"/>
+      <c r="D121" s="24"/>
+      <c r="E121" s="24"/>
+      <c r="F121" s="32"/>
+      <c r="G121" s="24"/>
+      <c r="H121" s="24"/>
       <c r="I121" s="14"/>
       <c r="J121" s="14"/>
       <c r="K121" s="6"/>
     </row>
     <row r="122" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="26"/>
-      <c r="C122" s="27"/>
-      <c r="D122" s="27"/>
-      <c r="E122" s="27"/>
-      <c r="F122" s="23"/>
-      <c r="G122" s="27"/>
-      <c r="H122" s="27"/>
+      <c r="B122" s="37"/>
+      <c r="C122" s="25"/>
+      <c r="D122" s="25"/>
+      <c r="E122" s="25"/>
+      <c r="F122" s="34"/>
+      <c r="G122" s="25"/>
+      <c r="H122" s="25"/>
       <c r="I122" s="13"/>
       <c r="J122" s="8"/>
       <c r="K122" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="H113:H122"/>
-    <mergeCell ref="G113:G122"/>
-    <mergeCell ref="G43:G52"/>
-    <mergeCell ref="H43:H52"/>
-    <mergeCell ref="G53:G62"/>
-    <mergeCell ref="H53:H62"/>
-    <mergeCell ref="G93:G102"/>
-    <mergeCell ref="H93:H102"/>
-    <mergeCell ref="G103:G112"/>
-    <mergeCell ref="H103:H112"/>
-    <mergeCell ref="G73:G82"/>
-    <mergeCell ref="H73:H82"/>
-    <mergeCell ref="G83:G92"/>
-    <mergeCell ref="H83:H92"/>
-    <mergeCell ref="G3:G12"/>
-    <mergeCell ref="H3:H12"/>
-    <mergeCell ref="G33:G42"/>
-    <mergeCell ref="H33:H42"/>
-    <mergeCell ref="H63:H72"/>
-    <mergeCell ref="G63:G72"/>
-    <mergeCell ref="G13:G22"/>
-    <mergeCell ref="H13:H22"/>
-    <mergeCell ref="G23:G32"/>
-    <mergeCell ref="H23:H32"/>
-    <mergeCell ref="F23:F32"/>
-    <mergeCell ref="F33:F42"/>
-    <mergeCell ref="E3:E32"/>
-    <mergeCell ref="E33:E62"/>
-    <mergeCell ref="C3:C62"/>
-    <mergeCell ref="D3:D32"/>
-    <mergeCell ref="D33:D62"/>
     <mergeCell ref="F93:F102"/>
     <mergeCell ref="F103:F112"/>
     <mergeCell ref="F113:F122"/>
@@ -3079,6 +3061,2163 @@
     <mergeCell ref="E93:E122"/>
     <mergeCell ref="F3:F12"/>
     <mergeCell ref="F13:F22"/>
+    <mergeCell ref="F23:F32"/>
+    <mergeCell ref="F33:F42"/>
+    <mergeCell ref="E3:E32"/>
+    <mergeCell ref="E33:E62"/>
+    <mergeCell ref="C3:C62"/>
+    <mergeCell ref="D3:D32"/>
+    <mergeCell ref="D33:D62"/>
+    <mergeCell ref="G3:G12"/>
+    <mergeCell ref="H3:H12"/>
+    <mergeCell ref="G33:G42"/>
+    <mergeCell ref="H33:H42"/>
+    <mergeCell ref="H63:H72"/>
+    <mergeCell ref="G63:G72"/>
+    <mergeCell ref="G13:G22"/>
+    <mergeCell ref="H13:H22"/>
+    <mergeCell ref="G23:G32"/>
+    <mergeCell ref="H23:H32"/>
+    <mergeCell ref="H113:H122"/>
+    <mergeCell ref="G113:G122"/>
+    <mergeCell ref="G43:G52"/>
+    <mergeCell ref="H43:H52"/>
+    <mergeCell ref="G53:G62"/>
+    <mergeCell ref="H53:H62"/>
+    <mergeCell ref="G93:G102"/>
+    <mergeCell ref="H93:H102"/>
+    <mergeCell ref="G103:G112"/>
+    <mergeCell ref="H103:H112"/>
+    <mergeCell ref="G73:G82"/>
+    <mergeCell ref="H73:H82"/>
+    <mergeCell ref="G83:G92"/>
+    <mergeCell ref="H83:H92"/>
+  </mergeCells>
+  <conditionalFormatting sqref="K97:K1048576 K37:K95 K17:K35 K2:K15">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J97:J1048576 J37:J95 J17:J35 J1:J15 K1">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K36">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J36">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K96">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J96">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947424B0-4895-4D75-80FF-AA0EF9787147}">
+  <dimension ref="B1:O122"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43:H52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="35">
+        <v>0.01</v>
+      </c>
+      <c r="C3" s="30">
+        <v>2</v>
+      </c>
+      <c r="D3" s="30">
+        <v>2</v>
+      </c>
+      <c r="E3" s="30">
+        <v>16</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="30">
+        <v>1.2880910000000001</v>
+      </c>
+      <c r="H3" s="31">
+        <v>151116.20000000001</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="12">
+        <v>136981.79999999999</v>
+      </c>
+      <c r="K3" s="11">
+        <v>1.380978</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="36"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="21">
+        <v>6617845</v>
+      </c>
+      <c r="K4" s="6">
+        <v>13.808681999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="36"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="21">
+        <v>365856.9</v>
+      </c>
+      <c r="K5" s="6">
+        <v>16.719774999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="36"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="21">
+        <v>3167148</v>
+      </c>
+      <c r="K6" s="6">
+        <v>15.747567999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="36"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="21">
+        <v>4432393</v>
+      </c>
+      <c r="K7" s="6">
+        <v>14.094391</v>
+      </c>
+      <c r="L7" s="1">
+        <f>AVERAGE(K4:K12)</f>
+        <v>13.027069285714285</v>
+      </c>
+      <c r="N7" s="17">
+        <f>AVERAGE(J4:J12)</f>
+        <v>6916520.5571428565</v>
+      </c>
+      <c r="O7" s="22">
+        <f>N7/N17</f>
+        <v>11.530980103125579</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="36"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="21">
+        <v>5531481</v>
+      </c>
+      <c r="K8" s="6">
+        <v>8.7398450000000008</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="36"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="21">
+        <v>13028530</v>
+      </c>
+      <c r="K9" s="6">
+        <v>12.131944000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="36"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="21">
+        <v>15272390</v>
+      </c>
+      <c r="K10" s="6">
+        <v>9.9472799999999992</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="36"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="36"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="36"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="26">
+        <v>0.748201</v>
+      </c>
+      <c r="H13" s="23">
+        <v>4357841</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="21"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="36"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="21"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="36"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="21">
+        <v>599820.69999999995</v>
+      </c>
+      <c r="K15" s="6">
+        <v>17.440650000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="36"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="21"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="36"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="21"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="1">
+        <f>AVERAGE(K14:K22)</f>
+        <v>17.440650000000002</v>
+      </c>
+      <c r="M17" s="1">
+        <f>AVERAGE(L7:L27)</f>
+        <v>16.165022095238097</v>
+      </c>
+      <c r="N17" s="17">
+        <f>AVERAGE(J14:J22)</f>
+        <v>599820.69999999995</v>
+      </c>
+      <c r="O17" s="17">
+        <f>AVERAGE(N7:N27)</f>
+        <v>2662502.719047619</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="36"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="21"/>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="36"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="21"/>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="36"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="21"/>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="36"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="36"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="36"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="26">
+        <v>2.5743520000000002</v>
+      </c>
+      <c r="H23" s="23">
+        <v>2474968</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="21"/>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="36"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" s="21"/>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="36"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="21">
+        <v>471166.9</v>
+      </c>
+      <c r="K25" s="6">
+        <v>18.027346999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="36"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="18"/>
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="36"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="18"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="1">
+        <f>AVERAGE(K24:K32)</f>
+        <v>18.027346999999999</v>
+      </c>
+      <c r="N27" s="17">
+        <f>AVERAGE(J24:J32)</f>
+        <v>471166.9</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="36"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="18"/>
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="36"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" s="18"/>
+      <c r="K29" s="6"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="36"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" s="18"/>
+      <c r="K30" s="6"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="36"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="6"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="36"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="6"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="36"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="26">
+        <v>4</v>
+      </c>
+      <c r="E33" s="26">
+        <v>256</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="26">
+        <v>179.087603</v>
+      </c>
+      <c r="H33" s="23">
+        <v>352838.5</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J33" s="21">
+        <v>10216.14</v>
+      </c>
+      <c r="K33" s="6">
+        <v>17.347313</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34" s="36"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J34" s="21"/>
+      <c r="K34" s="6"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="36"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35" s="21">
+        <v>31469.85</v>
+      </c>
+      <c r="K35" s="6">
+        <v>219.54982000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36" s="36"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" s="21"/>
+      <c r="K36" s="6"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B37" s="36"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" s="21"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="1">
+        <f>AVERAGE(K34:K42)</f>
+        <v>219.54982000000001</v>
+      </c>
+      <c r="N37" s="17">
+        <f>AVERAGE(J34:J42)</f>
+        <v>31469.85</v>
+      </c>
+      <c r="O37" s="22" t="e">
+        <f>N37/N47</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B38" s="36"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" s="21"/>
+      <c r="K38" s="6"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B39" s="36"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J39" s="21"/>
+      <c r="K39" s="6"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B40" s="36"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J40" s="21"/>
+      <c r="K40" s="6"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B41" s="36"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="6"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B42" s="36"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="6"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B43" s="36"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="26"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J43" s="21"/>
+      <c r="K43" s="6"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B44" s="36"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J44" s="21"/>
+      <c r="K44" s="6"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B45" s="36"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J45" s="21"/>
+      <c r="K45" s="6"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B46" s="36"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J46" s="21"/>
+      <c r="K46" s="6"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B47" s="36"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" s="21"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="1" t="e">
+        <f>AVERAGE(K44:K52)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M47" s="1" t="e">
+        <f>AVERAGE(L37:L57)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N47" s="17" t="e">
+        <f>AVERAGE(J44:J52)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O47" s="17" t="e">
+        <f>AVERAGE(N37:N57)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B48" s="36"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48" s="21"/>
+      <c r="K48" s="6"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" s="36"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J49" s="21"/>
+      <c r="K49" s="6"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50" s="36"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J50" s="21"/>
+      <c r="K50" s="6"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B51" s="36"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="6"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B52" s="36"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="6"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53" s="36"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="26"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J53" s="21"/>
+      <c r="K53" s="6"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B54" s="36"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J54" s="21"/>
+      <c r="K54" s="6"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B55" s="36"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J55" s="18"/>
+      <c r="K55" s="6"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B56" s="36"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J56" s="18"/>
+      <c r="K56" s="6"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B57" s="36"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J57" s="18"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="1" t="e">
+        <f>AVERAGE(K54:K62)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N57" s="17" t="e">
+        <f>AVERAGE(J54:J62)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B58" s="36"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58" s="18"/>
+      <c r="K58" s="6"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B59" s="36"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J59" s="18"/>
+      <c r="K59" s="6"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B60" s="36"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J60" s="18"/>
+      <c r="K60" s="6"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B61" s="36"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="18"/>
+      <c r="K61" s="6"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B62" s="36"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="7"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B63" s="36"/>
+      <c r="C63" s="26">
+        <v>4</v>
+      </c>
+      <c r="D63" s="26">
+        <v>1</v>
+      </c>
+      <c r="E63" s="26">
+        <v>16</v>
+      </c>
+      <c r="F63" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G63" s="26">
+        <v>0.445967</v>
+      </c>
+      <c r="H63" s="23">
+        <v>447684.6</v>
+      </c>
+      <c r="I63" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J63" s="21"/>
+      <c r="K63" s="6"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B64" s="36"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J64" s="21"/>
+      <c r="K64" s="6"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B65" s="36"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J65" s="21">
+        <v>689962.8</v>
+      </c>
+      <c r="K65" s="6">
+        <v>6.9851159999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B66" s="36"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J66" s="21"/>
+      <c r="K66" s="6"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B67" s="36"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J67" s="21"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="1">
+        <f>AVERAGE(K64:K72)</f>
+        <v>6.9851159999999997</v>
+      </c>
+      <c r="N67" s="17">
+        <f>AVERAGE(J64:J72)</f>
+        <v>689962.8</v>
+      </c>
+      <c r="O67" s="22">
+        <f>N67/N77</f>
+        <v>0.54763863743335717</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B68" s="36"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J68" s="21"/>
+      <c r="K68" s="6"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B69" s="36"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J69" s="21"/>
+      <c r="K69" s="6"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B70" s="36"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J70" s="21"/>
+      <c r="K70" s="6"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B71" s="36"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="18"/>
+      <c r="J71" s="21"/>
+      <c r="K71" s="6"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B72" s="36"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="29"/>
+      <c r="I72" s="18"/>
+      <c r="J72" s="18"/>
+      <c r="K72" s="6"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B73" s="36"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="26">
+        <v>0.472194</v>
+      </c>
+      <c r="H73" s="23">
+        <v>33111130</v>
+      </c>
+      <c r="I73" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J73" s="21"/>
+      <c r="K73" s="6"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B74" s="36"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="24"/>
+      <c r="I74" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J74" s="21"/>
+      <c r="K74" s="6"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B75" s="36"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="33"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="24"/>
+      <c r="I75" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J75" s="21">
+        <v>1259887</v>
+      </c>
+      <c r="K75" s="6">
+        <v>6.6183490000000003</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B76" s="36"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="33"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="24"/>
+      <c r="I76" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J76" s="21"/>
+      <c r="K76" s="6"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B77" s="36"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="33"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="24"/>
+      <c r="I77" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J77" s="21"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="1">
+        <f>AVERAGE(K74:K82)</f>
+        <v>6.6183490000000003</v>
+      </c>
+      <c r="M77" s="1">
+        <f>AVERAGE(L67:L87)</f>
+        <v>6.9373819999999995</v>
+      </c>
+      <c r="N77" s="17">
+        <f>AVERAGE(J74:J82)</f>
+        <v>1259887</v>
+      </c>
+      <c r="O77" s="17">
+        <f>AVERAGE(N67:N87)</f>
+        <v>923605.70000000007</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B78" s="36"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="33"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J78" s="21"/>
+      <c r="K78" s="6"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B79" s="36"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="33"/>
+      <c r="G79" s="24"/>
+      <c r="H79" s="24"/>
+      <c r="I79" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J79" s="21"/>
+      <c r="K79" s="6"/>
+    </row>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B80" s="36"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="33"/>
+      <c r="G80" s="24"/>
+      <c r="H80" s="24"/>
+      <c r="I80" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J80" s="21"/>
+      <c r="K80" s="6"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B81" s="36"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="33"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="24"/>
+      <c r="I81" s="18"/>
+      <c r="J81" s="21"/>
+      <c r="K81" s="6"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B82" s="36"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="33"/>
+      <c r="G82" s="27"/>
+      <c r="H82" s="27"/>
+      <c r="I82" s="18"/>
+      <c r="J82" s="18"/>
+      <c r="K82" s="6"/>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B83" s="36"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" s="26">
+        <v>1.206914</v>
+      </c>
+      <c r="H83" s="23">
+        <v>9698399</v>
+      </c>
+      <c r="I83" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J83" s="21"/>
+      <c r="K83" s="6"/>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B84" s="36"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="24"/>
+      <c r="H84" s="24"/>
+      <c r="I84" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J84" s="21"/>
+      <c r="K84" s="6"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B85" s="36"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="32"/>
+      <c r="G85" s="24"/>
+      <c r="H85" s="24"/>
+      <c r="I85" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J85" s="21">
+        <v>820967.3</v>
+      </c>
+      <c r="K85" s="6">
+        <v>7.2086810000000003</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B86" s="36"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="32"/>
+      <c r="G86" s="24"/>
+      <c r="H86" s="24"/>
+      <c r="I86" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J86" s="18"/>
+      <c r="K86" s="6"/>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B87" s="36"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="32"/>
+      <c r="G87" s="24"/>
+      <c r="H87" s="24"/>
+      <c r="I87" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J87" s="18"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="1">
+        <f>AVERAGE(K84:K92)</f>
+        <v>7.2086810000000003</v>
+      </c>
+      <c r="N87" s="17">
+        <f>AVERAGE(J84:J92)</f>
+        <v>820967.3</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B88" s="36"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="32"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="24"/>
+      <c r="I88" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J88" s="18"/>
+      <c r="K88" s="6"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B89" s="36"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="32"/>
+      <c r="G89" s="24"/>
+      <c r="H89" s="24"/>
+      <c r="I89" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J89" s="18"/>
+      <c r="K89" s="6"/>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B90" s="36"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="24"/>
+      <c r="F90" s="32"/>
+      <c r="G90" s="24"/>
+      <c r="H90" s="24"/>
+      <c r="I90" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J90" s="18"/>
+      <c r="K90" s="6"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B91" s="36"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="32"/>
+      <c r="G91" s="24"/>
+      <c r="H91" s="24"/>
+      <c r="I91" s="18"/>
+      <c r="J91" s="18"/>
+      <c r="K91" s="6"/>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B92" s="36"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="32"/>
+      <c r="G92" s="27"/>
+      <c r="H92" s="27"/>
+      <c r="I92" s="18"/>
+      <c r="J92" s="18"/>
+      <c r="K92" s="6"/>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B93" s="36"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="26">
+        <v>2</v>
+      </c>
+      <c r="E93" s="26">
+        <v>256</v>
+      </c>
+      <c r="F93" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G93" s="26">
+        <v>86.017674</v>
+      </c>
+      <c r="H93" s="23">
+        <v>3148237</v>
+      </c>
+      <c r="I93" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J93" s="21"/>
+      <c r="K93" s="6"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B94" s="36"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="24"/>
+      <c r="H94" s="28"/>
+      <c r="I94" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J94" s="21"/>
+      <c r="K94" s="6"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B95" s="36"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="24"/>
+      <c r="F95" s="24"/>
+      <c r="G95" s="24"/>
+      <c r="H95" s="28"/>
+      <c r="I95" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J95" s="21">
+        <v>110511.3</v>
+      </c>
+      <c r="K95" s="6">
+        <v>92.174993999999998</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B96" s="36"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="24"/>
+      <c r="H96" s="28"/>
+      <c r="I96" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J96" s="21"/>
+      <c r="K96" s="6"/>
+    </row>
+    <row r="97" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B97" s="36"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="24"/>
+      <c r="H97" s="28"/>
+      <c r="I97" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J97" s="21"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="1">
+        <f>AVERAGE(K94:K102)</f>
+        <v>92.174993999999998</v>
+      </c>
+      <c r="N97" s="17">
+        <f>AVERAGE(J94:J102)</f>
+        <v>110511.3</v>
+      </c>
+      <c r="O97" s="22" t="e">
+        <f>N97/N107</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="98" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B98" s="36"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="24"/>
+      <c r="G98" s="24"/>
+      <c r="H98" s="28"/>
+      <c r="I98" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J98" s="21"/>
+      <c r="K98" s="6"/>
+    </row>
+    <row r="99" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B99" s="36"/>
+      <c r="C99" s="24"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="24"/>
+      <c r="F99" s="24"/>
+      <c r="G99" s="24"/>
+      <c r="H99" s="28"/>
+      <c r="I99" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J99" s="21"/>
+      <c r="K99" s="6"/>
+    </row>
+    <row r="100" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B100" s="36"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="24"/>
+      <c r="F100" s="24"/>
+      <c r="G100" s="24"/>
+      <c r="H100" s="28"/>
+      <c r="I100" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J100" s="21"/>
+      <c r="K100" s="6"/>
+    </row>
+    <row r="101" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B101" s="36"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="24"/>
+      <c r="F101" s="24"/>
+      <c r="G101" s="24"/>
+      <c r="H101" s="28"/>
+      <c r="I101" s="18"/>
+      <c r="J101" s="18"/>
+      <c r="K101" s="6"/>
+    </row>
+    <row r="102" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B102" s="36"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="24"/>
+      <c r="F102" s="27"/>
+      <c r="G102" s="27"/>
+      <c r="H102" s="29"/>
+      <c r="I102" s="18"/>
+      <c r="J102" s="18"/>
+      <c r="K102" s="6"/>
+    </row>
+    <row r="103" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B103" s="36"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="24"/>
+      <c r="F103" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="26"/>
+      <c r="H103" s="23"/>
+      <c r="I103" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J103" s="21"/>
+      <c r="K103" s="6"/>
+    </row>
+    <row r="104" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B104" s="36"/>
+      <c r="C104" s="24"/>
+      <c r="D104" s="24"/>
+      <c r="E104" s="24"/>
+      <c r="F104" s="33"/>
+      <c r="G104" s="24"/>
+      <c r="H104" s="24"/>
+      <c r="I104" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J104" s="21"/>
+      <c r="K104" s="6"/>
+    </row>
+    <row r="105" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B105" s="36"/>
+      <c r="C105" s="24"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="24"/>
+      <c r="F105" s="33"/>
+      <c r="G105" s="24"/>
+      <c r="H105" s="24"/>
+      <c r="I105" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J105" s="21"/>
+      <c r="K105" s="6"/>
+    </row>
+    <row r="106" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B106" s="36"/>
+      <c r="C106" s="24"/>
+      <c r="D106" s="24"/>
+      <c r="E106" s="24"/>
+      <c r="F106" s="33"/>
+      <c r="G106" s="24"/>
+      <c r="H106" s="24"/>
+      <c r="I106" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J106" s="21"/>
+      <c r="K106" s="6"/>
+    </row>
+    <row r="107" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B107" s="36"/>
+      <c r="C107" s="24"/>
+      <c r="D107" s="24"/>
+      <c r="E107" s="24"/>
+      <c r="F107" s="33"/>
+      <c r="G107" s="24"/>
+      <c r="H107" s="24"/>
+      <c r="I107" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J107" s="21"/>
+      <c r="K107" s="6"/>
+      <c r="L107" s="1" t="e">
+        <f>AVERAGE(K104:K112)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M107" s="1" t="e">
+        <f>AVERAGE(L97:L117)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N107" s="17" t="e">
+        <f>AVERAGE(J104:J112)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O107" s="17" t="e">
+        <f>AVERAGE(N97:N117)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="108" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B108" s="36"/>
+      <c r="C108" s="24"/>
+      <c r="D108" s="24"/>
+      <c r="E108" s="24"/>
+      <c r="F108" s="33"/>
+      <c r="G108" s="24"/>
+      <c r="H108" s="24"/>
+      <c r="I108" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J108" s="21"/>
+      <c r="K108" s="6"/>
+    </row>
+    <row r="109" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B109" s="36"/>
+      <c r="C109" s="24"/>
+      <c r="D109" s="24"/>
+      <c r="E109" s="24"/>
+      <c r="F109" s="33"/>
+      <c r="G109" s="24"/>
+      <c r="H109" s="24"/>
+      <c r="I109" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J109" s="21"/>
+      <c r="K109" s="6"/>
+    </row>
+    <row r="110" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B110" s="36"/>
+      <c r="C110" s="24"/>
+      <c r="D110" s="24"/>
+      <c r="E110" s="24"/>
+      <c r="F110" s="33"/>
+      <c r="G110" s="24"/>
+      <c r="H110" s="24"/>
+      <c r="I110" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J110" s="21"/>
+      <c r="K110" s="6"/>
+    </row>
+    <row r="111" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B111" s="36"/>
+      <c r="C111" s="24"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="24"/>
+      <c r="F111" s="33"/>
+      <c r="G111" s="24"/>
+      <c r="H111" s="24"/>
+      <c r="I111" s="18"/>
+      <c r="J111" s="21"/>
+      <c r="K111" s="6"/>
+    </row>
+    <row r="112" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B112" s="36"/>
+      <c r="C112" s="24"/>
+      <c r="D112" s="24"/>
+      <c r="E112" s="24"/>
+      <c r="F112" s="33"/>
+      <c r="G112" s="27"/>
+      <c r="H112" s="27"/>
+      <c r="I112" s="18"/>
+      <c r="J112" s="18"/>
+      <c r="K112" s="6"/>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B113" s="36"/>
+      <c r="C113" s="24"/>
+      <c r="D113" s="24"/>
+      <c r="E113" s="24"/>
+      <c r="F113" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G113" s="26"/>
+      <c r="H113" s="23"/>
+      <c r="I113" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J113" s="21"/>
+      <c r="K113" s="6"/>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B114" s="36"/>
+      <c r="C114" s="24"/>
+      <c r="D114" s="24"/>
+      <c r="E114" s="24"/>
+      <c r="F114" s="32"/>
+      <c r="G114" s="24"/>
+      <c r="H114" s="24"/>
+      <c r="I114" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J114" s="21"/>
+      <c r="K114" s="6"/>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B115" s="36"/>
+      <c r="C115" s="24"/>
+      <c r="D115" s="24"/>
+      <c r="E115" s="24"/>
+      <c r="F115" s="32"/>
+      <c r="G115" s="24"/>
+      <c r="H115" s="24"/>
+      <c r="I115" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J115" s="18"/>
+      <c r="K115" s="6"/>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B116" s="36"/>
+      <c r="C116" s="24"/>
+      <c r="D116" s="24"/>
+      <c r="E116" s="24"/>
+      <c r="F116" s="32"/>
+      <c r="G116" s="24"/>
+      <c r="H116" s="24"/>
+      <c r="I116" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J116" s="18"/>
+      <c r="K116" s="6"/>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B117" s="36"/>
+      <c r="C117" s="24"/>
+      <c r="D117" s="24"/>
+      <c r="E117" s="24"/>
+      <c r="F117" s="32"/>
+      <c r="G117" s="24"/>
+      <c r="H117" s="24"/>
+      <c r="I117" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J117" s="18"/>
+      <c r="K117" s="6"/>
+      <c r="L117" s="1" t="e">
+        <f>AVERAGE(K114:K122)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N117" s="17" t="e">
+        <f>AVERAGE(J114:J122)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B118" s="36"/>
+      <c r="C118" s="24"/>
+      <c r="D118" s="24"/>
+      <c r="E118" s="24"/>
+      <c r="F118" s="32"/>
+      <c r="G118" s="24"/>
+      <c r="H118" s="24"/>
+      <c r="I118" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J118" s="18"/>
+      <c r="K118" s="6"/>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B119" s="36"/>
+      <c r="C119" s="24"/>
+      <c r="D119" s="24"/>
+      <c r="E119" s="24"/>
+      <c r="F119" s="32"/>
+      <c r="G119" s="24"/>
+      <c r="H119" s="24"/>
+      <c r="I119" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J119" s="18"/>
+      <c r="K119" s="6"/>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B120" s="36"/>
+      <c r="C120" s="24"/>
+      <c r="D120" s="24"/>
+      <c r="E120" s="24"/>
+      <c r="F120" s="32"/>
+      <c r="G120" s="24"/>
+      <c r="H120" s="24"/>
+      <c r="I120" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J120" s="18"/>
+      <c r="K120" s="6"/>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B121" s="36"/>
+      <c r="C121" s="24"/>
+      <c r="D121" s="24"/>
+      <c r="E121" s="24"/>
+      <c r="F121" s="32"/>
+      <c r="G121" s="24"/>
+      <c r="H121" s="24"/>
+      <c r="I121" s="18"/>
+      <c r="J121" s="18"/>
+      <c r="K121" s="6"/>
+    </row>
+    <row r="122" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="37"/>
+      <c r="C122" s="25"/>
+      <c r="D122" s="25"/>
+      <c r="E122" s="25"/>
+      <c r="F122" s="34"/>
+      <c r="G122" s="25"/>
+      <c r="H122" s="25"/>
+      <c r="I122" s="20"/>
+      <c r="J122" s="8"/>
+      <c r="K122" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="47">
+    <mergeCell ref="F113:F122"/>
+    <mergeCell ref="G113:G122"/>
+    <mergeCell ref="H113:H122"/>
+    <mergeCell ref="G83:G92"/>
+    <mergeCell ref="H83:H92"/>
+    <mergeCell ref="D93:D122"/>
+    <mergeCell ref="E93:E122"/>
+    <mergeCell ref="F93:F102"/>
+    <mergeCell ref="G93:G102"/>
+    <mergeCell ref="H93:H102"/>
+    <mergeCell ref="F103:F112"/>
+    <mergeCell ref="G103:G112"/>
+    <mergeCell ref="H103:H112"/>
+    <mergeCell ref="C63:C122"/>
+    <mergeCell ref="D63:D92"/>
+    <mergeCell ref="E63:E92"/>
+    <mergeCell ref="F63:F72"/>
+    <mergeCell ref="G63:G72"/>
+    <mergeCell ref="H63:H72"/>
+    <mergeCell ref="F73:F82"/>
+    <mergeCell ref="G73:G82"/>
+    <mergeCell ref="H73:H82"/>
+    <mergeCell ref="F83:F92"/>
+    <mergeCell ref="H33:H42"/>
+    <mergeCell ref="F43:F52"/>
+    <mergeCell ref="G43:G52"/>
+    <mergeCell ref="H43:H52"/>
+    <mergeCell ref="F53:F62"/>
+    <mergeCell ref="G53:G62"/>
+    <mergeCell ref="H53:H62"/>
+    <mergeCell ref="H3:H12"/>
+    <mergeCell ref="F13:F22"/>
+    <mergeCell ref="G13:G22"/>
+    <mergeCell ref="H13:H22"/>
+    <mergeCell ref="F23:F32"/>
+    <mergeCell ref="G23:G32"/>
+    <mergeCell ref="H23:H32"/>
+    <mergeCell ref="B3:B122"/>
+    <mergeCell ref="C3:C62"/>
+    <mergeCell ref="D3:D32"/>
+    <mergeCell ref="E3:E32"/>
+    <mergeCell ref="F3:F12"/>
+    <mergeCell ref="G3:G12"/>
+    <mergeCell ref="D33:D62"/>
+    <mergeCell ref="E33:E62"/>
+    <mergeCell ref="F33:F42"/>
+    <mergeCell ref="G33:G42"/>
   </mergeCells>
   <conditionalFormatting sqref="K97:K1048576 K37:K95 K17:K35 K2:K15">
     <cfRule type="colorScale" priority="8">

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uapt33090-my.sharepoint.com/personal/alexandrerrodrigues_ua_pt/Documents/Desktop/Universidade/ESTUDO/4o ano/MC/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="596" documentId="8_{F6C52FA1-06A6-4BA5-A029-C2E64A93D517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53BF57DD-FBC0-4671-BD0C-CFDB0FBF88C7}"/>
+  <xr:revisionPtr revIDLastSave="740" documentId="8_{F6C52FA1-06A6-4BA5-A029-C2E64A93D517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B405018A-8158-4D9D-86F8-0F186241B878}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" activeTab="1" xr2:uid="{C9739BE2-A4AE-4755-88B7-610C6B0CB3CA}"/>
+    <workbookView xWindow="7260" yWindow="8805" windowWidth="28800" windowHeight="15600" activeTab="1" xr2:uid="{C9739BE2-A4AE-4755-88B7-610C6B0CB3CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="23">
   <si>
     <t>Epsilon</t>
   </si>
@@ -96,12 +96,21 @@
   <si>
     <t>TooOfficial</t>
   </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>SNR</t>
+  </si>
+  <si>
+    <t>SNR(dB)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,16 +126,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -395,11 +417,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -452,53 +522,35 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -510,6 +562,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -882,25 +979,25 @@
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="35">
+      <c r="B3" s="29">
         <v>0.01</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="33">
         <v>2</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="33">
         <v>2</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="33">
         <v>16</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="33">
         <v>0.45</v>
       </c>
-      <c r="H3" s="31">
+      <c r="H3" s="34">
         <v>176667.9</v>
       </c>
       <c r="I3" s="10" t="s">
@@ -914,13 +1011,13 @@
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="36"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="24"/>
       <c r="D4" s="24"/>
       <c r="E4" s="24"/>
       <c r="F4" s="24"/>
       <c r="G4" s="24"/>
-      <c r="H4" s="28"/>
+      <c r="H4" s="35"/>
       <c r="I4" s="14" t="s">
         <v>10</v>
       </c>
@@ -932,13 +1029,13 @@
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="36"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
       <c r="E5" s="24"/>
       <c r="F5" s="24"/>
       <c r="G5" s="24"/>
-      <c r="H5" s="28"/>
+      <c r="H5" s="35"/>
       <c r="I5" s="14" t="s">
         <v>14</v>
       </c>
@@ -950,13 +1047,13 @@
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="36"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
-      <c r="H6" s="28"/>
+      <c r="H6" s="35"/>
       <c r="I6" s="14" t="s">
         <v>15</v>
       </c>
@@ -968,13 +1065,13 @@
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="36"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
-      <c r="H7" s="28"/>
+      <c r="H7" s="35"/>
       <c r="I7" s="14" t="s">
         <v>16</v>
       </c>
@@ -992,19 +1089,19 @@
         <f>AVERAGE(J4:J12)</f>
         <v>12677580.385714287</v>
       </c>
-      <c r="O7" s="22">
+      <c r="O7" s="18">
         <f>N7/N17</f>
         <v>5.6142868826005641</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="36"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
-      <c r="H8" s="28"/>
+      <c r="H8" s="35"/>
       <c r="I8" s="14" t="s">
         <v>17</v>
       </c>
@@ -1016,13 +1113,13 @@
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="36"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
-      <c r="H9" s="28"/>
+      <c r="H9" s="35"/>
       <c r="I9" s="14" t="s">
         <v>18</v>
       </c>
@@ -1034,13 +1131,13 @@
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="36"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="24"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
-      <c r="H10" s="28"/>
+      <c r="H10" s="35"/>
       <c r="I10" s="14" t="s">
         <v>19</v>
       </c>
@@ -1052,41 +1149,41 @@
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="36"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
-      <c r="H11" s="28"/>
+      <c r="H11" s="35"/>
       <c r="I11" s="14"/>
       <c r="J11" s="15"/>
       <c r="K11" s="6"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="36"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="29"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="36"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
       <c r="K12" s="6"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="36"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="23">
         <v>0.72914400000000001</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="37">
         <v>4359112</v>
       </c>
       <c r="I13" s="14" t="s">
@@ -1100,11 +1197,11 @@
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="36"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
-      <c r="F14" s="33"/>
+      <c r="F14" s="26"/>
       <c r="G14" s="24"/>
       <c r="H14" s="24"/>
       <c r="I14" s="14" t="s">
@@ -1118,11 +1215,11 @@
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="36"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
-      <c r="F15" s="33"/>
+      <c r="F15" s="26"/>
       <c r="G15" s="24"/>
       <c r="H15" s="24"/>
       <c r="I15" s="14" t="s">
@@ -1136,11 +1233,11 @@
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="36"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
-      <c r="F16" s="33"/>
+      <c r="F16" s="26"/>
       <c r="G16" s="24"/>
       <c r="H16" s="24"/>
       <c r="I16" s="14" t="s">
@@ -1154,11 +1251,11 @@
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="36"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
-      <c r="F17" s="33"/>
+      <c r="F17" s="26"/>
       <c r="G17" s="24"/>
       <c r="H17" s="24"/>
       <c r="I17" s="14" t="s">
@@ -1188,11 +1285,11 @@
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="36"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
-      <c r="F18" s="33"/>
+      <c r="F18" s="26"/>
       <c r="G18" s="24"/>
       <c r="H18" s="24"/>
       <c r="I18" s="14" t="s">
@@ -1206,11 +1303,11 @@
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="36"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
-      <c r="F19" s="33"/>
+      <c r="F19" s="26"/>
       <c r="G19" s="24"/>
       <c r="H19" s="24"/>
       <c r="I19" s="14" t="s">
@@ -1224,11 +1321,11 @@
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="36"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
-      <c r="F20" s="33"/>
+      <c r="F20" s="26"/>
       <c r="G20" s="24"/>
       <c r="H20" s="24"/>
       <c r="I20" s="14" t="s">
@@ -1242,11 +1339,11 @@
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="36"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
-      <c r="F21" s="33"/>
+      <c r="F21" s="26"/>
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
       <c r="I21" s="14"/>
@@ -1254,29 +1351,29 @@
       <c r="K21" s="6"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="36"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
       <c r="K22" s="6"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="36"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="24"/>
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
-      <c r="F23" s="32" t="s">
+      <c r="F23" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="26">
+      <c r="G23" s="23">
         <v>0.340559</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="37">
         <v>4038082</v>
       </c>
       <c r="I23" s="14" t="s">
@@ -1290,11 +1387,11 @@
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="36"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
-      <c r="F24" s="32"/>
+      <c r="F24" s="27"/>
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
       <c r="I24" s="14" t="s">
@@ -1308,11 +1405,11 @@
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="36"/>
+      <c r="B25" s="30"/>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
-      <c r="F25" s="32"/>
+      <c r="F25" s="27"/>
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
       <c r="I25" s="14" t="s">
@@ -1326,11 +1423,11 @@
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="36"/>
+      <c r="B26" s="30"/>
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
-      <c r="F26" s="32"/>
+      <c r="F26" s="27"/>
       <c r="G26" s="24"/>
       <c r="H26" s="24"/>
       <c r="I26" s="14" t="s">
@@ -1340,11 +1437,11 @@
       <c r="K26" s="6"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="36"/>
+      <c r="B27" s="30"/>
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
-      <c r="F27" s="32"/>
+      <c r="F27" s="27"/>
       <c r="G27" s="24"/>
       <c r="H27" s="24"/>
       <c r="I27" s="14" t="s">
@@ -1362,11 +1459,11 @@
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="36"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
-      <c r="F28" s="32"/>
+      <c r="F28" s="27"/>
       <c r="G28" s="24"/>
       <c r="H28" s="24"/>
       <c r="I28" s="14" t="s">
@@ -1376,11 +1473,11 @@
       <c r="K28" s="6"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="36"/>
+      <c r="B29" s="30"/>
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
-      <c r="F29" s="32"/>
+      <c r="F29" s="27"/>
       <c r="G29" s="24"/>
       <c r="H29" s="24"/>
       <c r="I29" s="14" t="s">
@@ -1390,11 +1487,11 @@
       <c r="K29" s="6"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="36"/>
+      <c r="B30" s="30"/>
       <c r="C30" s="24"/>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
-      <c r="F30" s="32"/>
+      <c r="F30" s="27"/>
       <c r="G30" s="24"/>
       <c r="H30" s="24"/>
       <c r="I30" s="14" t="s">
@@ -1404,11 +1501,11 @@
       <c r="K30" s="6"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="36"/>
+      <c r="B31" s="30"/>
       <c r="C31" s="24"/>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
-      <c r="F31" s="32"/>
+      <c r="F31" s="27"/>
       <c r="G31" s="24"/>
       <c r="H31" s="24"/>
       <c r="I31" s="14"/>
@@ -1416,33 +1513,33 @@
       <c r="K31" s="6"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="36"/>
+      <c r="B32" s="30"/>
       <c r="C32" s="24"/>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
       <c r="I32" s="14"/>
       <c r="J32" s="14"/>
       <c r="K32" s="6"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="36"/>
+      <c r="B33" s="30"/>
       <c r="C33" s="24"/>
-      <c r="D33" s="26">
+      <c r="D33" s="23">
         <v>4</v>
       </c>
-      <c r="E33" s="26">
+      <c r="E33" s="23">
         <v>256</v>
       </c>
-      <c r="F33" s="26" t="s">
+      <c r="F33" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G33" s="26">
+      <c r="G33" s="23">
         <v>101.49420600000001</v>
       </c>
-      <c r="H33" s="23">
+      <c r="H33" s="37">
         <v>212488.9</v>
       </c>
       <c r="I33" s="14" t="s">
@@ -1456,13 +1553,13 @@
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="36"/>
+      <c r="B34" s="30"/>
       <c r="C34" s="24"/>
       <c r="D34" s="24"/>
       <c r="E34" s="24"/>
       <c r="F34" s="24"/>
       <c r="G34" s="24"/>
-      <c r="H34" s="28"/>
+      <c r="H34" s="35"/>
       <c r="I34" s="14" t="s">
         <v>10</v>
       </c>
@@ -1474,13 +1571,13 @@
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="36"/>
+      <c r="B35" s="30"/>
       <c r="C35" s="24"/>
       <c r="D35" s="24"/>
       <c r="E35" s="24"/>
       <c r="F35" s="24"/>
       <c r="G35" s="24"/>
-      <c r="H35" s="28"/>
+      <c r="H35" s="35"/>
       <c r="I35" s="14" t="s">
         <v>14</v>
       </c>
@@ -1492,13 +1589,13 @@
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="36"/>
+      <c r="B36" s="30"/>
       <c r="C36" s="24"/>
       <c r="D36" s="24"/>
       <c r="E36" s="24"/>
       <c r="F36" s="24"/>
       <c r="G36" s="24"/>
-      <c r="H36" s="28"/>
+      <c r="H36" s="35"/>
       <c r="I36" s="14" t="s">
         <v>15</v>
       </c>
@@ -1510,13 +1607,13 @@
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="36"/>
+      <c r="B37" s="30"/>
       <c r="C37" s="24"/>
       <c r="D37" s="24"/>
       <c r="E37" s="24"/>
       <c r="F37" s="24"/>
       <c r="G37" s="24"/>
-      <c r="H37" s="28"/>
+      <c r="H37" s="35"/>
       <c r="I37" s="14" t="s">
         <v>16</v>
       </c>
@@ -1534,19 +1631,19 @@
         <f>AVERAGE(J34:J42)</f>
         <v>2169460.6385714286</v>
       </c>
-      <c r="O37" s="22">
+      <c r="O37" s="18">
         <f>N37/N47</f>
         <v>20.256352138604864</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="36"/>
+      <c r="B38" s="30"/>
       <c r="C38" s="24"/>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
       <c r="F38" s="24"/>
       <c r="G38" s="24"/>
-      <c r="H38" s="28"/>
+      <c r="H38" s="35"/>
       <c r="I38" s="14" t="s">
         <v>17</v>
       </c>
@@ -1558,13 +1655,13 @@
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="36"/>
+      <c r="B39" s="30"/>
       <c r="C39" s="24"/>
       <c r="D39" s="24"/>
       <c r="E39" s="24"/>
       <c r="F39" s="24"/>
       <c r="G39" s="24"/>
-      <c r="H39" s="28"/>
+      <c r="H39" s="35"/>
       <c r="I39" s="14" t="s">
         <v>18</v>
       </c>
@@ -1576,13 +1673,13 @@
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="36"/>
+      <c r="B40" s="30"/>
       <c r="C40" s="24"/>
       <c r="D40" s="24"/>
       <c r="E40" s="24"/>
       <c r="F40" s="24"/>
       <c r="G40" s="24"/>
-      <c r="H40" s="28"/>
+      <c r="H40" s="35"/>
       <c r="I40" s="14" t="s">
         <v>19</v>
       </c>
@@ -1594,41 +1691,41 @@
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="36"/>
+      <c r="B41" s="30"/>
       <c r="C41" s="24"/>
       <c r="D41" s="24"/>
       <c r="E41" s="24"/>
       <c r="F41" s="24"/>
       <c r="G41" s="24"/>
-      <c r="H41" s="28"/>
+      <c r="H41" s="35"/>
       <c r="I41" s="14"/>
       <c r="J41" s="15"/>
       <c r="K41" s="6"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="36"/>
+      <c r="B42" s="30"/>
       <c r="C42" s="24"/>
       <c r="D42" s="24"/>
       <c r="E42" s="24"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="29"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="36"/>
       <c r="I42" s="14"/>
       <c r="J42" s="14"/>
       <c r="K42" s="6"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B43" s="36"/>
+      <c r="B43" s="30"/>
       <c r="C43" s="24"/>
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
-      <c r="F43" s="33" t="s">
+      <c r="F43" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G43" s="26">
+      <c r="G43" s="23">
         <v>115.934093</v>
       </c>
-      <c r="H43" s="23">
+      <c r="H43" s="37">
         <v>3701125</v>
       </c>
       <c r="I43" s="14" t="s">
@@ -1642,11 +1739,11 @@
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="36"/>
+      <c r="B44" s="30"/>
       <c r="C44" s="24"/>
       <c r="D44" s="24"/>
       <c r="E44" s="24"/>
-      <c r="F44" s="33"/>
+      <c r="F44" s="26"/>
       <c r="G44" s="24"/>
       <c r="H44" s="24"/>
       <c r="I44" s="14" t="s">
@@ -1660,11 +1757,11 @@
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B45" s="36"/>
+      <c r="B45" s="30"/>
       <c r="C45" s="24"/>
       <c r="D45" s="24"/>
       <c r="E45" s="24"/>
-      <c r="F45" s="33"/>
+      <c r="F45" s="26"/>
       <c r="G45" s="24"/>
       <c r="H45" s="24"/>
       <c r="I45" s="14" t="s">
@@ -1678,11 +1775,11 @@
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B46" s="36"/>
+      <c r="B46" s="30"/>
       <c r="C46" s="24"/>
       <c r="D46" s="24"/>
       <c r="E46" s="24"/>
-      <c r="F46" s="33"/>
+      <c r="F46" s="26"/>
       <c r="G46" s="24"/>
       <c r="H46" s="24"/>
       <c r="I46" s="14" t="s">
@@ -1696,11 +1793,11 @@
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B47" s="36"/>
+      <c r="B47" s="30"/>
       <c r="C47" s="24"/>
       <c r="D47" s="24"/>
       <c r="E47" s="24"/>
-      <c r="F47" s="33"/>
+      <c r="F47" s="26"/>
       <c r="G47" s="24"/>
       <c r="H47" s="24"/>
       <c r="I47" s="14" t="s">
@@ -1730,11 +1827,11 @@
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B48" s="36"/>
+      <c r="B48" s="30"/>
       <c r="C48" s="24"/>
       <c r="D48" s="24"/>
       <c r="E48" s="24"/>
-      <c r="F48" s="33"/>
+      <c r="F48" s="26"/>
       <c r="G48" s="24"/>
       <c r="H48" s="24"/>
       <c r="I48" s="14" t="s">
@@ -1748,11 +1845,11 @@
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B49" s="36"/>
+      <c r="B49" s="30"/>
       <c r="C49" s="24"/>
       <c r="D49" s="24"/>
       <c r="E49" s="24"/>
-      <c r="F49" s="33"/>
+      <c r="F49" s="26"/>
       <c r="G49" s="24"/>
       <c r="H49" s="24"/>
       <c r="I49" s="14" t="s">
@@ -1766,11 +1863,11 @@
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B50" s="36"/>
+      <c r="B50" s="30"/>
       <c r="C50" s="24"/>
       <c r="D50" s="24"/>
       <c r="E50" s="24"/>
-      <c r="F50" s="33"/>
+      <c r="F50" s="26"/>
       <c r="G50" s="24"/>
       <c r="H50" s="24"/>
       <c r="I50" s="14" t="s">
@@ -1784,11 +1881,11 @@
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B51" s="36"/>
+      <c r="B51" s="30"/>
       <c r="C51" s="24"/>
       <c r="D51" s="24"/>
       <c r="E51" s="24"/>
-      <c r="F51" s="33"/>
+      <c r="F51" s="26"/>
       <c r="G51" s="24"/>
       <c r="H51" s="24"/>
       <c r="I51" s="14"/>
@@ -1796,29 +1893,29 @@
       <c r="K51" s="6"/>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B52" s="36"/>
+      <c r="B52" s="30"/>
       <c r="C52" s="24"/>
       <c r="D52" s="24"/>
       <c r="E52" s="24"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
       <c r="I52" s="14"/>
       <c r="J52" s="14"/>
       <c r="K52" s="6"/>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B53" s="36"/>
+      <c r="B53" s="30"/>
       <c r="C53" s="24"/>
       <c r="D53" s="24"/>
       <c r="E53" s="24"/>
-      <c r="F53" s="32" t="s">
+      <c r="F53" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G53" s="26">
+      <c r="G53" s="23">
         <v>97.172319000000002</v>
       </c>
-      <c r="H53" s="23">
+      <c r="H53" s="37">
         <v>4766750</v>
       </c>
       <c r="I53" s="14" t="s">
@@ -1832,11 +1929,11 @@
       </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B54" s="36"/>
+      <c r="B54" s="30"/>
       <c r="C54" s="24"/>
       <c r="D54" s="24"/>
       <c r="E54" s="24"/>
-      <c r="F54" s="32"/>
+      <c r="F54" s="27"/>
       <c r="G54" s="24"/>
       <c r="H54" s="24"/>
       <c r="I54" s="14" t="s">
@@ -1850,11 +1947,11 @@
       </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B55" s="36"/>
+      <c r="B55" s="30"/>
       <c r="C55" s="24"/>
       <c r="D55" s="24"/>
       <c r="E55" s="24"/>
-      <c r="F55" s="32"/>
+      <c r="F55" s="27"/>
       <c r="G55" s="24"/>
       <c r="H55" s="24"/>
       <c r="I55" s="14" t="s">
@@ -1864,11 +1961,11 @@
       <c r="K55" s="6"/>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B56" s="36"/>
+      <c r="B56" s="30"/>
       <c r="C56" s="24"/>
       <c r="D56" s="24"/>
       <c r="E56" s="24"/>
-      <c r="F56" s="32"/>
+      <c r="F56" s="27"/>
       <c r="G56" s="24"/>
       <c r="H56" s="24"/>
       <c r="I56" s="14" t="s">
@@ -1878,11 +1975,11 @@
       <c r="K56" s="6"/>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B57" s="36"/>
+      <c r="B57" s="30"/>
       <c r="C57" s="24"/>
       <c r="D57" s="24"/>
       <c r="E57" s="24"/>
-      <c r="F57" s="32"/>
+      <c r="F57" s="27"/>
       <c r="G57" s="24"/>
       <c r="H57" s="24"/>
       <c r="I57" s="14" t="s">
@@ -1900,11 +1997,11 @@
       </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B58" s="36"/>
+      <c r="B58" s="30"/>
       <c r="C58" s="24"/>
       <c r="D58" s="24"/>
       <c r="E58" s="24"/>
-      <c r="F58" s="32"/>
+      <c r="F58" s="27"/>
       <c r="G58" s="24"/>
       <c r="H58" s="24"/>
       <c r="I58" s="14" t="s">
@@ -1914,11 +2011,11 @@
       <c r="K58" s="6"/>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B59" s="36"/>
+      <c r="B59" s="30"/>
       <c r="C59" s="24"/>
       <c r="D59" s="24"/>
       <c r="E59" s="24"/>
-      <c r="F59" s="32"/>
+      <c r="F59" s="27"/>
       <c r="G59" s="24"/>
       <c r="H59" s="24"/>
       <c r="I59" s="14" t="s">
@@ -1928,11 +2025,11 @@
       <c r="K59" s="6"/>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B60" s="36"/>
+      <c r="B60" s="30"/>
       <c r="C60" s="24"/>
       <c r="D60" s="24"/>
       <c r="E60" s="24"/>
-      <c r="F60" s="32"/>
+      <c r="F60" s="27"/>
       <c r="G60" s="24"/>
       <c r="H60" s="24"/>
       <c r="I60" s="14" t="s">
@@ -1942,11 +2039,11 @@
       <c r="K60" s="6"/>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B61" s="36"/>
+      <c r="B61" s="30"/>
       <c r="C61" s="24"/>
       <c r="D61" s="24"/>
       <c r="E61" s="24"/>
-      <c r="F61" s="32"/>
+      <c r="F61" s="27"/>
       <c r="G61" s="24"/>
       <c r="H61" s="24"/>
       <c r="I61" s="14"/>
@@ -1954,35 +2051,35 @@
       <c r="K61" s="6"/>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B62" s="36"/>
+      <c r="B62" s="30"/>
       <c r="C62" s="24"/>
       <c r="D62" s="24"/>
       <c r="E62" s="24"/>
-      <c r="F62" s="32"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="27"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
       <c r="I62" s="16"/>
       <c r="J62" s="16"/>
       <c r="K62" s="7"/>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B63" s="36"/>
-      <c r="C63" s="26">
+      <c r="B63" s="30"/>
+      <c r="C63" s="23">
         <v>4</v>
       </c>
-      <c r="D63" s="26">
+      <c r="D63" s="23">
         <v>1</v>
       </c>
-      <c r="E63" s="26">
+      <c r="E63" s="23">
         <v>16</v>
       </c>
       <c r="F63" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G63" s="26">
+      <c r="G63" s="23">
         <v>0.317722</v>
       </c>
-      <c r="H63" s="23">
+      <c r="H63" s="37">
         <v>474584.2</v>
       </c>
       <c r="I63" s="14" t="s">
@@ -1996,13 +2093,13 @@
       </c>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B64" s="36"/>
+      <c r="B64" s="30"/>
       <c r="C64" s="24"/>
       <c r="D64" s="24"/>
       <c r="E64" s="24"/>
       <c r="F64" s="24"/>
       <c r="G64" s="24"/>
-      <c r="H64" s="28"/>
+      <c r="H64" s="35"/>
       <c r="I64" s="14" t="s">
         <v>10</v>
       </c>
@@ -2014,13 +2111,13 @@
       </c>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B65" s="36"/>
+      <c r="B65" s="30"/>
       <c r="C65" s="24"/>
       <c r="D65" s="24"/>
       <c r="E65" s="24"/>
       <c r="F65" s="24"/>
       <c r="G65" s="24"/>
-      <c r="H65" s="28"/>
+      <c r="H65" s="35"/>
       <c r="I65" s="14" t="s">
         <v>14</v>
       </c>
@@ -2032,13 +2129,13 @@
       </c>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B66" s="36"/>
+      <c r="B66" s="30"/>
       <c r="C66" s="24"/>
       <c r="D66" s="24"/>
       <c r="E66" s="24"/>
       <c r="F66" s="24"/>
       <c r="G66" s="24"/>
-      <c r="H66" s="28"/>
+      <c r="H66" s="35"/>
       <c r="I66" s="14" t="s">
         <v>15</v>
       </c>
@@ -2050,13 +2147,13 @@
       </c>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B67" s="36"/>
+      <c r="B67" s="30"/>
       <c r="C67" s="24"/>
       <c r="D67" s="24"/>
       <c r="E67" s="24"/>
       <c r="F67" s="24"/>
       <c r="G67" s="24"/>
-      <c r="H67" s="28"/>
+      <c r="H67" s="35"/>
       <c r="I67" s="14" t="s">
         <v>16</v>
       </c>
@@ -2074,19 +2171,19 @@
         <f>AVERAGE(J64:J72)</f>
         <v>15185858.285714285</v>
       </c>
-      <c r="O67" s="22">
+      <c r="O67" s="18">
         <f>N67/N77</f>
         <v>7.3677379683502018</v>
       </c>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B68" s="36"/>
+      <c r="B68" s="30"/>
       <c r="C68" s="24"/>
       <c r="D68" s="24"/>
       <c r="E68" s="24"/>
       <c r="F68" s="24"/>
       <c r="G68" s="24"/>
-      <c r="H68" s="28"/>
+      <c r="H68" s="35"/>
       <c r="I68" s="14" t="s">
         <v>17</v>
       </c>
@@ -2098,13 +2195,13 @@
       </c>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B69" s="36"/>
+      <c r="B69" s="30"/>
       <c r="C69" s="24"/>
       <c r="D69" s="24"/>
       <c r="E69" s="24"/>
       <c r="F69" s="24"/>
       <c r="G69" s="24"/>
-      <c r="H69" s="28"/>
+      <c r="H69" s="35"/>
       <c r="I69" s="14" t="s">
         <v>18</v>
       </c>
@@ -2116,13 +2213,13 @@
       </c>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B70" s="36"/>
+      <c r="B70" s="30"/>
       <c r="C70" s="24"/>
       <c r="D70" s="24"/>
       <c r="E70" s="24"/>
       <c r="F70" s="24"/>
       <c r="G70" s="24"/>
-      <c r="H70" s="28"/>
+      <c r="H70" s="35"/>
       <c r="I70" s="14" t="s">
         <v>19</v>
       </c>
@@ -2134,41 +2231,41 @@
       </c>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B71" s="36"/>
+      <c r="B71" s="30"/>
       <c r="C71" s="24"/>
       <c r="D71" s="24"/>
       <c r="E71" s="24"/>
       <c r="F71" s="24"/>
       <c r="G71" s="24"/>
-      <c r="H71" s="28"/>
+      <c r="H71" s="35"/>
       <c r="I71" s="14"/>
       <c r="J71" s="15"/>
       <c r="K71" s="6"/>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B72" s="36"/>
+      <c r="B72" s="30"/>
       <c r="C72" s="24"/>
       <c r="D72" s="24"/>
       <c r="E72" s="24"/>
       <c r="F72" s="24"/>
-      <c r="G72" s="27"/>
-      <c r="H72" s="29"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="36"/>
       <c r="I72" s="14"/>
       <c r="J72" s="14"/>
       <c r="K72" s="6"/>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B73" s="36"/>
+      <c r="B73" s="30"/>
       <c r="C73" s="24"/>
       <c r="D73" s="24"/>
       <c r="E73" s="24"/>
-      <c r="F73" s="33" t="s">
+      <c r="F73" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G73" s="26">
+      <c r="G73" s="23">
         <v>0.38735700000000001</v>
       </c>
-      <c r="H73" s="23">
+      <c r="H73" s="37">
         <v>16262100</v>
       </c>
       <c r="I73" s="14" t="s">
@@ -2182,11 +2279,11 @@
       </c>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B74" s="36"/>
+      <c r="B74" s="30"/>
       <c r="C74" s="24"/>
       <c r="D74" s="24"/>
       <c r="E74" s="24"/>
-      <c r="F74" s="33"/>
+      <c r="F74" s="26"/>
       <c r="G74" s="24"/>
       <c r="H74" s="24"/>
       <c r="I74" s="14" t="s">
@@ -2200,11 +2297,11 @@
       </c>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B75" s="36"/>
+      <c r="B75" s="30"/>
       <c r="C75" s="24"/>
       <c r="D75" s="24"/>
       <c r="E75" s="24"/>
-      <c r="F75" s="33"/>
+      <c r="F75" s="26"/>
       <c r="G75" s="24"/>
       <c r="H75" s="24"/>
       <c r="I75" s="14" t="s">
@@ -2218,11 +2315,11 @@
       </c>
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B76" s="36"/>
+      <c r="B76" s="30"/>
       <c r="C76" s="24"/>
       <c r="D76" s="24"/>
       <c r="E76" s="24"/>
-      <c r="F76" s="33"/>
+      <c r="F76" s="26"/>
       <c r="G76" s="24"/>
       <c r="H76" s="24"/>
       <c r="I76" s="14" t="s">
@@ -2236,11 +2333,11 @@
       </c>
     </row>
     <row r="77" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B77" s="36"/>
+      <c r="B77" s="30"/>
       <c r="C77" s="24"/>
       <c r="D77" s="24"/>
       <c r="E77" s="24"/>
-      <c r="F77" s="33"/>
+      <c r="F77" s="26"/>
       <c r="G77" s="24"/>
       <c r="H77" s="24"/>
       <c r="I77" s="14" t="s">
@@ -2270,11 +2367,11 @@
       </c>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B78" s="36"/>
+      <c r="B78" s="30"/>
       <c r="C78" s="24"/>
       <c r="D78" s="24"/>
       <c r="E78" s="24"/>
-      <c r="F78" s="33"/>
+      <c r="F78" s="26"/>
       <c r="G78" s="24"/>
       <c r="H78" s="24"/>
       <c r="I78" s="14" t="s">
@@ -2288,11 +2385,11 @@
       </c>
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B79" s="36"/>
+      <c r="B79" s="30"/>
       <c r="C79" s="24"/>
       <c r="D79" s="24"/>
       <c r="E79" s="24"/>
-      <c r="F79" s="33"/>
+      <c r="F79" s="26"/>
       <c r="G79" s="24"/>
       <c r="H79" s="24"/>
       <c r="I79" s="14" t="s">
@@ -2306,11 +2403,11 @@
       </c>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B80" s="36"/>
+      <c r="B80" s="30"/>
       <c r="C80" s="24"/>
       <c r="D80" s="24"/>
       <c r="E80" s="24"/>
-      <c r="F80" s="33"/>
+      <c r="F80" s="26"/>
       <c r="G80" s="24"/>
       <c r="H80" s="24"/>
       <c r="I80" s="14" t="s">
@@ -2324,11 +2421,11 @@
       </c>
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B81" s="36"/>
+      <c r="B81" s="30"/>
       <c r="C81" s="24"/>
       <c r="D81" s="24"/>
       <c r="E81" s="24"/>
-      <c r="F81" s="33"/>
+      <c r="F81" s="26"/>
       <c r="G81" s="24"/>
       <c r="H81" s="24"/>
       <c r="I81" s="14"/>
@@ -2336,29 +2433,29 @@
       <c r="K81" s="6"/>
     </row>
     <row r="82" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B82" s="36"/>
+      <c r="B82" s="30"/>
       <c r="C82" s="24"/>
       <c r="D82" s="24"/>
       <c r="E82" s="24"/>
-      <c r="F82" s="33"/>
-      <c r="G82" s="27"/>
-      <c r="H82" s="27"/>
+      <c r="F82" s="26"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="25"/>
       <c r="I82" s="14"/>
       <c r="J82" s="14"/>
       <c r="K82" s="6"/>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B83" s="36"/>
+      <c r="B83" s="30"/>
       <c r="C83" s="24"/>
       <c r="D83" s="24"/>
       <c r="E83" s="24"/>
-      <c r="F83" s="32" t="s">
+      <c r="F83" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G83" s="26">
+      <c r="G83" s="23">
         <v>0.73894599999999999</v>
       </c>
-      <c r="H83" s="23">
+      <c r="H83" s="37">
         <v>45744900</v>
       </c>
       <c r="I83" s="14" t="s">
@@ -2372,11 +2469,11 @@
       </c>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B84" s="36"/>
+      <c r="B84" s="30"/>
       <c r="C84" s="24"/>
       <c r="D84" s="24"/>
       <c r="E84" s="24"/>
-      <c r="F84" s="32"/>
+      <c r="F84" s="27"/>
       <c r="G84" s="24"/>
       <c r="H84" s="24"/>
       <c r="I84" s="14" t="s">
@@ -2390,11 +2487,11 @@
       </c>
     </row>
     <row r="85" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B85" s="36"/>
+      <c r="B85" s="30"/>
       <c r="C85" s="24"/>
       <c r="D85" s="24"/>
       <c r="E85" s="24"/>
-      <c r="F85" s="32"/>
+      <c r="F85" s="27"/>
       <c r="G85" s="24"/>
       <c r="H85" s="24"/>
       <c r="I85" s="14" t="s">
@@ -2404,11 +2501,11 @@
       <c r="K85" s="6"/>
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B86" s="36"/>
+      <c r="B86" s="30"/>
       <c r="C86" s="24"/>
       <c r="D86" s="24"/>
       <c r="E86" s="24"/>
-      <c r="F86" s="32"/>
+      <c r="F86" s="27"/>
       <c r="G86" s="24"/>
       <c r="H86" s="24"/>
       <c r="I86" s="14" t="s">
@@ -2418,11 +2515,11 @@
       <c r="K86" s="6"/>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B87" s="36"/>
+      <c r="B87" s="30"/>
       <c r="C87" s="24"/>
       <c r="D87" s="24"/>
       <c r="E87" s="24"/>
-      <c r="F87" s="32"/>
+      <c r="F87" s="27"/>
       <c r="G87" s="24"/>
       <c r="H87" s="24"/>
       <c r="I87" s="14" t="s">
@@ -2440,11 +2537,11 @@
       </c>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B88" s="36"/>
+      <c r="B88" s="30"/>
       <c r="C88" s="24"/>
       <c r="D88" s="24"/>
       <c r="E88" s="24"/>
-      <c r="F88" s="32"/>
+      <c r="F88" s="27"/>
       <c r="G88" s="24"/>
       <c r="H88" s="24"/>
       <c r="I88" s="14" t="s">
@@ -2454,11 +2551,11 @@
       <c r="K88" s="6"/>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B89" s="36"/>
+      <c r="B89" s="30"/>
       <c r="C89" s="24"/>
       <c r="D89" s="24"/>
       <c r="E89" s="24"/>
-      <c r="F89" s="32"/>
+      <c r="F89" s="27"/>
       <c r="G89" s="24"/>
       <c r="H89" s="24"/>
       <c r="I89" s="14" t="s">
@@ -2468,11 +2565,11 @@
       <c r="K89" s="6"/>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B90" s="36"/>
+      <c r="B90" s="30"/>
       <c r="C90" s="24"/>
       <c r="D90" s="24"/>
       <c r="E90" s="24"/>
-      <c r="F90" s="32"/>
+      <c r="F90" s="27"/>
       <c r="G90" s="24"/>
       <c r="H90" s="24"/>
       <c r="I90" s="14" t="s">
@@ -2482,11 +2579,11 @@
       <c r="K90" s="6"/>
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B91" s="36"/>
+      <c r="B91" s="30"/>
       <c r="C91" s="24"/>
       <c r="D91" s="24"/>
       <c r="E91" s="24"/>
-      <c r="F91" s="32"/>
+      <c r="F91" s="27"/>
       <c r="G91" s="24"/>
       <c r="H91" s="24"/>
       <c r="I91" s="14"/>
@@ -2494,33 +2591,33 @@
       <c r="K91" s="6"/>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B92" s="36"/>
+      <c r="B92" s="30"/>
       <c r="C92" s="24"/>
       <c r="D92" s="24"/>
       <c r="E92" s="24"/>
-      <c r="F92" s="32"/>
-      <c r="G92" s="27"/>
-      <c r="H92" s="27"/>
+      <c r="F92" s="27"/>
+      <c r="G92" s="25"/>
+      <c r="H92" s="25"/>
       <c r="I92" s="14"/>
       <c r="J92" s="14"/>
       <c r="K92" s="6"/>
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B93" s="36"/>
+      <c r="B93" s="30"/>
       <c r="C93" s="24"/>
-      <c r="D93" s="26">
+      <c r="D93" s="23">
         <v>2</v>
       </c>
-      <c r="E93" s="26">
+      <c r="E93" s="23">
         <v>256</v>
       </c>
-      <c r="F93" s="26" t="s">
+      <c r="F93" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G93" s="26">
+      <c r="G93" s="23">
         <v>84.790594999999996</v>
       </c>
-      <c r="H93" s="23">
+      <c r="H93" s="37">
         <v>2851762</v>
       </c>
       <c r="I93" s="14" t="s">
@@ -2534,13 +2631,13 @@
       </c>
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B94" s="36"/>
+      <c r="B94" s="30"/>
       <c r="C94" s="24"/>
       <c r="D94" s="24"/>
       <c r="E94" s="24"/>
       <c r="F94" s="24"/>
       <c r="G94" s="24"/>
-      <c r="H94" s="28"/>
+      <c r="H94" s="35"/>
       <c r="I94" s="14" t="s">
         <v>10</v>
       </c>
@@ -2552,13 +2649,13 @@
       </c>
     </row>
     <row r="95" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B95" s="36"/>
+      <c r="B95" s="30"/>
       <c r="C95" s="24"/>
       <c r="D95" s="24"/>
       <c r="E95" s="24"/>
       <c r="F95" s="24"/>
       <c r="G95" s="24"/>
-      <c r="H95" s="28"/>
+      <c r="H95" s="35"/>
       <c r="I95" s="14" t="s">
         <v>14</v>
       </c>
@@ -2570,13 +2667,13 @@
       </c>
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B96" s="36"/>
+      <c r="B96" s="30"/>
       <c r="C96" s="24"/>
       <c r="D96" s="24"/>
       <c r="E96" s="24"/>
       <c r="F96" s="24"/>
       <c r="G96" s="24"/>
-      <c r="H96" s="28"/>
+      <c r="H96" s="35"/>
       <c r="I96" s="14" t="s">
         <v>15</v>
       </c>
@@ -2588,13 +2685,13 @@
       </c>
     </row>
     <row r="97" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B97" s="36"/>
+      <c r="B97" s="30"/>
       <c r="C97" s="24"/>
       <c r="D97" s="24"/>
       <c r="E97" s="24"/>
       <c r="F97" s="24"/>
       <c r="G97" s="24"/>
-      <c r="H97" s="28"/>
+      <c r="H97" s="35"/>
       <c r="I97" s="14" t="s">
         <v>16</v>
       </c>
@@ -2612,19 +2709,19 @@
         <f>AVERAGE(J94:J102)</f>
         <v>2569750.057142857</v>
       </c>
-      <c r="O97" s="22">
+      <c r="O97" s="18">
         <f>N97/N107</f>
         <v>6.064454326896576</v>
       </c>
     </row>
     <row r="98" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B98" s="36"/>
+      <c r="B98" s="30"/>
       <c r="C98" s="24"/>
       <c r="D98" s="24"/>
       <c r="E98" s="24"/>
       <c r="F98" s="24"/>
       <c r="G98" s="24"/>
-      <c r="H98" s="28"/>
+      <c r="H98" s="35"/>
       <c r="I98" s="14" t="s">
         <v>17</v>
       </c>
@@ -2636,13 +2733,13 @@
       </c>
     </row>
     <row r="99" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B99" s="36"/>
+      <c r="B99" s="30"/>
       <c r="C99" s="24"/>
       <c r="D99" s="24"/>
       <c r="E99" s="24"/>
       <c r="F99" s="24"/>
       <c r="G99" s="24"/>
-      <c r="H99" s="28"/>
+      <c r="H99" s="35"/>
       <c r="I99" s="14" t="s">
         <v>18</v>
       </c>
@@ -2654,13 +2751,13 @@
       </c>
     </row>
     <row r="100" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B100" s="36"/>
+      <c r="B100" s="30"/>
       <c r="C100" s="24"/>
       <c r="D100" s="24"/>
       <c r="E100" s="24"/>
       <c r="F100" s="24"/>
       <c r="G100" s="24"/>
-      <c r="H100" s="28"/>
+      <c r="H100" s="35"/>
       <c r="I100" s="14" t="s">
         <v>19</v>
       </c>
@@ -2672,41 +2769,41 @@
       </c>
     </row>
     <row r="101" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B101" s="36"/>
+      <c r="B101" s="30"/>
       <c r="C101" s="24"/>
       <c r="D101" s="24"/>
       <c r="E101" s="24"/>
       <c r="F101" s="24"/>
       <c r="G101" s="24"/>
-      <c r="H101" s="28"/>
+      <c r="H101" s="35"/>
       <c r="I101" s="14"/>
       <c r="J101" s="14"/>
       <c r="K101" s="6"/>
     </row>
     <row r="102" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B102" s="36"/>
+      <c r="B102" s="30"/>
       <c r="C102" s="24"/>
       <c r="D102" s="24"/>
       <c r="E102" s="24"/>
-      <c r="F102" s="27"/>
-      <c r="G102" s="27"/>
-      <c r="H102" s="29"/>
+      <c r="F102" s="25"/>
+      <c r="G102" s="25"/>
+      <c r="H102" s="36"/>
       <c r="I102" s="14"/>
       <c r="J102" s="14"/>
       <c r="K102" s="6"/>
     </row>
     <row r="103" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B103" s="36"/>
+      <c r="B103" s="30"/>
       <c r="C103" s="24"/>
       <c r="D103" s="24"/>
       <c r="E103" s="24"/>
-      <c r="F103" s="33" t="s">
+      <c r="F103" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G103" s="26">
+      <c r="G103" s="23">
         <v>95.217349999999996</v>
       </c>
-      <c r="H103" s="23">
+      <c r="H103" s="37">
         <v>23730060</v>
       </c>
       <c r="I103" s="14" t="s">
@@ -2720,11 +2817,11 @@
       </c>
     </row>
     <row r="104" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B104" s="36"/>
+      <c r="B104" s="30"/>
       <c r="C104" s="24"/>
       <c r="D104" s="24"/>
       <c r="E104" s="24"/>
-      <c r="F104" s="33"/>
+      <c r="F104" s="26"/>
       <c r="G104" s="24"/>
       <c r="H104" s="24"/>
       <c r="I104" s="14" t="s">
@@ -2738,11 +2835,11 @@
       </c>
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B105" s="36"/>
+      <c r="B105" s="30"/>
       <c r="C105" s="24"/>
       <c r="D105" s="24"/>
       <c r="E105" s="24"/>
-      <c r="F105" s="33"/>
+      <c r="F105" s="26"/>
       <c r="G105" s="24"/>
       <c r="H105" s="24"/>
       <c r="I105" s="14" t="s">
@@ -2756,11 +2853,11 @@
       </c>
     </row>
     <row r="106" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B106" s="36"/>
+      <c r="B106" s="30"/>
       <c r="C106" s="24"/>
       <c r="D106" s="24"/>
       <c r="E106" s="24"/>
-      <c r="F106" s="33"/>
+      <c r="F106" s="26"/>
       <c r="G106" s="24"/>
       <c r="H106" s="24"/>
       <c r="I106" s="14" t="s">
@@ -2774,11 +2871,11 @@
       </c>
     </row>
     <row r="107" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B107" s="36"/>
+      <c r="B107" s="30"/>
       <c r="C107" s="24"/>
       <c r="D107" s="24"/>
       <c r="E107" s="24"/>
-      <c r="F107" s="33"/>
+      <c r="F107" s="26"/>
       <c r="G107" s="24"/>
       <c r="H107" s="24"/>
       <c r="I107" s="14" t="s">
@@ -2808,11 +2905,11 @@
       </c>
     </row>
     <row r="108" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B108" s="36"/>
+      <c r="B108" s="30"/>
       <c r="C108" s="24"/>
       <c r="D108" s="24"/>
       <c r="E108" s="24"/>
-      <c r="F108" s="33"/>
+      <c r="F108" s="26"/>
       <c r="G108" s="24"/>
       <c r="H108" s="24"/>
       <c r="I108" s="14" t="s">
@@ -2826,11 +2923,11 @@
       </c>
     </row>
     <row r="109" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B109" s="36"/>
+      <c r="B109" s="30"/>
       <c r="C109" s="24"/>
       <c r="D109" s="24"/>
       <c r="E109" s="24"/>
-      <c r="F109" s="33"/>
+      <c r="F109" s="26"/>
       <c r="G109" s="24"/>
       <c r="H109" s="24"/>
       <c r="I109" s="14" t="s">
@@ -2844,11 +2941,11 @@
       </c>
     </row>
     <row r="110" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B110" s="36"/>
+      <c r="B110" s="30"/>
       <c r="C110" s="24"/>
       <c r="D110" s="24"/>
       <c r="E110" s="24"/>
-      <c r="F110" s="33"/>
+      <c r="F110" s="26"/>
       <c r="G110" s="24"/>
       <c r="H110" s="24"/>
       <c r="I110" s="14" t="s">
@@ -2862,11 +2959,11 @@
       </c>
     </row>
     <row r="111" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B111" s="36"/>
+      <c r="B111" s="30"/>
       <c r="C111" s="24"/>
       <c r="D111" s="24"/>
       <c r="E111" s="24"/>
-      <c r="F111" s="33"/>
+      <c r="F111" s="26"/>
       <c r="G111" s="24"/>
       <c r="H111" s="24"/>
       <c r="I111" s="14"/>
@@ -2874,29 +2971,29 @@
       <c r="K111" s="6"/>
     </row>
     <row r="112" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B112" s="36"/>
+      <c r="B112" s="30"/>
       <c r="C112" s="24"/>
       <c r="D112" s="24"/>
       <c r="E112" s="24"/>
-      <c r="F112" s="33"/>
-      <c r="G112" s="27"/>
-      <c r="H112" s="27"/>
+      <c r="F112" s="26"/>
+      <c r="G112" s="25"/>
+      <c r="H112" s="25"/>
       <c r="I112" s="14"/>
       <c r="J112" s="14"/>
       <c r="K112" s="6"/>
     </row>
     <row r="113" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B113" s="36"/>
+      <c r="B113" s="30"/>
       <c r="C113" s="24"/>
       <c r="D113" s="24"/>
       <c r="E113" s="24"/>
-      <c r="F113" s="32" t="s">
+      <c r="F113" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G113" s="26">
+      <c r="G113" s="23">
         <v>88.165481999999997</v>
       </c>
-      <c r="H113" s="23">
+      <c r="H113" s="37">
         <v>47494650</v>
       </c>
       <c r="I113" s="14" t="s">
@@ -2910,11 +3007,11 @@
       </c>
     </row>
     <row r="114" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B114" s="36"/>
+      <c r="B114" s="30"/>
       <c r="C114" s="24"/>
       <c r="D114" s="24"/>
       <c r="E114" s="24"/>
-      <c r="F114" s="32"/>
+      <c r="F114" s="27"/>
       <c r="G114" s="24"/>
       <c r="H114" s="24"/>
       <c r="I114" s="14" t="s">
@@ -2928,11 +3025,11 @@
       </c>
     </row>
     <row r="115" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B115" s="36"/>
+      <c r="B115" s="30"/>
       <c r="C115" s="24"/>
       <c r="D115" s="24"/>
       <c r="E115" s="24"/>
-      <c r="F115" s="32"/>
+      <c r="F115" s="27"/>
       <c r="G115" s="24"/>
       <c r="H115" s="24"/>
       <c r="I115" s="14" t="s">
@@ -2942,11 +3039,11 @@
       <c r="K115" s="6"/>
     </row>
     <row r="116" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B116" s="36"/>
+      <c r="B116" s="30"/>
       <c r="C116" s="24"/>
       <c r="D116" s="24"/>
       <c r="E116" s="24"/>
-      <c r="F116" s="32"/>
+      <c r="F116" s="27"/>
       <c r="G116" s="24"/>
       <c r="H116" s="24"/>
       <c r="I116" s="14" t="s">
@@ -2956,11 +3053,11 @@
       <c r="K116" s="6"/>
     </row>
     <row r="117" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B117" s="36"/>
+      <c r="B117" s="30"/>
       <c r="C117" s="24"/>
       <c r="D117" s="24"/>
       <c r="E117" s="24"/>
-      <c r="F117" s="32"/>
+      <c r="F117" s="27"/>
       <c r="G117" s="24"/>
       <c r="H117" s="24"/>
       <c r="I117" s="14" t="s">
@@ -2978,11 +3075,11 @@
       </c>
     </row>
     <row r="118" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B118" s="36"/>
+      <c r="B118" s="30"/>
       <c r="C118" s="24"/>
       <c r="D118" s="24"/>
       <c r="E118" s="24"/>
-      <c r="F118" s="32"/>
+      <c r="F118" s="27"/>
       <c r="G118" s="24"/>
       <c r="H118" s="24"/>
       <c r="I118" s="14" t="s">
@@ -2992,11 +3089,11 @@
       <c r="K118" s="6"/>
     </row>
     <row r="119" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B119" s="36"/>
+      <c r="B119" s="30"/>
       <c r="C119" s="24"/>
       <c r="D119" s="24"/>
       <c r="E119" s="24"/>
-      <c r="F119" s="32"/>
+      <c r="F119" s="27"/>
       <c r="G119" s="24"/>
       <c r="H119" s="24"/>
       <c r="I119" s="14" t="s">
@@ -3006,11 +3103,11 @@
       <c r="K119" s="6"/>
     </row>
     <row r="120" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B120" s="36"/>
+      <c r="B120" s="30"/>
       <c r="C120" s="24"/>
       <c r="D120" s="24"/>
       <c r="E120" s="24"/>
-      <c r="F120" s="32"/>
+      <c r="F120" s="27"/>
       <c r="G120" s="24"/>
       <c r="H120" s="24"/>
       <c r="I120" s="14" t="s">
@@ -3020,11 +3117,11 @@
       <c r="K120" s="6"/>
     </row>
     <row r="121" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B121" s="36"/>
+      <c r="B121" s="30"/>
       <c r="C121" s="24"/>
       <c r="D121" s="24"/>
       <c r="E121" s="24"/>
-      <c r="F121" s="32"/>
+      <c r="F121" s="27"/>
       <c r="G121" s="24"/>
       <c r="H121" s="24"/>
       <c r="I121" s="14"/>
@@ -3032,19 +3129,50 @@
       <c r="K121" s="6"/>
     </row>
     <row r="122" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="37"/>
-      <c r="C122" s="25"/>
-      <c r="D122" s="25"/>
-      <c r="E122" s="25"/>
-      <c r="F122" s="34"/>
-      <c r="G122" s="25"/>
-      <c r="H122" s="25"/>
+      <c r="B122" s="31"/>
+      <c r="C122" s="32"/>
+      <c r="D122" s="32"/>
+      <c r="E122" s="32"/>
+      <c r="F122" s="28"/>
+      <c r="G122" s="32"/>
+      <c r="H122" s="32"/>
       <c r="I122" s="13"/>
       <c r="J122" s="8"/>
       <c r="K122" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="H113:H122"/>
+    <mergeCell ref="G113:G122"/>
+    <mergeCell ref="G43:G52"/>
+    <mergeCell ref="H43:H52"/>
+    <mergeCell ref="G53:G62"/>
+    <mergeCell ref="H53:H62"/>
+    <mergeCell ref="G93:G102"/>
+    <mergeCell ref="H93:H102"/>
+    <mergeCell ref="G103:G112"/>
+    <mergeCell ref="H103:H112"/>
+    <mergeCell ref="G73:G82"/>
+    <mergeCell ref="H73:H82"/>
+    <mergeCell ref="G83:G92"/>
+    <mergeCell ref="H83:H92"/>
+    <mergeCell ref="G3:G12"/>
+    <mergeCell ref="H3:H12"/>
+    <mergeCell ref="G33:G42"/>
+    <mergeCell ref="H33:H42"/>
+    <mergeCell ref="H63:H72"/>
+    <mergeCell ref="G63:G72"/>
+    <mergeCell ref="G13:G22"/>
+    <mergeCell ref="H13:H22"/>
+    <mergeCell ref="G23:G32"/>
+    <mergeCell ref="H23:H32"/>
+    <mergeCell ref="F23:F32"/>
+    <mergeCell ref="F33:F42"/>
+    <mergeCell ref="E3:E32"/>
+    <mergeCell ref="E33:E62"/>
+    <mergeCell ref="C3:C62"/>
+    <mergeCell ref="D3:D32"/>
+    <mergeCell ref="D33:D62"/>
     <mergeCell ref="F93:F102"/>
     <mergeCell ref="F103:F112"/>
     <mergeCell ref="F113:F122"/>
@@ -3061,37 +3189,6 @@
     <mergeCell ref="E93:E122"/>
     <mergeCell ref="F3:F12"/>
     <mergeCell ref="F13:F22"/>
-    <mergeCell ref="F23:F32"/>
-    <mergeCell ref="F33:F42"/>
-    <mergeCell ref="E3:E32"/>
-    <mergeCell ref="E33:E62"/>
-    <mergeCell ref="C3:C62"/>
-    <mergeCell ref="D3:D32"/>
-    <mergeCell ref="D33:D62"/>
-    <mergeCell ref="G3:G12"/>
-    <mergeCell ref="H3:H12"/>
-    <mergeCell ref="G33:G42"/>
-    <mergeCell ref="H33:H42"/>
-    <mergeCell ref="H63:H72"/>
-    <mergeCell ref="G63:G72"/>
-    <mergeCell ref="G13:G22"/>
-    <mergeCell ref="H13:H22"/>
-    <mergeCell ref="G23:G32"/>
-    <mergeCell ref="H23:H32"/>
-    <mergeCell ref="H113:H122"/>
-    <mergeCell ref="G113:G122"/>
-    <mergeCell ref="G43:G52"/>
-    <mergeCell ref="H43:H52"/>
-    <mergeCell ref="G53:G62"/>
-    <mergeCell ref="H53:H62"/>
-    <mergeCell ref="G93:G102"/>
-    <mergeCell ref="H93:H102"/>
-    <mergeCell ref="G103:G112"/>
-    <mergeCell ref="H103:H112"/>
-    <mergeCell ref="G73:G82"/>
-    <mergeCell ref="H73:H82"/>
-    <mergeCell ref="G83:G92"/>
-    <mergeCell ref="H83:H92"/>
   </mergeCells>
   <conditionalFormatting sqref="K97:K1048576 K37:K95 K17:K35 K2:K15">
     <cfRule type="colorScale" priority="8">
@@ -3196,10 +3293,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947424B0-4895-4D75-80FF-AA0EF9787147}">
-  <dimension ref="B1:O122"/>
+  <dimension ref="B1:R122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43:H52"/>
+    <sheetView tabSelected="1" topLeftCell="G92" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K106" sqref="K106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3213,13 +3310,15 @@
     <col min="7" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3245,1937 +3344,3431 @@
         <v>2</v>
       </c>
       <c r="J2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="35">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B3" s="29">
         <v>0.01</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="33">
         <v>2</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="33">
         <v>2</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="33">
         <v>16</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="33">
         <v>1.2880910000000001</v>
       </c>
-      <c r="H3" s="31">
+      <c r="H3" s="34">
         <v>151116.20000000001</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>11</v>
       </c>
       <c r="J3" s="12">
+        <v>4682500</v>
+      </c>
+      <c r="K3" s="12">
         <v>136981.79999999999</v>
       </c>
-      <c r="K3" s="11">
+      <c r="L3" s="39">
+        <f>J3/K3</f>
+        <v>34.183373265645514</v>
+      </c>
+      <c r="M3" s="41">
+        <f>10*LOG10(L3)</f>
+        <v>15.338149173188826</v>
+      </c>
+      <c r="N3" s="11">
         <v>1.380978</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="36"/>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B4" s="30"/>
       <c r="C4" s="24"/>
       <c r="D4" s="24"/>
       <c r="E4" s="24"/>
       <c r="F4" s="24"/>
       <c r="G4" s="24"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="18" t="s">
+      <c r="H4" s="35"/>
+      <c r="I4" s="20" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="21">
+        <v>47216000</v>
+      </c>
+      <c r="K4" s="21">
         <v>6617845</v>
       </c>
-      <c r="K4" s="6">
+      <c r="L4" s="40">
+        <f>J4/K4</f>
+        <v>7.1346488169487197</v>
+      </c>
+      <c r="M4" s="42">
+        <f>10*LOG10(L4)</f>
+        <v>8.5337260105054611</v>
+      </c>
+      <c r="N4" s="6">
         <v>13.808681999999999</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="36"/>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="30"/>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
       <c r="E5" s="24"/>
       <c r="F5" s="24"/>
       <c r="G5" s="24"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="18" t="s">
+      <c r="H5" s="35"/>
+      <c r="I5" s="20" t="s">
         <v>14</v>
       </c>
       <c r="J5" s="21">
+        <v>14333000</v>
+      </c>
+      <c r="K5" s="21">
         <v>365856.9</v>
       </c>
-      <c r="K5" s="6">
+      <c r="L5" s="40">
+        <f t="shared" ref="L5:L68" si="0">J5/K5</f>
+        <v>39.176519562703341</v>
+      </c>
+      <c r="M5" s="42">
+        <f t="shared" ref="M5:M68" si="1">10*LOG10(L5)</f>
+        <v>15.930258507028</v>
+      </c>
+      <c r="N5" s="6">
         <v>16.719774999999998</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="36"/>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="30"/>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="18" t="s">
+      <c r="H6" s="35"/>
+      <c r="I6" s="20" t="s">
         <v>15</v>
       </c>
       <c r="J6" s="21">
+        <v>36544000</v>
+      </c>
+      <c r="K6" s="21">
         <v>3167148</v>
       </c>
-      <c r="K6" s="6">
+      <c r="L6" s="40">
+        <f t="shared" si="0"/>
+        <v>11.538456680900293</v>
+      </c>
+      <c r="M6" s="42">
+        <f t="shared" si="1"/>
+        <v>10.621477239157622</v>
+      </c>
+      <c r="N6" s="6">
         <v>15.747567999999999</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="36"/>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="30"/>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="18" t="s">
+      <c r="H7" s="35"/>
+      <c r="I7" s="20" t="s">
         <v>16</v>
       </c>
       <c r="J7" s="21">
+        <v>54544000</v>
+      </c>
+      <c r="K7" s="21">
         <v>4432393</v>
       </c>
-      <c r="K7" s="6">
+      <c r="L7" s="40">
+        <f t="shared" si="0"/>
+        <v>12.305768012899579</v>
+      </c>
+      <c r="M7" s="42">
+        <f t="shared" si="1"/>
+        <v>10.90108723553306</v>
+      </c>
+      <c r="N7" s="6">
         <v>14.094391</v>
       </c>
-      <c r="L7" s="1">
+      <c r="O7" s="1">
+        <f>AVERAGE(N4:N12)</f>
+        <v>13.027069285714285</v>
+      </c>
+      <c r="Q7" s="17">
         <f>AVERAGE(K4:K12)</f>
-        <v>13.027069285714285</v>
-      </c>
-      <c r="N7" s="17">
-        <f>AVERAGE(J4:J12)</f>
         <v>6916520.5571428565</v>
       </c>
-      <c r="O7" s="22">
-        <f>N7/N17</f>
-        <v>11.530980103125579</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="36"/>
+      <c r="R7" s="18">
+        <f>Q7/Q17</f>
+        <v>3.0935237323786584</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="30"/>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="18" t="s">
+      <c r="H8" s="35"/>
+      <c r="I8" s="20" t="s">
         <v>17</v>
       </c>
       <c r="J8" s="21">
+        <v>46194000</v>
+      </c>
+      <c r="K8" s="21">
         <v>5531481</v>
       </c>
-      <c r="K8" s="6">
+      <c r="L8" s="40">
+        <f t="shared" si="0"/>
+        <v>8.3511088621654856</v>
+      </c>
+      <c r="M8" s="42">
+        <f t="shared" si="1"/>
+        <v>9.217441450340905</v>
+      </c>
+      <c r="N8" s="6">
         <v>8.7398450000000008</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="36"/>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="30"/>
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="18" t="s">
+      <c r="H9" s="35"/>
+      <c r="I9" s="20" t="s">
         <v>18</v>
       </c>
       <c r="J9" s="21">
+        <v>83384000</v>
+      </c>
+      <c r="K9" s="21">
         <v>13028530</v>
       </c>
-      <c r="K9" s="6">
+      <c r="L9" s="40">
+        <f t="shared" si="0"/>
+        <v>6.4001080705190843</v>
+      </c>
+      <c r="M9" s="42">
+        <f t="shared" si="1"/>
+        <v>8.0618730742667335</v>
+      </c>
+      <c r="N9" s="6">
         <v>12.131944000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="36"/>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="30"/>
       <c r="C10" s="24"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="18" t="s">
+      <c r="H10" s="35"/>
+      <c r="I10" s="20" t="s">
         <v>19</v>
       </c>
       <c r="J10" s="21">
+        <v>125950000</v>
+      </c>
+      <c r="K10" s="21">
         <v>15272390</v>
       </c>
-      <c r="K10" s="6">
+      <c r="L10" s="40">
+        <f t="shared" si="0"/>
+        <v>8.2469083097013627</v>
+      </c>
+      <c r="M10" s="42">
+        <f t="shared" si="1"/>
+        <v>9.1629116604220133</v>
+      </c>
+      <c r="N10" s="6">
         <v>9.9472799999999992</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="36"/>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="30"/>
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="36"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="40" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M11" s="42" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="30"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="36"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="40" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M12" s="42" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="30"/>
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="23">
         <v>0.748201</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="37">
         <v>4357841</v>
       </c>
-      <c r="I13" s="18" t="s">
+      <c r="I13" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="J13" s="21"/>
-      <c r="K13" s="6"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="36"/>
+      <c r="J13" s="21">
+        <v>4682500</v>
+      </c>
+      <c r="K13" s="21">
+        <v>469811.20000000001</v>
+      </c>
+      <c r="L13" s="40">
+        <f t="shared" si="0"/>
+        <v>9.9667696300130775</v>
+      </c>
+      <c r="M13" s="42">
+        <f t="shared" si="1"/>
+        <v>9.9855442017823286</v>
+      </c>
+      <c r="N13" s="6">
+        <v>1.49281</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="30"/>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
-      <c r="F14" s="33"/>
+      <c r="F14" s="26"/>
       <c r="G14" s="24"/>
       <c r="H14" s="24"/>
-      <c r="I14" s="18" t="s">
+      <c r="I14" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="21"/>
-      <c r="K14" s="6"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="36"/>
+      <c r="J14" s="21">
+        <v>47216000</v>
+      </c>
+      <c r="K14" s="21">
+        <v>2213120</v>
+      </c>
+      <c r="L14" s="40">
+        <f t="shared" si="0"/>
+        <v>21.334586466165412</v>
+      </c>
+      <c r="M14" s="42">
+        <f t="shared" si="1"/>
+        <v>13.290842292340933</v>
+      </c>
+      <c r="N14" s="6">
+        <v>17.004883</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="30"/>
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
-      <c r="F15" s="33"/>
+      <c r="F15" s="26"/>
       <c r="G15" s="24"/>
       <c r="H15" s="24"/>
-      <c r="I15" s="18" t="s">
+      <c r="I15" s="20" t="s">
         <v>14</v>
       </c>
       <c r="J15" s="21">
+        <v>14333000</v>
+      </c>
+      <c r="K15" s="21">
         <v>599820.69999999995</v>
       </c>
-      <c r="K15" s="6">
+      <c r="L15" s="40">
+        <f t="shared" si="0"/>
+        <v>23.895474097509474</v>
+      </c>
+      <c r="M15" s="42">
+        <f t="shared" si="1"/>
+        <v>13.783156515502499</v>
+      </c>
+      <c r="N15" s="6">
         <v>17.440650000000002</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="36"/>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="30"/>
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
-      <c r="F16" s="33"/>
+      <c r="F16" s="26"/>
       <c r="G16" s="24"/>
       <c r="H16" s="24"/>
-      <c r="I16" s="18" t="s">
+      <c r="I16" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="21"/>
-      <c r="K16" s="6"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="36"/>
+      <c r="J16" s="21">
+        <v>36544000</v>
+      </c>
+      <c r="K16" s="21">
+        <v>1322076</v>
+      </c>
+      <c r="L16" s="40">
+        <f t="shared" si="0"/>
+        <v>27.641376138739375</v>
+      </c>
+      <c r="M16" s="42">
+        <f t="shared" si="1"/>
+        <v>14.41559660792735</v>
+      </c>
+      <c r="N16" s="6">
+        <v>13.60632</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B17" s="30"/>
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
-      <c r="F17" s="33"/>
+      <c r="F17" s="26"/>
       <c r="G17" s="24"/>
       <c r="H17" s="24"/>
-      <c r="I17" s="18" t="s">
+      <c r="I17" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="21"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="1">
+      <c r="J17" s="21">
+        <v>54544000</v>
+      </c>
+      <c r="K17" s="21">
+        <v>1530956</v>
+      </c>
+      <c r="L17" s="40">
+        <f t="shared" si="0"/>
+        <v>35.627411891654624</v>
+      </c>
+      <c r="M17" s="42">
+        <f t="shared" si="1"/>
+        <v>15.517842747226743</v>
+      </c>
+      <c r="N17" s="6">
+        <v>13.809574</v>
+      </c>
+      <c r="O17" s="1">
+        <f>AVERAGE(N14:N22)</f>
+        <v>13.571637142857142</v>
+      </c>
+      <c r="P17" s="1">
+        <f>AVERAGE(O7:O27)</f>
+        <v>13.437736761904759</v>
+      </c>
+      <c r="Q17" s="17">
         <f>AVERAGE(K14:K22)</f>
-        <v>17.440650000000002</v>
-      </c>
-      <c r="M17" s="1">
-        <f>AVERAGE(L7:L27)</f>
-        <v>16.165022095238097</v>
-      </c>
-      <c r="N17" s="17">
-        <f>AVERAGE(J14:J22)</f>
-        <v>599820.69999999995</v>
-      </c>
-      <c r="O17" s="17">
-        <f>AVERAGE(N7:N27)</f>
-        <v>2662502.719047619</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="36"/>
+        <v>2235806.5285714283</v>
+      </c>
+      <c r="R17" s="17">
+        <f>AVERAGE(Q7:Q27)</f>
+        <v>3397049.9190476183</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B18" s="30"/>
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
-      <c r="F18" s="33"/>
+      <c r="F18" s="26"/>
       <c r="G18" s="24"/>
       <c r="H18" s="24"/>
-      <c r="I18" s="18" t="s">
+      <c r="I18" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="21"/>
-      <c r="K18" s="6"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="36"/>
+      <c r="J18" s="21">
+        <v>46194000</v>
+      </c>
+      <c r="K18" s="21">
+        <v>1810924</v>
+      </c>
+      <c r="L18" s="40">
+        <f t="shared" si="0"/>
+        <v>25.508524929814836</v>
+      </c>
+      <c r="M18" s="42">
+        <f t="shared" si="1"/>
+        <v>14.066853455810266</v>
+      </c>
+      <c r="N18" s="6">
+        <v>9.8107340000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B19" s="30"/>
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
-      <c r="F19" s="33"/>
+      <c r="F19" s="26"/>
       <c r="G19" s="24"/>
       <c r="H19" s="24"/>
-      <c r="I19" s="18" t="s">
+      <c r="I19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="21"/>
-      <c r="K19" s="6"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="36"/>
+      <c r="J19" s="21">
+        <v>83384000</v>
+      </c>
+      <c r="K19" s="21">
+        <v>4106295</v>
+      </c>
+      <c r="L19" s="40">
+        <f t="shared" si="0"/>
+        <v>20.306383248159229</v>
+      </c>
+      <c r="M19" s="42">
+        <f t="shared" si="1"/>
+        <v>13.076325784890168</v>
+      </c>
+      <c r="N19" s="6">
+        <v>13.146990000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B20" s="30"/>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
-      <c r="F20" s="33"/>
+      <c r="F20" s="26"/>
       <c r="G20" s="24"/>
       <c r="H20" s="24"/>
-      <c r="I20" s="18" t="s">
+      <c r="I20" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="21"/>
-      <c r="K20" s="6"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="36"/>
+      <c r="J20" s="21">
+        <v>125950000</v>
+      </c>
+      <c r="K20" s="21">
+        <v>4067454</v>
+      </c>
+      <c r="L20" s="40">
+        <f t="shared" si="0"/>
+        <v>30.965316387106036</v>
+      </c>
+      <c r="M20" s="42">
+        <f t="shared" si="1"/>
+        <v>14.908755217579049</v>
+      </c>
+      <c r="N20" s="6">
+        <v>10.182309</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B21" s="30"/>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
-      <c r="F21" s="33"/>
+      <c r="F21" s="26"/>
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="6"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="36"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="40" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M21" s="42" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B22" s="30"/>
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="6"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="36"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="40" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M22" s="42" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B23" s="30"/>
       <c r="C23" s="24"/>
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
-      <c r="F23" s="32" t="s">
+      <c r="F23" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="26">
+      <c r="G23" s="23">
         <v>2.5743520000000002</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="37">
         <v>2474968</v>
       </c>
-      <c r="I23" s="18" t="s">
+      <c r="I23" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="J23" s="21"/>
-      <c r="K23" s="6"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="36"/>
+      <c r="J23" s="21">
+        <v>4682500</v>
+      </c>
+      <c r="K23" s="21">
+        <v>274010.90000000002</v>
+      </c>
+      <c r="L23" s="40">
+        <f t="shared" si="0"/>
+        <v>17.088736251003152</v>
+      </c>
+      <c r="M23" s="42">
+        <f t="shared" si="1"/>
+        <v>12.327099468922251</v>
+      </c>
+      <c r="N23" s="6">
+        <v>1.613235</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B24" s="30"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
-      <c r="F24" s="32"/>
+      <c r="F24" s="27"/>
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
-      <c r="I24" s="18" t="s">
+      <c r="I24" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J24" s="21"/>
-      <c r="K24" s="6"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="36"/>
+      <c r="J24" s="21">
+        <v>47216000</v>
+      </c>
+      <c r="K24" s="21">
+        <v>1039261</v>
+      </c>
+      <c r="L24" s="40">
+        <f t="shared" si="0"/>
+        <v>45.432283131956268</v>
+      </c>
+      <c r="M24" s="42">
+        <f t="shared" si="1"/>
+        <v>16.57364562187621</v>
+      </c>
+      <c r="N24" s="6">
+        <v>15.427098000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B25" s="30"/>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
-      <c r="F25" s="32"/>
+      <c r="F25" s="27"/>
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
-      <c r="I25" s="18" t="s">
+      <c r="I25" s="20" t="s">
         <v>14</v>
       </c>
       <c r="J25" s="21">
+        <v>14333000</v>
+      </c>
+      <c r="K25" s="21">
         <v>471166.9</v>
       </c>
-      <c r="K25" s="6">
+      <c r="L25" s="40">
+        <f t="shared" si="0"/>
+        <v>30.420218398193928</v>
+      </c>
+      <c r="M25" s="42">
+        <f t="shared" si="1"/>
+        <v>14.831623276916675</v>
+      </c>
+      <c r="N25" s="6">
         <v>18.027346999999999</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="36"/>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B26" s="30"/>
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
-      <c r="F26" s="32"/>
+      <c r="F26" s="27"/>
       <c r="G26" s="24"/>
       <c r="H26" s="24"/>
-      <c r="I26" s="18" t="s">
+      <c r="I26" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="J26" s="18"/>
-      <c r="K26" s="6"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="36"/>
+      <c r="J26" s="21">
+        <v>36544000</v>
+      </c>
+      <c r="K26" s="21">
+        <v>858761.7</v>
+      </c>
+      <c r="L26" s="40">
+        <f t="shared" si="0"/>
+        <v>42.554296494592158</v>
+      </c>
+      <c r="M26" s="42">
+        <f t="shared" si="1"/>
+        <v>16.289434151771804</v>
+      </c>
+      <c r="N26" s="6">
+        <v>16.781103999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B27" s="30"/>
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
-      <c r="F27" s="32"/>
+      <c r="F27" s="27"/>
       <c r="G27" s="24"/>
       <c r="H27" s="24"/>
-      <c r="I27" s="18" t="s">
+      <c r="I27" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J27" s="18"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="1">
+      <c r="J27" s="21">
+        <v>54544000</v>
+      </c>
+      <c r="K27" s="21">
+        <v>1041173</v>
+      </c>
+      <c r="L27" s="40">
+        <f t="shared" si="0"/>
+        <v>52.387067278924825</v>
+      </c>
+      <c r="M27" s="42">
+        <f t="shared" si="1"/>
+        <v>17.19224086551969</v>
+      </c>
+      <c r="N27" s="6">
+        <v>15.510705</v>
+      </c>
+      <c r="O27" s="1">
+        <f>AVERAGE(N24:N32)</f>
+        <v>13.714503857142855</v>
+      </c>
+      <c r="Q27" s="17">
         <f>AVERAGE(K24:K32)</f>
-        <v>18.027346999999999</v>
-      </c>
-      <c r="N27" s="17">
-        <f>AVERAGE(J24:J32)</f>
-        <v>471166.9</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="36"/>
+        <v>1038822.6714285713</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B28" s="30"/>
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
-      <c r="F28" s="32"/>
+      <c r="F28" s="27"/>
       <c r="G28" s="24"/>
       <c r="H28" s="24"/>
-      <c r="I28" s="18" t="s">
+      <c r="I28" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J28" s="18"/>
-      <c r="K28" s="6"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="36"/>
+      <c r="J28" s="21">
+        <v>46194000</v>
+      </c>
+      <c r="K28" s="21">
+        <v>869699.1</v>
+      </c>
+      <c r="L28" s="40">
+        <f t="shared" si="0"/>
+        <v>53.114922161009481</v>
+      </c>
+      <c r="M28" s="42">
+        <f t="shared" si="1"/>
+        <v>17.252165493632823</v>
+      </c>
+      <c r="N28" s="6">
+        <v>8.9991800000000008</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B29" s="30"/>
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
-      <c r="F29" s="32"/>
+      <c r="F29" s="27"/>
       <c r="G29" s="24"/>
       <c r="H29" s="24"/>
-      <c r="I29" s="18" t="s">
+      <c r="I29" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="J29" s="18"/>
-      <c r="K29" s="6"/>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="36"/>
+      <c r="J29" s="21">
+        <v>83384000</v>
+      </c>
+      <c r="K29" s="21">
+        <v>1358401</v>
+      </c>
+      <c r="L29" s="40">
+        <f t="shared" si="0"/>
+        <v>61.383935965889307</v>
+      </c>
+      <c r="M29" s="42">
+        <f t="shared" si="1"/>
+        <v>17.880547321483093</v>
+      </c>
+      <c r="N29" s="6">
+        <v>11.870108999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B30" s="30"/>
       <c r="C30" s="24"/>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
-      <c r="F30" s="32"/>
+      <c r="F30" s="27"/>
       <c r="G30" s="24"/>
       <c r="H30" s="24"/>
-      <c r="I30" s="18" t="s">
+      <c r="I30" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J30" s="18"/>
-      <c r="K30" s="6"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="36"/>
+      <c r="J30" s="21">
+        <v>125950000</v>
+      </c>
+      <c r="K30" s="21">
+        <v>1633296</v>
+      </c>
+      <c r="L30" s="40">
+        <f t="shared" si="0"/>
+        <v>77.114007503844988</v>
+      </c>
+      <c r="M30" s="42">
+        <f t="shared" si="1"/>
+        <v>18.871332733697457</v>
+      </c>
+      <c r="N30" s="6">
+        <v>9.3859840000000005</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B31" s="30"/>
       <c r="C31" s="24"/>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
-      <c r="F31" s="32"/>
+      <c r="F31" s="27"/>
       <c r="G31" s="24"/>
       <c r="H31" s="24"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="6"/>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="36"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="40" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M31" s="42" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N31" s="6"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B32" s="30"/>
       <c r="C32" s="24"/>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="6"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="36"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="40" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M32" s="42" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N32" s="6"/>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B33" s="30"/>
       <c r="C33" s="24"/>
-      <c r="D33" s="26">
+      <c r="D33" s="23">
         <v>4</v>
       </c>
-      <c r="E33" s="26">
+      <c r="E33" s="23">
         <v>256</v>
       </c>
-      <c r="F33" s="26" t="s">
+      <c r="F33" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G33" s="26">
+      <c r="G33" s="23">
         <v>179.087603</v>
       </c>
-      <c r="H33" s="23">
+      <c r="H33" s="37">
         <v>352838.5</v>
       </c>
-      <c r="I33" s="18" t="s">
+      <c r="I33" s="20" t="s">
         <v>11</v>
       </c>
       <c r="J33" s="21">
+        <v>4682500</v>
+      </c>
+      <c r="K33" s="21">
         <v>10216.14</v>
       </c>
-      <c r="K33" s="6">
+      <c r="L33" s="40">
+        <f t="shared" si="0"/>
+        <v>458.34336647696688</v>
+      </c>
+      <c r="M33" s="42">
+        <f t="shared" si="1"/>
+        <v>26.611909502638365</v>
+      </c>
+      <c r="N33" s="6">
         <v>17.347313</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="36"/>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B34" s="30"/>
       <c r="C34" s="24"/>
       <c r="D34" s="24"/>
       <c r="E34" s="24"/>
       <c r="F34" s="24"/>
       <c r="G34" s="24"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="18" t="s">
+      <c r="H34" s="35"/>
+      <c r="I34" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J34" s="21"/>
-      <c r="K34" s="6"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="36"/>
+      <c r="J34" s="21">
+        <v>47216000</v>
+      </c>
+      <c r="K34" s="21">
+        <v>831247.4</v>
+      </c>
+      <c r="L34" s="40">
+        <f t="shared" si="0"/>
+        <v>56.801380671987665</v>
+      </c>
+      <c r="M34" s="42">
+        <f t="shared" si="1"/>
+        <v>17.543588922416184</v>
+      </c>
+      <c r="N34" s="6">
+        <v>213.74604099999999</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B35" s="30"/>
       <c r="C35" s="24"/>
       <c r="D35" s="24"/>
       <c r="E35" s="24"/>
       <c r="F35" s="24"/>
       <c r="G35" s="24"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="18" t="s">
+      <c r="H35" s="35"/>
+      <c r="I35" s="20" t="s">
         <v>14</v>
       </c>
       <c r="J35" s="21">
+        <v>14333000</v>
+      </c>
+      <c r="K35" s="21">
         <v>31469.85</v>
       </c>
-      <c r="K35" s="6">
+      <c r="L35" s="40">
+        <f t="shared" si="0"/>
+        <v>455.45180545824019</v>
+      </c>
+      <c r="M35" s="42">
+        <f t="shared" si="1"/>
+        <v>26.584424280029513</v>
+      </c>
+      <c r="N35" s="6">
         <v>219.54982000000001</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="36"/>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B36" s="30"/>
       <c r="C36" s="24"/>
       <c r="D36" s="24"/>
       <c r="E36" s="24"/>
       <c r="F36" s="24"/>
       <c r="G36" s="24"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="18" t="s">
+      <c r="H36" s="35"/>
+      <c r="I36" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="J36" s="21"/>
-      <c r="K36" s="6"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="36"/>
+      <c r="J36" s="21">
+        <v>36544000</v>
+      </c>
+      <c r="K36" s="21">
+        <v>313711.90000000002</v>
+      </c>
+      <c r="L36" s="40">
+        <f t="shared" si="0"/>
+        <v>116.48904615986832</v>
+      </c>
+      <c r="M36" s="42">
+        <f t="shared" si="1"/>
+        <v>20.662850891733264</v>
+      </c>
+      <c r="N36" s="6">
+        <v>224.815876</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B37" s="30"/>
       <c r="C37" s="24"/>
       <c r="D37" s="24"/>
       <c r="E37" s="24"/>
       <c r="F37" s="24"/>
       <c r="G37" s="24"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="18" t="s">
+      <c r="H37" s="35"/>
+      <c r="I37" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J37" s="21"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="1">
+      <c r="J37" s="21">
+        <v>54544000</v>
+      </c>
+      <c r="K37" s="21">
+        <v>277118.09999999998</v>
+      </c>
+      <c r="L37" s="40">
+        <f t="shared" si="0"/>
+        <v>196.82582985376993</v>
+      </c>
+      <c r="M37" s="42">
+        <f t="shared" si="1"/>
+        <v>22.940820911830436</v>
+      </c>
+      <c r="N37" s="6">
+        <v>210.14760000000001</v>
+      </c>
+      <c r="O37" s="1">
+        <f>AVERAGE(N34:N42)</f>
+        <v>217.06483424999999</v>
+      </c>
+      <c r="Q37" s="17">
         <f>AVERAGE(K34:K42)</f>
-        <v>219.54982000000001</v>
-      </c>
-      <c r="N37" s="17">
-        <f>AVERAGE(J34:J42)</f>
-        <v>31469.85</v>
-      </c>
-      <c r="O37" s="22" t="e">
-        <f>N37/N47</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="36"/>
+        <v>363386.8125</v>
+      </c>
+      <c r="R37" s="18">
+        <f>Q37/Q47</f>
+        <v>3.2986404868803021</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B38" s="30"/>
       <c r="C38" s="24"/>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
       <c r="F38" s="24"/>
       <c r="G38" s="24"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="18" t="s">
+      <c r="H38" s="35"/>
+      <c r="I38" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J38" s="21"/>
-      <c r="K38" s="6"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="36"/>
+      <c r="J38" s="21">
+        <v>46194000</v>
+      </c>
+      <c r="K38" s="21"/>
+      <c r="L38" s="40" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M38" s="42" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N38" s="6"/>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B39" s="30"/>
       <c r="C39" s="24"/>
       <c r="D39" s="24"/>
       <c r="E39" s="24"/>
       <c r="F39" s="24"/>
       <c r="G39" s="24"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="18" t="s">
+      <c r="H39" s="35"/>
+      <c r="I39" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="J39" s="21"/>
-      <c r="K39" s="6"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="36"/>
+      <c r="J39" s="21">
+        <v>83384000</v>
+      </c>
+      <c r="K39" s="21"/>
+      <c r="L39" s="40" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M39" s="42" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N39" s="6"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B40" s="30"/>
       <c r="C40" s="24"/>
       <c r="D40" s="24"/>
       <c r="E40" s="24"/>
       <c r="F40" s="24"/>
       <c r="G40" s="24"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="18" t="s">
+      <c r="H40" s="35"/>
+      <c r="I40" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J40" s="21"/>
-      <c r="K40" s="6"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="36"/>
+      <c r="J40" s="21">
+        <v>125950000</v>
+      </c>
+      <c r="K40" s="21"/>
+      <c r="L40" s="40" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M40" s="42" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N40" s="6"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B41" s="30"/>
       <c r="C41" s="24"/>
       <c r="D41" s="24"/>
       <c r="E41" s="24"/>
       <c r="F41" s="24"/>
       <c r="G41" s="24"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="6"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="36"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="40" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M41" s="42" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N41" s="6"/>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B42" s="30"/>
       <c r="C42" s="24"/>
       <c r="D42" s="24"/>
       <c r="E42" s="24"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="6"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B43" s="36"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="40" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M42" s="42" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N42" s="6"/>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B43" s="30"/>
       <c r="C43" s="24"/>
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
-      <c r="F43" s="33" t="s">
+      <c r="F43" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G43" s="26"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="18" t="s">
+      <c r="G43" s="23">
+        <v>114.405906</v>
+      </c>
+      <c r="H43" s="37">
+        <v>3707944</v>
+      </c>
+      <c r="I43" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="J43" s="21"/>
-      <c r="K43" s="6"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="36"/>
+      <c r="J43" s="21">
+        <v>4682500</v>
+      </c>
+      <c r="K43" s="21"/>
+      <c r="L43" s="40" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M43" s="42" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N43" s="6"/>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B44" s="30"/>
       <c r="C44" s="24"/>
       <c r="D44" s="24"/>
       <c r="E44" s="24"/>
-      <c r="F44" s="33"/>
+      <c r="F44" s="26"/>
       <c r="G44" s="24"/>
       <c r="H44" s="24"/>
-      <c r="I44" s="18" t="s">
+      <c r="I44" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J44" s="21"/>
-      <c r="K44" s="6"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B45" s="36"/>
+      <c r="J44" s="21">
+        <v>47216000</v>
+      </c>
+      <c r="K44" s="21"/>
+      <c r="L44" s="40" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M44" s="42" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N44" s="6"/>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B45" s="30"/>
       <c r="C45" s="24"/>
       <c r="D45" s="24"/>
       <c r="E45" s="24"/>
-      <c r="F45" s="33"/>
+      <c r="F45" s="26"/>
       <c r="G45" s="24"/>
       <c r="H45" s="24"/>
-      <c r="I45" s="18" t="s">
+      <c r="I45" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="J45" s="21"/>
-      <c r="K45" s="6"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B46" s="36"/>
+      <c r="J45" s="21">
+        <v>14333000</v>
+      </c>
+      <c r="K45" s="21"/>
+      <c r="L45" s="40" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M45" s="42" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N45" s="6"/>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B46" s="30"/>
       <c r="C46" s="24"/>
       <c r="D46" s="24"/>
       <c r="E46" s="24"/>
-      <c r="F46" s="33"/>
+      <c r="F46" s="26"/>
       <c r="G46" s="24"/>
       <c r="H46" s="24"/>
-      <c r="I46" s="18" t="s">
+      <c r="I46" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="J46" s="21"/>
-      <c r="K46" s="6"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B47" s="36"/>
+      <c r="J46" s="21">
+        <v>36544000</v>
+      </c>
+      <c r="K46" s="21">
+        <v>110162.6</v>
+      </c>
+      <c r="L46" s="40">
+        <f t="shared" si="0"/>
+        <v>331.72782777458048</v>
+      </c>
+      <c r="M46" s="42">
+        <f t="shared" si="1"/>
+        <v>25.207819048689593</v>
+      </c>
+      <c r="N46" s="6">
+        <v>208.98937799999999</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B47" s="30"/>
       <c r="C47" s="24"/>
       <c r="D47" s="24"/>
       <c r="E47" s="24"/>
-      <c r="F47" s="33"/>
+      <c r="F47" s="26"/>
       <c r="G47" s="24"/>
       <c r="H47" s="24"/>
-      <c r="I47" s="18" t="s">
+      <c r="I47" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J47" s="21"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="1" t="e">
+      <c r="J47" s="21">
+        <v>54544000</v>
+      </c>
+      <c r="K47" s="21"/>
+      <c r="L47" s="40" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M47" s="42" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N47" s="6"/>
+      <c r="O47" s="1">
+        <f>AVERAGE(N44:N52)</f>
+        <v>208.98937799999999</v>
+      </c>
+      <c r="P47" s="1">
+        <f>AVERAGE(O37:O57)</f>
+        <v>210.33863041666666</v>
+      </c>
+      <c r="Q47" s="17">
         <f>AVERAGE(K44:K52)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M47" s="1" t="e">
-        <f>AVERAGE(L37:L57)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N47" s="17" t="e">
-        <f>AVERAGE(J44:J52)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O47" s="17" t="e">
-        <f>AVERAGE(N37:N57)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B48" s="36"/>
+        <v>110162.6</v>
+      </c>
+      <c r="R47" s="17">
+        <f>AVERAGE(Q37:Q57)</f>
+        <v>192509.00416666665</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B48" s="30"/>
       <c r="C48" s="24"/>
       <c r="D48" s="24"/>
       <c r="E48" s="24"/>
-      <c r="F48" s="33"/>
+      <c r="F48" s="26"/>
       <c r="G48" s="24"/>
       <c r="H48" s="24"/>
-      <c r="I48" s="18" t="s">
+      <c r="I48" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J48" s="21"/>
-      <c r="K48" s="6"/>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B49" s="36"/>
+      <c r="J48" s="21">
+        <v>46194000</v>
+      </c>
+      <c r="K48" s="21"/>
+      <c r="L48" s="40" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M48" s="42" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N48" s="6"/>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B49" s="30"/>
       <c r="C49" s="24"/>
       <c r="D49" s="24"/>
       <c r="E49" s="24"/>
-      <c r="F49" s="33"/>
+      <c r="F49" s="26"/>
       <c r="G49" s="24"/>
       <c r="H49" s="24"/>
-      <c r="I49" s="18" t="s">
+      <c r="I49" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="J49" s="21"/>
-      <c r="K49" s="6"/>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B50" s="36"/>
+      <c r="J49" s="21">
+        <v>83384000</v>
+      </c>
+      <c r="K49" s="21"/>
+      <c r="L49" s="40" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M49" s="42" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N49" s="6"/>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B50" s="30"/>
       <c r="C50" s="24"/>
       <c r="D50" s="24"/>
       <c r="E50" s="24"/>
-      <c r="F50" s="33"/>
+      <c r="F50" s="26"/>
       <c r="G50" s="24"/>
       <c r="H50" s="24"/>
-      <c r="I50" s="18" t="s">
+      <c r="I50" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J50" s="21"/>
-      <c r="K50" s="6"/>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B51" s="36"/>
+      <c r="J50" s="21">
+        <v>125950000</v>
+      </c>
+      <c r="K50" s="21"/>
+      <c r="L50" s="40" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M50" s="42" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N50" s="6"/>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B51" s="30"/>
       <c r="C51" s="24"/>
       <c r="D51" s="24"/>
       <c r="E51" s="24"/>
-      <c r="F51" s="33"/>
+      <c r="F51" s="26"/>
       <c r="G51" s="24"/>
       <c r="H51" s="24"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="6"/>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B52" s="36"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="40" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M51" s="42" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N51" s="6"/>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B52" s="30"/>
       <c r="C52" s="24"/>
       <c r="D52" s="24"/>
       <c r="E52" s="24"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="6"/>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B53" s="36"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="40" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M52" s="42" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N52" s="6"/>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B53" s="30"/>
       <c r="C53" s="24"/>
       <c r="D53" s="24"/>
       <c r="E53" s="24"/>
-      <c r="F53" s="32" t="s">
+      <c r="F53" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G53" s="26"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="18" t="s">
+      <c r="G53" s="23">
+        <v>556.13250200000004</v>
+      </c>
+      <c r="H53" s="37">
+        <v>1929043</v>
+      </c>
+      <c r="I53" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="J53" s="21"/>
-      <c r="K53" s="6"/>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B54" s="36"/>
+      <c r="J53" s="21">
+        <v>4682500</v>
+      </c>
+      <c r="K53" s="21"/>
+      <c r="L53" s="40" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M53" s="42" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N53" s="6"/>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B54" s="30"/>
       <c r="C54" s="24"/>
       <c r="D54" s="24"/>
       <c r="E54" s="24"/>
-      <c r="F54" s="32"/>
+      <c r="F54" s="27"/>
       <c r="G54" s="24"/>
       <c r="H54" s="24"/>
-      <c r="I54" s="18" t="s">
+      <c r="I54" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J54" s="21"/>
-      <c r="K54" s="6"/>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B55" s="36"/>
+      <c r="J54" s="21">
+        <v>47216000</v>
+      </c>
+      <c r="K54" s="21"/>
+      <c r="L54" s="40" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M54" s="42" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N54" s="6"/>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B55" s="30"/>
       <c r="C55" s="24"/>
       <c r="D55" s="24"/>
       <c r="E55" s="24"/>
-      <c r="F55" s="32"/>
+      <c r="F55" s="27"/>
       <c r="G55" s="24"/>
       <c r="H55" s="24"/>
-      <c r="I55" s="18" t="s">
+      <c r="I55" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="J55" s="18"/>
-      <c r="K55" s="6"/>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B56" s="36"/>
+      <c r="J55" s="21">
+        <v>14333000</v>
+      </c>
+      <c r="K55" s="20"/>
+      <c r="L55" s="40" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M55" s="42" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N55" s="6"/>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B56" s="30"/>
       <c r="C56" s="24"/>
       <c r="D56" s="24"/>
       <c r="E56" s="24"/>
-      <c r="F56" s="32"/>
+      <c r="F56" s="27"/>
       <c r="G56" s="24"/>
       <c r="H56" s="24"/>
-      <c r="I56" s="18" t="s">
+      <c r="I56" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="J56" s="18"/>
-      <c r="K56" s="6"/>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B57" s="36"/>
+      <c r="J56" s="21">
+        <v>36544000</v>
+      </c>
+      <c r="K56" s="20"/>
+      <c r="L56" s="40" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M56" s="42" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N56" s="6"/>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B57" s="30"/>
       <c r="C57" s="24"/>
       <c r="D57" s="24"/>
       <c r="E57" s="24"/>
-      <c r="F57" s="32"/>
+      <c r="F57" s="27"/>
       <c r="G57" s="24"/>
       <c r="H57" s="24"/>
-      <c r="I57" s="18" t="s">
+      <c r="I57" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J57" s="18"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="1" t="e">
+      <c r="J57" s="21">
+        <v>54544000</v>
+      </c>
+      <c r="K57" s="21">
+        <v>103977.60000000001</v>
+      </c>
+      <c r="L57" s="40">
+        <f t="shared" si="0"/>
+        <v>524.57452374357547</v>
+      </c>
+      <c r="M57" s="42">
+        <f t="shared" si="1"/>
+        <v>27.198071950110069</v>
+      </c>
+      <c r="N57" s="6">
+        <v>204.961679</v>
+      </c>
+      <c r="O57" s="1">
+        <f>AVERAGE(N54:N62)</f>
+        <v>204.961679</v>
+      </c>
+      <c r="Q57" s="17">
         <f>AVERAGE(K54:K62)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N57" s="17" t="e">
-        <f>AVERAGE(J54:J62)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B58" s="36"/>
+        <v>103977.60000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B58" s="30"/>
       <c r="C58" s="24"/>
       <c r="D58" s="24"/>
       <c r="E58" s="24"/>
-      <c r="F58" s="32"/>
+      <c r="F58" s="27"/>
       <c r="G58" s="24"/>
       <c r="H58" s="24"/>
-      <c r="I58" s="18" t="s">
+      <c r="I58" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J58" s="18"/>
-      <c r="K58" s="6"/>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B59" s="36"/>
+      <c r="J58" s="21">
+        <v>46194000</v>
+      </c>
+      <c r="K58" s="20"/>
+      <c r="L58" s="40" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M58" s="42" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N58" s="6"/>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B59" s="30"/>
       <c r="C59" s="24"/>
       <c r="D59" s="24"/>
       <c r="E59" s="24"/>
-      <c r="F59" s="32"/>
+      <c r="F59" s="27"/>
       <c r="G59" s="24"/>
       <c r="H59" s="24"/>
-      <c r="I59" s="18" t="s">
+      <c r="I59" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="J59" s="18"/>
-      <c r="K59" s="6"/>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B60" s="36"/>
+      <c r="J59" s="21">
+        <v>83384000</v>
+      </c>
+      <c r="K59" s="20"/>
+      <c r="L59" s="40" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M59" s="42" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N59" s="6"/>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B60" s="30"/>
       <c r="C60" s="24"/>
       <c r="D60" s="24"/>
       <c r="E60" s="24"/>
-      <c r="F60" s="32"/>
+      <c r="F60" s="27"/>
       <c r="G60" s="24"/>
       <c r="H60" s="24"/>
-      <c r="I60" s="18" t="s">
+      <c r="I60" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J60" s="18"/>
-      <c r="K60" s="6"/>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B61" s="36"/>
+      <c r="J60" s="21">
+        <v>125950000</v>
+      </c>
+      <c r="K60" s="20"/>
+      <c r="L60" s="40" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M60" s="42" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N60" s="6"/>
+    </row>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B61" s="30"/>
       <c r="C61" s="24"/>
       <c r="D61" s="24"/>
       <c r="E61" s="24"/>
-      <c r="F61" s="32"/>
+      <c r="F61" s="27"/>
       <c r="G61" s="24"/>
       <c r="H61" s="24"/>
-      <c r="I61" s="18"/>
-      <c r="J61" s="18"/>
-      <c r="K61" s="6"/>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B62" s="36"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="40" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M61" s="42" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N61" s="6"/>
+    </row>
+    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B62" s="30"/>
       <c r="C62" s="24"/>
       <c r="D62" s="24"/>
       <c r="E62" s="24"/>
-      <c r="F62" s="32"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="27"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="7"/>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B63" s="36"/>
-      <c r="C63" s="26">
+      <c r="F62" s="27"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="20"/>
+      <c r="K62" s="22"/>
+      <c r="L62" s="40" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M62" s="42" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N62" s="7"/>
+    </row>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B63" s="30"/>
+      <c r="C63" s="23">
         <v>4</v>
       </c>
-      <c r="D63" s="26">
+      <c r="D63" s="23">
         <v>1</v>
       </c>
-      <c r="E63" s="26">
+      <c r="E63" s="23">
         <v>16</v>
       </c>
       <c r="F63" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G63" s="26">
+      <c r="G63" s="23">
         <v>0.445967</v>
       </c>
-      <c r="H63" s="23">
+      <c r="H63" s="37">
         <v>447684.6</v>
       </c>
-      <c r="I63" s="18" t="s">
+      <c r="I63" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="J63" s="21"/>
-      <c r="K63" s="6"/>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B64" s="36"/>
+      <c r="J63" s="21">
+        <v>4682500</v>
+      </c>
+      <c r="K63" s="21">
+        <v>199181.2</v>
+      </c>
+      <c r="L63" s="40">
+        <f t="shared" si="0"/>
+        <v>23.508744801216178</v>
+      </c>
+      <c r="M63" s="42">
+        <f t="shared" si="1"/>
+        <v>13.712294415256983</v>
+      </c>
+      <c r="N63" s="6">
+        <v>0.76542600000000005</v>
+      </c>
+    </row>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B64" s="30"/>
       <c r="C64" s="24"/>
       <c r="D64" s="24"/>
       <c r="E64" s="24"/>
       <c r="F64" s="24"/>
       <c r="G64" s="24"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="18" t="s">
+      <c r="H64" s="35"/>
+      <c r="I64" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J64" s="21"/>
-      <c r="K64" s="6"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B65" s="36"/>
+      <c r="J64" s="21">
+        <v>47216000</v>
+      </c>
+      <c r="K64" s="21">
+        <v>7233708</v>
+      </c>
+      <c r="L64" s="40">
+        <f t="shared" si="0"/>
+        <v>6.5272195117635379</v>
+      </c>
+      <c r="M64" s="42">
+        <f t="shared" si="1"/>
+        <v>8.1472821835624458</v>
+      </c>
+      <c r="N64" s="6">
+        <v>7.9798</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B65" s="30"/>
       <c r="C65" s="24"/>
       <c r="D65" s="24"/>
       <c r="E65" s="24"/>
       <c r="F65" s="24"/>
       <c r="G65" s="24"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="18" t="s">
+      <c r="H65" s="35"/>
+      <c r="I65" s="20" t="s">
         <v>14</v>
       </c>
       <c r="J65" s="21">
+        <v>14333000</v>
+      </c>
+      <c r="K65" s="21">
         <v>689962.8</v>
       </c>
-      <c r="K65" s="6">
+      <c r="L65" s="40">
+        <f t="shared" si="0"/>
+        <v>20.773583735239058</v>
+      </c>
+      <c r="M65" s="42">
+        <f t="shared" si="1"/>
+        <v>13.175114249020259</v>
+      </c>
+      <c r="N65" s="6">
         <v>6.9851159999999997</v>
       </c>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B66" s="36"/>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B66" s="30"/>
       <c r="C66" s="24"/>
       <c r="D66" s="24"/>
       <c r="E66" s="24"/>
       <c r="F66" s="24"/>
       <c r="G66" s="24"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="18" t="s">
+      <c r="H66" s="35"/>
+      <c r="I66" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="J66" s="21"/>
-      <c r="K66" s="6"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B67" s="36"/>
+      <c r="J66" s="21">
+        <v>36544000</v>
+      </c>
+      <c r="K66" s="21">
+        <v>3868771</v>
+      </c>
+      <c r="L66" s="40">
+        <f t="shared" si="0"/>
+        <v>9.4458937993486813</v>
+      </c>
+      <c r="M66" s="42">
+        <f t="shared" si="1"/>
+        <v>9.7524305847378301</v>
+      </c>
+      <c r="N66" s="6">
+        <v>8.8036809999999992</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B67" s="30"/>
       <c r="C67" s="24"/>
       <c r="D67" s="24"/>
       <c r="E67" s="24"/>
       <c r="F67" s="24"/>
       <c r="G67" s="24"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="18" t="s">
+      <c r="H67" s="35"/>
+      <c r="I67" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J67" s="21"/>
-      <c r="K67" s="6"/>
-      <c r="L67" s="1">
+      <c r="J67" s="21">
+        <v>54544000</v>
+      </c>
+      <c r="K67" s="21">
+        <v>5118145</v>
+      </c>
+      <c r="L67" s="40">
+        <f t="shared" si="0"/>
+        <v>10.656986076009961</v>
+      </c>
+      <c r="M67" s="42">
+        <f t="shared" si="1"/>
+        <v>10.276343983461853</v>
+      </c>
+      <c r="N67" s="6">
+        <v>7.5578770000000004</v>
+      </c>
+      <c r="O67" s="1">
+        <f>AVERAGE(N64:N72)</f>
+        <v>6.8533922857142864</v>
+      </c>
+      <c r="Q67" s="17">
         <f>AVERAGE(K64:K72)</f>
-        <v>6.9851159999999997</v>
-      </c>
-      <c r="N67" s="17">
-        <f>AVERAGE(J64:J72)</f>
-        <v>689962.8</v>
-      </c>
-      <c r="O67" s="22">
-        <f>N67/N77</f>
-        <v>0.54763863743335717</v>
-      </c>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B68" s="36"/>
+        <v>7273647.114285714</v>
+      </c>
+      <c r="R67" s="18">
+        <f>Q67/Q77</f>
+        <v>1.8762584343231257</v>
+      </c>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B68" s="30"/>
       <c r="C68" s="24"/>
       <c r="D68" s="24"/>
       <c r="E68" s="24"/>
       <c r="F68" s="24"/>
       <c r="G68" s="24"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="18" t="s">
+      <c r="H68" s="35"/>
+      <c r="I68" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J68" s="21"/>
-      <c r="K68" s="6"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B69" s="36"/>
+      <c r="J68" s="21">
+        <v>46194000</v>
+      </c>
+      <c r="K68" s="21">
+        <v>5740893</v>
+      </c>
+      <c r="L68" s="40">
+        <f t="shared" si="0"/>
+        <v>8.0464833606897042</v>
+      </c>
+      <c r="M68" s="42">
+        <f t="shared" si="1"/>
+        <v>9.0560611754360671</v>
+      </c>
+      <c r="N68" s="6">
+        <v>5.0440459999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B69" s="30"/>
       <c r="C69" s="24"/>
       <c r="D69" s="24"/>
       <c r="E69" s="24"/>
       <c r="F69" s="24"/>
       <c r="G69" s="24"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="18" t="s">
+      <c r="H69" s="35"/>
+      <c r="I69" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="J69" s="21"/>
-      <c r="K69" s="6"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B70" s="36"/>
+      <c r="J69" s="21">
+        <v>83384000</v>
+      </c>
+      <c r="K69" s="21">
+        <v>13211990</v>
+      </c>
+      <c r="L69" s="40">
+        <f t="shared" ref="L69:L122" si="2">J69/K69</f>
+        <v>6.3112369900370799</v>
+      </c>
+      <c r="M69" s="42">
+        <f t="shared" ref="M69:M122" si="3">10*LOG10(L69)</f>
+        <v>8.0011448845126623</v>
+      </c>
+      <c r="N69" s="6">
+        <v>6.9642460000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B70" s="30"/>
       <c r="C70" s="24"/>
       <c r="D70" s="24"/>
       <c r="E70" s="24"/>
       <c r="F70" s="24"/>
       <c r="G70" s="24"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="18" t="s">
+      <c r="H70" s="35"/>
+      <c r="I70" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J70" s="21"/>
-      <c r="K70" s="6"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B71" s="36"/>
+      <c r="J70" s="21">
+        <v>125950000</v>
+      </c>
+      <c r="K70" s="21">
+        <v>15052060</v>
+      </c>
+      <c r="L70" s="40">
+        <f t="shared" si="2"/>
+        <v>8.3676254280145042</v>
+      </c>
+      <c r="M70" s="42">
+        <f t="shared" si="3"/>
+        <v>9.2260223101323984</v>
+      </c>
+      <c r="N70" s="6">
+        <v>4.6389800000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B71" s="30"/>
       <c r="C71" s="24"/>
       <c r="D71" s="24"/>
       <c r="E71" s="24"/>
       <c r="F71" s="24"/>
       <c r="G71" s="24"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="18"/>
-      <c r="J71" s="21"/>
-      <c r="K71" s="6"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B72" s="36"/>
+      <c r="H71" s="35"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="20"/>
+      <c r="K71" s="21"/>
+      <c r="L71" s="40" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M71" s="42" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N71" s="6"/>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B72" s="30"/>
       <c r="C72" s="24"/>
       <c r="D72" s="24"/>
       <c r="E72" s="24"/>
       <c r="F72" s="24"/>
-      <c r="G72" s="27"/>
-      <c r="H72" s="29"/>
-      <c r="I72" s="18"/>
-      <c r="J72" s="18"/>
-      <c r="K72" s="6"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B73" s="36"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="20"/>
+      <c r="K72" s="20"/>
+      <c r="L72" s="40" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M72" s="42" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N72" s="6"/>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B73" s="30"/>
       <c r="C73" s="24"/>
       <c r="D73" s="24"/>
       <c r="E73" s="24"/>
-      <c r="F73" s="33" t="s">
+      <c r="F73" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G73" s="26">
+      <c r="G73" s="23">
         <v>0.472194</v>
       </c>
-      <c r="H73" s="23">
+      <c r="H73" s="37">
         <v>33111130</v>
       </c>
-      <c r="I73" s="18" t="s">
+      <c r="I73" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="J73" s="21"/>
-      <c r="K73" s="6"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B74" s="36"/>
+      <c r="J73" s="21">
+        <v>4682500</v>
+      </c>
+      <c r="K73" s="21">
+        <v>1336042</v>
+      </c>
+      <c r="L73" s="40">
+        <f t="shared" si="2"/>
+        <v>3.5047550900345947</v>
+      </c>
+      <c r="M73" s="42">
+        <f t="shared" si="3"/>
+        <v>5.4465767515210919</v>
+      </c>
+      <c r="N73" s="6">
+        <v>0.757969</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B74" s="30"/>
       <c r="C74" s="24"/>
       <c r="D74" s="24"/>
       <c r="E74" s="24"/>
-      <c r="F74" s="33"/>
+      <c r="F74" s="26"/>
       <c r="G74" s="24"/>
       <c r="H74" s="24"/>
-      <c r="I74" s="18" t="s">
+      <c r="I74" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J74" s="21"/>
-      <c r="K74" s="6"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B75" s="36"/>
+      <c r="J74" s="21">
+        <v>47216000</v>
+      </c>
+      <c r="K74" s="21">
+        <v>3805833</v>
+      </c>
+      <c r="L74" s="40">
+        <f t="shared" si="2"/>
+        <v>12.406219610792171</v>
+      </c>
+      <c r="M74" s="42">
+        <f t="shared" si="3"/>
+        <v>10.936394646341263</v>
+      </c>
+      <c r="N74" s="6">
+        <v>8.016686</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B75" s="30"/>
       <c r="C75" s="24"/>
       <c r="D75" s="24"/>
       <c r="E75" s="24"/>
-      <c r="F75" s="33"/>
+      <c r="F75" s="26"/>
       <c r="G75" s="24"/>
       <c r="H75" s="24"/>
-      <c r="I75" s="18" t="s">
+      <c r="I75" s="20" t="s">
         <v>14</v>
       </c>
       <c r="J75" s="21">
+        <v>14333000</v>
+      </c>
+      <c r="K75" s="21">
         <v>1259887</v>
       </c>
-      <c r="K75" s="6">
+      <c r="L75" s="40">
+        <f t="shared" si="2"/>
+        <v>11.376417091374067</v>
+      </c>
+      <c r="M75" s="42">
+        <f t="shared" si="3"/>
+        <v>10.560055061319646</v>
+      </c>
+      <c r="N75" s="6">
         <v>6.6183490000000003</v>
       </c>
     </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B76" s="36"/>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B76" s="30"/>
       <c r="C76" s="24"/>
       <c r="D76" s="24"/>
       <c r="E76" s="24"/>
-      <c r="F76" s="33"/>
+      <c r="F76" s="26"/>
       <c r="G76" s="24"/>
       <c r="H76" s="24"/>
-      <c r="I76" s="18" t="s">
+      <c r="I76" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="J76" s="21"/>
-      <c r="K76" s="6"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B77" s="36"/>
+      <c r="J76" s="21">
+        <v>36544000</v>
+      </c>
+      <c r="K76" s="21">
+        <v>2582398</v>
+      </c>
+      <c r="L76" s="40">
+        <f t="shared" si="2"/>
+        <v>14.151188159222553</v>
+      </c>
+      <c r="M76" s="42">
+        <f t="shared" si="3"/>
+        <v>11.50792905537395</v>
+      </c>
+      <c r="N76" s="45">
+        <v>7.9898790000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B77" s="30"/>
       <c r="C77" s="24"/>
       <c r="D77" s="24"/>
       <c r="E77" s="24"/>
-      <c r="F77" s="33"/>
+      <c r="F77" s="26"/>
       <c r="G77" s="24"/>
       <c r="H77" s="24"/>
-      <c r="I77" s="18" t="s">
+      <c r="I77" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J77" s="21"/>
-      <c r="K77" s="6"/>
-      <c r="L77" s="1">
+      <c r="J77" s="21">
+        <v>54544000</v>
+      </c>
+      <c r="K77" s="21">
+        <v>2993559</v>
+      </c>
+      <c r="L77" s="40">
+        <f t="shared" si="2"/>
+        <v>18.220452645162496</v>
+      </c>
+      <c r="M77" s="42">
+        <f t="shared" si="3"/>
+        <v>12.605591618167001</v>
+      </c>
+      <c r="N77" s="6">
+        <v>7.1455599999999997</v>
+      </c>
+      <c r="O77" s="1">
+        <f>AVERAGE(N74:N82)</f>
+        <v>6.65076</v>
+      </c>
+      <c r="P77" s="1">
+        <f>AVERAGE(O67:O87)</f>
+        <v>6.7816375714285719</v>
+      </c>
+      <c r="Q77" s="17">
         <f>AVERAGE(K74:K82)</f>
-        <v>6.6183490000000003</v>
-      </c>
-      <c r="M77" s="1">
-        <f>AVERAGE(L67:L87)</f>
-        <v>6.9373819999999995</v>
-      </c>
-      <c r="N77" s="17">
-        <f>AVERAGE(J74:J82)</f>
-        <v>1259887</v>
-      </c>
-      <c r="O77" s="17">
-        <f>AVERAGE(N67:N87)</f>
-        <v>923605.70000000007</v>
-      </c>
-    </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B78" s="36"/>
+        <v>3876676.5714285714</v>
+      </c>
+      <c r="R77" s="17">
+        <f>AVERAGE(Q67:Q87)</f>
+        <v>4379354.4809523812</v>
+      </c>
+    </row>
+    <row r="78" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B78" s="30"/>
       <c r="C78" s="24"/>
       <c r="D78" s="24"/>
       <c r="E78" s="24"/>
-      <c r="F78" s="33"/>
+      <c r="F78" s="26"/>
       <c r="G78" s="24"/>
       <c r="H78" s="24"/>
-      <c r="I78" s="18" t="s">
+      <c r="I78" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J78" s="21"/>
-      <c r="K78" s="6"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B79" s="36"/>
+      <c r="J78" s="21">
+        <v>46194000</v>
+      </c>
+      <c r="K78" s="21">
+        <v>3204333</v>
+      </c>
+      <c r="L78" s="40">
+        <f t="shared" si="2"/>
+        <v>14.416104693238811</v>
+      </c>
+      <c r="M78" s="42">
+        <f t="shared" si="3"/>
+        <v>11.588479275980017</v>
+      </c>
+      <c r="N78" s="6">
+        <v>5.30783</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B79" s="30"/>
       <c r="C79" s="24"/>
       <c r="D79" s="24"/>
       <c r="E79" s="24"/>
-      <c r="F79" s="33"/>
+      <c r="F79" s="26"/>
       <c r="G79" s="24"/>
       <c r="H79" s="24"/>
-      <c r="I79" s="18" t="s">
+      <c r="I79" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="21"/>
-      <c r="K79" s="6"/>
-    </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B80" s="36"/>
+      <c r="J79" s="21">
+        <v>83384000</v>
+      </c>
+      <c r="K79" s="21">
+        <v>6603511</v>
+      </c>
+      <c r="L79" s="40">
+        <f t="shared" si="2"/>
+        <v>12.627222094428252</v>
+      </c>
+      <c r="M79" s="42">
+        <f t="shared" si="3"/>
+        <v>11.013078191416692</v>
+      </c>
+      <c r="N79" s="6">
+        <v>6.4029360000000004</v>
+      </c>
+    </row>
+    <row r="80" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B80" s="30"/>
       <c r="C80" s="24"/>
       <c r="D80" s="24"/>
       <c r="E80" s="24"/>
-      <c r="F80" s="33"/>
+      <c r="F80" s="26"/>
       <c r="G80" s="24"/>
       <c r="H80" s="24"/>
-      <c r="I80" s="18" t="s">
+      <c r="I80" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J80" s="21"/>
-      <c r="K80" s="6"/>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B81" s="36"/>
+      <c r="J80" s="21">
+        <v>125950000</v>
+      </c>
+      <c r="K80" s="21">
+        <v>6687215</v>
+      </c>
+      <c r="L80" s="40">
+        <f t="shared" si="2"/>
+        <v>18.834447524118787</v>
+      </c>
+      <c r="M80" s="42">
+        <f t="shared" si="3"/>
+        <v>12.749528854500571</v>
+      </c>
+      <c r="N80" s="6">
+        <v>5.0740800000000004</v>
+      </c>
+    </row>
+    <row r="81" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B81" s="30"/>
       <c r="C81" s="24"/>
       <c r="D81" s="24"/>
       <c r="E81" s="24"/>
-      <c r="F81" s="33"/>
+      <c r="F81" s="26"/>
       <c r="G81" s="24"/>
       <c r="H81" s="24"/>
-      <c r="I81" s="18"/>
-      <c r="J81" s="21"/>
-      <c r="K81" s="6"/>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B82" s="36"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="20"/>
+      <c r="K81" s="21"/>
+      <c r="L81" s="40" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M81" s="42" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N81" s="6"/>
+    </row>
+    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B82" s="30"/>
       <c r="C82" s="24"/>
       <c r="D82" s="24"/>
       <c r="E82" s="24"/>
-      <c r="F82" s="33"/>
-      <c r="G82" s="27"/>
-      <c r="H82" s="27"/>
-      <c r="I82" s="18"/>
-      <c r="J82" s="18"/>
-      <c r="K82" s="6"/>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B83" s="36"/>
+      <c r="F82" s="26"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="25"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="20"/>
+      <c r="K82" s="20"/>
+      <c r="L82" s="40" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M82" s="42" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N82" s="6"/>
+    </row>
+    <row r="83" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B83" s="30"/>
       <c r="C83" s="24"/>
       <c r="D83" s="24"/>
       <c r="E83" s="24"/>
-      <c r="F83" s="32" t="s">
+      <c r="F83" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G83" s="26">
+      <c r="G83" s="23">
         <v>1.206914</v>
       </c>
-      <c r="H83" s="23">
+      <c r="H83" s="37">
         <v>9698399</v>
       </c>
-      <c r="I83" s="18" t="s">
+      <c r="I83" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="J83" s="21"/>
-      <c r="K83" s="6"/>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B84" s="36"/>
+      <c r="J83" s="21">
+        <v>4682500</v>
+      </c>
+      <c r="K83" s="21">
+        <v>361041.4</v>
+      </c>
+      <c r="L83" s="40">
+        <f t="shared" si="2"/>
+        <v>12.969426774879556</v>
+      </c>
+      <c r="M83" s="42">
+        <f t="shared" si="3"/>
+        <v>11.129207814805218</v>
+      </c>
+      <c r="N83" s="6">
+        <v>0.70852899999999996</v>
+      </c>
+    </row>
+    <row r="84" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B84" s="30"/>
       <c r="C84" s="24"/>
       <c r="D84" s="24"/>
       <c r="E84" s="24"/>
-      <c r="F84" s="32"/>
+      <c r="F84" s="27"/>
       <c r="G84" s="24"/>
       <c r="H84" s="24"/>
-      <c r="I84" s="18" t="s">
+      <c r="I84" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J84" s="21"/>
-      <c r="K84" s="6"/>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B85" s="36"/>
+      <c r="J84" s="21">
+        <v>47216000</v>
+      </c>
+      <c r="K84" s="21">
+        <v>2154991</v>
+      </c>
+      <c r="L84" s="40">
+        <f t="shared" si="2"/>
+        <v>21.91006830190938</v>
+      </c>
+      <c r="M84" s="42">
+        <f t="shared" si="3"/>
+        <v>13.406437314217785</v>
+      </c>
+      <c r="N84" s="6">
+        <v>7.3678229999999996</v>
+      </c>
+    </row>
+    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B85" s="30"/>
       <c r="C85" s="24"/>
       <c r="D85" s="24"/>
       <c r="E85" s="24"/>
-      <c r="F85" s="32"/>
+      <c r="F85" s="27"/>
       <c r="G85" s="24"/>
       <c r="H85" s="24"/>
-      <c r="I85" s="18" t="s">
+      <c r="I85" s="20" t="s">
         <v>14</v>
       </c>
       <c r="J85" s="21">
+        <v>14333000</v>
+      </c>
+      <c r="K85" s="21">
         <v>820967.3</v>
       </c>
-      <c r="K85" s="6">
+      <c r="L85" s="40">
+        <f t="shared" si="2"/>
+        <v>17.458673445336981</v>
+      </c>
+      <c r="M85" s="42">
+        <f t="shared" si="3"/>
+        <v>12.420112418176094</v>
+      </c>
+      <c r="N85" s="6">
         <v>7.2086810000000003</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B86" s="36"/>
+    <row r="86" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B86" s="30"/>
       <c r="C86" s="24"/>
       <c r="D86" s="24"/>
       <c r="E86" s="24"/>
-      <c r="F86" s="32"/>
+      <c r="F86" s="27"/>
       <c r="G86" s="24"/>
       <c r="H86" s="24"/>
-      <c r="I86" s="18" t="s">
+      <c r="I86" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="J86" s="18"/>
-      <c r="K86" s="6"/>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B87" s="36"/>
+      <c r="J86" s="21">
+        <v>36544000</v>
+      </c>
+      <c r="K86" s="21">
+        <v>1906710</v>
+      </c>
+      <c r="L86" s="40">
+        <f t="shared" si="2"/>
+        <v>19.165997975570484</v>
+      </c>
+      <c r="M86" s="42">
+        <f t="shared" si="3"/>
+        <v>12.825314379394005</v>
+      </c>
+      <c r="N86" s="6">
+        <v>8.2397080000000003</v>
+      </c>
+    </row>
+    <row r="87" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B87" s="30"/>
       <c r="C87" s="24"/>
       <c r="D87" s="24"/>
       <c r="E87" s="24"/>
-      <c r="F87" s="32"/>
+      <c r="F87" s="27"/>
       <c r="G87" s="24"/>
       <c r="H87" s="24"/>
-      <c r="I87" s="18" t="s">
+      <c r="I87" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J87" s="18"/>
-      <c r="K87" s="6"/>
-      <c r="L87" s="1">
+      <c r="J87" s="21">
+        <v>54544000</v>
+      </c>
+      <c r="K87" s="21">
+        <v>2205914</v>
+      </c>
+      <c r="L87" s="40">
+        <f t="shared" si="2"/>
+        <v>24.726258593943371</v>
+      </c>
+      <c r="M87" s="42">
+        <f t="shared" si="3"/>
+        <v>13.931584069018983</v>
+      </c>
+      <c r="N87" s="6">
+        <v>8.2393210000000003</v>
+      </c>
+      <c r="O87" s="1">
+        <f>AVERAGE(N84:N92)</f>
+        <v>6.8407604285714294</v>
+      </c>
+      <c r="Q87" s="17">
         <f>AVERAGE(K84:K92)</f>
-        <v>7.2086810000000003</v>
-      </c>
-      <c r="N87" s="17">
-        <f>AVERAGE(J84:J92)</f>
-        <v>820967.3</v>
-      </c>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B88" s="36"/>
+        <v>1987739.7571428572</v>
+      </c>
+    </row>
+    <row r="88" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B88" s="30"/>
       <c r="C88" s="24"/>
       <c r="D88" s="24"/>
       <c r="E88" s="24"/>
-      <c r="F88" s="32"/>
+      <c r="F88" s="27"/>
       <c r="G88" s="24"/>
       <c r="H88" s="24"/>
-      <c r="I88" s="18" t="s">
+      <c r="I88" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J88" s="18"/>
-      <c r="K88" s="6"/>
-    </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B89" s="36"/>
+      <c r="J88" s="21">
+        <v>46194000</v>
+      </c>
+      <c r="K88" s="21">
+        <v>1496041</v>
+      </c>
+      <c r="L88" s="40">
+        <f t="shared" si="2"/>
+        <v>30.877496004454425</v>
+      </c>
+      <c r="M88" s="42">
+        <f t="shared" si="3"/>
+        <v>14.896420741915177</v>
+      </c>
+      <c r="N88" s="6">
+        <v>5.0682270000000003</v>
+      </c>
+    </row>
+    <row r="89" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B89" s="30"/>
       <c r="C89" s="24"/>
       <c r="D89" s="24"/>
       <c r="E89" s="24"/>
-      <c r="F89" s="32"/>
+      <c r="F89" s="27"/>
       <c r="G89" s="24"/>
       <c r="H89" s="24"/>
-      <c r="I89" s="18" t="s">
+      <c r="I89" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="J89" s="18"/>
-      <c r="K89" s="6"/>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B90" s="36"/>
+      <c r="J89" s="21">
+        <v>83384000</v>
+      </c>
+      <c r="K89" s="21">
+        <v>2574736</v>
+      </c>
+      <c r="L89" s="40">
+        <f t="shared" si="2"/>
+        <v>32.385456217647167</v>
+      </c>
+      <c r="M89" s="42">
+        <f t="shared" si="3"/>
+        <v>15.103500193893298</v>
+      </c>
+      <c r="N89" s="6">
+        <v>6.5038429999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B90" s="30"/>
       <c r="C90" s="24"/>
       <c r="D90" s="24"/>
       <c r="E90" s="24"/>
-      <c r="F90" s="32"/>
+      <c r="F90" s="27"/>
       <c r="G90" s="24"/>
       <c r="H90" s="24"/>
-      <c r="I90" s="18" t="s">
+      <c r="I90" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J90" s="18"/>
-      <c r="K90" s="6"/>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B91" s="36"/>
+      <c r="J90" s="21">
+        <v>125950000</v>
+      </c>
+      <c r="K90" s="21">
+        <v>2754819</v>
+      </c>
+      <c r="L90" s="40">
+        <f t="shared" si="2"/>
+        <v>45.719882141077143</v>
+      </c>
+      <c r="M90" s="42">
+        <f t="shared" si="3"/>
+        <v>16.601051021793726</v>
+      </c>
+      <c r="N90" s="6">
+        <v>5.2577199999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B91" s="30"/>
       <c r="C91" s="24"/>
       <c r="D91" s="24"/>
       <c r="E91" s="24"/>
-      <c r="F91" s="32"/>
+      <c r="F91" s="27"/>
       <c r="G91" s="24"/>
       <c r="H91" s="24"/>
-      <c r="I91" s="18"/>
-      <c r="J91" s="18"/>
-      <c r="K91" s="6"/>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B92" s="36"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="20"/>
+      <c r="K91" s="20"/>
+      <c r="L91" s="40" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M91" s="42" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N91" s="6"/>
+    </row>
+    <row r="92" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B92" s="30"/>
       <c r="C92" s="24"/>
       <c r="D92" s="24"/>
       <c r="E92" s="24"/>
-      <c r="F92" s="32"/>
-      <c r="G92" s="27"/>
-      <c r="H92" s="27"/>
-      <c r="I92" s="18"/>
-      <c r="J92" s="18"/>
-      <c r="K92" s="6"/>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B93" s="36"/>
+      <c r="F92" s="27"/>
+      <c r="G92" s="25"/>
+      <c r="H92" s="25"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="20"/>
+      <c r="K92" s="20"/>
+      <c r="L92" s="40" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M92" s="42" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N92" s="6"/>
+    </row>
+    <row r="93" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B93" s="30"/>
       <c r="C93" s="24"/>
-      <c r="D93" s="26">
+      <c r="D93" s="23">
         <v>2</v>
       </c>
-      <c r="E93" s="26">
+      <c r="E93" s="23">
         <v>256</v>
       </c>
-      <c r="F93" s="26" t="s">
+      <c r="F93" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G93" s="26">
+      <c r="G93" s="23">
         <v>86.017674</v>
       </c>
-      <c r="H93" s="23">
+      <c r="H93" s="37">
         <v>3148237</v>
       </c>
-      <c r="I93" s="18" t="s">
+      <c r="I93" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="J93" s="21"/>
-      <c r="K93" s="6"/>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B94" s="36"/>
+      <c r="J93" s="21">
+        <v>4682500</v>
+      </c>
+      <c r="K93" s="21"/>
+      <c r="L93" s="40" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M93" s="42" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N93" s="6"/>
+    </row>
+    <row r="94" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B94" s="30"/>
       <c r="C94" s="24"/>
       <c r="D94" s="24"/>
       <c r="E94" s="24"/>
       <c r="F94" s="24"/>
       <c r="G94" s="24"/>
-      <c r="H94" s="28"/>
-      <c r="I94" s="18" t="s">
+      <c r="H94" s="35"/>
+      <c r="I94" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J94" s="21"/>
-      <c r="K94" s="6"/>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B95" s="36"/>
+      <c r="J94" s="21">
+        <v>47216000</v>
+      </c>
+      <c r="K94" s="21"/>
+      <c r="L94" s="40" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M94" s="42" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N94" s="6"/>
+    </row>
+    <row r="95" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B95" s="30"/>
       <c r="C95" s="24"/>
       <c r="D95" s="24"/>
       <c r="E95" s="24"/>
       <c r="F95" s="24"/>
       <c r="G95" s="24"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="18" t="s">
+      <c r="H95" s="35"/>
+      <c r="I95" s="20" t="s">
         <v>14</v>
       </c>
       <c r="J95" s="21">
+        <v>14333000</v>
+      </c>
+      <c r="K95" s="21">
         <v>110511.3</v>
       </c>
-      <c r="K95" s="6">
+      <c r="L95" s="40">
+        <f t="shared" si="2"/>
+        <v>129.69714409295702</v>
+      </c>
+      <c r="M95" s="42">
+        <f t="shared" si="3"/>
+        <v>21.129304131054745</v>
+      </c>
+      <c r="N95" s="6">
         <v>92.174993999999998</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B96" s="36"/>
+    <row r="96" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B96" s="30"/>
       <c r="C96" s="24"/>
       <c r="D96" s="24"/>
       <c r="E96" s="24"/>
       <c r="F96" s="24"/>
       <c r="G96" s="24"/>
-      <c r="H96" s="28"/>
-      <c r="I96" s="18" t="s">
+      <c r="H96" s="35"/>
+      <c r="I96" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="J96" s="21"/>
-      <c r="K96" s="6"/>
-    </row>
-    <row r="97" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B97" s="36"/>
+      <c r="J96" s="21">
+        <v>36544000</v>
+      </c>
+      <c r="K96" s="21"/>
+      <c r="L96" s="40" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M96" s="42" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N96" s="6"/>
+    </row>
+    <row r="97" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B97" s="30"/>
       <c r="C97" s="24"/>
       <c r="D97" s="24"/>
       <c r="E97" s="24"/>
       <c r="F97" s="24"/>
       <c r="G97" s="24"/>
-      <c r="H97" s="28"/>
-      <c r="I97" s="18" t="s">
+      <c r="H97" s="35"/>
+      <c r="I97" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J97" s="21"/>
-      <c r="K97" s="6"/>
-      <c r="L97" s="1">
+      <c r="J97" s="21">
+        <v>54544000</v>
+      </c>
+      <c r="K97" s="21"/>
+      <c r="L97" s="40" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M97" s="42" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N97" s="6"/>
+      <c r="O97" s="1">
+        <f>AVERAGE(N94:N102)</f>
+        <v>92.174993999999998</v>
+      </c>
+      <c r="Q97" s="17">
         <f>AVERAGE(K94:K102)</f>
-        <v>92.174993999999998</v>
-      </c>
-      <c r="N97" s="17">
-        <f>AVERAGE(J94:J102)</f>
         <v>110511.3</v>
       </c>
-      <c r="O97" s="22" t="e">
-        <f>N97/N107</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="98" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B98" s="36"/>
+      <c r="R97" s="18">
+        <f>Q97/Q107</f>
+        <v>0.24246318282333876</v>
+      </c>
+    </row>
+    <row r="98" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B98" s="30"/>
       <c r="C98" s="24"/>
       <c r="D98" s="24"/>
       <c r="E98" s="24"/>
       <c r="F98" s="24"/>
       <c r="G98" s="24"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="18" t="s">
+      <c r="H98" s="35"/>
+      <c r="I98" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J98" s="21"/>
-      <c r="K98" s="6"/>
-    </row>
-    <row r="99" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B99" s="36"/>
+      <c r="J98" s="21">
+        <v>46194000</v>
+      </c>
+      <c r="K98" s="21"/>
+      <c r="L98" s="40" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M98" s="42" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N98" s="6"/>
+    </row>
+    <row r="99" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B99" s="30"/>
       <c r="C99" s="24"/>
       <c r="D99" s="24"/>
       <c r="E99" s="24"/>
       <c r="F99" s="24"/>
       <c r="G99" s="24"/>
-      <c r="H99" s="28"/>
-      <c r="I99" s="18" t="s">
+      <c r="H99" s="35"/>
+      <c r="I99" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="J99" s="21"/>
-      <c r="K99" s="6"/>
-    </row>
-    <row r="100" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B100" s="36"/>
+      <c r="J99" s="21">
+        <v>83384000</v>
+      </c>
+      <c r="K99" s="21"/>
+      <c r="L99" s="40" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M99" s="42" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N99" s="6"/>
+    </row>
+    <row r="100" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B100" s="30"/>
       <c r="C100" s="24"/>
       <c r="D100" s="24"/>
       <c r="E100" s="24"/>
       <c r="F100" s="24"/>
       <c r="G100" s="24"/>
-      <c r="H100" s="28"/>
-      <c r="I100" s="18" t="s">
+      <c r="H100" s="35"/>
+      <c r="I100" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J100" s="21"/>
-      <c r="K100" s="6"/>
-    </row>
-    <row r="101" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B101" s="36"/>
+      <c r="J100" s="21">
+        <v>125950000</v>
+      </c>
+      <c r="K100" s="21"/>
+      <c r="L100" s="40" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M100" s="42" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N100" s="6"/>
+    </row>
+    <row r="101" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B101" s="30"/>
       <c r="C101" s="24"/>
       <c r="D101" s="24"/>
       <c r="E101" s="24"/>
       <c r="F101" s="24"/>
       <c r="G101" s="24"/>
-      <c r="H101" s="28"/>
-      <c r="I101" s="18"/>
-      <c r="J101" s="18"/>
-      <c r="K101" s="6"/>
-    </row>
-    <row r="102" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B102" s="36"/>
+      <c r="H101" s="35"/>
+      <c r="I101" s="20"/>
+      <c r="J101" s="20"/>
+      <c r="K101" s="20"/>
+      <c r="L101" s="40" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M101" s="42" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N101" s="6"/>
+    </row>
+    <row r="102" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B102" s="30"/>
       <c r="C102" s="24"/>
       <c r="D102" s="24"/>
       <c r="E102" s="24"/>
-      <c r="F102" s="27"/>
-      <c r="G102" s="27"/>
-      <c r="H102" s="29"/>
-      <c r="I102" s="18"/>
-      <c r="J102" s="18"/>
-      <c r="K102" s="6"/>
-    </row>
-    <row r="103" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B103" s="36"/>
+      <c r="F102" s="25"/>
+      <c r="G102" s="25"/>
+      <c r="H102" s="36"/>
+      <c r="I102" s="20"/>
+      <c r="J102" s="20"/>
+      <c r="K102" s="20"/>
+      <c r="L102" s="40" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M102" s="42" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N102" s="6"/>
+    </row>
+    <row r="103" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B103" s="30"/>
       <c r="C103" s="24"/>
       <c r="D103" s="24"/>
       <c r="E103" s="24"/>
-      <c r="F103" s="33" t="s">
+      <c r="F103" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G103" s="26"/>
-      <c r="H103" s="23"/>
-      <c r="I103" s="18" t="s">
+      <c r="G103" s="23">
+        <v>55.812477000000001</v>
+      </c>
+      <c r="H103" s="37">
+        <v>27047460</v>
+      </c>
+      <c r="I103" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="J103" s="21"/>
-      <c r="K103" s="6"/>
-    </row>
-    <row r="104" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B104" s="36"/>
+      <c r="J103" s="21">
+        <v>4682500</v>
+      </c>
+      <c r="K103" s="21"/>
+      <c r="L103" s="40" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M103" s="42" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N103" s="6"/>
+    </row>
+    <row r="104" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B104" s="30"/>
       <c r="C104" s="24"/>
       <c r="D104" s="24"/>
       <c r="E104" s="24"/>
-      <c r="F104" s="33"/>
+      <c r="F104" s="26"/>
       <c r="G104" s="24"/>
       <c r="H104" s="24"/>
-      <c r="I104" s="18" t="s">
+      <c r="I104" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J104" s="21"/>
-      <c r="K104" s="6"/>
-    </row>
-    <row r="105" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B105" s="36"/>
+      <c r="J104" s="21">
+        <v>47216000</v>
+      </c>
+      <c r="K104" s="21"/>
+      <c r="L104" s="40" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M104" s="42" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N104" s="6"/>
+    </row>
+    <row r="105" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B105" s="30"/>
       <c r="C105" s="24"/>
       <c r="D105" s="24"/>
       <c r="E105" s="24"/>
-      <c r="F105" s="33"/>
+      <c r="F105" s="26"/>
       <c r="G105" s="24"/>
       <c r="H105" s="24"/>
-      <c r="I105" s="18" t="s">
+      <c r="I105" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="J105" s="21"/>
-      <c r="K105" s="6"/>
-    </row>
-    <row r="106" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B106" s="36"/>
+      <c r="J105" s="21">
+        <v>14333000</v>
+      </c>
+      <c r="K105" s="21"/>
+      <c r="L105" s="40" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M105" s="42" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N105" s="6"/>
+    </row>
+    <row r="106" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B106" s="30"/>
       <c r="C106" s="24"/>
       <c r="D106" s="24"/>
       <c r="E106" s="24"/>
-      <c r="F106" s="33"/>
+      <c r="F106" s="26"/>
       <c r="G106" s="24"/>
       <c r="H106" s="24"/>
-      <c r="I106" s="18" t="s">
+      <c r="I106" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="J106" s="21"/>
-      <c r="K106" s="6"/>
-    </row>
-    <row r="107" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B107" s="36"/>
+      <c r="J106" s="21">
+        <v>36544000</v>
+      </c>
+      <c r="K106" s="21"/>
+      <c r="L106" s="40" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M106" s="42" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N106" s="6"/>
+    </row>
+    <row r="107" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B107" s="30"/>
       <c r="C107" s="24"/>
       <c r="D107" s="24"/>
       <c r="E107" s="24"/>
-      <c r="F107" s="33"/>
+      <c r="F107" s="26"/>
       <c r="G107" s="24"/>
       <c r="H107" s="24"/>
-      <c r="I107" s="18" t="s">
+      <c r="I107" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J107" s="21"/>
-      <c r="K107" s="6"/>
-      <c r="L107" s="1" t="e">
+      <c r="J107" s="21">
+        <v>54544000</v>
+      </c>
+      <c r="K107" s="21">
+        <v>455785.9</v>
+      </c>
+      <c r="L107" s="40">
+        <f t="shared" si="2"/>
+        <v>119.6702223565933</v>
+      </c>
+      <c r="M107" s="42">
+        <f t="shared" si="3"/>
+        <v>20.779860979832229</v>
+      </c>
+      <c r="N107" s="6">
+        <v>108.558559</v>
+      </c>
+      <c r="O107" s="1">
+        <f>AVERAGE(N104:N112)</f>
+        <v>108.558559</v>
+      </c>
+      <c r="P107" s="1">
+        <f>AVERAGE(O97:O117)</f>
+        <v>103.72938733333335</v>
+      </c>
+      <c r="Q107" s="17">
         <f>AVERAGE(K104:K112)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M107" s="1" t="e">
-        <f>AVERAGE(L97:L117)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N107" s="17" t="e">
-        <f>AVERAGE(J104:J112)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O107" s="17" t="e">
-        <f>AVERAGE(N97:N117)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="108" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B108" s="36"/>
+        <v>455785.9</v>
+      </c>
+      <c r="R107" s="17">
+        <f>AVERAGE(Q97:Q117)</f>
+        <v>332419.03333333338</v>
+      </c>
+    </row>
+    <row r="108" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B108" s="30"/>
       <c r="C108" s="24"/>
       <c r="D108" s="24"/>
       <c r="E108" s="24"/>
-      <c r="F108" s="33"/>
+      <c r="F108" s="26"/>
       <c r="G108" s="24"/>
       <c r="H108" s="24"/>
-      <c r="I108" s="18" t="s">
+      <c r="I108" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J108" s="21"/>
-      <c r="K108" s="6"/>
-    </row>
-    <row r="109" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B109" s="36"/>
+      <c r="J108" s="21">
+        <v>46194000</v>
+      </c>
+      <c r="K108" s="21"/>
+      <c r="L108" s="40" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M108" s="42" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N108" s="6"/>
+    </row>
+    <row r="109" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B109" s="30"/>
       <c r="C109" s="24"/>
       <c r="D109" s="24"/>
       <c r="E109" s="24"/>
-      <c r="F109" s="33"/>
+      <c r="F109" s="26"/>
       <c r="G109" s="24"/>
       <c r="H109" s="24"/>
-      <c r="I109" s="18" t="s">
+      <c r="I109" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="J109" s="21"/>
-      <c r="K109" s="6"/>
-    </row>
-    <row r="110" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B110" s="36"/>
+      <c r="J109" s="21">
+        <v>83384000</v>
+      </c>
+      <c r="K109" s="21"/>
+      <c r="L109" s="40" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M109" s="42" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N109" s="6"/>
+    </row>
+    <row r="110" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B110" s="30"/>
       <c r="C110" s="24"/>
       <c r="D110" s="24"/>
       <c r="E110" s="24"/>
-      <c r="F110" s="33"/>
+      <c r="F110" s="26"/>
       <c r="G110" s="24"/>
       <c r="H110" s="24"/>
-      <c r="I110" s="18" t="s">
+      <c r="I110" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J110" s="21"/>
-      <c r="K110" s="6"/>
-    </row>
-    <row r="111" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B111" s="36"/>
+      <c r="J110" s="21">
+        <v>125950000</v>
+      </c>
+      <c r="K110" s="21"/>
+      <c r="L110" s="40" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M110" s="42" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N110" s="6"/>
+    </row>
+    <row r="111" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B111" s="30"/>
       <c r="C111" s="24"/>
       <c r="D111" s="24"/>
       <c r="E111" s="24"/>
-      <c r="F111" s="33"/>
+      <c r="F111" s="26"/>
       <c r="G111" s="24"/>
       <c r="H111" s="24"/>
-      <c r="I111" s="18"/>
-      <c r="J111" s="21"/>
-      <c r="K111" s="6"/>
-    </row>
-    <row r="112" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B112" s="36"/>
+      <c r="I111" s="20"/>
+      <c r="J111" s="20"/>
+      <c r="K111" s="21"/>
+      <c r="L111" s="40" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M111" s="42" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N111" s="6"/>
+    </row>
+    <row r="112" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B112" s="30"/>
       <c r="C112" s="24"/>
       <c r="D112" s="24"/>
       <c r="E112" s="24"/>
-      <c r="F112" s="33"/>
-      <c r="G112" s="27"/>
-      <c r="H112" s="27"/>
-      <c r="I112" s="18"/>
-      <c r="J112" s="18"/>
-      <c r="K112" s="6"/>
-    </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B113" s="36"/>
+      <c r="F112" s="26"/>
+      <c r="G112" s="25"/>
+      <c r="H112" s="25"/>
+      <c r="I112" s="20"/>
+      <c r="J112" s="20"/>
+      <c r="K112" s="20"/>
+      <c r="L112" s="40" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M112" s="42" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N112" s="6"/>
+    </row>
+    <row r="113" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B113" s="30"/>
       <c r="C113" s="24"/>
       <c r="D113" s="24"/>
       <c r="E113" s="24"/>
-      <c r="F113" s="32" t="s">
+      <c r="F113" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G113" s="26"/>
-      <c r="H113" s="23"/>
-      <c r="I113" s="18" t="s">
+      <c r="G113" s="23">
+        <v>266.737977</v>
+      </c>
+      <c r="H113" s="37">
+        <v>14246790</v>
+      </c>
+      <c r="I113" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="J113" s="21"/>
-      <c r="K113" s="6"/>
-    </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B114" s="36"/>
+      <c r="J113" s="21">
+        <v>4682500</v>
+      </c>
+      <c r="K113" s="21"/>
+      <c r="L113" s="40" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M113" s="42" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N113" s="6"/>
+    </row>
+    <row r="114" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B114" s="30"/>
       <c r="C114" s="24"/>
       <c r="D114" s="24"/>
       <c r="E114" s="24"/>
-      <c r="F114" s="32"/>
+      <c r="F114" s="27"/>
       <c r="G114" s="24"/>
       <c r="H114" s="24"/>
-      <c r="I114" s="18" t="s">
+      <c r="I114" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J114" s="21"/>
-      <c r="K114" s="6"/>
-    </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B115" s="36"/>
+      <c r="J114" s="21">
+        <v>47216000</v>
+      </c>
+      <c r="K114" s="21"/>
+      <c r="L114" s="40" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M114" s="42" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N114" s="6"/>
+    </row>
+    <row r="115" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B115" s="30"/>
       <c r="C115" s="24"/>
       <c r="D115" s="24"/>
       <c r="E115" s="24"/>
-      <c r="F115" s="32"/>
+      <c r="F115" s="27"/>
       <c r="G115" s="24"/>
       <c r="H115" s="24"/>
-      <c r="I115" s="18" t="s">
+      <c r="I115" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="J115" s="18"/>
-      <c r="K115" s="6"/>
-    </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B116" s="36"/>
+      <c r="J115" s="21">
+        <v>14333000</v>
+      </c>
+      <c r="K115" s="20"/>
+      <c r="L115" s="40" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M115" s="42" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N115" s="6"/>
+    </row>
+    <row r="116" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B116" s="30"/>
       <c r="C116" s="24"/>
       <c r="D116" s="24"/>
       <c r="E116" s="24"/>
-      <c r="F116" s="32"/>
+      <c r="F116" s="27"/>
       <c r="G116" s="24"/>
       <c r="H116" s="24"/>
-      <c r="I116" s="18" t="s">
+      <c r="I116" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="J116" s="18"/>
-      <c r="K116" s="6"/>
-    </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B117" s="36"/>
+      <c r="J116" s="21">
+        <v>36544000</v>
+      </c>
+      <c r="K116" s="21"/>
+      <c r="L116" s="40" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M116" s="42" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N116" s="6"/>
+    </row>
+    <row r="117" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B117" s="30"/>
       <c r="C117" s="24"/>
       <c r="D117" s="24"/>
       <c r="E117" s="24"/>
-      <c r="F117" s="32"/>
+      <c r="F117" s="27"/>
       <c r="G117" s="24"/>
       <c r="H117" s="24"/>
-      <c r="I117" s="18" t="s">
+      <c r="I117" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J117" s="18"/>
-      <c r="K117" s="6"/>
-      <c r="L117" s="1" t="e">
+      <c r="J117" s="21">
+        <v>54544000</v>
+      </c>
+      <c r="K117" s="21">
+        <v>430959.9</v>
+      </c>
+      <c r="L117" s="40">
+        <f t="shared" si="2"/>
+        <v>126.56397961852134</v>
+      </c>
+      <c r="M117" s="42">
+        <f t="shared" si="3"/>
+        <v>21.023101221206627</v>
+      </c>
+      <c r="N117" s="6">
+        <v>110.454609</v>
+      </c>
+      <c r="O117" s="1">
+        <f>AVERAGE(N114:N122)</f>
+        <v>110.454609</v>
+      </c>
+      <c r="Q117" s="17">
         <f>AVERAGE(K114:K122)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N117" s="17" t="e">
-        <f>AVERAGE(J114:J122)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B118" s="36"/>
+        <v>430959.9</v>
+      </c>
+    </row>
+    <row r="118" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B118" s="30"/>
       <c r="C118" s="24"/>
       <c r="D118" s="24"/>
       <c r="E118" s="24"/>
-      <c r="F118" s="32"/>
+      <c r="F118" s="27"/>
       <c r="G118" s="24"/>
       <c r="H118" s="24"/>
-      <c r="I118" s="18" t="s">
+      <c r="I118" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J118" s="18"/>
-      <c r="K118" s="6"/>
-    </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B119" s="36"/>
+      <c r="J118" s="21">
+        <v>46194000</v>
+      </c>
+      <c r="K118" s="20"/>
+      <c r="L118" s="40" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M118" s="42" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N118" s="6"/>
+    </row>
+    <row r="119" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B119" s="30"/>
       <c r="C119" s="24"/>
       <c r="D119" s="24"/>
       <c r="E119" s="24"/>
-      <c r="F119" s="32"/>
+      <c r="F119" s="27"/>
       <c r="G119" s="24"/>
       <c r="H119" s="24"/>
-      <c r="I119" s="18" t="s">
+      <c r="I119" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="J119" s="18"/>
-      <c r="K119" s="6"/>
-    </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B120" s="36"/>
+      <c r="J119" s="21">
+        <v>83384000</v>
+      </c>
+      <c r="K119" s="20"/>
+      <c r="L119" s="40" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M119" s="42" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N119" s="6"/>
+    </row>
+    <row r="120" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B120" s="30"/>
       <c r="C120" s="24"/>
       <c r="D120" s="24"/>
       <c r="E120" s="24"/>
-      <c r="F120" s="32"/>
+      <c r="F120" s="27"/>
       <c r="G120" s="24"/>
       <c r="H120" s="24"/>
-      <c r="I120" s="18" t="s">
+      <c r="I120" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J120" s="18"/>
-      <c r="K120" s="6"/>
-    </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B121" s="36"/>
+      <c r="J120" s="21">
+        <v>125950000</v>
+      </c>
+      <c r="K120" s="20"/>
+      <c r="L120" s="40" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M120" s="42" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N120" s="6"/>
+    </row>
+    <row r="121" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B121" s="30"/>
       <c r="C121" s="24"/>
       <c r="D121" s="24"/>
       <c r="E121" s="24"/>
-      <c r="F121" s="32"/>
+      <c r="F121" s="27"/>
       <c r="G121" s="24"/>
       <c r="H121" s="24"/>
-      <c r="I121" s="18"/>
-      <c r="J121" s="18"/>
-      <c r="K121" s="6"/>
-    </row>
-    <row r="122" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="37"/>
-      <c r="C122" s="25"/>
-      <c r="D122" s="25"/>
-      <c r="E122" s="25"/>
-      <c r="F122" s="34"/>
-      <c r="G122" s="25"/>
-      <c r="H122" s="25"/>
-      <c r="I122" s="20"/>
-      <c r="J122" s="8"/>
-      <c r="K122" s="9"/>
+      <c r="I121" s="20"/>
+      <c r="J121" s="20"/>
+      <c r="K121" s="20"/>
+      <c r="L121" s="40" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M121" s="42" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N121" s="6"/>
+    </row>
+    <row r="122" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="31"/>
+      <c r="C122" s="32"/>
+      <c r="D122" s="32"/>
+      <c r="E122" s="32"/>
+      <c r="F122" s="28"/>
+      <c r="G122" s="32"/>
+      <c r="H122" s="32"/>
+      <c r="I122" s="19"/>
+      <c r="J122" s="19"/>
+      <c r="K122" s="8"/>
+      <c r="L122" s="43" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M122" s="44" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N122" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="F113:F122"/>
-    <mergeCell ref="G113:G122"/>
-    <mergeCell ref="H113:H122"/>
-    <mergeCell ref="G83:G92"/>
-    <mergeCell ref="H83:H92"/>
+    <mergeCell ref="B3:B122"/>
+    <mergeCell ref="C3:C62"/>
+    <mergeCell ref="D3:D32"/>
+    <mergeCell ref="E3:E32"/>
+    <mergeCell ref="F3:F12"/>
+    <mergeCell ref="D33:D62"/>
+    <mergeCell ref="E33:E62"/>
+    <mergeCell ref="F33:F42"/>
+    <mergeCell ref="H3:H12"/>
+    <mergeCell ref="F13:F22"/>
+    <mergeCell ref="G13:G22"/>
+    <mergeCell ref="H13:H22"/>
+    <mergeCell ref="F23:F32"/>
+    <mergeCell ref="G23:G32"/>
+    <mergeCell ref="H23:H32"/>
+    <mergeCell ref="G3:G12"/>
+    <mergeCell ref="H33:H42"/>
+    <mergeCell ref="F43:F52"/>
+    <mergeCell ref="G43:G52"/>
+    <mergeCell ref="H43:H52"/>
+    <mergeCell ref="F53:F62"/>
+    <mergeCell ref="G53:G62"/>
+    <mergeCell ref="H53:H62"/>
+    <mergeCell ref="G33:G42"/>
+    <mergeCell ref="H63:H72"/>
+    <mergeCell ref="F73:F82"/>
+    <mergeCell ref="G73:G82"/>
+    <mergeCell ref="H73:H82"/>
+    <mergeCell ref="F83:F92"/>
+    <mergeCell ref="C63:C122"/>
+    <mergeCell ref="D63:D92"/>
+    <mergeCell ref="E63:E92"/>
+    <mergeCell ref="F63:F72"/>
+    <mergeCell ref="G63:G72"/>
     <mergeCell ref="D93:D122"/>
     <mergeCell ref="E93:E122"/>
     <mergeCell ref="F93:F102"/>
@@ -5184,42 +6777,61 @@
     <mergeCell ref="F103:F112"/>
     <mergeCell ref="G103:G112"/>
     <mergeCell ref="H103:H112"/>
-    <mergeCell ref="C63:C122"/>
-    <mergeCell ref="D63:D92"/>
-    <mergeCell ref="E63:E92"/>
-    <mergeCell ref="F63:F72"/>
-    <mergeCell ref="G63:G72"/>
-    <mergeCell ref="H63:H72"/>
-    <mergeCell ref="F73:F82"/>
-    <mergeCell ref="G73:G82"/>
-    <mergeCell ref="H73:H82"/>
-    <mergeCell ref="F83:F92"/>
-    <mergeCell ref="H33:H42"/>
-    <mergeCell ref="F43:F52"/>
-    <mergeCell ref="G43:G52"/>
-    <mergeCell ref="H43:H52"/>
-    <mergeCell ref="F53:F62"/>
-    <mergeCell ref="G53:G62"/>
-    <mergeCell ref="H53:H62"/>
-    <mergeCell ref="H3:H12"/>
-    <mergeCell ref="F13:F22"/>
-    <mergeCell ref="G13:G22"/>
-    <mergeCell ref="H13:H22"/>
-    <mergeCell ref="F23:F32"/>
-    <mergeCell ref="G23:G32"/>
-    <mergeCell ref="H23:H32"/>
-    <mergeCell ref="B3:B122"/>
-    <mergeCell ref="C3:C62"/>
-    <mergeCell ref="D3:D32"/>
-    <mergeCell ref="E3:E32"/>
-    <mergeCell ref="F3:F12"/>
-    <mergeCell ref="G3:G12"/>
-    <mergeCell ref="D33:D62"/>
-    <mergeCell ref="E33:E62"/>
-    <mergeCell ref="F33:F42"/>
-    <mergeCell ref="G33:G42"/>
+    <mergeCell ref="F113:F122"/>
+    <mergeCell ref="G113:G122"/>
+    <mergeCell ref="H113:H122"/>
+    <mergeCell ref="G83:G92"/>
+    <mergeCell ref="H83:H92"/>
   </mergeCells>
-  <conditionalFormatting sqref="K97:K1048576 K37:K95 K17:K35 K2:K15">
+  <conditionalFormatting sqref="N97:N116 N37:N95 N17:N26 N2:N15 N118:N1048576 N28:N35">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K97:K116 K37:K95 K17:K26 K1:M4 N1 K123:M1048576 K28:K35 K118:K122 K5:K15 L5:M122">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N36">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K36">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N16">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -5231,7 +6843,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J97:J1048576 J37:J95 J17:J35 J1:J15 K1">
+  <conditionalFormatting sqref="K16">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -5243,7 +6855,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K36">
+  <conditionalFormatting sqref="N96">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -5255,7 +6867,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J36">
+  <conditionalFormatting sqref="K96">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -5267,7 +6879,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16">
+  <conditionalFormatting sqref="N117">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -5279,7 +6891,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
+  <conditionalFormatting sqref="K117">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -5291,7 +6903,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K96">
+  <conditionalFormatting sqref="N27">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -5303,7 +6915,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J96">
+  <conditionalFormatting sqref="K27">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uapt33090-my.sharepoint.com/personal/alexandrerrodrigues_ua_pt/Documents/Desktop/Universidade/ESTUDO/4o ano/MC/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="740" documentId="8_{F6C52FA1-06A6-4BA5-A029-C2E64A93D517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B405018A-8158-4D9D-86F8-0F186241B878}"/>
+  <xr:revisionPtr revIDLastSave="951" documentId="8_{F6C52FA1-06A6-4BA5-A029-C2E64A93D517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{708A88C9-339A-4E23-81DA-00BAFE071CE7}"/>
   <bookViews>
-    <workbookView xWindow="7260" yWindow="8805" windowWidth="28800" windowHeight="15600" activeTab="1" xr2:uid="{C9739BE2-A4AE-4755-88B7-610C6B0CB3CA}"/>
+    <workbookView xWindow="6735" yWindow="3015" windowWidth="28800" windowHeight="15600" activeTab="1" xr2:uid="{C9739BE2-A4AE-4755-88B7-610C6B0CB3CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="26">
   <si>
     <t>Epsilon</t>
   </si>
@@ -105,12 +105,21 @@
   <si>
     <t>SNR(dB)</t>
   </si>
+  <si>
+    <t>Avg Time</t>
+  </si>
+  <si>
+    <t>AvgDist</t>
+  </si>
+  <si>
+    <t>AvgSNR</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,29 +135,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="24">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -465,11 +461,156 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -534,9 +675,6 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -546,40 +684,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -606,7 +714,139 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -979,25 +1219,25 @@
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="29">
+      <c r="B3" s="47">
         <v>0.01</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="42">
         <v>2</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="42">
         <v>2</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="42">
         <v>16</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="33">
+      <c r="G3" s="42">
         <v>0.45</v>
       </c>
-      <c r="H3" s="34">
+      <c r="H3" s="43">
         <v>176667.9</v>
       </c>
       <c r="I3" s="10" t="s">
@@ -1011,13 +1251,13 @@
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="30"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="35"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="40"/>
       <c r="I4" s="14" t="s">
         <v>10</v>
       </c>
@@ -1029,13 +1269,13 @@
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="30"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="35"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="40"/>
       <c r="I5" s="14" t="s">
         <v>14</v>
       </c>
@@ -1047,13 +1287,13 @@
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="30"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="35"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="40"/>
       <c r="I6" s="14" t="s">
         <v>15</v>
       </c>
@@ -1065,13 +1305,13 @@
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="30"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="35"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="40"/>
       <c r="I7" s="14" t="s">
         <v>16</v>
       </c>
@@ -1095,13 +1335,13 @@
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="30"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="35"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="40"/>
       <c r="I8" s="14" t="s">
         <v>17</v>
       </c>
@@ -1113,13 +1353,13 @@
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="30"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="35"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="40"/>
       <c r="I9" s="14" t="s">
         <v>18</v>
       </c>
@@ -1131,13 +1371,13 @@
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="30"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="35"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="40"/>
       <c r="I10" s="14" t="s">
         <v>19</v>
       </c>
@@ -1149,41 +1389,41 @@
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="30"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="35"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="40"/>
       <c r="I11" s="14"/>
       <c r="J11" s="15"/>
       <c r="K11" s="6"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="30"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="36"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="41"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
       <c r="K12" s="6"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="30"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="26" t="s">
+      <c r="B13" s="48"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="38">
         <v>0.72914400000000001</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13" s="35">
         <v>4359112</v>
       </c>
       <c r="I13" s="14" t="s">
@@ -1197,13 +1437,13 @@
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="30"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
       <c r="I14" s="14" t="s">
         <v>10</v>
       </c>
@@ -1215,13 +1455,13 @@
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="30"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
       <c r="I15" s="14" t="s">
         <v>14</v>
       </c>
@@ -1233,13 +1473,13 @@
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="30"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
       <c r="I16" s="14" t="s">
         <v>15</v>
       </c>
@@ -1251,13 +1491,13 @@
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="30"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
       <c r="I17" s="14" t="s">
         <v>16</v>
       </c>
@@ -1285,13 +1525,13 @@
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="30"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
       <c r="I18" s="14" t="s">
         <v>17</v>
       </c>
@@ -1303,13 +1543,13 @@
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="30"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
       <c r="I19" s="14" t="s">
         <v>18</v>
       </c>
@@ -1321,13 +1561,13 @@
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="30"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
       <c r="I20" s="14" t="s">
         <v>19</v>
       </c>
@@ -1339,41 +1579,41 @@
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="30"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
       <c r="I21" s="14"/>
       <c r="J21" s="15"/>
       <c r="K21" s="6"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="30"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
       <c r="K22" s="6"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="30"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="27" t="s">
+      <c r="B23" s="48"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="38">
         <v>0.340559</v>
       </c>
-      <c r="H23" s="37">
+      <c r="H23" s="35">
         <v>4038082</v>
       </c>
       <c r="I23" s="14" t="s">
@@ -1387,13 +1627,13 @@
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="30"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
       <c r="I24" s="14" t="s">
         <v>10</v>
       </c>
@@ -1405,13 +1645,13 @@
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="30"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
       <c r="I25" s="14" t="s">
         <v>14</v>
       </c>
@@ -1423,13 +1663,13 @@
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="30"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
       <c r="I26" s="14" t="s">
         <v>15</v>
       </c>
@@ -1437,13 +1677,13 @@
       <c r="K26" s="6"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="30"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
       <c r="I27" s="14" t="s">
         <v>16</v>
       </c>
@@ -1459,13 +1699,13 @@
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="30"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
       <c r="I28" s="14" t="s">
         <v>17</v>
       </c>
@@ -1473,13 +1713,13 @@
       <c r="K28" s="6"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="30"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
       <c r="I29" s="14" t="s">
         <v>18</v>
       </c>
@@ -1487,13 +1727,13 @@
       <c r="K29" s="6"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="30"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
       <c r="I30" s="14" t="s">
         <v>19</v>
       </c>
@@ -1501,45 +1741,45 @@
       <c r="K30" s="6"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="30"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
       <c r="K31" s="6"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="30"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
       <c r="I32" s="14"/>
       <c r="J32" s="14"/>
       <c r="K32" s="6"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="30"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="23">
+      <c r="B33" s="48"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="38">
         <v>4</v>
       </c>
-      <c r="E33" s="23">
+      <c r="E33" s="38">
         <v>256</v>
       </c>
-      <c r="F33" s="23" t="s">
+      <c r="F33" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="G33" s="23">
+      <c r="G33" s="38">
         <v>101.49420600000001</v>
       </c>
-      <c r="H33" s="37">
+      <c r="H33" s="35">
         <v>212488.9</v>
       </c>
       <c r="I33" s="14" t="s">
@@ -1553,13 +1793,13 @@
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="30"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="35"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="40"/>
       <c r="I34" s="14" t="s">
         <v>10</v>
       </c>
@@ -1571,13 +1811,13 @@
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="30"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="35"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="40"/>
       <c r="I35" s="14" t="s">
         <v>14</v>
       </c>
@@ -1589,13 +1829,13 @@
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="30"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="35"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="40"/>
       <c r="I36" s="14" t="s">
         <v>15</v>
       </c>
@@ -1607,13 +1847,13 @@
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="30"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="35"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="40"/>
       <c r="I37" s="14" t="s">
         <v>16</v>
       </c>
@@ -1637,13 +1877,13 @@
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="30"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="35"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="40"/>
       <c r="I38" s="14" t="s">
         <v>17</v>
       </c>
@@ -1655,13 +1895,13 @@
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="30"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="35"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="40"/>
       <c r="I39" s="14" t="s">
         <v>18</v>
       </c>
@@ -1673,13 +1913,13 @@
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="30"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="35"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="40"/>
       <c r="I40" s="14" t="s">
         <v>19</v>
       </c>
@@ -1691,41 +1931,41 @@
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="30"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="35"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="40"/>
       <c r="I41" s="14"/>
       <c r="J41" s="15"/>
       <c r="K41" s="6"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="30"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="36"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="41"/>
       <c r="I42" s="14"/>
       <c r="J42" s="14"/>
       <c r="K42" s="6"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B43" s="30"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="26" t="s">
+      <c r="B43" s="48"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="G43" s="23">
+      <c r="G43" s="38">
         <v>115.934093</v>
       </c>
-      <c r="H43" s="37">
+      <c r="H43" s="35">
         <v>3701125</v>
       </c>
       <c r="I43" s="14" t="s">
@@ -1739,13 +1979,13 @@
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="30"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
       <c r="I44" s="14" t="s">
         <v>10</v>
       </c>
@@ -1757,13 +1997,13 @@
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B45" s="30"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
       <c r="I45" s="14" t="s">
         <v>14</v>
       </c>
@@ -1775,13 +2015,13 @@
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B46" s="30"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
       <c r="I46" s="14" t="s">
         <v>15</v>
       </c>
@@ -1793,13 +2033,13 @@
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B47" s="30"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
       <c r="I47" s="14" t="s">
         <v>16</v>
       </c>
@@ -1827,13 +2067,13 @@
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B48" s="30"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
       <c r="I48" s="14" t="s">
         <v>17</v>
       </c>
@@ -1845,13 +2085,13 @@
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B49" s="30"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
       <c r="I49" s="14" t="s">
         <v>18</v>
       </c>
@@ -1863,13 +2103,13 @@
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B50" s="30"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
       <c r="I50" s="14" t="s">
         <v>19</v>
       </c>
@@ -1881,41 +2121,41 @@
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B51" s="30"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
       <c r="I51" s="14"/>
       <c r="J51" s="15"/>
       <c r="K51" s="6"/>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B52" s="30"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
       <c r="I52" s="14"/>
       <c r="J52" s="14"/>
       <c r="K52" s="6"/>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B53" s="30"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="27" t="s">
+      <c r="B53" s="48"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="G53" s="23">
+      <c r="G53" s="38">
         <v>97.172319000000002</v>
       </c>
-      <c r="H53" s="37">
+      <c r="H53" s="35">
         <v>4766750</v>
       </c>
       <c r="I53" s="14" t="s">
@@ -1929,13 +2169,13 @@
       </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B54" s="30"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
+      <c r="B54" s="48"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="44"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
       <c r="I54" s="14" t="s">
         <v>10</v>
       </c>
@@ -1947,13 +2187,13 @@
       </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B55" s="30"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
       <c r="I55" s="14" t="s">
         <v>14</v>
       </c>
@@ -1961,13 +2201,13 @@
       <c r="K55" s="6"/>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B56" s="30"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
       <c r="I56" s="14" t="s">
         <v>15</v>
       </c>
@@ -1975,13 +2215,13 @@
       <c r="K56" s="6"/>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B57" s="30"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
+      <c r="B57" s="48"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
       <c r="I57" s="14" t="s">
         <v>16</v>
       </c>
@@ -1997,13 +2237,13 @@
       </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B58" s="30"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="24"/>
+      <c r="B58" s="48"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="44"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
       <c r="I58" s="14" t="s">
         <v>17</v>
       </c>
@@ -2011,13 +2251,13 @@
       <c r="K58" s="6"/>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B59" s="30"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="24"/>
+      <c r="B59" s="48"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
       <c r="I59" s="14" t="s">
         <v>18</v>
       </c>
@@ -2025,13 +2265,13 @@
       <c r="K59" s="6"/>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B60" s="30"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="24"/>
+      <c r="B60" s="48"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="44"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
       <c r="I60" s="14" t="s">
         <v>19</v>
       </c>
@@ -2039,47 +2279,47 @@
       <c r="K60" s="6"/>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B61" s="30"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="24"/>
+      <c r="B61" s="48"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="44"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
       <c r="I61" s="14"/>
       <c r="J61" s="14"/>
       <c r="K61" s="6"/>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B62" s="30"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
+      <c r="B62" s="48"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
       <c r="I62" s="16"/>
       <c r="J62" s="16"/>
       <c r="K62" s="7"/>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B63" s="30"/>
-      <c r="C63" s="23">
+      <c r="B63" s="48"/>
+      <c r="C63" s="38">
         <v>4</v>
       </c>
-      <c r="D63" s="23">
+      <c r="D63" s="38">
         <v>1</v>
       </c>
-      <c r="E63" s="23">
+      <c r="E63" s="38">
         <v>16</v>
       </c>
-      <c r="F63" s="24" t="s">
+      <c r="F63" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G63" s="23">
+      <c r="G63" s="38">
         <v>0.317722</v>
       </c>
-      <c r="H63" s="37">
+      <c r="H63" s="35">
         <v>474584.2</v>
       </c>
       <c r="I63" s="14" t="s">
@@ -2093,13 +2333,13 @@
       </c>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B64" s="30"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="35"/>
+      <c r="B64" s="48"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="40"/>
       <c r="I64" s="14" t="s">
         <v>10</v>
       </c>
@@ -2111,13 +2351,13 @@
       </c>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B65" s="30"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="24"/>
-      <c r="H65" s="35"/>
+      <c r="B65" s="48"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="40"/>
       <c r="I65" s="14" t="s">
         <v>14</v>
       </c>
@@ -2129,13 +2369,13 @@
       </c>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B66" s="30"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="35"/>
+      <c r="B66" s="48"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="40"/>
       <c r="I66" s="14" t="s">
         <v>15</v>
       </c>
@@ -2147,13 +2387,13 @@
       </c>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B67" s="30"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="35"/>
+      <c r="B67" s="48"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="40"/>
       <c r="I67" s="14" t="s">
         <v>16</v>
       </c>
@@ -2177,13 +2417,13 @@
       </c>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B68" s="30"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="24"/>
-      <c r="H68" s="35"/>
+      <c r="B68" s="48"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="40"/>
       <c r="I68" s="14" t="s">
         <v>17</v>
       </c>
@@ -2195,13 +2435,13 @@
       </c>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B69" s="30"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="24"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="35"/>
+      <c r="B69" s="48"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="40"/>
       <c r="I69" s="14" t="s">
         <v>18</v>
       </c>
@@ -2213,13 +2453,13 @@
       </c>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B70" s="30"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="24"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="24"/>
-      <c r="H70" s="35"/>
+      <c r="B70" s="48"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="40"/>
       <c r="I70" s="14" t="s">
         <v>19</v>
       </c>
@@ -2231,41 +2471,41 @@
       </c>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B71" s="30"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="24"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="24"/>
-      <c r="H71" s="35"/>
+      <c r="B71" s="48"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="40"/>
       <c r="I71" s="14"/>
       <c r="J71" s="15"/>
       <c r="K71" s="6"/>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B72" s="30"/>
-      <c r="C72" s="24"/>
-      <c r="D72" s="24"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="25"/>
-      <c r="H72" s="36"/>
+      <c r="B72" s="48"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="39"/>
+      <c r="H72" s="41"/>
       <c r="I72" s="14"/>
       <c r="J72" s="14"/>
       <c r="K72" s="6"/>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B73" s="30"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="24"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="26" t="s">
+      <c r="B73" s="48"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="G73" s="23">
+      <c r="G73" s="38">
         <v>0.38735700000000001</v>
       </c>
-      <c r="H73" s="37">
+      <c r="H73" s="35">
         <v>16262100</v>
       </c>
       <c r="I73" s="14" t="s">
@@ -2279,13 +2519,13 @@
       </c>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B74" s="30"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="24"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="26"/>
-      <c r="G74" s="24"/>
-      <c r="H74" s="24"/>
+      <c r="B74" s="48"/>
+      <c r="C74" s="36"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="45"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="36"/>
       <c r="I74" s="14" t="s">
         <v>10</v>
       </c>
@@ -2297,13 +2537,13 @@
       </c>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B75" s="30"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="24"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="26"/>
-      <c r="G75" s="24"/>
-      <c r="H75" s="24"/>
+      <c r="B75" s="48"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="45"/>
+      <c r="G75" s="36"/>
+      <c r="H75" s="36"/>
       <c r="I75" s="14" t="s">
         <v>14</v>
       </c>
@@ -2315,13 +2555,13 @@
       </c>
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B76" s="30"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="24"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="26"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="24"/>
+      <c r="B76" s="48"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="45"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="36"/>
       <c r="I76" s="14" t="s">
         <v>15</v>
       </c>
@@ -2333,13 +2573,13 @@
       </c>
     </row>
     <row r="77" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B77" s="30"/>
-      <c r="C77" s="24"/>
-      <c r="D77" s="24"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="26"/>
-      <c r="G77" s="24"/>
-      <c r="H77" s="24"/>
+      <c r="B77" s="48"/>
+      <c r="C77" s="36"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="45"/>
+      <c r="G77" s="36"/>
+      <c r="H77" s="36"/>
       <c r="I77" s="14" t="s">
         <v>16</v>
       </c>
@@ -2367,13 +2607,13 @@
       </c>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B78" s="30"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="24"/>
-      <c r="H78" s="24"/>
+      <c r="B78" s="48"/>
+      <c r="C78" s="36"/>
+      <c r="D78" s="36"/>
+      <c r="E78" s="36"/>
+      <c r="F78" s="45"/>
+      <c r="G78" s="36"/>
+      <c r="H78" s="36"/>
       <c r="I78" s="14" t="s">
         <v>17</v>
       </c>
@@ -2385,13 +2625,13 @@
       </c>
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B79" s="30"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="24"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="26"/>
-      <c r="G79" s="24"/>
-      <c r="H79" s="24"/>
+      <c r="B79" s="48"/>
+      <c r="C79" s="36"/>
+      <c r="D79" s="36"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="45"/>
+      <c r="G79" s="36"/>
+      <c r="H79" s="36"/>
       <c r="I79" s="14" t="s">
         <v>18</v>
       </c>
@@ -2403,13 +2643,13 @@
       </c>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B80" s="30"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="24"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="26"/>
-      <c r="G80" s="24"/>
-      <c r="H80" s="24"/>
+      <c r="B80" s="48"/>
+      <c r="C80" s="36"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="36"/>
+      <c r="F80" s="45"/>
+      <c r="G80" s="36"/>
+      <c r="H80" s="36"/>
       <c r="I80" s="14" t="s">
         <v>19</v>
       </c>
@@ -2421,41 +2661,41 @@
       </c>
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B81" s="30"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="24"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="26"/>
-      <c r="G81" s="24"/>
-      <c r="H81" s="24"/>
+      <c r="B81" s="48"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="36"/>
+      <c r="E81" s="36"/>
+      <c r="F81" s="45"/>
+      <c r="G81" s="36"/>
+      <c r="H81" s="36"/>
       <c r="I81" s="14"/>
       <c r="J81" s="15"/>
       <c r="K81" s="6"/>
     </row>
     <row r="82" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B82" s="30"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="24"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="26"/>
-      <c r="G82" s="25"/>
-      <c r="H82" s="25"/>
+      <c r="B82" s="48"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="36"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="45"/>
+      <c r="G82" s="39"/>
+      <c r="H82" s="39"/>
       <c r="I82" s="14"/>
       <c r="J82" s="14"/>
       <c r="K82" s="6"/>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B83" s="30"/>
-      <c r="C83" s="24"/>
-      <c r="D83" s="24"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="27" t="s">
+      <c r="B83" s="48"/>
+      <c r="C83" s="36"/>
+      <c r="D83" s="36"/>
+      <c r="E83" s="36"/>
+      <c r="F83" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="G83" s="23">
+      <c r="G83" s="38">
         <v>0.73894599999999999</v>
       </c>
-      <c r="H83" s="37">
+      <c r="H83" s="35">
         <v>45744900</v>
       </c>
       <c r="I83" s="14" t="s">
@@ -2469,13 +2709,13 @@
       </c>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B84" s="30"/>
-      <c r="C84" s="24"/>
-      <c r="D84" s="24"/>
-      <c r="E84" s="24"/>
-      <c r="F84" s="27"/>
-      <c r="G84" s="24"/>
-      <c r="H84" s="24"/>
+      <c r="B84" s="48"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="44"/>
+      <c r="G84" s="36"/>
+      <c r="H84" s="36"/>
       <c r="I84" s="14" t="s">
         <v>10</v>
       </c>
@@ -2487,13 +2727,13 @@
       </c>
     </row>
     <row r="85" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B85" s="30"/>
-      <c r="C85" s="24"/>
-      <c r="D85" s="24"/>
-      <c r="E85" s="24"/>
-      <c r="F85" s="27"/>
-      <c r="G85" s="24"/>
-      <c r="H85" s="24"/>
+      <c r="B85" s="48"/>
+      <c r="C85" s="36"/>
+      <c r="D85" s="36"/>
+      <c r="E85" s="36"/>
+      <c r="F85" s="44"/>
+      <c r="G85" s="36"/>
+      <c r="H85" s="36"/>
       <c r="I85" s="14" t="s">
         <v>14</v>
       </c>
@@ -2501,13 +2741,13 @@
       <c r="K85" s="6"/>
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B86" s="30"/>
-      <c r="C86" s="24"/>
-      <c r="D86" s="24"/>
-      <c r="E86" s="24"/>
-      <c r="F86" s="27"/>
-      <c r="G86" s="24"/>
-      <c r="H86" s="24"/>
+      <c r="B86" s="48"/>
+      <c r="C86" s="36"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="36"/>
+      <c r="F86" s="44"/>
+      <c r="G86" s="36"/>
+      <c r="H86" s="36"/>
       <c r="I86" s="14" t="s">
         <v>15</v>
       </c>
@@ -2515,13 +2755,13 @@
       <c r="K86" s="6"/>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B87" s="30"/>
-      <c r="C87" s="24"/>
-      <c r="D87" s="24"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="27"/>
-      <c r="G87" s="24"/>
-      <c r="H87" s="24"/>
+      <c r="B87" s="48"/>
+      <c r="C87" s="36"/>
+      <c r="D87" s="36"/>
+      <c r="E87" s="36"/>
+      <c r="F87" s="44"/>
+      <c r="G87" s="36"/>
+      <c r="H87" s="36"/>
       <c r="I87" s="14" t="s">
         <v>16</v>
       </c>
@@ -2537,13 +2777,13 @@
       </c>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B88" s="30"/>
-      <c r="C88" s="24"/>
-      <c r="D88" s="24"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="27"/>
-      <c r="G88" s="24"/>
-      <c r="H88" s="24"/>
+      <c r="B88" s="48"/>
+      <c r="C88" s="36"/>
+      <c r="D88" s="36"/>
+      <c r="E88" s="36"/>
+      <c r="F88" s="44"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="36"/>
       <c r="I88" s="14" t="s">
         <v>17</v>
       </c>
@@ -2551,13 +2791,13 @@
       <c r="K88" s="6"/>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B89" s="30"/>
-      <c r="C89" s="24"/>
-      <c r="D89" s="24"/>
-      <c r="E89" s="24"/>
-      <c r="F89" s="27"/>
-      <c r="G89" s="24"/>
-      <c r="H89" s="24"/>
+      <c r="B89" s="48"/>
+      <c r="C89" s="36"/>
+      <c r="D89" s="36"/>
+      <c r="E89" s="36"/>
+      <c r="F89" s="44"/>
+      <c r="G89" s="36"/>
+      <c r="H89" s="36"/>
       <c r="I89" s="14" t="s">
         <v>18</v>
       </c>
@@ -2565,13 +2805,13 @@
       <c r="K89" s="6"/>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B90" s="30"/>
-      <c r="C90" s="24"/>
-      <c r="D90" s="24"/>
-      <c r="E90" s="24"/>
-      <c r="F90" s="27"/>
-      <c r="G90" s="24"/>
-      <c r="H90" s="24"/>
+      <c r="B90" s="48"/>
+      <c r="C90" s="36"/>
+      <c r="D90" s="36"/>
+      <c r="E90" s="36"/>
+      <c r="F90" s="44"/>
+      <c r="G90" s="36"/>
+      <c r="H90" s="36"/>
       <c r="I90" s="14" t="s">
         <v>19</v>
       </c>
@@ -2579,45 +2819,45 @@
       <c r="K90" s="6"/>
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B91" s="30"/>
-      <c r="C91" s="24"/>
-      <c r="D91" s="24"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="27"/>
-      <c r="G91" s="24"/>
-      <c r="H91" s="24"/>
+      <c r="B91" s="48"/>
+      <c r="C91" s="36"/>
+      <c r="D91" s="36"/>
+      <c r="E91" s="36"/>
+      <c r="F91" s="44"/>
+      <c r="G91" s="36"/>
+      <c r="H91" s="36"/>
       <c r="I91" s="14"/>
       <c r="J91" s="14"/>
       <c r="K91" s="6"/>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B92" s="30"/>
-      <c r="C92" s="24"/>
-      <c r="D92" s="24"/>
-      <c r="E92" s="24"/>
-      <c r="F92" s="27"/>
-      <c r="G92" s="25"/>
-      <c r="H92" s="25"/>
+      <c r="B92" s="48"/>
+      <c r="C92" s="36"/>
+      <c r="D92" s="36"/>
+      <c r="E92" s="36"/>
+      <c r="F92" s="44"/>
+      <c r="G92" s="39"/>
+      <c r="H92" s="39"/>
       <c r="I92" s="14"/>
       <c r="J92" s="14"/>
       <c r="K92" s="6"/>
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B93" s="30"/>
-      <c r="C93" s="24"/>
-      <c r="D93" s="23">
+      <c r="B93" s="48"/>
+      <c r="C93" s="36"/>
+      <c r="D93" s="38">
         <v>2</v>
       </c>
-      <c r="E93" s="23">
+      <c r="E93" s="38">
         <v>256</v>
       </c>
-      <c r="F93" s="23" t="s">
+      <c r="F93" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="G93" s="23">
+      <c r="G93" s="38">
         <v>84.790594999999996</v>
       </c>
-      <c r="H93" s="37">
+      <c r="H93" s="35">
         <v>2851762</v>
       </c>
       <c r="I93" s="14" t="s">
@@ -2631,13 +2871,13 @@
       </c>
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B94" s="30"/>
-      <c r="C94" s="24"/>
-      <c r="D94" s="24"/>
-      <c r="E94" s="24"/>
-      <c r="F94" s="24"/>
-      <c r="G94" s="24"/>
-      <c r="H94" s="35"/>
+      <c r="B94" s="48"/>
+      <c r="C94" s="36"/>
+      <c r="D94" s="36"/>
+      <c r="E94" s="36"/>
+      <c r="F94" s="36"/>
+      <c r="G94" s="36"/>
+      <c r="H94" s="40"/>
       <c r="I94" s="14" t="s">
         <v>10</v>
       </c>
@@ -2649,13 +2889,13 @@
       </c>
     </row>
     <row r="95" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B95" s="30"/>
-      <c r="C95" s="24"/>
-      <c r="D95" s="24"/>
-      <c r="E95" s="24"/>
-      <c r="F95" s="24"/>
-      <c r="G95" s="24"/>
-      <c r="H95" s="35"/>
+      <c r="B95" s="48"/>
+      <c r="C95" s="36"/>
+      <c r="D95" s="36"/>
+      <c r="E95" s="36"/>
+      <c r="F95" s="36"/>
+      <c r="G95" s="36"/>
+      <c r="H95" s="40"/>
       <c r="I95" s="14" t="s">
         <v>14</v>
       </c>
@@ -2667,13 +2907,13 @@
       </c>
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B96" s="30"/>
-      <c r="C96" s="24"/>
-      <c r="D96" s="24"/>
-      <c r="E96" s="24"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="24"/>
-      <c r="H96" s="35"/>
+      <c r="B96" s="48"/>
+      <c r="C96" s="36"/>
+      <c r="D96" s="36"/>
+      <c r="E96" s="36"/>
+      <c r="F96" s="36"/>
+      <c r="G96" s="36"/>
+      <c r="H96" s="40"/>
       <c r="I96" s="14" t="s">
         <v>15</v>
       </c>
@@ -2685,13 +2925,13 @@
       </c>
     </row>
     <row r="97" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B97" s="30"/>
-      <c r="C97" s="24"/>
-      <c r="D97" s="24"/>
-      <c r="E97" s="24"/>
-      <c r="F97" s="24"/>
-      <c r="G97" s="24"/>
-      <c r="H97" s="35"/>
+      <c r="B97" s="48"/>
+      <c r="C97" s="36"/>
+      <c r="D97" s="36"/>
+      <c r="E97" s="36"/>
+      <c r="F97" s="36"/>
+      <c r="G97" s="36"/>
+      <c r="H97" s="40"/>
       <c r="I97" s="14" t="s">
         <v>16</v>
       </c>
@@ -2715,13 +2955,13 @@
       </c>
     </row>
     <row r="98" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B98" s="30"/>
-      <c r="C98" s="24"/>
-      <c r="D98" s="24"/>
-      <c r="E98" s="24"/>
-      <c r="F98" s="24"/>
-      <c r="G98" s="24"/>
-      <c r="H98" s="35"/>
+      <c r="B98" s="48"/>
+      <c r="C98" s="36"/>
+      <c r="D98" s="36"/>
+      <c r="E98" s="36"/>
+      <c r="F98" s="36"/>
+      <c r="G98" s="36"/>
+      <c r="H98" s="40"/>
       <c r="I98" s="14" t="s">
         <v>17</v>
       </c>
@@ -2733,13 +2973,13 @@
       </c>
     </row>
     <row r="99" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B99" s="30"/>
-      <c r="C99" s="24"/>
-      <c r="D99" s="24"/>
-      <c r="E99" s="24"/>
-      <c r="F99" s="24"/>
-      <c r="G99" s="24"/>
-      <c r="H99" s="35"/>
+      <c r="B99" s="48"/>
+      <c r="C99" s="36"/>
+      <c r="D99" s="36"/>
+      <c r="E99" s="36"/>
+      <c r="F99" s="36"/>
+      <c r="G99" s="36"/>
+      <c r="H99" s="40"/>
       <c r="I99" s="14" t="s">
         <v>18</v>
       </c>
@@ -2751,13 +2991,13 @@
       </c>
     </row>
     <row r="100" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B100" s="30"/>
-      <c r="C100" s="24"/>
-      <c r="D100" s="24"/>
-      <c r="E100" s="24"/>
-      <c r="F100" s="24"/>
-      <c r="G100" s="24"/>
-      <c r="H100" s="35"/>
+      <c r="B100" s="48"/>
+      <c r="C100" s="36"/>
+      <c r="D100" s="36"/>
+      <c r="E100" s="36"/>
+      <c r="F100" s="36"/>
+      <c r="G100" s="36"/>
+      <c r="H100" s="40"/>
       <c r="I100" s="14" t="s">
         <v>19</v>
       </c>
@@ -2769,41 +3009,41 @@
       </c>
     </row>
     <row r="101" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B101" s="30"/>
-      <c r="C101" s="24"/>
-      <c r="D101" s="24"/>
-      <c r="E101" s="24"/>
-      <c r="F101" s="24"/>
-      <c r="G101" s="24"/>
-      <c r="H101" s="35"/>
+      <c r="B101" s="48"/>
+      <c r="C101" s="36"/>
+      <c r="D101" s="36"/>
+      <c r="E101" s="36"/>
+      <c r="F101" s="36"/>
+      <c r="G101" s="36"/>
+      <c r="H101" s="40"/>
       <c r="I101" s="14"/>
       <c r="J101" s="14"/>
       <c r="K101" s="6"/>
     </row>
     <row r="102" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B102" s="30"/>
-      <c r="C102" s="24"/>
-      <c r="D102" s="24"/>
-      <c r="E102" s="24"/>
-      <c r="F102" s="25"/>
-      <c r="G102" s="25"/>
-      <c r="H102" s="36"/>
+      <c r="B102" s="48"/>
+      <c r="C102" s="36"/>
+      <c r="D102" s="36"/>
+      <c r="E102" s="36"/>
+      <c r="F102" s="39"/>
+      <c r="G102" s="39"/>
+      <c r="H102" s="41"/>
       <c r="I102" s="14"/>
       <c r="J102" s="14"/>
       <c r="K102" s="6"/>
     </row>
     <row r="103" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B103" s="30"/>
-      <c r="C103" s="24"/>
-      <c r="D103" s="24"/>
-      <c r="E103" s="24"/>
-      <c r="F103" s="26" t="s">
+      <c r="B103" s="48"/>
+      <c r="C103" s="36"/>
+      <c r="D103" s="36"/>
+      <c r="E103" s="36"/>
+      <c r="F103" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="G103" s="23">
+      <c r="G103" s="38">
         <v>95.217349999999996</v>
       </c>
-      <c r="H103" s="37">
+      <c r="H103" s="35">
         <v>23730060</v>
       </c>
       <c r="I103" s="14" t="s">
@@ -2817,13 +3057,13 @@
       </c>
     </row>
     <row r="104" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B104" s="30"/>
-      <c r="C104" s="24"/>
-      <c r="D104" s="24"/>
-      <c r="E104" s="24"/>
-      <c r="F104" s="26"/>
-      <c r="G104" s="24"/>
-      <c r="H104" s="24"/>
+      <c r="B104" s="48"/>
+      <c r="C104" s="36"/>
+      <c r="D104" s="36"/>
+      <c r="E104" s="36"/>
+      <c r="F104" s="45"/>
+      <c r="G104" s="36"/>
+      <c r="H104" s="36"/>
       <c r="I104" s="14" t="s">
         <v>10</v>
       </c>
@@ -2835,13 +3075,13 @@
       </c>
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B105" s="30"/>
-      <c r="C105" s="24"/>
-      <c r="D105" s="24"/>
-      <c r="E105" s="24"/>
-      <c r="F105" s="26"/>
-      <c r="G105" s="24"/>
-      <c r="H105" s="24"/>
+      <c r="B105" s="48"/>
+      <c r="C105" s="36"/>
+      <c r="D105" s="36"/>
+      <c r="E105" s="36"/>
+      <c r="F105" s="45"/>
+      <c r="G105" s="36"/>
+      <c r="H105" s="36"/>
       <c r="I105" s="14" t="s">
         <v>14</v>
       </c>
@@ -2853,13 +3093,13 @@
       </c>
     </row>
     <row r="106" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B106" s="30"/>
-      <c r="C106" s="24"/>
-      <c r="D106" s="24"/>
-      <c r="E106" s="24"/>
-      <c r="F106" s="26"/>
-      <c r="G106" s="24"/>
-      <c r="H106" s="24"/>
+      <c r="B106" s="48"/>
+      <c r="C106" s="36"/>
+      <c r="D106" s="36"/>
+      <c r="E106" s="36"/>
+      <c r="F106" s="45"/>
+      <c r="G106" s="36"/>
+      <c r="H106" s="36"/>
       <c r="I106" s="14" t="s">
         <v>15</v>
       </c>
@@ -2871,13 +3111,13 @@
       </c>
     </row>
     <row r="107" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B107" s="30"/>
-      <c r="C107" s="24"/>
-      <c r="D107" s="24"/>
-      <c r="E107" s="24"/>
-      <c r="F107" s="26"/>
-      <c r="G107" s="24"/>
-      <c r="H107" s="24"/>
+      <c r="B107" s="48"/>
+      <c r="C107" s="36"/>
+      <c r="D107" s="36"/>
+      <c r="E107" s="36"/>
+      <c r="F107" s="45"/>
+      <c r="G107" s="36"/>
+      <c r="H107" s="36"/>
       <c r="I107" s="14" t="s">
         <v>16</v>
       </c>
@@ -2905,13 +3145,13 @@
       </c>
     </row>
     <row r="108" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B108" s="30"/>
-      <c r="C108" s="24"/>
-      <c r="D108" s="24"/>
-      <c r="E108" s="24"/>
-      <c r="F108" s="26"/>
-      <c r="G108" s="24"/>
-      <c r="H108" s="24"/>
+      <c r="B108" s="48"/>
+      <c r="C108" s="36"/>
+      <c r="D108" s="36"/>
+      <c r="E108" s="36"/>
+      <c r="F108" s="45"/>
+      <c r="G108" s="36"/>
+      <c r="H108" s="36"/>
       <c r="I108" s="14" t="s">
         <v>17</v>
       </c>
@@ -2923,13 +3163,13 @@
       </c>
     </row>
     <row r="109" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B109" s="30"/>
-      <c r="C109" s="24"/>
-      <c r="D109" s="24"/>
-      <c r="E109" s="24"/>
-      <c r="F109" s="26"/>
-      <c r="G109" s="24"/>
-      <c r="H109" s="24"/>
+      <c r="B109" s="48"/>
+      <c r="C109" s="36"/>
+      <c r="D109" s="36"/>
+      <c r="E109" s="36"/>
+      <c r="F109" s="45"/>
+      <c r="G109" s="36"/>
+      <c r="H109" s="36"/>
       <c r="I109" s="14" t="s">
         <v>18</v>
       </c>
@@ -2941,13 +3181,13 @@
       </c>
     </row>
     <row r="110" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B110" s="30"/>
-      <c r="C110" s="24"/>
-      <c r="D110" s="24"/>
-      <c r="E110" s="24"/>
-      <c r="F110" s="26"/>
-      <c r="G110" s="24"/>
-      <c r="H110" s="24"/>
+      <c r="B110" s="48"/>
+      <c r="C110" s="36"/>
+      <c r="D110" s="36"/>
+      <c r="E110" s="36"/>
+      <c r="F110" s="45"/>
+      <c r="G110" s="36"/>
+      <c r="H110" s="36"/>
       <c r="I110" s="14" t="s">
         <v>19</v>
       </c>
@@ -2959,41 +3199,41 @@
       </c>
     </row>
     <row r="111" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B111" s="30"/>
-      <c r="C111" s="24"/>
-      <c r="D111" s="24"/>
-      <c r="E111" s="24"/>
-      <c r="F111" s="26"/>
-      <c r="G111" s="24"/>
-      <c r="H111" s="24"/>
+      <c r="B111" s="48"/>
+      <c r="C111" s="36"/>
+      <c r="D111" s="36"/>
+      <c r="E111" s="36"/>
+      <c r="F111" s="45"/>
+      <c r="G111" s="36"/>
+      <c r="H111" s="36"/>
       <c r="I111" s="14"/>
       <c r="J111" s="15"/>
       <c r="K111" s="6"/>
     </row>
     <row r="112" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B112" s="30"/>
-      <c r="C112" s="24"/>
-      <c r="D112" s="24"/>
-      <c r="E112" s="24"/>
-      <c r="F112" s="26"/>
-      <c r="G112" s="25"/>
-      <c r="H112" s="25"/>
+      <c r="B112" s="48"/>
+      <c r="C112" s="36"/>
+      <c r="D112" s="36"/>
+      <c r="E112" s="36"/>
+      <c r="F112" s="45"/>
+      <c r="G112" s="39"/>
+      <c r="H112" s="39"/>
       <c r="I112" s="14"/>
       <c r="J112" s="14"/>
       <c r="K112" s="6"/>
     </row>
     <row r="113" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B113" s="30"/>
-      <c r="C113" s="24"/>
-      <c r="D113" s="24"/>
-      <c r="E113" s="24"/>
-      <c r="F113" s="27" t="s">
+      <c r="B113" s="48"/>
+      <c r="C113" s="36"/>
+      <c r="D113" s="36"/>
+      <c r="E113" s="36"/>
+      <c r="F113" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="G113" s="23">
+      <c r="G113" s="38">
         <v>88.165481999999997</v>
       </c>
-      <c r="H113" s="37">
+      <c r="H113" s="35">
         <v>47494650</v>
       </c>
       <c r="I113" s="14" t="s">
@@ -3007,13 +3247,13 @@
       </c>
     </row>
     <row r="114" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B114" s="30"/>
-      <c r="C114" s="24"/>
-      <c r="D114" s="24"/>
-      <c r="E114" s="24"/>
-      <c r="F114" s="27"/>
-      <c r="G114" s="24"/>
-      <c r="H114" s="24"/>
+      <c r="B114" s="48"/>
+      <c r="C114" s="36"/>
+      <c r="D114" s="36"/>
+      <c r="E114" s="36"/>
+      <c r="F114" s="44"/>
+      <c r="G114" s="36"/>
+      <c r="H114" s="36"/>
       <c r="I114" s="14" t="s">
         <v>10</v>
       </c>
@@ -3025,13 +3265,13 @@
       </c>
     </row>
     <row r="115" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B115" s="30"/>
-      <c r="C115" s="24"/>
-      <c r="D115" s="24"/>
-      <c r="E115" s="24"/>
-      <c r="F115" s="27"/>
-      <c r="G115" s="24"/>
-      <c r="H115" s="24"/>
+      <c r="B115" s="48"/>
+      <c r="C115" s="36"/>
+      <c r="D115" s="36"/>
+      <c r="E115" s="36"/>
+      <c r="F115" s="44"/>
+      <c r="G115" s="36"/>
+      <c r="H115" s="36"/>
       <c r="I115" s="14" t="s">
         <v>14</v>
       </c>
@@ -3039,13 +3279,13 @@
       <c r="K115" s="6"/>
     </row>
     <row r="116" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B116" s="30"/>
-      <c r="C116" s="24"/>
-      <c r="D116" s="24"/>
-      <c r="E116" s="24"/>
-      <c r="F116" s="27"/>
-      <c r="G116" s="24"/>
-      <c r="H116" s="24"/>
+      <c r="B116" s="48"/>
+      <c r="C116" s="36"/>
+      <c r="D116" s="36"/>
+      <c r="E116" s="36"/>
+      <c r="F116" s="44"/>
+      <c r="G116" s="36"/>
+      <c r="H116" s="36"/>
       <c r="I116" s="14" t="s">
         <v>15</v>
       </c>
@@ -3053,13 +3293,13 @@
       <c r="K116" s="6"/>
     </row>
     <row r="117" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B117" s="30"/>
-      <c r="C117" s="24"/>
-      <c r="D117" s="24"/>
-      <c r="E117" s="24"/>
-      <c r="F117" s="27"/>
-      <c r="G117" s="24"/>
-      <c r="H117" s="24"/>
+      <c r="B117" s="48"/>
+      <c r="C117" s="36"/>
+      <c r="D117" s="36"/>
+      <c r="E117" s="36"/>
+      <c r="F117" s="44"/>
+      <c r="G117" s="36"/>
+      <c r="H117" s="36"/>
       <c r="I117" s="14" t="s">
         <v>16</v>
       </c>
@@ -3075,13 +3315,13 @@
       </c>
     </row>
     <row r="118" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B118" s="30"/>
-      <c r="C118" s="24"/>
-      <c r="D118" s="24"/>
-      <c r="E118" s="24"/>
-      <c r="F118" s="27"/>
-      <c r="G118" s="24"/>
-      <c r="H118" s="24"/>
+      <c r="B118" s="48"/>
+      <c r="C118" s="36"/>
+      <c r="D118" s="36"/>
+      <c r="E118" s="36"/>
+      <c r="F118" s="44"/>
+      <c r="G118" s="36"/>
+      <c r="H118" s="36"/>
       <c r="I118" s="14" t="s">
         <v>17</v>
       </c>
@@ -3089,13 +3329,13 @@
       <c r="K118" s="6"/>
     </row>
     <row r="119" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B119" s="30"/>
-      <c r="C119" s="24"/>
-      <c r="D119" s="24"/>
-      <c r="E119" s="24"/>
-      <c r="F119" s="27"/>
-      <c r="G119" s="24"/>
-      <c r="H119" s="24"/>
+      <c r="B119" s="48"/>
+      <c r="C119" s="36"/>
+      <c r="D119" s="36"/>
+      <c r="E119" s="36"/>
+      <c r="F119" s="44"/>
+      <c r="G119" s="36"/>
+      <c r="H119" s="36"/>
       <c r="I119" s="14" t="s">
         <v>18</v>
       </c>
@@ -3103,13 +3343,13 @@
       <c r="K119" s="6"/>
     </row>
     <row r="120" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B120" s="30"/>
-      <c r="C120" s="24"/>
-      <c r="D120" s="24"/>
-      <c r="E120" s="24"/>
-      <c r="F120" s="27"/>
-      <c r="G120" s="24"/>
-      <c r="H120" s="24"/>
+      <c r="B120" s="48"/>
+      <c r="C120" s="36"/>
+      <c r="D120" s="36"/>
+      <c r="E120" s="36"/>
+      <c r="F120" s="44"/>
+      <c r="G120" s="36"/>
+      <c r="H120" s="36"/>
       <c r="I120" s="14" t="s">
         <v>19</v>
       </c>
@@ -3117,62 +3357,31 @@
       <c r="K120" s="6"/>
     </row>
     <row r="121" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B121" s="30"/>
-      <c r="C121" s="24"/>
-      <c r="D121" s="24"/>
-      <c r="E121" s="24"/>
-      <c r="F121" s="27"/>
-      <c r="G121" s="24"/>
-      <c r="H121" s="24"/>
+      <c r="B121" s="48"/>
+      <c r="C121" s="36"/>
+      <c r="D121" s="36"/>
+      <c r="E121" s="36"/>
+      <c r="F121" s="44"/>
+      <c r="G121" s="36"/>
+      <c r="H121" s="36"/>
       <c r="I121" s="14"/>
       <c r="J121" s="14"/>
       <c r="K121" s="6"/>
     </row>
     <row r="122" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="31"/>
-      <c r="C122" s="32"/>
-      <c r="D122" s="32"/>
-      <c r="E122" s="32"/>
-      <c r="F122" s="28"/>
-      <c r="G122" s="32"/>
-      <c r="H122" s="32"/>
+      <c r="B122" s="49"/>
+      <c r="C122" s="37"/>
+      <c r="D122" s="37"/>
+      <c r="E122" s="37"/>
+      <c r="F122" s="46"/>
+      <c r="G122" s="37"/>
+      <c r="H122" s="37"/>
       <c r="I122" s="13"/>
       <c r="J122" s="8"/>
       <c r="K122" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="H113:H122"/>
-    <mergeCell ref="G113:G122"/>
-    <mergeCell ref="G43:G52"/>
-    <mergeCell ref="H43:H52"/>
-    <mergeCell ref="G53:G62"/>
-    <mergeCell ref="H53:H62"/>
-    <mergeCell ref="G93:G102"/>
-    <mergeCell ref="H93:H102"/>
-    <mergeCell ref="G103:G112"/>
-    <mergeCell ref="H103:H112"/>
-    <mergeCell ref="G73:G82"/>
-    <mergeCell ref="H73:H82"/>
-    <mergeCell ref="G83:G92"/>
-    <mergeCell ref="H83:H92"/>
-    <mergeCell ref="G3:G12"/>
-    <mergeCell ref="H3:H12"/>
-    <mergeCell ref="G33:G42"/>
-    <mergeCell ref="H33:H42"/>
-    <mergeCell ref="H63:H72"/>
-    <mergeCell ref="G63:G72"/>
-    <mergeCell ref="G13:G22"/>
-    <mergeCell ref="H13:H22"/>
-    <mergeCell ref="G23:G32"/>
-    <mergeCell ref="H23:H32"/>
-    <mergeCell ref="F23:F32"/>
-    <mergeCell ref="F33:F42"/>
-    <mergeCell ref="E3:E32"/>
-    <mergeCell ref="E33:E62"/>
-    <mergeCell ref="C3:C62"/>
-    <mergeCell ref="D3:D32"/>
-    <mergeCell ref="D33:D62"/>
     <mergeCell ref="F93:F102"/>
     <mergeCell ref="F103:F112"/>
     <mergeCell ref="F113:F122"/>
@@ -3189,6 +3398,37 @@
     <mergeCell ref="E93:E122"/>
     <mergeCell ref="F3:F12"/>
     <mergeCell ref="F13:F22"/>
+    <mergeCell ref="F23:F32"/>
+    <mergeCell ref="F33:F42"/>
+    <mergeCell ref="E3:E32"/>
+    <mergeCell ref="E33:E62"/>
+    <mergeCell ref="C3:C62"/>
+    <mergeCell ref="D3:D32"/>
+    <mergeCell ref="D33:D62"/>
+    <mergeCell ref="G3:G12"/>
+    <mergeCell ref="H3:H12"/>
+    <mergeCell ref="G33:G42"/>
+    <mergeCell ref="H33:H42"/>
+    <mergeCell ref="H63:H72"/>
+    <mergeCell ref="G63:G72"/>
+    <mergeCell ref="G13:G22"/>
+    <mergeCell ref="H13:H22"/>
+    <mergeCell ref="G23:G32"/>
+    <mergeCell ref="H23:H32"/>
+    <mergeCell ref="H113:H122"/>
+    <mergeCell ref="G113:G122"/>
+    <mergeCell ref="G43:G52"/>
+    <mergeCell ref="H43:H52"/>
+    <mergeCell ref="G53:G62"/>
+    <mergeCell ref="H53:H62"/>
+    <mergeCell ref="G93:G102"/>
+    <mergeCell ref="H93:H102"/>
+    <mergeCell ref="G103:G112"/>
+    <mergeCell ref="H103:H112"/>
+    <mergeCell ref="G73:G82"/>
+    <mergeCell ref="H73:H82"/>
+    <mergeCell ref="G83:G92"/>
+    <mergeCell ref="H83:H92"/>
   </mergeCells>
   <conditionalFormatting sqref="K97:K1048576 K37:K95 K17:K35 K2:K15">
     <cfRule type="colorScale" priority="8">
@@ -3293,10 +3533,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947424B0-4895-4D75-80FF-AA0EF9787147}">
-  <dimension ref="B1:R122"/>
+  <dimension ref="B1:U122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G92" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K106" sqref="K106"/>
+    <sheetView tabSelected="1" topLeftCell="H77" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P63" sqref="P63:P92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3317,8 +3557,8 @@
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3349,36 +3589,54 @@
       <c r="K2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="38" t="s">
+      <c r="L2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="38" t="s">
+      <c r="M2" s="27" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="29">
+      <c r="O2" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="60" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B3" s="47">
         <v>0.01</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="42">
         <v>2</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="58">
         <v>2</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="47">
         <v>16</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="33">
+      <c r="G3" s="42">
         <v>1.2880910000000001</v>
       </c>
-      <c r="H3" s="34">
+      <c r="H3" s="43">
         <v>151116.20000000001</v>
       </c>
       <c r="I3" s="10" t="s">
@@ -3390,875 +3648,1023 @@
       <c r="K3" s="12">
         <v>136981.79999999999</v>
       </c>
-      <c r="L3" s="39">
+      <c r="L3" s="28">
         <f>J3/K3</f>
         <v>34.183373265645514</v>
       </c>
-      <c r="M3" s="41">
+      <c r="M3" s="30">
         <f>10*LOG10(L3)</f>
         <v>15.338149173188826</v>
       </c>
       <c r="N3" s="11">
         <v>1.380978</v>
       </c>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="30"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="20" t="s">
+      <c r="O3" s="62">
+        <f>AVERAGE(N4:N12)</f>
+        <v>13.027069285714285</v>
+      </c>
+      <c r="P3" s="65">
+        <f>AVERAGE(O3:O26)</f>
+        <v>13.437736761904759</v>
+      </c>
+      <c r="Q3" s="74">
+        <f>AVERAGE(K4:K12)</f>
+        <v>6916520.5571428565</v>
+      </c>
+      <c r="R3" s="76">
+        <f>AVERAGE(Q3:Q26)</f>
+        <v>3397049.9190476183</v>
+      </c>
+      <c r="S3" s="68">
+        <f>AVERAGE(M4:M12)</f>
+        <v>10.346967882464828</v>
+      </c>
+      <c r="T3" s="71">
+        <f>AVERAGE(S3:S26)</f>
+        <v>13.827577964925169</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B4" s="48"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="26">
         <v>47216000</v>
       </c>
-      <c r="K4" s="21">
+      <c r="K4" s="26">
         <v>6617845</v>
       </c>
-      <c r="L4" s="40">
+      <c r="L4" s="29">
         <f>J4/K4</f>
         <v>7.1346488169487197</v>
       </c>
-      <c r="M4" s="42">
+      <c r="M4" s="31">
         <f>10*LOG10(L4)</f>
         <v>8.5337260105054611</v>
       </c>
       <c r="N4" s="6">
         <v>13.808681999999999</v>
       </c>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="30"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="20" t="s">
+      <c r="O4" s="61"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="67"/>
+      <c r="T4" s="70"/>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B5" s="48"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="26">
         <v>14333000</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="26">
         <v>365856.9</v>
       </c>
-      <c r="L5" s="40">
+      <c r="L5" s="29">
         <f t="shared" ref="L5:L68" si="0">J5/K5</f>
         <v>39.176519562703341</v>
       </c>
-      <c r="M5" s="42">
+      <c r="M5" s="31">
         <f t="shared" ref="M5:M68" si="1">10*LOG10(L5)</f>
         <v>15.930258507028</v>
       </c>
       <c r="N5" s="6">
         <v>16.719774999999998</v>
       </c>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="30"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="20" t="s">
+      <c r="O5" s="61"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="67"/>
+      <c r="T5" s="70"/>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B6" s="48"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="26">
         <v>36544000</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="26">
         <v>3167148</v>
       </c>
-      <c r="L6" s="40">
+      <c r="L6" s="29">
         <f t="shared" si="0"/>
         <v>11.538456680900293</v>
       </c>
-      <c r="M6" s="42">
+      <c r="M6" s="31">
         <f t="shared" si="1"/>
         <v>10.621477239157622</v>
       </c>
       <c r="N6" s="6">
         <v>15.747567999999999</v>
       </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="30"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="20" t="s">
+      <c r="O6" s="61"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="70"/>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B7" s="48"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="26">
         <v>54544000</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="26">
         <v>4432393</v>
       </c>
-      <c r="L7" s="40">
+      <c r="L7" s="29">
         <f t="shared" si="0"/>
         <v>12.305768012899579</v>
       </c>
-      <c r="M7" s="42">
+      <c r="M7" s="31">
         <f t="shared" si="1"/>
         <v>10.90108723553306</v>
       </c>
       <c r="N7" s="6">
         <v>14.094391</v>
       </c>
-      <c r="O7" s="1">
-        <f>AVERAGE(N4:N12)</f>
-        <v>13.027069285714285</v>
-      </c>
-      <c r="Q7" s="17">
-        <f>AVERAGE(K4:K12)</f>
-        <v>6916520.5571428565</v>
-      </c>
-      <c r="R7" s="18">
-        <f>Q7/Q17</f>
-        <v>3.0935237323786584</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="30"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="20" t="s">
+      <c r="O7" s="61"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="75"/>
+      <c r="S7" s="67"/>
+      <c r="T7" s="70"/>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B8" s="48"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="26">
         <v>46194000</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="26">
         <v>5531481</v>
       </c>
-      <c r="L8" s="40">
+      <c r="L8" s="29">
         <f t="shared" si="0"/>
         <v>8.3511088621654856</v>
       </c>
-      <c r="M8" s="42">
+      <c r="M8" s="31">
         <f t="shared" si="1"/>
         <v>9.217441450340905</v>
       </c>
       <c r="N8" s="6">
         <v>8.7398450000000008</v>
       </c>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="30"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="20" t="s">
+      <c r="O8" s="61"/>
+      <c r="P8" s="64"/>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="75"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="70"/>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B9" s="48"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="26">
         <v>83384000</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="26">
         <v>13028530</v>
       </c>
-      <c r="L9" s="40">
+      <c r="L9" s="29">
         <f t="shared" si="0"/>
         <v>6.4001080705190843</v>
       </c>
-      <c r="M9" s="42">
+      <c r="M9" s="31">
         <f t="shared" si="1"/>
         <v>8.0618730742667335</v>
       </c>
       <c r="N9" s="6">
         <v>12.131944000000001</v>
       </c>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="30"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="20" t="s">
+      <c r="O9" s="61"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="75"/>
+      <c r="S9" s="67"/>
+      <c r="T9" s="70"/>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B10" s="48"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J10" s="26">
         <v>125950000</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K10" s="26">
         <v>15272390</v>
       </c>
-      <c r="L10" s="40">
+      <c r="L10" s="29">
         <f t="shared" si="0"/>
         <v>8.2469083097013627</v>
       </c>
-      <c r="M10" s="42">
+      <c r="M10" s="31">
         <f t="shared" si="1"/>
         <v>9.1629116604220133</v>
       </c>
       <c r="N10" s="6">
         <v>9.9472799999999992</v>
       </c>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="30"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="40" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M11" s="42" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="O10" s="61"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="67"/>
+      <c r="T10" s="70"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B11" s="48"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="31"/>
       <c r="N11" s="6"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="30"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="40" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M12" s="42" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="O11" s="61"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="75"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="70"/>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B12" s="48"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="31"/>
       <c r="N12" s="6"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="30"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="26" t="s">
+      <c r="O12" s="61"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="75"/>
+      <c r="S12" s="67"/>
+      <c r="T12" s="70"/>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B13" s="48"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="38">
         <v>0.748201</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13" s="35">
         <v>4357841</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="I13" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J13" s="21">
+      <c r="J13" s="26">
         <v>4682500</v>
       </c>
-      <c r="K13" s="21">
+      <c r="K13" s="26">
         <v>469811.20000000001</v>
       </c>
-      <c r="L13" s="40">
+      <c r="L13" s="29">
         <f t="shared" si="0"/>
         <v>9.9667696300130775</v>
       </c>
-      <c r="M13" s="42">
+      <c r="M13" s="31">
         <f t="shared" si="1"/>
         <v>9.9855442017823286</v>
       </c>
       <c r="N13" s="6">
         <v>1.49281</v>
       </c>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="30"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="20" t="s">
+      <c r="O13" s="61">
+        <f>AVERAGE(N14:N22)</f>
+        <v>13.571637142857142</v>
+      </c>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="73">
+        <f>AVERAGE(K14:K22)</f>
+        <v>2235806.5285714283</v>
+      </c>
+      <c r="R13" s="75"/>
+      <c r="S13" s="67">
+        <f>AVERAGE(M14:M22)</f>
+        <v>14.151338945896716</v>
+      </c>
+      <c r="T13" s="70"/>
+      <c r="U13" s="50">
+        <f>(M13+M3+M23)/3</f>
+        <v>12.550264281297801</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B14" s="48"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="26">
         <v>47216000</v>
       </c>
-      <c r="K14" s="21">
+      <c r="K14" s="26">
         <v>2213120</v>
       </c>
-      <c r="L14" s="40">
+      <c r="L14" s="29">
         <f t="shared" si="0"/>
         <v>21.334586466165412</v>
       </c>
-      <c r="M14" s="42">
+      <c r="M14" s="31">
         <f t="shared" si="1"/>
         <v>13.290842292340933</v>
       </c>
       <c r="N14" s="6">
         <v>17.004883</v>
       </c>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="30"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="20" t="s">
+      <c r="O14" s="61"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="73"/>
+      <c r="R14" s="75"/>
+      <c r="S14" s="67"/>
+      <c r="T14" s="70"/>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B15" s="48"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="21">
+      <c r="J15" s="26">
         <v>14333000</v>
       </c>
-      <c r="K15" s="21">
+      <c r="K15" s="26">
         <v>599820.69999999995</v>
       </c>
-      <c r="L15" s="40">
+      <c r="L15" s="29">
         <f t="shared" si="0"/>
         <v>23.895474097509474</v>
       </c>
-      <c r="M15" s="42">
+      <c r="M15" s="31">
         <f t="shared" si="1"/>
         <v>13.783156515502499</v>
       </c>
       <c r="N15" s="6">
         <v>17.440650000000002</v>
       </c>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="30"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="20" t="s">
+      <c r="O15" s="61"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="73"/>
+      <c r="R15" s="75"/>
+      <c r="S15" s="67"/>
+      <c r="T15" s="70"/>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B16" s="48"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="21">
+      <c r="J16" s="26">
         <v>36544000</v>
       </c>
-      <c r="K16" s="21">
+      <c r="K16" s="26">
         <v>1322076</v>
       </c>
-      <c r="L16" s="40">
+      <c r="L16" s="29">
         <f t="shared" si="0"/>
         <v>27.641376138739375</v>
       </c>
-      <c r="M16" s="42">
+      <c r="M16" s="31">
         <f t="shared" si="1"/>
         <v>14.41559660792735</v>
       </c>
       <c r="N16" s="6">
         <v>13.60632</v>
       </c>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="30"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="20" t="s">
+      <c r="O16" s="61"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="73"/>
+      <c r="R16" s="75"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="70"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B17" s="48"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="21">
+      <c r="J17" s="26">
         <v>54544000</v>
       </c>
-      <c r="K17" s="21">
+      <c r="K17" s="26">
         <v>1530956</v>
       </c>
-      <c r="L17" s="40">
+      <c r="L17" s="29">
         <f t="shared" si="0"/>
         <v>35.627411891654624</v>
       </c>
-      <c r="M17" s="42">
+      <c r="M17" s="31">
         <f t="shared" si="1"/>
         <v>15.517842747226743</v>
       </c>
       <c r="N17" s="6">
         <v>13.809574</v>
       </c>
-      <c r="O17" s="1">
-        <f>AVERAGE(N14:N22)</f>
-        <v>13.571637142857142</v>
-      </c>
-      <c r="P17" s="1">
-        <f>AVERAGE(O7:O27)</f>
-        <v>13.437736761904759</v>
-      </c>
-      <c r="Q17" s="17">
-        <f>AVERAGE(K14:K22)</f>
-        <v>2235806.5285714283</v>
-      </c>
-      <c r="R17" s="17">
-        <f>AVERAGE(Q7:Q27)</f>
-        <v>3397049.9190476183</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="30"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="20" t="s">
+      <c r="O17" s="61"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="73"/>
+      <c r="R17" s="75"/>
+      <c r="S17" s="67"/>
+      <c r="T17" s="70"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B18" s="48"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="21">
+      <c r="J18" s="26">
         <v>46194000</v>
       </c>
-      <c r="K18" s="21">
+      <c r="K18" s="26">
         <v>1810924</v>
       </c>
-      <c r="L18" s="40">
+      <c r="L18" s="29">
         <f t="shared" si="0"/>
         <v>25.508524929814836</v>
       </c>
-      <c r="M18" s="42">
+      <c r="M18" s="31">
         <f t="shared" si="1"/>
         <v>14.066853455810266</v>
       </c>
       <c r="N18" s="6">
         <v>9.8107340000000001</v>
       </c>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="30"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="20" t="s">
+      <c r="O18" s="61"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="73"/>
+      <c r="R18" s="75"/>
+      <c r="S18" s="67"/>
+      <c r="T18" s="70"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B19" s="48"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="21">
+      <c r="J19" s="26">
         <v>83384000</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K19" s="26">
         <v>4106295</v>
       </c>
-      <c r="L19" s="40">
+      <c r="L19" s="29">
         <f t="shared" si="0"/>
         <v>20.306383248159229</v>
       </c>
-      <c r="M19" s="42">
+      <c r="M19" s="31">
         <f t="shared" si="1"/>
         <v>13.076325784890168</v>
       </c>
       <c r="N19" s="6">
         <v>13.146990000000001</v>
       </c>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="30"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="20" t="s">
+      <c r="O19" s="61"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="73"/>
+      <c r="R19" s="75"/>
+      <c r="S19" s="67"/>
+      <c r="T19" s="70"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="48"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="21">
+      <c r="J20" s="26">
         <v>125950000</v>
       </c>
-      <c r="K20" s="21">
+      <c r="K20" s="26">
         <v>4067454</v>
       </c>
-      <c r="L20" s="40">
+      <c r="L20" s="29">
         <f t="shared" si="0"/>
         <v>30.965316387106036</v>
       </c>
-      <c r="M20" s="42">
+      <c r="M20" s="31">
         <f t="shared" si="1"/>
         <v>14.908755217579049</v>
       </c>
       <c r="N20" s="6">
         <v>10.182309</v>
       </c>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="30"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="40" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M21" s="42" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="O20" s="61"/>
+      <c r="P20" s="64"/>
+      <c r="Q20" s="73"/>
+      <c r="R20" s="75"/>
+      <c r="S20" s="67"/>
+      <c r="T20" s="70"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B21" s="48"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="31"/>
       <c r="N21" s="6"/>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="30"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="40" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M22" s="42" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="O21" s="61"/>
+      <c r="P21" s="64"/>
+      <c r="Q21" s="73"/>
+      <c r="R21" s="75"/>
+      <c r="S21" s="67"/>
+      <c r="T21" s="70"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B22" s="48"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="31"/>
       <c r="N22" s="6"/>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="30"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="27" t="s">
+      <c r="O22" s="61"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="73"/>
+      <c r="R22" s="75"/>
+      <c r="S22" s="67"/>
+      <c r="T22" s="70"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="48"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="38">
         <v>2.5743520000000002</v>
       </c>
-      <c r="H23" s="37">
+      <c r="H23" s="35">
         <v>2474968</v>
       </c>
-      <c r="I23" s="20" t="s">
+      <c r="I23" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J23" s="21">
+      <c r="J23" s="26">
         <v>4682500</v>
       </c>
-      <c r="K23" s="21">
+      <c r="K23" s="26">
         <v>274010.90000000002</v>
       </c>
-      <c r="L23" s="40">
+      <c r="L23" s="29">
         <f t="shared" si="0"/>
         <v>17.088736251003152</v>
       </c>
-      <c r="M23" s="42">
+      <c r="M23" s="31">
         <f t="shared" si="1"/>
         <v>12.327099468922251</v>
       </c>
       <c r="N23" s="6">
         <v>1.613235</v>
       </c>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="30"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="20" t="s">
+      <c r="O23" s="61">
+        <f>AVERAGE(N24:N32)</f>
+        <v>13.714503857142855</v>
+      </c>
+      <c r="P23" s="64"/>
+      <c r="Q23" s="73">
+        <f>AVERAGE(K24:K32)</f>
+        <v>1038822.6714285713</v>
+      </c>
+      <c r="R23" s="75"/>
+      <c r="S23" s="67">
+        <f>AVERAGE(M24:M32)</f>
+        <v>16.984427066413964</v>
+      </c>
+      <c r="T23" s="70"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="48"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="J24" s="21">
+      <c r="J24" s="26">
         <v>47216000</v>
       </c>
-      <c r="K24" s="21">
+      <c r="K24" s="26">
         <v>1039261</v>
       </c>
-      <c r="L24" s="40">
+      <c r="L24" s="29">
         <f t="shared" si="0"/>
         <v>45.432283131956268</v>
       </c>
-      <c r="M24" s="42">
+      <c r="M24" s="31">
         <f t="shared" si="1"/>
         <v>16.57364562187621</v>
       </c>
       <c r="N24" s="6">
         <v>15.427098000000001</v>
       </c>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="30"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="20" t="s">
+      <c r="O24" s="61"/>
+      <c r="P24" s="64"/>
+      <c r="Q24" s="73"/>
+      <c r="R24" s="75"/>
+      <c r="S24" s="67"/>
+      <c r="T24" s="70"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B25" s="48"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="J25" s="21">
+      <c r="J25" s="26">
         <v>14333000</v>
       </c>
-      <c r="K25" s="21">
+      <c r="K25" s="26">
         <v>471166.9</v>
       </c>
-      <c r="L25" s="40">
+      <c r="L25" s="29">
         <f t="shared" si="0"/>
         <v>30.420218398193928</v>
       </c>
-      <c r="M25" s="42">
+      <c r="M25" s="31">
         <f t="shared" si="1"/>
         <v>14.831623276916675</v>
       </c>
       <c r="N25" s="6">
         <v>18.027346999999999</v>
       </c>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="30"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="20" t="s">
+      <c r="O25" s="61"/>
+      <c r="P25" s="64"/>
+      <c r="Q25" s="73"/>
+      <c r="R25" s="75"/>
+      <c r="S25" s="67"/>
+      <c r="T25" s="70"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B26" s="48"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="J26" s="21">
+      <c r="J26" s="26">
         <v>36544000</v>
       </c>
-      <c r="K26" s="21">
+      <c r="K26" s="26">
         <v>858761.7</v>
       </c>
-      <c r="L26" s="40">
+      <c r="L26" s="29">
         <f t="shared" si="0"/>
         <v>42.554296494592158</v>
       </c>
-      <c r="M26" s="42">
+      <c r="M26" s="31">
         <f t="shared" si="1"/>
         <v>16.289434151771804</v>
       </c>
       <c r="N26" s="6">
         <v>16.781103999999999</v>
       </c>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="30"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="20" t="s">
+      <c r="O26" s="61"/>
+      <c r="P26" s="64"/>
+      <c r="Q26" s="73"/>
+      <c r="R26" s="75"/>
+      <c r="S26" s="67"/>
+      <c r="T26" s="70"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B27" s="48"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="J27" s="21">
+      <c r="J27" s="26">
         <v>54544000</v>
       </c>
-      <c r="K27" s="21">
+      <c r="K27" s="26">
         <v>1041173</v>
       </c>
-      <c r="L27" s="40">
+      <c r="L27" s="29">
         <f t="shared" si="0"/>
         <v>52.387067278924825</v>
       </c>
-      <c r="M27" s="42">
+      <c r="M27" s="31">
         <f t="shared" si="1"/>
         <v>17.19224086551969</v>
       </c>
       <c r="N27" s="6">
         <v>15.510705</v>
       </c>
-      <c r="O27" s="1">
-        <f>AVERAGE(N24:N32)</f>
-        <v>13.714503857142855</v>
-      </c>
-      <c r="Q27" s="17">
-        <f>AVERAGE(K24:K32)</f>
-        <v>1038822.6714285713</v>
-      </c>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="30"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="20" t="s">
+      <c r="O27" s="61"/>
+      <c r="P27" s="64"/>
+      <c r="Q27" s="73"/>
+      <c r="R27" s="75"/>
+      <c r="S27" s="67"/>
+      <c r="T27" s="70"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B28" s="48"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="J28" s="21">
+      <c r="J28" s="26">
         <v>46194000</v>
       </c>
-      <c r="K28" s="21">
+      <c r="K28" s="26">
         <v>869699.1</v>
       </c>
-      <c r="L28" s="40">
+      <c r="L28" s="29">
         <f t="shared" si="0"/>
         <v>53.114922161009481</v>
       </c>
-      <c r="M28" s="42">
+      <c r="M28" s="31">
         <f t="shared" si="1"/>
         <v>17.252165493632823</v>
       </c>
       <c r="N28" s="6">
         <v>8.9991800000000008</v>
       </c>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="30"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="20" t="s">
+      <c r="O28" s="61"/>
+      <c r="P28" s="64"/>
+      <c r="Q28" s="73"/>
+      <c r="R28" s="75"/>
+      <c r="S28" s="67"/>
+      <c r="T28" s="70"/>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B29" s="48"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="J29" s="21">
+      <c r="J29" s="26">
         <v>83384000</v>
       </c>
-      <c r="K29" s="21">
+      <c r="K29" s="26">
         <v>1358401</v>
       </c>
-      <c r="L29" s="40">
+      <c r="L29" s="29">
         <f t="shared" si="0"/>
         <v>61.383935965889307</v>
       </c>
-      <c r="M29" s="42">
+      <c r="M29" s="31">
         <f t="shared" si="1"/>
         <v>17.880547321483093</v>
       </c>
       <c r="N29" s="6">
         <v>11.870108999999999</v>
       </c>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="30"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="20" t="s">
+      <c r="O29" s="61"/>
+      <c r="P29" s="64"/>
+      <c r="Q29" s="73"/>
+      <c r="R29" s="75"/>
+      <c r="S29" s="67"/>
+      <c r="T29" s="70"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B30" s="48"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J30" s="21">
+      <c r="J30" s="26">
         <v>125950000</v>
       </c>
-      <c r="K30" s="21">
+      <c r="K30" s="26">
         <v>1633296</v>
       </c>
-      <c r="L30" s="40">
+      <c r="L30" s="29">
         <f t="shared" si="0"/>
         <v>77.114007503844988</v>
       </c>
-      <c r="M30" s="42">
+      <c r="M30" s="31">
         <f t="shared" si="1"/>
         <v>18.871332733697457</v>
       </c>
       <c r="N30" s="6">
         <v>9.3859840000000005</v>
       </c>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="30"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="40" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M31" s="42" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="O30" s="61"/>
+      <c r="P30" s="64"/>
+      <c r="Q30" s="73"/>
+      <c r="R30" s="75"/>
+      <c r="S30" s="67"/>
+      <c r="T30" s="70"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B31" s="48"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="31"/>
       <c r="N31" s="6"/>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="30"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="40" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M32" s="42" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N32" s="6"/>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B33" s="30"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="23">
+      <c r="O31" s="61"/>
+      <c r="P31" s="64"/>
+      <c r="Q31" s="73"/>
+      <c r="R31" s="75"/>
+      <c r="S31" s="67"/>
+      <c r="T31" s="70"/>
+    </row>
+    <row r="32" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="48"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="63"/>
+      <c r="P32" s="66"/>
+      <c r="Q32" s="78"/>
+      <c r="R32" s="77"/>
+      <c r="S32" s="69"/>
+      <c r="T32" s="72"/>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B33" s="48"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="38">
         <v>4</v>
       </c>
-      <c r="E33" s="23">
+      <c r="E33" s="36">
         <v>256</v>
       </c>
-      <c r="F33" s="23" t="s">
+      <c r="F33" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G33" s="23">
+      <c r="G33" s="36">
         <v>179.087603</v>
       </c>
-      <c r="H33" s="37">
+      <c r="H33" s="40">
         <v>352838.5</v>
       </c>
       <c r="I33" s="20" t="s">
@@ -4270,26 +4676,50 @@
       <c r="K33" s="21">
         <v>10216.14</v>
       </c>
-      <c r="L33" s="40">
+      <c r="L33" s="29">
         <f t="shared" si="0"/>
         <v>458.34336647696688</v>
       </c>
-      <c r="M33" s="42">
+      <c r="M33" s="31">
         <f t="shared" si="1"/>
         <v>26.611909502638365</v>
       </c>
       <c r="N33" s="6">
         <v>17.347313</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B34" s="30"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="35"/>
+      <c r="O33" s="62">
+        <f>AVERAGE(N34:N42)</f>
+        <v>187.56196742857142</v>
+      </c>
+      <c r="P33" s="65">
+        <f>AVERAGE(O33:O56)</f>
+        <v>188.3129791904762</v>
+      </c>
+      <c r="Q33" s="74">
+        <f>AVERAGE(K34:K42)</f>
+        <v>793949.13571428577</v>
+      </c>
+      <c r="R33" s="76">
+        <f>AVERAGE(Q33:Q56)</f>
+        <v>335134.060952381</v>
+      </c>
+      <c r="S33" s="68">
+        <f>AVERAGE(M34:M42)</f>
+        <v>20.309566055145716</v>
+      </c>
+      <c r="T33" s="71">
+        <f>AVERAGE(S33:S56)</f>
+        <v>24.666780597619752</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B34" s="48"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="40"/>
       <c r="I34" s="20" t="s">
         <v>10</v>
       </c>
@@ -4299,26 +4729,32 @@
       <c r="K34" s="21">
         <v>831247.4</v>
       </c>
-      <c r="L34" s="40">
+      <c r="L34" s="29">
         <f t="shared" si="0"/>
         <v>56.801380671987665</v>
       </c>
-      <c r="M34" s="42">
+      <c r="M34" s="31">
         <f t="shared" si="1"/>
         <v>17.543588922416184</v>
       </c>
       <c r="N34" s="6">
         <v>213.74604099999999</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B35" s="30"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="35"/>
+      <c r="O34" s="61"/>
+      <c r="P34" s="64"/>
+      <c r="Q34" s="73"/>
+      <c r="R34" s="75"/>
+      <c r="S34" s="67"/>
+      <c r="T34" s="70"/>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B35" s="48"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="40"/>
       <c r="I35" s="20" t="s">
         <v>14</v>
       </c>
@@ -4328,26 +4764,32 @@
       <c r="K35" s="21">
         <v>31469.85</v>
       </c>
-      <c r="L35" s="40">
+      <c r="L35" s="29">
         <f t="shared" si="0"/>
         <v>455.45180545824019</v>
       </c>
-      <c r="M35" s="42">
+      <c r="M35" s="31">
         <f t="shared" si="1"/>
         <v>26.584424280029513</v>
       </c>
       <c r="N35" s="6">
         <v>219.54982000000001</v>
       </c>
-    </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B36" s="30"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="35"/>
+      <c r="O35" s="61"/>
+      <c r="P35" s="64"/>
+      <c r="Q35" s="73"/>
+      <c r="R35" s="75"/>
+      <c r="S35" s="67"/>
+      <c r="T35" s="70"/>
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B36" s="48"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="40"/>
       <c r="I36" s="20" t="s">
         <v>15</v>
       </c>
@@ -4357,26 +4799,32 @@
       <c r="K36" s="21">
         <v>313711.90000000002</v>
       </c>
-      <c r="L36" s="40">
+      <c r="L36" s="29">
         <f t="shared" si="0"/>
         <v>116.48904615986832</v>
       </c>
-      <c r="M36" s="42">
+      <c r="M36" s="31">
         <f t="shared" si="1"/>
         <v>20.662850891733264</v>
       </c>
       <c r="N36" s="6">
         <v>224.815876</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B37" s="30"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="35"/>
+      <c r="O36" s="61"/>
+      <c r="P36" s="64"/>
+      <c r="Q36" s="73"/>
+      <c r="R36" s="75"/>
+      <c r="S36" s="67"/>
+      <c r="T36" s="70"/>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B37" s="48"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="40"/>
       <c r="I37" s="20" t="s">
         <v>16</v>
       </c>
@@ -4386,159 +4834,183 @@
       <c r="K37" s="21">
         <v>277118.09999999998</v>
       </c>
-      <c r="L37" s="40">
+      <c r="L37" s="29">
         <f t="shared" si="0"/>
         <v>196.82582985376993</v>
       </c>
-      <c r="M37" s="42">
+      <c r="M37" s="31">
         <f t="shared" si="1"/>
         <v>22.940820911830436</v>
       </c>
       <c r="N37" s="6">
         <v>210.14760000000001</v>
       </c>
-      <c r="O37" s="1">
-        <f>AVERAGE(N34:N42)</f>
-        <v>217.06483424999999</v>
-      </c>
-      <c r="Q37" s="17">
-        <f>AVERAGE(K34:K42)</f>
-        <v>363386.8125</v>
-      </c>
-      <c r="R37" s="18">
-        <f>Q37/Q47</f>
-        <v>3.2986404868803021</v>
-      </c>
-    </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B38" s="30"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="35"/>
+      <c r="O37" s="61"/>
+      <c r="P37" s="64"/>
+      <c r="Q37" s="73"/>
+      <c r="R37" s="75"/>
+      <c r="S37" s="67"/>
+      <c r="T37" s="70"/>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B38" s="48"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="40"/>
       <c r="I38" s="20" t="s">
         <v>17</v>
       </c>
       <c r="J38" s="21">
         <v>46194000</v>
       </c>
-      <c r="K38" s="21"/>
-      <c r="L38" s="40" t="e">
+      <c r="K38" s="26">
+        <v>563652.69999999995</v>
+      </c>
+      <c r="L38" s="29">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M38" s="42" t="e">
+        <v>81.954721409123039</v>
+      </c>
+      <c r="M38" s="31">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N38" s="6"/>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B39" s="30"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="35"/>
+        <v>19.135739783197419</v>
+      </c>
+      <c r="N38" s="6">
+        <v>137.07539800000001</v>
+      </c>
+      <c r="O38" s="61"/>
+      <c r="P38" s="64"/>
+      <c r="Q38" s="73"/>
+      <c r="R38" s="75"/>
+      <c r="S38" s="67"/>
+      <c r="T38" s="70"/>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B39" s="48"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="40"/>
       <c r="I39" s="20" t="s">
         <v>18</v>
       </c>
       <c r="J39" s="21">
         <v>83384000</v>
       </c>
-      <c r="K39" s="21"/>
-      <c r="L39" s="40" t="e">
+      <c r="K39" s="26">
+        <v>1954430</v>
+      </c>
+      <c r="L39" s="29">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M39" s="42" t="e">
+        <v>42.664101553905745</v>
+      </c>
+      <c r="M39" s="31">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N39" s="6"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B40" s="30"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="35"/>
+        <v>16.300626044327519</v>
+      </c>
+      <c r="N39" s="6">
+        <v>171.29201699999999</v>
+      </c>
+      <c r="O39" s="61"/>
+      <c r="P39" s="64"/>
+      <c r="Q39" s="73"/>
+      <c r="R39" s="75"/>
+      <c r="S39" s="67"/>
+      <c r="T39" s="70"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B40" s="48"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="40"/>
       <c r="I40" s="20" t="s">
         <v>19</v>
       </c>
       <c r="J40" s="21">
         <v>125950000</v>
       </c>
-      <c r="K40" s="21"/>
-      <c r="L40" s="40" t="e">
+      <c r="K40" s="26">
+        <v>1586014</v>
+      </c>
+      <c r="L40" s="29">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M40" s="42" t="e">
+        <v>79.412918170961916</v>
+      </c>
+      <c r="M40" s="31">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N40" s="6"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B41" s="30"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="35"/>
+        <v>18.998911552485673</v>
+      </c>
+      <c r="N40" s="6">
+        <v>136.30701999999999</v>
+      </c>
+      <c r="O40" s="61"/>
+      <c r="P40" s="64"/>
+      <c r="Q40" s="73"/>
+      <c r="R40" s="75"/>
+      <c r="S40" s="67"/>
+      <c r="T40" s="70"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B41" s="48"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="40"/>
       <c r="I41" s="20"/>
       <c r="J41" s="20"/>
       <c r="K41" s="21"/>
-      <c r="L41" s="40" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M41" s="42" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="L41" s="29"/>
+      <c r="M41" s="31"/>
       <c r="N41" s="6"/>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B42" s="30"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="36"/>
+      <c r="O41" s="61"/>
+      <c r="P41" s="64"/>
+      <c r="Q41" s="73"/>
+      <c r="R41" s="75"/>
+      <c r="S41" s="67"/>
+      <c r="T41" s="70"/>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B42" s="48"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="41"/>
       <c r="I42" s="20"/>
       <c r="J42" s="20"/>
       <c r="K42" s="20"/>
-      <c r="L42" s="40" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M42" s="42" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="L42" s="29"/>
+      <c r="M42" s="31"/>
       <c r="N42" s="6"/>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B43" s="30"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="26" t="s">
+      <c r="O42" s="61"/>
+      <c r="P42" s="64"/>
+      <c r="Q42" s="73"/>
+      <c r="R42" s="75"/>
+      <c r="S42" s="67"/>
+      <c r="T42" s="70"/>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B43" s="48"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="G43" s="23">
+      <c r="G43" s="38">
         <v>114.405906</v>
       </c>
-      <c r="H43" s="37">
+      <c r="H43" s="35">
         <v>3707944</v>
       </c>
       <c r="I43" s="20" t="s">
@@ -4547,266 +5019,339 @@
       <c r="J43" s="21">
         <v>4682500</v>
       </c>
-      <c r="K43" s="21"/>
-      <c r="L43" s="40" t="e">
+      <c r="K43" s="26">
+        <v>52964.69</v>
+      </c>
+      <c r="L43" s="29">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M43" s="42" t="e">
+        <v>88.40795631957819</v>
+      </c>
+      <c r="M43" s="31">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N43" s="6"/>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B44" s="30"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
+        <v>19.464913513275505</v>
+      </c>
+      <c r="N43" s="6">
+        <v>16.377182999999999</v>
+      </c>
+      <c r="O43" s="61">
+        <f>AVERAGE(N44:N52)</f>
+        <v>183.7087007142857</v>
+      </c>
+      <c r="P43" s="64"/>
+      <c r="Q43" s="73">
+        <f>AVERAGE(K44:K52)</f>
+        <v>109865.64857142857</v>
+      </c>
+      <c r="R43" s="75"/>
+      <c r="S43" s="67">
+        <f>AVERAGE(M44:M52)</f>
+        <v>26.630533247028097</v>
+      </c>
+      <c r="T43" s="70"/>
+      <c r="U43" s="50">
+        <f>(M43+M33+M53)/3</f>
+        <v>23.170140589728572</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B44" s="48"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
       <c r="I44" s="20" t="s">
         <v>10</v>
       </c>
       <c r="J44" s="21">
         <v>47216000</v>
       </c>
-      <c r="K44" s="21"/>
-      <c r="L44" s="40" t="e">
+      <c r="K44" s="26">
+        <v>104012.4</v>
+      </c>
+      <c r="L44" s="29">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M44" s="42" t="e">
+        <v>453.94587568405308</v>
+      </c>
+      <c r="M44" s="31">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N44" s="6"/>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B45" s="30"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
+        <v>26.570040746786688</v>
+      </c>
+      <c r="N44" s="6">
+        <v>207.23990699999999</v>
+      </c>
+      <c r="O44" s="61"/>
+      <c r="P44" s="64"/>
+      <c r="Q44" s="73"/>
+      <c r="R44" s="75"/>
+      <c r="S44" s="67"/>
+      <c r="T44" s="70"/>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B45" s="48"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
       <c r="I45" s="20" t="s">
         <v>14</v>
       </c>
       <c r="J45" s="21">
         <v>14333000</v>
       </c>
-      <c r="K45" s="21"/>
-      <c r="L45" s="40" t="e">
+      <c r="K45" s="26">
+        <v>62332.45</v>
+      </c>
+      <c r="L45" s="29">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M45" s="42" t="e">
+        <v>229.94443504145914</v>
+      </c>
+      <c r="M45" s="31">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N45" s="6"/>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B46" s="30"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
+        <v>23.616229035381004</v>
+      </c>
+      <c r="N45" s="6">
+        <v>162.38388900000001</v>
+      </c>
+      <c r="O45" s="61"/>
+      <c r="P45" s="64"/>
+      <c r="Q45" s="73"/>
+      <c r="R45" s="75"/>
+      <c r="S45" s="67"/>
+      <c r="T45" s="70"/>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B46" s="48"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
       <c r="I46" s="20" t="s">
         <v>15</v>
       </c>
       <c r="J46" s="21">
         <v>36544000</v>
       </c>
-      <c r="K46" s="21">
-        <v>110162.6</v>
-      </c>
-      <c r="L46" s="40">
+      <c r="K46" s="26">
+        <v>99193.22</v>
+      </c>
+      <c r="L46" s="29">
         <f t="shared" si="0"/>
-        <v>331.72782777458048</v>
-      </c>
-      <c r="M46" s="42">
+        <v>368.41227656487007</v>
+      </c>
+      <c r="M46" s="31">
         <f t="shared" si="1"/>
-        <v>25.207819048689593</v>
+        <v>25.663340937168471</v>
       </c>
       <c r="N46" s="6">
-        <v>208.98937799999999</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B47" s="30"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
+        <v>232.204307</v>
+      </c>
+      <c r="O46" s="61"/>
+      <c r="P46" s="64"/>
+      <c r="Q46" s="73"/>
+      <c r="R46" s="75"/>
+      <c r="S46" s="67"/>
+      <c r="T46" s="70"/>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B47" s="48"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
       <c r="I47" s="20" t="s">
         <v>16</v>
       </c>
       <c r="J47" s="21">
         <v>54544000</v>
       </c>
-      <c r="K47" s="21"/>
-      <c r="L47" s="40" t="e">
+      <c r="K47" s="26">
+        <v>110162.6</v>
+      </c>
+      <c r="L47" s="29">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M47" s="42" t="e">
+        <v>495.12266413465187</v>
+      </c>
+      <c r="M47" s="31">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N47" s="6"/>
-      <c r="O47" s="1">
-        <f>AVERAGE(N44:N52)</f>
+        <v>26.947128065240399</v>
+      </c>
+      <c r="N47" s="6">
         <v>208.98937799999999</v>
       </c>
-      <c r="P47" s="1">
-        <f>AVERAGE(O37:O57)</f>
-        <v>210.33863041666666</v>
-      </c>
-      <c r="Q47" s="17">
-        <f>AVERAGE(K44:K52)</f>
-        <v>110162.6</v>
-      </c>
-      <c r="R47" s="17">
-        <f>AVERAGE(Q37:Q57)</f>
-        <v>192509.00416666665</v>
-      </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B48" s="30"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
+      <c r="O47" s="61"/>
+      <c r="P47" s="64"/>
+      <c r="Q47" s="73"/>
+      <c r="R47" s="75"/>
+      <c r="S47" s="67"/>
+      <c r="T47" s="70"/>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B48" s="48"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
       <c r="I48" s="20" t="s">
         <v>17</v>
       </c>
       <c r="J48" s="21">
         <v>46194000</v>
       </c>
-      <c r="K48" s="21"/>
-      <c r="L48" s="40" t="e">
+      <c r="K48" s="26">
+        <v>94422.37</v>
+      </c>
+      <c r="L48" s="29">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M48" s="42" t="e">
+        <v>489.22728798271004</v>
+      </c>
+      <c r="M48" s="31">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N48" s="6"/>
-    </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B49" s="30"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
+        <v>26.895106729958826</v>
+      </c>
+      <c r="N48" s="6">
+        <v>142.517167</v>
+      </c>
+      <c r="O48" s="61"/>
+      <c r="P48" s="64"/>
+      <c r="Q48" s="73"/>
+      <c r="R48" s="75"/>
+      <c r="S48" s="67"/>
+      <c r="T48" s="70"/>
+    </row>
+    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B49" s="48"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
       <c r="I49" s="20" t="s">
         <v>18</v>
       </c>
       <c r="J49" s="21">
         <v>83384000</v>
       </c>
-      <c r="K49" s="21"/>
-      <c r="L49" s="40" t="e">
+      <c r="K49" s="26">
+        <v>148925.6</v>
+      </c>
+      <c r="L49" s="29">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M49" s="42" t="e">
+        <v>559.90373716808926</v>
+      </c>
+      <c r="M49" s="31">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N49" s="6"/>
-    </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B50" s="30"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
+        <v>27.481133662734486</v>
+      </c>
+      <c r="N49" s="6">
+        <v>184.21198100000001</v>
+      </c>
+      <c r="O49" s="61"/>
+      <c r="P49" s="64"/>
+      <c r="Q49" s="73"/>
+      <c r="R49" s="75"/>
+      <c r="S49" s="67"/>
+      <c r="T49" s="70"/>
+    </row>
+    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B50" s="48"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
       <c r="I50" s="20" t="s">
         <v>19</v>
       </c>
       <c r="J50" s="21">
         <v>125950000</v>
       </c>
-      <c r="K50" s="21"/>
-      <c r="L50" s="40" t="e">
+      <c r="K50" s="26">
+        <v>150010.9</v>
+      </c>
+      <c r="L50" s="29">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M50" s="42" t="e">
+        <v>839.6056553223799</v>
+      </c>
+      <c r="M50" s="31">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N50" s="6"/>
-    </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B51" s="30"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
+        <v>29.240753551926773</v>
+      </c>
+      <c r="N50" s="6">
+        <v>148.414276</v>
+      </c>
+      <c r="O50" s="61"/>
+      <c r="P50" s="64"/>
+      <c r="Q50" s="73"/>
+      <c r="R50" s="75"/>
+      <c r="S50" s="67"/>
+      <c r="T50" s="70"/>
+    </row>
+    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B51" s="48"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
       <c r="I51" s="20"/>
       <c r="J51" s="20"/>
       <c r="K51" s="21"/>
-      <c r="L51" s="40" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M51" s="42" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="L51" s="29"/>
+      <c r="M51" s="31"/>
       <c r="N51" s="6"/>
-    </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B52" s="30"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
+      <c r="O51" s="61"/>
+      <c r="P51" s="64"/>
+      <c r="Q51" s="73"/>
+      <c r="R51" s="75"/>
+      <c r="S51" s="67"/>
+      <c r="T51" s="70"/>
+    </row>
+    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B52" s="48"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
       <c r="I52" s="20"/>
       <c r="J52" s="20"/>
       <c r="K52" s="20"/>
-      <c r="L52" s="40" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M52" s="42" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="L52" s="29"/>
+      <c r="M52" s="31"/>
       <c r="N52" s="6"/>
-    </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B53" s="30"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="27" t="s">
+      <c r="O52" s="61"/>
+      <c r="P52" s="64"/>
+      <c r="Q52" s="73"/>
+      <c r="R52" s="75"/>
+      <c r="S52" s="67"/>
+      <c r="T52" s="70"/>
+    </row>
+    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B53" s="48"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="G53" s="23">
+      <c r="G53" s="38">
         <v>556.13250200000004</v>
       </c>
-      <c r="H53" s="37">
+      <c r="H53" s="35">
         <v>1929043</v>
       </c>
       <c r="I53" s="20" t="s">
@@ -4815,100 +5360,149 @@
       <c r="J53" s="21">
         <v>4682500</v>
       </c>
-      <c r="K53" s="21"/>
-      <c r="L53" s="40" t="e">
+      <c r="K53" s="26">
+        <v>21238.21</v>
+      </c>
+      <c r="L53" s="29">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M53" s="42" t="e">
+        <v>220.47526604172387</v>
+      </c>
+      <c r="M53" s="31">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N53" s="6"/>
-    </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B54" s="30"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
+        <v>23.433598753271838</v>
+      </c>
+      <c r="N53" s="6">
+        <v>19.718518</v>
+      </c>
+      <c r="O53" s="61">
+        <f>AVERAGE(N54:N62)</f>
+        <v>193.66826942857142</v>
+      </c>
+      <c r="P53" s="64"/>
+      <c r="Q53" s="73">
+        <f>AVERAGE(K54:K62)</f>
+        <v>101587.39857142857</v>
+      </c>
+      <c r="R53" s="75"/>
+      <c r="S53" s="67">
+        <f>AVERAGE(M54:M62)</f>
+        <v>27.060242490685443</v>
+      </c>
+      <c r="T53" s="70"/>
+    </row>
+    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B54" s="48"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="44"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
       <c r="I54" s="20" t="s">
         <v>10</v>
       </c>
       <c r="J54" s="21">
         <v>47216000</v>
       </c>
-      <c r="K54" s="21"/>
-      <c r="L54" s="40" t="e">
+      <c r="K54" s="26">
+        <v>104444.5</v>
+      </c>
+      <c r="L54" s="29">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M54" s="42" t="e">
+        <v>452.06784464476351</v>
+      </c>
+      <c r="M54" s="31">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N54" s="6"/>
-    </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B55" s="30"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
+        <v>26.55203616987869</v>
+      </c>
+      <c r="N54" s="6">
+        <v>218.426962</v>
+      </c>
+      <c r="O54" s="61"/>
+      <c r="P54" s="64"/>
+      <c r="Q54" s="73"/>
+      <c r="R54" s="75"/>
+      <c r="S54" s="67"/>
+      <c r="T54" s="70"/>
+    </row>
+    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B55" s="48"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
       <c r="I55" s="20" t="s">
         <v>14</v>
       </c>
       <c r="J55" s="21">
         <v>14333000</v>
       </c>
-      <c r="K55" s="20"/>
-      <c r="L55" s="40" t="e">
+      <c r="K55" s="26">
+        <v>46054.62</v>
+      </c>
+      <c r="L55" s="29">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M55" s="42" t="e">
+        <v>311.21741966386867</v>
+      </c>
+      <c r="M55" s="31">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N55" s="6"/>
-    </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B56" s="30"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
+        <v>24.930638976112469</v>
+      </c>
+      <c r="N55" s="6">
+        <v>184.367312</v>
+      </c>
+      <c r="O55" s="61"/>
+      <c r="P55" s="64"/>
+      <c r="Q55" s="73"/>
+      <c r="R55" s="75"/>
+      <c r="S55" s="67"/>
+      <c r="T55" s="70"/>
+    </row>
+    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B56" s="48"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
       <c r="I56" s="20" t="s">
         <v>15</v>
       </c>
       <c r="J56" s="21">
         <v>36544000</v>
       </c>
-      <c r="K56" s="20"/>
-      <c r="L56" s="40" t="e">
+      <c r="K56" s="79">
+        <v>89094.36</v>
+      </c>
+      <c r="L56" s="29">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M56" s="42" t="e">
+        <v>410.17186722032687</v>
+      </c>
+      <c r="M56" s="31">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N56" s="6"/>
-    </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B57" s="30"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
+        <v>26.129658697574506</v>
+      </c>
+      <c r="N56" s="6">
+        <v>253.90728899999999</v>
+      </c>
+      <c r="O56" s="61"/>
+      <c r="P56" s="64"/>
+      <c r="Q56" s="73"/>
+      <c r="R56" s="75"/>
+      <c r="S56" s="67"/>
+      <c r="T56" s="70"/>
+    </row>
+    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B57" s="48"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
       <c r="I57" s="20" t="s">
         <v>16</v>
       </c>
@@ -4918,1041 +5512,1217 @@
       <c r="K57" s="21">
         <v>103977.60000000001</v>
       </c>
-      <c r="L57" s="40">
+      <c r="L57" s="29">
         <f t="shared" si="0"/>
         <v>524.57452374357547</v>
       </c>
-      <c r="M57" s="42">
+      <c r="M57" s="31">
         <f t="shared" si="1"/>
         <v>27.198071950110069</v>
       </c>
       <c r="N57" s="6">
         <v>204.961679</v>
       </c>
-      <c r="O57" s="1">
-        <f>AVERAGE(N54:N62)</f>
-        <v>204.961679</v>
-      </c>
-      <c r="Q57" s="17">
-        <f>AVERAGE(K54:K62)</f>
-        <v>103977.60000000001</v>
-      </c>
-    </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B58" s="30"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="24"/>
+      <c r="O57" s="61"/>
+      <c r="P57" s="64"/>
+      <c r="Q57" s="73"/>
+      <c r="R57" s="75"/>
+      <c r="S57" s="67"/>
+      <c r="T57" s="70"/>
+    </row>
+    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B58" s="48"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="44"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
       <c r="I58" s="20" t="s">
         <v>17</v>
       </c>
       <c r="J58" s="21">
         <v>46194000</v>
       </c>
-      <c r="K58" s="20"/>
-      <c r="L58" s="40" t="e">
+      <c r="K58" s="26">
+        <v>83064.009999999995</v>
+      </c>
+      <c r="L58" s="29">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M58" s="42" t="e">
+        <v>556.12533033259535</v>
+      </c>
+      <c r="M58" s="31">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N58" s="6"/>
-    </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B59" s="30"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="24"/>
+        <v>27.451726767225306</v>
+      </c>
+      <c r="N58" s="6">
+        <v>151.05023700000001</v>
+      </c>
+      <c r="O58" s="61"/>
+      <c r="P58" s="64"/>
+      <c r="Q58" s="73"/>
+      <c r="R58" s="75"/>
+      <c r="S58" s="67"/>
+      <c r="T58" s="70"/>
+    </row>
+    <row r="59" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B59" s="48"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
       <c r="I59" s="20" t="s">
         <v>18</v>
       </c>
       <c r="J59" s="21">
         <v>83384000</v>
       </c>
-      <c r="K59" s="20"/>
-      <c r="L59" s="40" t="e">
+      <c r="K59" s="26">
+        <v>136493.6</v>
+      </c>
+      <c r="L59" s="29">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M59" s="42" t="e">
+        <v>610.90043782272573</v>
+      </c>
+      <c r="M59" s="31">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N59" s="6"/>
-    </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B60" s="30"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="24"/>
+        <v>27.859704363841388</v>
+      </c>
+      <c r="N59" s="6">
+        <v>193.48936699999999</v>
+      </c>
+      <c r="O59" s="61"/>
+      <c r="P59" s="64"/>
+      <c r="Q59" s="73"/>
+      <c r="R59" s="75"/>
+      <c r="S59" s="67"/>
+      <c r="T59" s="70"/>
+    </row>
+    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B60" s="48"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="44"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
       <c r="I60" s="20" t="s">
         <v>19</v>
       </c>
       <c r="J60" s="21">
         <v>125950000</v>
       </c>
-      <c r="K60" s="20"/>
-      <c r="L60" s="40" t="e">
+      <c r="K60" s="26">
+        <v>147983.1</v>
+      </c>
+      <c r="L60" s="29">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M60" s="42" t="e">
+        <v>851.11070115438849</v>
+      </c>
+      <c r="M60" s="31">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N60" s="6"/>
-    </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B61" s="30"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="24"/>
+        <v>29.299860510055677</v>
+      </c>
+      <c r="N60" s="6">
+        <v>149.47504000000001</v>
+      </c>
+      <c r="O60" s="61"/>
+      <c r="P60" s="64"/>
+      <c r="Q60" s="73"/>
+      <c r="R60" s="75"/>
+      <c r="S60" s="67"/>
+      <c r="T60" s="70"/>
+    </row>
+    <row r="61" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B61" s="48"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="44"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
       <c r="I61" s="20"/>
       <c r="J61" s="20"/>
       <c r="K61" s="20"/>
-      <c r="L61" s="40" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M61" s="42" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="L61" s="29"/>
+      <c r="M61" s="31"/>
       <c r="N61" s="6"/>
-    </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B62" s="30"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
+      <c r="O61" s="61"/>
+      <c r="P61" s="64"/>
+      <c r="Q61" s="73"/>
+      <c r="R61" s="75"/>
+      <c r="S61" s="67"/>
+      <c r="T61" s="70"/>
+    </row>
+    <row r="62" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="48"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="53"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="36"/>
       <c r="I62" s="22"/>
-      <c r="J62" s="20"/>
+      <c r="J62" s="23"/>
       <c r="K62" s="22"/>
-      <c r="L62" s="40" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M62" s="42" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N62" s="7"/>
-    </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B63" s="30"/>
-      <c r="C63" s="23">
+      <c r="L62" s="54"/>
+      <c r="M62" s="55"/>
+      <c r="N62" s="56"/>
+      <c r="O62" s="63"/>
+      <c r="P62" s="66"/>
+      <c r="Q62" s="78"/>
+      <c r="R62" s="77"/>
+      <c r="S62" s="69"/>
+      <c r="T62" s="72"/>
+    </row>
+    <row r="63" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B63" s="48"/>
+      <c r="C63" s="38">
         <v>4</v>
       </c>
-      <c r="D63" s="23">
+      <c r="D63" s="51">
         <v>1</v>
       </c>
-      <c r="E63" s="23">
+      <c r="E63" s="47">
         <v>16</v>
       </c>
-      <c r="F63" s="24" t="s">
+      <c r="F63" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="G63" s="23">
+      <c r="G63" s="42">
         <v>0.445967</v>
       </c>
-      <c r="H63" s="37">
+      <c r="H63" s="43">
         <v>447684.6</v>
       </c>
-      <c r="I63" s="20" t="s">
+      <c r="I63" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J63" s="21">
+      <c r="J63" s="12">
         <v>4682500</v>
       </c>
-      <c r="K63" s="21">
+      <c r="K63" s="12">
         <v>199181.2</v>
       </c>
-      <c r="L63" s="40">
+      <c r="L63" s="28">
         <f t="shared" si="0"/>
         <v>23.508744801216178</v>
       </c>
-      <c r="M63" s="42">
+      <c r="M63" s="30">
         <f t="shared" si="1"/>
         <v>13.712294415256983</v>
       </c>
-      <c r="N63" s="6">
+      <c r="N63" s="11">
         <v>0.76542600000000005</v>
       </c>
-    </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B64" s="30"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="20" t="s">
+      <c r="O63" s="62">
+        <f>AVERAGE(N64:N72)</f>
+        <v>6.8533922857142864</v>
+      </c>
+      <c r="P63" s="65">
+        <f>AVERAGE(O63:O86)</f>
+        <v>6.7816375714285719</v>
+      </c>
+      <c r="Q63" s="74">
+        <f>AVERAGE(K64:K72)</f>
+        <v>7273647.114285714</v>
+      </c>
+      <c r="R63" s="76">
+        <f>AVERAGE(Q63:Q86)</f>
+        <v>4379354.4809523812</v>
+      </c>
+      <c r="S63" s="68">
+        <f>AVERAGE(M64:M72)</f>
+        <v>9.6620570529805025</v>
+      </c>
+      <c r="T63" s="71">
+        <f>AVERAGE(S63:S86)</f>
+        <v>11.799041724398654</v>
+      </c>
+    </row>
+    <row r="64" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B64" s="48"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="52"/>
+      <c r="E64" s="48"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="40"/>
+      <c r="I64" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="J64" s="21">
+      <c r="J64" s="26">
         <v>47216000</v>
       </c>
-      <c r="K64" s="21">
+      <c r="K64" s="26">
         <v>7233708</v>
       </c>
-      <c r="L64" s="40">
+      <c r="L64" s="29">
         <f t="shared" si="0"/>
         <v>6.5272195117635379</v>
       </c>
-      <c r="M64" s="42">
+      <c r="M64" s="31">
         <f t="shared" si="1"/>
         <v>8.1472821835624458</v>
       </c>
       <c r="N64" s="6">
         <v>7.9798</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B65" s="30"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="24"/>
-      <c r="H65" s="35"/>
-      <c r="I65" s="20" t="s">
+      <c r="O64" s="61"/>
+      <c r="P64" s="64"/>
+      <c r="Q64" s="73"/>
+      <c r="R64" s="75"/>
+      <c r="S64" s="67"/>
+      <c r="T64" s="70"/>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B65" s="48"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="52"/>
+      <c r="E65" s="48"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="40"/>
+      <c r="I65" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="J65" s="21">
+      <c r="J65" s="26">
         <v>14333000</v>
       </c>
-      <c r="K65" s="21">
+      <c r="K65" s="26">
         <v>689962.8</v>
       </c>
-      <c r="L65" s="40">
+      <c r="L65" s="29">
         <f t="shared" si="0"/>
         <v>20.773583735239058</v>
       </c>
-      <c r="M65" s="42">
+      <c r="M65" s="31">
         <f t="shared" si="1"/>
         <v>13.175114249020259</v>
       </c>
       <c r="N65" s="6">
         <v>6.9851159999999997</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B66" s="30"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="35"/>
-      <c r="I66" s="20" t="s">
+      <c r="O65" s="61"/>
+      <c r="P65" s="64"/>
+      <c r="Q65" s="73"/>
+      <c r="R65" s="75"/>
+      <c r="S65" s="67"/>
+      <c r="T65" s="70"/>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B66" s="48"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="52"/>
+      <c r="E66" s="48"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="40"/>
+      <c r="I66" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="J66" s="21">
+      <c r="J66" s="26">
         <v>36544000</v>
       </c>
-      <c r="K66" s="21">
+      <c r="K66" s="26">
         <v>3868771</v>
       </c>
-      <c r="L66" s="40">
+      <c r="L66" s="29">
         <f t="shared" si="0"/>
         <v>9.4458937993486813</v>
       </c>
-      <c r="M66" s="42">
+      <c r="M66" s="31">
         <f t="shared" si="1"/>
         <v>9.7524305847378301</v>
       </c>
       <c r="N66" s="6">
         <v>8.8036809999999992</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B67" s="30"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="35"/>
-      <c r="I67" s="20" t="s">
+      <c r="O66" s="61"/>
+      <c r="P66" s="64"/>
+      <c r="Q66" s="73"/>
+      <c r="R66" s="75"/>
+      <c r="S66" s="67"/>
+      <c r="T66" s="70"/>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B67" s="48"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="52"/>
+      <c r="E67" s="48"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="40"/>
+      <c r="I67" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="J67" s="21">
+      <c r="J67" s="26">
         <v>54544000</v>
       </c>
-      <c r="K67" s="21">
+      <c r="K67" s="26">
         <v>5118145</v>
       </c>
-      <c r="L67" s="40">
+      <c r="L67" s="29">
         <f t="shared" si="0"/>
         <v>10.656986076009961</v>
       </c>
-      <c r="M67" s="42">
+      <c r="M67" s="31">
         <f t="shared" si="1"/>
         <v>10.276343983461853</v>
       </c>
       <c r="N67" s="6">
         <v>7.5578770000000004</v>
       </c>
-      <c r="O67" s="1">
-        <f>AVERAGE(N64:N72)</f>
-        <v>6.8533922857142864</v>
-      </c>
-      <c r="Q67" s="17">
-        <f>AVERAGE(K64:K72)</f>
-        <v>7273647.114285714</v>
-      </c>
-      <c r="R67" s="18">
-        <f>Q67/Q77</f>
-        <v>1.8762584343231257</v>
-      </c>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B68" s="30"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="24"/>
-      <c r="H68" s="35"/>
-      <c r="I68" s="20" t="s">
+      <c r="O67" s="61"/>
+      <c r="P67" s="64"/>
+      <c r="Q67" s="73"/>
+      <c r="R67" s="75"/>
+      <c r="S67" s="67"/>
+      <c r="T67" s="70"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B68" s="48"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="52"/>
+      <c r="E68" s="48"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="40"/>
+      <c r="I68" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="J68" s="21">
+      <c r="J68" s="26">
         <v>46194000</v>
       </c>
-      <c r="K68" s="21">
+      <c r="K68" s="26">
         <v>5740893</v>
       </c>
-      <c r="L68" s="40">
+      <c r="L68" s="29">
         <f t="shared" si="0"/>
         <v>8.0464833606897042</v>
       </c>
-      <c r="M68" s="42">
+      <c r="M68" s="31">
         <f t="shared" si="1"/>
         <v>9.0560611754360671</v>
       </c>
       <c r="N68" s="6">
         <v>5.0440459999999998</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B69" s="30"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="24"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="35"/>
-      <c r="I69" s="20" t="s">
+      <c r="O68" s="61"/>
+      <c r="P68" s="64"/>
+      <c r="Q68" s="73"/>
+      <c r="R68" s="75"/>
+      <c r="S68" s="67"/>
+      <c r="T68" s="70"/>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B69" s="48"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="52"/>
+      <c r="E69" s="48"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="40"/>
+      <c r="I69" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="J69" s="21">
+      <c r="J69" s="26">
         <v>83384000</v>
       </c>
-      <c r="K69" s="21">
+      <c r="K69" s="26">
         <v>13211990</v>
       </c>
-      <c r="L69" s="40">
-        <f t="shared" ref="L69:L122" si="2">J69/K69</f>
+      <c r="L69" s="29">
+        <f t="shared" ref="L69:L120" si="2">J69/K69</f>
         <v>6.3112369900370799</v>
       </c>
-      <c r="M69" s="42">
-        <f t="shared" ref="M69:M122" si="3">10*LOG10(L69)</f>
+      <c r="M69" s="31">
+        <f t="shared" ref="M69:M120" si="3">10*LOG10(L69)</f>
         <v>8.0011448845126623</v>
       </c>
       <c r="N69" s="6">
         <v>6.9642460000000002</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B70" s="30"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="24"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="24"/>
-      <c r="H70" s="35"/>
-      <c r="I70" s="20" t="s">
+      <c r="O69" s="61"/>
+      <c r="P69" s="64"/>
+      <c r="Q69" s="73"/>
+      <c r="R69" s="75"/>
+      <c r="S69" s="67"/>
+      <c r="T69" s="70"/>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B70" s="48"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="52"/>
+      <c r="E70" s="48"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="40"/>
+      <c r="I70" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J70" s="21">
+      <c r="J70" s="26">
         <v>125950000</v>
       </c>
-      <c r="K70" s="21">
+      <c r="K70" s="26">
         <v>15052060</v>
       </c>
-      <c r="L70" s="40">
+      <c r="L70" s="29">
         <f t="shared" si="2"/>
         <v>8.3676254280145042</v>
       </c>
-      <c r="M70" s="42">
+      <c r="M70" s="31">
         <f t="shared" si="3"/>
         <v>9.2260223101323984</v>
       </c>
       <c r="N70" s="6">
         <v>4.6389800000000001</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B71" s="30"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="24"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="24"/>
-      <c r="H71" s="35"/>
-      <c r="I71" s="20"/>
-      <c r="J71" s="20"/>
-      <c r="K71" s="21"/>
-      <c r="L71" s="40" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M71" s="42" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="O70" s="61"/>
+      <c r="P70" s="64"/>
+      <c r="Q70" s="73"/>
+      <c r="R70" s="75"/>
+      <c r="S70" s="67"/>
+      <c r="T70" s="70"/>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B71" s="48"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="52"/>
+      <c r="E71" s="48"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="40"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="24"/>
+      <c r="K71" s="26"/>
+      <c r="L71" s="29"/>
+      <c r="M71" s="31"/>
       <c r="N71" s="6"/>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B72" s="30"/>
-      <c r="C72" s="24"/>
-      <c r="D72" s="24"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="25"/>
-      <c r="H72" s="36"/>
-      <c r="I72" s="20"/>
-      <c r="J72" s="20"/>
-      <c r="K72" s="20"/>
-      <c r="L72" s="40" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M72" s="42" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="O71" s="61"/>
+      <c r="P71" s="64"/>
+      <c r="Q71" s="73"/>
+      <c r="R71" s="75"/>
+      <c r="S71" s="67"/>
+      <c r="T71" s="70"/>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B72" s="48"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="52"/>
+      <c r="E72" s="48"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="39"/>
+      <c r="H72" s="41"/>
+      <c r="I72" s="24"/>
+      <c r="J72" s="24"/>
+      <c r="K72" s="24"/>
+      <c r="L72" s="29"/>
+      <c r="M72" s="31"/>
       <c r="N72" s="6"/>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B73" s="30"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="24"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="26" t="s">
+      <c r="O72" s="61"/>
+      <c r="P72" s="64"/>
+      <c r="Q72" s="73"/>
+      <c r="R72" s="75"/>
+      <c r="S72" s="67"/>
+      <c r="T72" s="70"/>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B73" s="48"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="52"/>
+      <c r="E73" s="48"/>
+      <c r="F73" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="G73" s="23">
+      <c r="G73" s="38">
         <v>0.472194</v>
       </c>
-      <c r="H73" s="37">
+      <c r="H73" s="35">
         <v>33111130</v>
       </c>
-      <c r="I73" s="20" t="s">
+      <c r="I73" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J73" s="21">
+      <c r="J73" s="26">
         <v>4682500</v>
       </c>
-      <c r="K73" s="21">
+      <c r="K73" s="26">
         <v>1336042</v>
       </c>
-      <c r="L73" s="40">
+      <c r="L73" s="29">
         <f t="shared" si="2"/>
         <v>3.5047550900345947</v>
       </c>
-      <c r="M73" s="42">
+      <c r="M73" s="31">
         <f t="shared" si="3"/>
         <v>5.4465767515210919</v>
       </c>
       <c r="N73" s="6">
         <v>0.757969</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B74" s="30"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="24"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="26"/>
-      <c r="G74" s="24"/>
-      <c r="H74" s="24"/>
-      <c r="I74" s="20" t="s">
+      <c r="O73" s="61">
+        <f>AVERAGE(N74:N82)</f>
+        <v>6.65076</v>
+      </c>
+      <c r="P73" s="64"/>
+      <c r="Q73" s="73">
+        <f>AVERAGE(K74:K82)</f>
+        <v>3876676.5714285714</v>
+      </c>
+      <c r="R73" s="75"/>
+      <c r="S73" s="67">
+        <f>AVERAGE(M74:M82)</f>
+        <v>11.565865243299879</v>
+      </c>
+      <c r="T73" s="70"/>
+      <c r="U73" s="50">
+        <f>(M73+M63+M83)/3</f>
+        <v>10.09602632719443</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B74" s="48"/>
+      <c r="C74" s="36"/>
+      <c r="D74" s="52"/>
+      <c r="E74" s="48"/>
+      <c r="F74" s="45"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="36"/>
+      <c r="I74" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="J74" s="21">
+      <c r="J74" s="26">
         <v>47216000</v>
       </c>
-      <c r="K74" s="21">
+      <c r="K74" s="26">
         <v>3805833</v>
       </c>
-      <c r="L74" s="40">
+      <c r="L74" s="29">
         <f t="shared" si="2"/>
         <v>12.406219610792171</v>
       </c>
-      <c r="M74" s="42">
+      <c r="M74" s="31">
         <f t="shared" si="3"/>
         <v>10.936394646341263</v>
       </c>
       <c r="N74" s="6">
         <v>8.016686</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B75" s="30"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="24"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="26"/>
-      <c r="G75" s="24"/>
-      <c r="H75" s="24"/>
-      <c r="I75" s="20" t="s">
+      <c r="O74" s="61"/>
+      <c r="P74" s="64"/>
+      <c r="Q74" s="73"/>
+      <c r="R74" s="75"/>
+      <c r="S74" s="67"/>
+      <c r="T74" s="70"/>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B75" s="48"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="52"/>
+      <c r="E75" s="48"/>
+      <c r="F75" s="45"/>
+      <c r="G75" s="36"/>
+      <c r="H75" s="36"/>
+      <c r="I75" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="J75" s="21">
+      <c r="J75" s="26">
         <v>14333000</v>
       </c>
-      <c r="K75" s="21">
+      <c r="K75" s="26">
         <v>1259887</v>
       </c>
-      <c r="L75" s="40">
+      <c r="L75" s="29">
         <f t="shared" si="2"/>
         <v>11.376417091374067</v>
       </c>
-      <c r="M75" s="42">
+      <c r="M75" s="31">
         <f t="shared" si="3"/>
         <v>10.560055061319646</v>
       </c>
       <c r="N75" s="6">
         <v>6.6183490000000003</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B76" s="30"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="24"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="26"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="24"/>
-      <c r="I76" s="20" t="s">
+      <c r="O75" s="61"/>
+      <c r="P75" s="64"/>
+      <c r="Q75" s="73"/>
+      <c r="R75" s="75"/>
+      <c r="S75" s="67"/>
+      <c r="T75" s="70"/>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B76" s="48"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="52"/>
+      <c r="E76" s="48"/>
+      <c r="F76" s="45"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="36"/>
+      <c r="I76" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="J76" s="21">
+      <c r="J76" s="26">
         <v>36544000</v>
       </c>
-      <c r="K76" s="21">
+      <c r="K76" s="26">
         <v>2582398</v>
       </c>
-      <c r="L76" s="40">
+      <c r="L76" s="29">
         <f t="shared" si="2"/>
         <v>14.151188159222553</v>
       </c>
-      <c r="M76" s="42">
+      <c r="M76" s="31">
         <f t="shared" si="3"/>
         <v>11.50792905537395</v>
       </c>
-      <c r="N76" s="45">
+      <c r="N76" s="34">
         <v>7.9898790000000002</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B77" s="30"/>
-      <c r="C77" s="24"/>
-      <c r="D77" s="24"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="26"/>
-      <c r="G77" s="24"/>
-      <c r="H77" s="24"/>
-      <c r="I77" s="20" t="s">
+      <c r="O76" s="61"/>
+      <c r="P76" s="64"/>
+      <c r="Q76" s="73"/>
+      <c r="R76" s="75"/>
+      <c r="S76" s="67"/>
+      <c r="T76" s="70"/>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B77" s="48"/>
+      <c r="C77" s="36"/>
+      <c r="D77" s="52"/>
+      <c r="E77" s="48"/>
+      <c r="F77" s="45"/>
+      <c r="G77" s="36"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="J77" s="21">
+      <c r="J77" s="26">
         <v>54544000</v>
       </c>
-      <c r="K77" s="21">
+      <c r="K77" s="26">
         <v>2993559</v>
       </c>
-      <c r="L77" s="40">
+      <c r="L77" s="29">
         <f t="shared" si="2"/>
         <v>18.220452645162496</v>
       </c>
-      <c r="M77" s="42">
+      <c r="M77" s="31">
         <f t="shared" si="3"/>
         <v>12.605591618167001</v>
       </c>
       <c r="N77" s="6">
         <v>7.1455599999999997</v>
       </c>
-      <c r="O77" s="1">
-        <f>AVERAGE(N74:N82)</f>
-        <v>6.65076</v>
-      </c>
-      <c r="P77" s="1">
-        <f>AVERAGE(O67:O87)</f>
-        <v>6.7816375714285719</v>
-      </c>
-      <c r="Q77" s="17">
-        <f>AVERAGE(K74:K82)</f>
-        <v>3876676.5714285714</v>
-      </c>
-      <c r="R77" s="17">
-        <f>AVERAGE(Q67:Q87)</f>
-        <v>4379354.4809523812</v>
-      </c>
-    </row>
-    <row r="78" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B78" s="30"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="24"/>
-      <c r="H78" s="24"/>
-      <c r="I78" s="20" t="s">
+      <c r="O77" s="61"/>
+      <c r="P77" s="64"/>
+      <c r="Q77" s="73"/>
+      <c r="R77" s="75"/>
+      <c r="S77" s="67"/>
+      <c r="T77" s="70"/>
+    </row>
+    <row r="78" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B78" s="48"/>
+      <c r="C78" s="36"/>
+      <c r="D78" s="52"/>
+      <c r="E78" s="48"/>
+      <c r="F78" s="45"/>
+      <c r="G78" s="36"/>
+      <c r="H78" s="36"/>
+      <c r="I78" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="J78" s="21">
+      <c r="J78" s="26">
         <v>46194000</v>
       </c>
-      <c r="K78" s="21">
+      <c r="K78" s="26">
         <v>3204333</v>
       </c>
-      <c r="L78" s="40">
+      <c r="L78" s="29">
         <f t="shared" si="2"/>
         <v>14.416104693238811</v>
       </c>
-      <c r="M78" s="42">
+      <c r="M78" s="31">
         <f t="shared" si="3"/>
         <v>11.588479275980017</v>
       </c>
       <c r="N78" s="6">
         <v>5.30783</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B79" s="30"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="24"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="26"/>
-      <c r="G79" s="24"/>
-      <c r="H79" s="24"/>
-      <c r="I79" s="20" t="s">
+      <c r="O78" s="61"/>
+      <c r="P78" s="64"/>
+      <c r="Q78" s="73"/>
+      <c r="R78" s="75"/>
+      <c r="S78" s="67"/>
+      <c r="T78" s="70"/>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B79" s="48"/>
+      <c r="C79" s="36"/>
+      <c r="D79" s="52"/>
+      <c r="E79" s="48"/>
+      <c r="F79" s="45"/>
+      <c r="G79" s="36"/>
+      <c r="H79" s="36"/>
+      <c r="I79" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="21">
+      <c r="J79" s="26">
         <v>83384000</v>
       </c>
-      <c r="K79" s="21">
+      <c r="K79" s="26">
         <v>6603511</v>
       </c>
-      <c r="L79" s="40">
+      <c r="L79" s="29">
         <f t="shared" si="2"/>
         <v>12.627222094428252</v>
       </c>
-      <c r="M79" s="42">
+      <c r="M79" s="31">
         <f t="shared" si="3"/>
         <v>11.013078191416692</v>
       </c>
       <c r="N79" s="6">
         <v>6.4029360000000004</v>
       </c>
-    </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B80" s="30"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="24"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="26"/>
-      <c r="G80" s="24"/>
-      <c r="H80" s="24"/>
-      <c r="I80" s="20" t="s">
+      <c r="O79" s="61"/>
+      <c r="P79" s="64"/>
+      <c r="Q79" s="73"/>
+      <c r="R79" s="75"/>
+      <c r="S79" s="67"/>
+      <c r="T79" s="70"/>
+    </row>
+    <row r="80" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B80" s="48"/>
+      <c r="C80" s="36"/>
+      <c r="D80" s="52"/>
+      <c r="E80" s="48"/>
+      <c r="F80" s="45"/>
+      <c r="G80" s="36"/>
+      <c r="H80" s="36"/>
+      <c r="I80" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J80" s="21">
+      <c r="J80" s="26">
         <v>125950000</v>
       </c>
-      <c r="K80" s="21">
+      <c r="K80" s="26">
         <v>6687215</v>
       </c>
-      <c r="L80" s="40">
+      <c r="L80" s="29">
         <f t="shared" si="2"/>
         <v>18.834447524118787</v>
       </c>
-      <c r="M80" s="42">
+      <c r="M80" s="31">
         <f t="shared" si="3"/>
         <v>12.749528854500571</v>
       </c>
       <c r="N80" s="6">
         <v>5.0740800000000004</v>
       </c>
-    </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B81" s="30"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="24"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="26"/>
-      <c r="G81" s="24"/>
-      <c r="H81" s="24"/>
-      <c r="I81" s="20"/>
-      <c r="J81" s="20"/>
-      <c r="K81" s="21"/>
-      <c r="L81" s="40" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M81" s="42" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="O80" s="61"/>
+      <c r="P80" s="64"/>
+      <c r="Q80" s="73"/>
+      <c r="R80" s="75"/>
+      <c r="S80" s="67"/>
+      <c r="T80" s="70"/>
+    </row>
+    <row r="81" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B81" s="48"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="52"/>
+      <c r="E81" s="48"/>
+      <c r="F81" s="45"/>
+      <c r="G81" s="36"/>
+      <c r="H81" s="36"/>
+      <c r="I81" s="24"/>
+      <c r="J81" s="24"/>
+      <c r="K81" s="26"/>
+      <c r="L81" s="29"/>
+      <c r="M81" s="31"/>
       <c r="N81" s="6"/>
-    </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B82" s="30"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="24"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="26"/>
-      <c r="G82" s="25"/>
-      <c r="H82" s="25"/>
-      <c r="I82" s="20"/>
-      <c r="J82" s="20"/>
-      <c r="K82" s="20"/>
-      <c r="L82" s="40" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M82" s="42" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="O81" s="61"/>
+      <c r="P81" s="64"/>
+      <c r="Q81" s="73"/>
+      <c r="R81" s="75"/>
+      <c r="S81" s="67"/>
+      <c r="T81" s="70"/>
+    </row>
+    <row r="82" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B82" s="48"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="52"/>
+      <c r="E82" s="48"/>
+      <c r="F82" s="45"/>
+      <c r="G82" s="39"/>
+      <c r="H82" s="39"/>
+      <c r="I82" s="24"/>
+      <c r="J82" s="24"/>
+      <c r="K82" s="24"/>
+      <c r="L82" s="29"/>
+      <c r="M82" s="31"/>
       <c r="N82" s="6"/>
-    </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B83" s="30"/>
-      <c r="C83" s="24"/>
-      <c r="D83" s="24"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="27" t="s">
+      <c r="O82" s="61"/>
+      <c r="P82" s="64"/>
+      <c r="Q82" s="73"/>
+      <c r="R82" s="75"/>
+      <c r="S82" s="67"/>
+      <c r="T82" s="70"/>
+    </row>
+    <row r="83" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B83" s="48"/>
+      <c r="C83" s="36"/>
+      <c r="D83" s="52"/>
+      <c r="E83" s="48"/>
+      <c r="F83" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="G83" s="23">
+      <c r="G83" s="38">
         <v>1.206914</v>
       </c>
-      <c r="H83" s="37">
+      <c r="H83" s="35">
         <v>9698399</v>
       </c>
-      <c r="I83" s="20" t="s">
+      <c r="I83" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J83" s="21">
+      <c r="J83" s="26">
         <v>4682500</v>
       </c>
-      <c r="K83" s="21">
+      <c r="K83" s="26">
         <v>361041.4</v>
       </c>
-      <c r="L83" s="40">
+      <c r="L83" s="29">
         <f t="shared" si="2"/>
         <v>12.969426774879556</v>
       </c>
-      <c r="M83" s="42">
+      <c r="M83" s="31">
         <f t="shared" si="3"/>
         <v>11.129207814805218</v>
       </c>
       <c r="N83" s="6">
         <v>0.70852899999999996</v>
       </c>
-    </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B84" s="30"/>
-      <c r="C84" s="24"/>
-      <c r="D84" s="24"/>
-      <c r="E84" s="24"/>
-      <c r="F84" s="27"/>
-      <c r="G84" s="24"/>
-      <c r="H84" s="24"/>
-      <c r="I84" s="20" t="s">
+      <c r="O83" s="61">
+        <f>AVERAGE(N84:N92)</f>
+        <v>6.8407604285714294</v>
+      </c>
+      <c r="P83" s="64"/>
+      <c r="Q83" s="73">
+        <f>AVERAGE(K84:K92)</f>
+        <v>1987739.7571428572</v>
+      </c>
+      <c r="R83" s="75"/>
+      <c r="S83" s="67">
+        <f>AVERAGE(M84:M92)</f>
+        <v>14.16920287691558</v>
+      </c>
+      <c r="T83" s="70"/>
+    </row>
+    <row r="84" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B84" s="48"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="52"/>
+      <c r="E84" s="48"/>
+      <c r="F84" s="44"/>
+      <c r="G84" s="36"/>
+      <c r="H84" s="36"/>
+      <c r="I84" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="J84" s="21">
+      <c r="J84" s="26">
         <v>47216000</v>
       </c>
-      <c r="K84" s="21">
+      <c r="K84" s="26">
         <v>2154991</v>
       </c>
-      <c r="L84" s="40">
+      <c r="L84" s="29">
         <f t="shared" si="2"/>
         <v>21.91006830190938</v>
       </c>
-      <c r="M84" s="42">
+      <c r="M84" s="31">
         <f t="shared" si="3"/>
         <v>13.406437314217785</v>
       </c>
       <c r="N84" s="6">
         <v>7.3678229999999996</v>
       </c>
-    </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B85" s="30"/>
-      <c r="C85" s="24"/>
-      <c r="D85" s="24"/>
-      <c r="E85" s="24"/>
-      <c r="F85" s="27"/>
-      <c r="G85" s="24"/>
-      <c r="H85" s="24"/>
-      <c r="I85" s="20" t="s">
+      <c r="O84" s="61"/>
+      <c r="P84" s="64"/>
+      <c r="Q84" s="73"/>
+      <c r="R84" s="75"/>
+      <c r="S84" s="67"/>
+      <c r="T84" s="70"/>
+    </row>
+    <row r="85" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B85" s="48"/>
+      <c r="C85" s="36"/>
+      <c r="D85" s="52"/>
+      <c r="E85" s="48"/>
+      <c r="F85" s="44"/>
+      <c r="G85" s="36"/>
+      <c r="H85" s="36"/>
+      <c r="I85" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="J85" s="21">
+      <c r="J85" s="26">
         <v>14333000</v>
       </c>
-      <c r="K85" s="21">
+      <c r="K85" s="26">
         <v>820967.3</v>
       </c>
-      <c r="L85" s="40">
+      <c r="L85" s="29">
         <f t="shared" si="2"/>
         <v>17.458673445336981</v>
       </c>
-      <c r="M85" s="42">
+      <c r="M85" s="31">
         <f t="shared" si="3"/>
         <v>12.420112418176094</v>
       </c>
       <c r="N85" s="6">
         <v>7.2086810000000003</v>
       </c>
-    </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B86" s="30"/>
-      <c r="C86" s="24"/>
-      <c r="D86" s="24"/>
-      <c r="E86" s="24"/>
-      <c r="F86" s="27"/>
-      <c r="G86" s="24"/>
-      <c r="H86" s="24"/>
-      <c r="I86" s="46" t="s">
+      <c r="O85" s="61"/>
+      <c r="P85" s="64"/>
+      <c r="Q85" s="73"/>
+      <c r="R85" s="75"/>
+      <c r="S85" s="67"/>
+      <c r="T85" s="70"/>
+    </row>
+    <row r="86" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B86" s="48"/>
+      <c r="C86" s="36"/>
+      <c r="D86" s="52"/>
+      <c r="E86" s="48"/>
+      <c r="F86" s="44"/>
+      <c r="G86" s="36"/>
+      <c r="H86" s="36"/>
+      <c r="I86" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="J86" s="21">
+      <c r="J86" s="26">
         <v>36544000</v>
       </c>
-      <c r="K86" s="21">
+      <c r="K86" s="26">
         <v>1906710</v>
       </c>
-      <c r="L86" s="40">
+      <c r="L86" s="29">
         <f t="shared" si="2"/>
         <v>19.165997975570484</v>
       </c>
-      <c r="M86" s="42">
+      <c r="M86" s="31">
         <f t="shared" si="3"/>
         <v>12.825314379394005</v>
       </c>
       <c r="N86" s="6">
         <v>8.2397080000000003</v>
       </c>
-    </row>
-    <row r="87" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B87" s="30"/>
-      <c r="C87" s="24"/>
-      <c r="D87" s="24"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="27"/>
-      <c r="G87" s="24"/>
-      <c r="H87" s="24"/>
-      <c r="I87" s="20" t="s">
+      <c r="O86" s="61"/>
+      <c r="P86" s="64"/>
+      <c r="Q86" s="73"/>
+      <c r="R86" s="75"/>
+      <c r="S86" s="67"/>
+      <c r="T86" s="70"/>
+    </row>
+    <row r="87" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B87" s="48"/>
+      <c r="C87" s="36"/>
+      <c r="D87" s="52"/>
+      <c r="E87" s="48"/>
+      <c r="F87" s="44"/>
+      <c r="G87" s="36"/>
+      <c r="H87" s="36"/>
+      <c r="I87" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="J87" s="21">
+      <c r="J87" s="26">
         <v>54544000</v>
       </c>
-      <c r="K87" s="21">
+      <c r="K87" s="26">
         <v>2205914</v>
       </c>
-      <c r="L87" s="40">
+      <c r="L87" s="29">
         <f t="shared" si="2"/>
         <v>24.726258593943371</v>
       </c>
-      <c r="M87" s="42">
+      <c r="M87" s="31">
         <f t="shared" si="3"/>
         <v>13.931584069018983</v>
       </c>
       <c r="N87" s="6">
         <v>8.2393210000000003</v>
       </c>
-      <c r="O87" s="1">
-        <f>AVERAGE(N84:N92)</f>
-        <v>6.8407604285714294</v>
-      </c>
-      <c r="Q87" s="17">
-        <f>AVERAGE(K84:K92)</f>
-        <v>1987739.7571428572</v>
-      </c>
-    </row>
-    <row r="88" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B88" s="30"/>
-      <c r="C88" s="24"/>
-      <c r="D88" s="24"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="27"/>
-      <c r="G88" s="24"/>
-      <c r="H88" s="24"/>
-      <c r="I88" s="20" t="s">
+      <c r="O87" s="61"/>
+      <c r="P87" s="64"/>
+      <c r="Q87" s="73"/>
+      <c r="R87" s="75"/>
+      <c r="S87" s="67"/>
+      <c r="T87" s="70"/>
+    </row>
+    <row r="88" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B88" s="48"/>
+      <c r="C88" s="36"/>
+      <c r="D88" s="52"/>
+      <c r="E88" s="48"/>
+      <c r="F88" s="44"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="36"/>
+      <c r="I88" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="J88" s="21">
+      <c r="J88" s="26">
         <v>46194000</v>
       </c>
-      <c r="K88" s="21">
+      <c r="K88" s="26">
         <v>1496041</v>
       </c>
-      <c r="L88" s="40">
+      <c r="L88" s="29">
         <f t="shared" si="2"/>
         <v>30.877496004454425</v>
       </c>
-      <c r="M88" s="42">
+      <c r="M88" s="31">
         <f t="shared" si="3"/>
         <v>14.896420741915177</v>
       </c>
       <c r="N88" s="6">
         <v>5.0682270000000003</v>
       </c>
-    </row>
-    <row r="89" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B89" s="30"/>
-      <c r="C89" s="24"/>
-      <c r="D89" s="24"/>
-      <c r="E89" s="24"/>
-      <c r="F89" s="27"/>
-      <c r="G89" s="24"/>
-      <c r="H89" s="24"/>
-      <c r="I89" s="20" t="s">
+      <c r="O88" s="61"/>
+      <c r="P88" s="64"/>
+      <c r="Q88" s="73"/>
+      <c r="R88" s="75"/>
+      <c r="S88" s="67"/>
+      <c r="T88" s="70"/>
+    </row>
+    <row r="89" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B89" s="48"/>
+      <c r="C89" s="36"/>
+      <c r="D89" s="52"/>
+      <c r="E89" s="48"/>
+      <c r="F89" s="44"/>
+      <c r="G89" s="36"/>
+      <c r="H89" s="36"/>
+      <c r="I89" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="J89" s="21">
+      <c r="J89" s="26">
         <v>83384000</v>
       </c>
-      <c r="K89" s="21">
+      <c r="K89" s="26">
         <v>2574736</v>
       </c>
-      <c r="L89" s="40">
+      <c r="L89" s="29">
         <f t="shared" si="2"/>
         <v>32.385456217647167</v>
       </c>
-      <c r="M89" s="42">
+      <c r="M89" s="31">
         <f t="shared" si="3"/>
         <v>15.103500193893298</v>
       </c>
       <c r="N89" s="6">
         <v>6.5038429999999998</v>
       </c>
-    </row>
-    <row r="90" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B90" s="30"/>
-      <c r="C90" s="24"/>
-      <c r="D90" s="24"/>
-      <c r="E90" s="24"/>
-      <c r="F90" s="27"/>
-      <c r="G90" s="24"/>
-      <c r="H90" s="24"/>
-      <c r="I90" s="20" t="s">
+      <c r="O89" s="61"/>
+      <c r="P89" s="64"/>
+      <c r="Q89" s="73"/>
+      <c r="R89" s="75"/>
+      <c r="S89" s="67"/>
+      <c r="T89" s="70"/>
+    </row>
+    <row r="90" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B90" s="48"/>
+      <c r="C90" s="36"/>
+      <c r="D90" s="52"/>
+      <c r="E90" s="48"/>
+      <c r="F90" s="44"/>
+      <c r="G90" s="36"/>
+      <c r="H90" s="36"/>
+      <c r="I90" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J90" s="21">
+      <c r="J90" s="26">
         <v>125950000</v>
       </c>
-      <c r="K90" s="21">
+      <c r="K90" s="26">
         <v>2754819</v>
       </c>
-      <c r="L90" s="40">
+      <c r="L90" s="29">
         <f t="shared" si="2"/>
         <v>45.719882141077143</v>
       </c>
-      <c r="M90" s="42">
+      <c r="M90" s="31">
         <f t="shared" si="3"/>
         <v>16.601051021793726</v>
       </c>
       <c r="N90" s="6">
         <v>5.2577199999999999</v>
       </c>
-    </row>
-    <row r="91" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B91" s="30"/>
-      <c r="C91" s="24"/>
-      <c r="D91" s="24"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="27"/>
-      <c r="G91" s="24"/>
-      <c r="H91" s="24"/>
-      <c r="I91" s="20"/>
-      <c r="J91" s="20"/>
-      <c r="K91" s="20"/>
-      <c r="L91" s="40" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M91" s="42" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="O90" s="61"/>
+      <c r="P90" s="64"/>
+      <c r="Q90" s="73"/>
+      <c r="R90" s="75"/>
+      <c r="S90" s="67"/>
+      <c r="T90" s="70"/>
+    </row>
+    <row r="91" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B91" s="48"/>
+      <c r="C91" s="36"/>
+      <c r="D91" s="52"/>
+      <c r="E91" s="48"/>
+      <c r="F91" s="44"/>
+      <c r="G91" s="36"/>
+      <c r="H91" s="36"/>
+      <c r="I91" s="24"/>
+      <c r="J91" s="24"/>
+      <c r="K91" s="24"/>
+      <c r="L91" s="29"/>
+      <c r="M91" s="31"/>
       <c r="N91" s="6"/>
-    </row>
-    <row r="92" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B92" s="30"/>
-      <c r="C92" s="24"/>
-      <c r="D92" s="24"/>
-      <c r="E92" s="24"/>
-      <c r="F92" s="27"/>
-      <c r="G92" s="25"/>
-      <c r="H92" s="25"/>
-      <c r="I92" s="20"/>
-      <c r="J92" s="20"/>
-      <c r="K92" s="20"/>
-      <c r="L92" s="40" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M92" s="42" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N92" s="6"/>
-    </row>
-    <row r="93" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B93" s="30"/>
-      <c r="C93" s="24"/>
-      <c r="D93" s="23">
+      <c r="O91" s="61"/>
+      <c r="P91" s="64"/>
+      <c r="Q91" s="73"/>
+      <c r="R91" s="75"/>
+      <c r="S91" s="67"/>
+      <c r="T91" s="70"/>
+    </row>
+    <row r="92" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="48"/>
+      <c r="C92" s="36"/>
+      <c r="D92" s="52"/>
+      <c r="E92" s="49"/>
+      <c r="F92" s="46"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="25"/>
+      <c r="J92" s="25"/>
+      <c r="K92" s="25"/>
+      <c r="L92" s="32"/>
+      <c r="M92" s="33"/>
+      <c r="N92" s="57"/>
+      <c r="O92" s="63"/>
+      <c r="P92" s="66"/>
+      <c r="Q92" s="78"/>
+      <c r="R92" s="77"/>
+      <c r="S92" s="69"/>
+      <c r="T92" s="72"/>
+    </row>
+    <row r="93" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B93" s="48"/>
+      <c r="C93" s="36"/>
+      <c r="D93" s="38">
         <v>2</v>
       </c>
-      <c r="E93" s="23">
+      <c r="E93" s="36">
         <v>256</v>
       </c>
-      <c r="F93" s="23" t="s">
+      <c r="F93" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G93" s="23">
+      <c r="G93" s="36">
         <v>86.017674</v>
       </c>
-      <c r="H93" s="37">
+      <c r="H93" s="40">
         <v>3148237</v>
       </c>
       <c r="I93" s="20" t="s">
@@ -5961,50 +6731,88 @@
       <c r="J93" s="21">
         <v>4682500</v>
       </c>
-      <c r="K93" s="21"/>
-      <c r="L93" s="40" t="e">
+      <c r="K93" s="26">
+        <v>42132.17</v>
+      </c>
+      <c r="L93" s="29">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M93" s="42" t="e">
+        <v>111.13835342447351</v>
+      </c>
+      <c r="M93" s="31">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N93" s="6"/>
-    </row>
-    <row r="94" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B94" s="30"/>
-      <c r="C94" s="24"/>
-      <c r="D94" s="24"/>
-      <c r="E94" s="24"/>
-      <c r="F94" s="24"/>
-      <c r="G94" s="24"/>
-      <c r="H94" s="35"/>
+        <v>20.458639581866066</v>
+      </c>
+      <c r="N93" s="6">
+        <v>10.798170000000001</v>
+      </c>
+      <c r="O93" s="62">
+        <f>AVERAGE(N94:N102)</f>
+        <v>95.277363714285713</v>
+      </c>
+      <c r="P93" s="65">
+        <f>AVERAGE(O93:O116)</f>
+        <v>95.412201666666661</v>
+      </c>
+      <c r="Q93" s="74">
+        <f>AVERAGE(K94:K102)</f>
+        <v>1342252.0999999999</v>
+      </c>
+      <c r="R93" s="76">
+        <f>AVERAGE(Q93:Q116)</f>
+        <v>729780.77619047614</v>
+      </c>
+      <c r="S93" s="68">
+        <f>AVERAGE(M94:M102)</f>
+        <v>17.251473648487512</v>
+      </c>
+      <c r="T93" s="71">
+        <f>AVERAGE(S93:S116)</f>
+        <v>19.681315897547329</v>
+      </c>
+    </row>
+    <row r="94" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B94" s="48"/>
+      <c r="C94" s="36"/>
+      <c r="D94" s="36"/>
+      <c r="E94" s="36"/>
+      <c r="F94" s="36"/>
+      <c r="G94" s="36"/>
+      <c r="H94" s="40"/>
       <c r="I94" s="20" t="s">
         <v>10</v>
       </c>
       <c r="J94" s="21">
         <v>47216000</v>
       </c>
-      <c r="K94" s="21"/>
-      <c r="L94" s="40" t="e">
+      <c r="K94" s="26">
+        <v>1443354</v>
+      </c>
+      <c r="L94" s="29">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M94" s="42" t="e">
+        <v>32.712695568793244</v>
+      </c>
+      <c r="M94" s="31">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N94" s="6"/>
-    </row>
-    <row r="95" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B95" s="30"/>
-      <c r="C95" s="24"/>
-      <c r="D95" s="24"/>
-      <c r="E95" s="24"/>
-      <c r="F95" s="24"/>
-      <c r="G95" s="24"/>
-      <c r="H95" s="35"/>
+        <v>15.147163320313947</v>
+      </c>
+      <c r="N94" s="6">
+        <v>109.05508</v>
+      </c>
+      <c r="O94" s="61"/>
+      <c r="P94" s="64"/>
+      <c r="Q94" s="73"/>
+      <c r="R94" s="75"/>
+      <c r="S94" s="67"/>
+      <c r="T94" s="70"/>
+    </row>
+    <row r="95" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B95" s="48"/>
+      <c r="C95" s="36"/>
+      <c r="D95" s="36"/>
+      <c r="E95" s="36"/>
+      <c r="F95" s="36"/>
+      <c r="G95" s="36"/>
+      <c r="H95" s="40"/>
       <c r="I95" s="20" t="s">
         <v>14</v>
       </c>
@@ -6014,209 +6822,253 @@
       <c r="K95" s="21">
         <v>110511.3</v>
       </c>
-      <c r="L95" s="40">
+      <c r="L95" s="29">
         <f t="shared" si="2"/>
         <v>129.69714409295702</v>
       </c>
-      <c r="M95" s="42">
+      <c r="M95" s="31">
         <f t="shared" si="3"/>
         <v>21.129304131054745</v>
       </c>
       <c r="N95" s="6">
         <v>92.174993999999998</v>
       </c>
-    </row>
-    <row r="96" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B96" s="30"/>
-      <c r="C96" s="24"/>
-      <c r="D96" s="24"/>
-      <c r="E96" s="24"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="24"/>
-      <c r="H96" s="35"/>
+      <c r="O95" s="61"/>
+      <c r="P95" s="64"/>
+      <c r="Q95" s="73"/>
+      <c r="R95" s="75"/>
+      <c r="S95" s="67"/>
+      <c r="T95" s="70"/>
+    </row>
+    <row r="96" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B96" s="48"/>
+      <c r="C96" s="36"/>
+      <c r="D96" s="36"/>
+      <c r="E96" s="36"/>
+      <c r="F96" s="36"/>
+      <c r="G96" s="36"/>
+      <c r="H96" s="40"/>
       <c r="I96" s="20" t="s">
         <v>15</v>
       </c>
       <c r="J96" s="21">
         <v>36544000</v>
       </c>
-      <c r="K96" s="21"/>
-      <c r="L96" s="40" t="e">
+      <c r="K96" s="26">
+        <v>656193.30000000005</v>
+      </c>
+      <c r="L96" s="29">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M96" s="42" t="e">
+        <v>55.690906932454197</v>
+      </c>
+      <c r="M96" s="31">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N96" s="6"/>
-    </row>
-    <row r="97" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B97" s="30"/>
-      <c r="C97" s="24"/>
-      <c r="D97" s="24"/>
-      <c r="E97" s="24"/>
-      <c r="F97" s="24"/>
-      <c r="G97" s="24"/>
-      <c r="H97" s="35"/>
+        <v>17.457842904800472</v>
+      </c>
+      <c r="N96" s="6">
+        <v>118.505728</v>
+      </c>
+      <c r="O96" s="61"/>
+      <c r="P96" s="64"/>
+      <c r="Q96" s="73"/>
+      <c r="R96" s="75"/>
+      <c r="S96" s="67"/>
+      <c r="T96" s="70"/>
+    </row>
+    <row r="97" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B97" s="48"/>
+      <c r="C97" s="36"/>
+      <c r="D97" s="36"/>
+      <c r="E97" s="36"/>
+      <c r="F97" s="36"/>
+      <c r="G97" s="36"/>
+      <c r="H97" s="40"/>
       <c r="I97" s="20" t="s">
         <v>16</v>
       </c>
       <c r="J97" s="21">
         <v>54544000</v>
       </c>
-      <c r="K97" s="21"/>
-      <c r="L97" s="40" t="e">
+      <c r="K97" s="26">
+        <v>701016.3</v>
+      </c>
+      <c r="L97" s="29">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M97" s="42" t="e">
+        <v>77.807035300035096</v>
+      </c>
+      <c r="M97" s="31">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N97" s="6"/>
-      <c r="O97" s="1">
-        <f>AVERAGE(N94:N102)</f>
-        <v>92.174993999999998</v>
-      </c>
-      <c r="Q97" s="17">
-        <f>AVERAGE(K94:K102)</f>
-        <v>110511.3</v>
-      </c>
-      <c r="R97" s="18">
-        <f>Q97/Q107</f>
-        <v>0.24246318282333876</v>
-      </c>
-    </row>
-    <row r="98" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B98" s="30"/>
-      <c r="C98" s="24"/>
-      <c r="D98" s="24"/>
-      <c r="E98" s="24"/>
-      <c r="F98" s="24"/>
-      <c r="G98" s="24"/>
-      <c r="H98" s="35"/>
+        <v>18.910188676046708</v>
+      </c>
+      <c r="N97" s="6">
+        <v>109.10365</v>
+      </c>
+      <c r="O97" s="61"/>
+      <c r="P97" s="64"/>
+      <c r="Q97" s="73"/>
+      <c r="R97" s="75"/>
+      <c r="S97" s="67"/>
+      <c r="T97" s="70"/>
+    </row>
+    <row r="98" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B98" s="48"/>
+      <c r="C98" s="36"/>
+      <c r="D98" s="36"/>
+      <c r="E98" s="36"/>
+      <c r="F98" s="36"/>
+      <c r="G98" s="36"/>
+      <c r="H98" s="40"/>
       <c r="I98" s="20" t="s">
         <v>17</v>
       </c>
       <c r="J98" s="21">
         <v>46194000</v>
       </c>
-      <c r="K98" s="21"/>
-      <c r="L98" s="40" t="e">
+      <c r="K98" s="26">
+        <v>995268.8</v>
+      </c>
+      <c r="L98" s="29">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M98" s="42" t="e">
+        <v>46.413591986406082</v>
+      </c>
+      <c r="M98" s="31">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N98" s="6"/>
-    </row>
-    <row r="99" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B99" s="30"/>
-      <c r="C99" s="24"/>
-      <c r="D99" s="24"/>
-      <c r="E99" s="24"/>
-      <c r="F99" s="24"/>
-      <c r="G99" s="24"/>
-      <c r="H99" s="35"/>
+        <v>16.666451801300752</v>
+      </c>
+      <c r="N98" s="6">
+        <v>70.263121999999996</v>
+      </c>
+      <c r="O98" s="61"/>
+      <c r="P98" s="64"/>
+      <c r="Q98" s="73"/>
+      <c r="R98" s="75"/>
+      <c r="S98" s="67"/>
+      <c r="T98" s="70"/>
+    </row>
+    <row r="99" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B99" s="48"/>
+      <c r="C99" s="36"/>
+      <c r="D99" s="36"/>
+      <c r="E99" s="36"/>
+      <c r="F99" s="36"/>
+      <c r="G99" s="36"/>
+      <c r="H99" s="40"/>
       <c r="I99" s="20" t="s">
         <v>18</v>
       </c>
       <c r="J99" s="21">
         <v>83384000</v>
       </c>
-      <c r="K99" s="21"/>
-      <c r="L99" s="40" t="e">
+      <c r="K99" s="26">
+        <v>2850746</v>
+      </c>
+      <c r="L99" s="29">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M99" s="42" t="e">
+        <v>29.249887573287833</v>
+      </c>
+      <c r="M99" s="31">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N99" s="6"/>
-    </row>
-    <row r="100" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B100" s="30"/>
-      <c r="C100" s="24"/>
-      <c r="D100" s="24"/>
-      <c r="E100" s="24"/>
-      <c r="F100" s="24"/>
-      <c r="G100" s="24"/>
-      <c r="H100" s="35"/>
+        <v>14.66124201139753</v>
+      </c>
+      <c r="N99" s="6">
+        <v>94.931640000000002</v>
+      </c>
+      <c r="O99" s="61"/>
+      <c r="P99" s="64"/>
+      <c r="Q99" s="73"/>
+      <c r="R99" s="75"/>
+      <c r="S99" s="67"/>
+      <c r="T99" s="70"/>
+    </row>
+    <row r="100" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B100" s="48"/>
+      <c r="C100" s="36"/>
+      <c r="D100" s="36"/>
+      <c r="E100" s="36"/>
+      <c r="F100" s="36"/>
+      <c r="G100" s="36"/>
+      <c r="H100" s="40"/>
       <c r="I100" s="20" t="s">
         <v>19</v>
       </c>
       <c r="J100" s="21">
         <v>125950000</v>
       </c>
-      <c r="K100" s="21"/>
-      <c r="L100" s="40" t="e">
+      <c r="K100" s="26">
+        <v>2638675</v>
+      </c>
+      <c r="L100" s="29">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M100" s="42" t="e">
+        <v>47.732289880337667</v>
+      </c>
+      <c r="M100" s="31">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N100" s="6"/>
-    </row>
-    <row r="101" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B101" s="30"/>
-      <c r="C101" s="24"/>
-      <c r="D101" s="24"/>
-      <c r="E101" s="24"/>
-      <c r="F101" s="24"/>
-      <c r="G101" s="24"/>
-      <c r="H101" s="35"/>
+        <v>16.788122694498419</v>
+      </c>
+      <c r="N100" s="6">
+        <v>72.907331999999997</v>
+      </c>
+      <c r="O100" s="61"/>
+      <c r="P100" s="64"/>
+      <c r="Q100" s="73"/>
+      <c r="R100" s="75"/>
+      <c r="S100" s="67"/>
+      <c r="T100" s="70"/>
+    </row>
+    <row r="101" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B101" s="48"/>
+      <c r="C101" s="36"/>
+      <c r="D101" s="36"/>
+      <c r="E101" s="36"/>
+      <c r="F101" s="36"/>
+      <c r="G101" s="36"/>
+      <c r="H101" s="40"/>
       <c r="I101" s="20"/>
       <c r="J101" s="20"/>
       <c r="K101" s="20"/>
-      <c r="L101" s="40" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M101" s="42" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="L101" s="29"/>
+      <c r="M101" s="31"/>
       <c r="N101" s="6"/>
-    </row>
-    <row r="102" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B102" s="30"/>
-      <c r="C102" s="24"/>
-      <c r="D102" s="24"/>
-      <c r="E102" s="24"/>
-      <c r="F102" s="25"/>
-      <c r="G102" s="25"/>
-      <c r="H102" s="36"/>
+      <c r="O101" s="61"/>
+      <c r="P101" s="64"/>
+      <c r="Q101" s="73"/>
+      <c r="R101" s="75"/>
+      <c r="S101" s="67"/>
+      <c r="T101" s="70"/>
+    </row>
+    <row r="102" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B102" s="48"/>
+      <c r="C102" s="36"/>
+      <c r="D102" s="36"/>
+      <c r="E102" s="36"/>
+      <c r="F102" s="39"/>
+      <c r="G102" s="39"/>
+      <c r="H102" s="41"/>
       <c r="I102" s="20"/>
       <c r="J102" s="20"/>
       <c r="K102" s="20"/>
-      <c r="L102" s="40" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M102" s="42" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="L102" s="29"/>
+      <c r="M102" s="31"/>
       <c r="N102" s="6"/>
-    </row>
-    <row r="103" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B103" s="30"/>
-      <c r="C103" s="24"/>
-      <c r="D103" s="24"/>
-      <c r="E103" s="24"/>
-      <c r="F103" s="26" t="s">
+      <c r="O102" s="61"/>
+      <c r="P102" s="64"/>
+      <c r="Q102" s="73"/>
+      <c r="R102" s="75"/>
+      <c r="S102" s="67"/>
+      <c r="T102" s="70"/>
+    </row>
+    <row r="103" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B103" s="48"/>
+      <c r="C103" s="36"/>
+      <c r="D103" s="36"/>
+      <c r="E103" s="36"/>
+      <c r="F103" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="G103" s="23">
+      <c r="G103" s="38">
         <v>55.812477000000001</v>
       </c>
-      <c r="H103" s="37">
+      <c r="H103" s="35">
         <v>27047460</v>
       </c>
       <c r="I103" s="20" t="s">
@@ -6225,100 +7077,153 @@
       <c r="J103" s="21">
         <v>4682500</v>
       </c>
-      <c r="K103" s="21"/>
-      <c r="L103" s="40" t="e">
+      <c r="K103" s="26">
+        <v>117226.2</v>
+      </c>
+      <c r="L103" s="29">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M103" s="42" t="e">
+        <v>39.94414217981987</v>
+      </c>
+      <c r="M103" s="31">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N103" s="6"/>
-    </row>
-    <row r="104" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B104" s="30"/>
-      <c r="C104" s="24"/>
-      <c r="D104" s="24"/>
-      <c r="E104" s="24"/>
-      <c r="F104" s="26"/>
-      <c r="G104" s="24"/>
-      <c r="H104" s="24"/>
+        <v>16.014530989062891</v>
+      </c>
+      <c r="N103" s="6">
+        <v>8.3059370000000001</v>
+      </c>
+      <c r="O103" s="61">
+        <f>AVERAGE(N104:N112)</f>
+        <v>97.632773428571426</v>
+      </c>
+      <c r="P103" s="64"/>
+      <c r="Q103" s="73">
+        <f>AVERAGE(K104:K112)</f>
+        <v>433290.51428571431</v>
+      </c>
+      <c r="R103" s="75"/>
+      <c r="S103" s="67">
+        <f>AVERAGE(M104:M112)</f>
+        <v>20.740394886881766</v>
+      </c>
+      <c r="T103" s="70"/>
+      <c r="U103" s="50">
+        <f>(M103+M93+M113)/3</f>
+        <v>18.330234417468926</v>
+      </c>
+    </row>
+    <row r="104" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B104" s="48"/>
+      <c r="C104" s="36"/>
+      <c r="D104" s="36"/>
+      <c r="E104" s="36"/>
+      <c r="F104" s="45"/>
+      <c r="G104" s="36"/>
+      <c r="H104" s="36"/>
       <c r="I104" s="20" t="s">
         <v>10</v>
       </c>
       <c r="J104" s="21">
         <v>47216000</v>
       </c>
-      <c r="K104" s="21"/>
-      <c r="L104" s="40" t="e">
+      <c r="K104" s="26">
+        <v>439398.40000000002</v>
+      </c>
+      <c r="L104" s="29">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M104" s="42" t="e">
+        <v>107.45601258447914</v>
+      </c>
+      <c r="M104" s="31">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N104" s="6"/>
-    </row>
-    <row r="105" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B105" s="30"/>
-      <c r="C105" s="24"/>
-      <c r="D105" s="24"/>
-      <c r="E105" s="24"/>
-      <c r="F105" s="26"/>
-      <c r="G105" s="24"/>
-      <c r="H105" s="24"/>
+        <v>20.312307209834003</v>
+      </c>
+      <c r="N104" s="6">
+        <v>111.363974</v>
+      </c>
+      <c r="O104" s="61"/>
+      <c r="P104" s="64"/>
+      <c r="Q104" s="73"/>
+      <c r="R104" s="75"/>
+      <c r="S104" s="67"/>
+      <c r="T104" s="70"/>
+    </row>
+    <row r="105" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B105" s="48"/>
+      <c r="C105" s="36"/>
+      <c r="D105" s="36"/>
+      <c r="E105" s="36"/>
+      <c r="F105" s="45"/>
+      <c r="G105" s="36"/>
+      <c r="H105" s="36"/>
       <c r="I105" s="20" t="s">
         <v>14</v>
       </c>
       <c r="J105" s="21">
         <v>14333000</v>
       </c>
-      <c r="K105" s="21"/>
-      <c r="L105" s="40" t="e">
+      <c r="K105" s="26">
+        <v>198683.4</v>
+      </c>
+      <c r="L105" s="29">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M105" s="42" t="e">
+        <v>72.139896941566334</v>
+      </c>
+      <c r="M105" s="31">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N105" s="6"/>
-    </row>
-    <row r="106" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B106" s="30"/>
-      <c r="C106" s="24"/>
-      <c r="D106" s="24"/>
-      <c r="E106" s="24"/>
-      <c r="F106" s="26"/>
-      <c r="G106" s="24"/>
-      <c r="H106" s="24"/>
+        <v>18.581755175534418</v>
+      </c>
+      <c r="N105" s="6">
+        <v>90.218546000000003</v>
+      </c>
+      <c r="O105" s="61"/>
+      <c r="P105" s="64"/>
+      <c r="Q105" s="73"/>
+      <c r="R105" s="75"/>
+      <c r="S105" s="67"/>
+      <c r="T105" s="70"/>
+    </row>
+    <row r="106" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B106" s="48"/>
+      <c r="C106" s="36"/>
+      <c r="D106" s="36"/>
+      <c r="E106" s="36"/>
+      <c r="F106" s="45"/>
+      <c r="G106" s="36"/>
+      <c r="H106" s="36"/>
       <c r="I106" s="20" t="s">
         <v>15</v>
       </c>
       <c r="J106" s="21">
         <v>36544000</v>
       </c>
-      <c r="K106" s="21"/>
-      <c r="L106" s="40" t="e">
+      <c r="K106" s="26">
+        <v>399060.8</v>
+      </c>
+      <c r="L106" s="29">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M106" s="42" t="e">
+        <v>91.575018142598822</v>
+      </c>
+      <c r="M106" s="31">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N106" s="6"/>
-    </row>
-    <row r="107" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B107" s="30"/>
-      <c r="C107" s="24"/>
-      <c r="D107" s="24"/>
-      <c r="E107" s="24"/>
-      <c r="F107" s="26"/>
-      <c r="G107" s="24"/>
-      <c r="H107" s="24"/>
+        <v>19.617770133778578</v>
+      </c>
+      <c r="N106" s="6">
+        <v>123.81653900000001</v>
+      </c>
+      <c r="O106" s="61"/>
+      <c r="P106" s="64"/>
+      <c r="Q106" s="73"/>
+      <c r="R106" s="75"/>
+      <c r="S106" s="67"/>
+      <c r="T106" s="70"/>
+    </row>
+    <row r="107" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B107" s="48"/>
+      <c r="C107" s="36"/>
+      <c r="D107" s="36"/>
+      <c r="E107" s="36"/>
+      <c r="F107" s="45"/>
+      <c r="G107" s="36"/>
+      <c r="H107" s="36"/>
       <c r="I107" s="20" t="s">
         <v>16</v>
       </c>
@@ -6328,163 +7233,183 @@
       <c r="K107" s="21">
         <v>455785.9</v>
       </c>
-      <c r="L107" s="40">
+      <c r="L107" s="29">
         <f t="shared" si="2"/>
         <v>119.6702223565933</v>
       </c>
-      <c r="M107" s="42">
+      <c r="M107" s="31">
         <f t="shared" si="3"/>
         <v>20.779860979832229</v>
       </c>
       <c r="N107" s="6">
         <v>108.558559</v>
       </c>
-      <c r="O107" s="1">
-        <f>AVERAGE(N104:N112)</f>
-        <v>108.558559</v>
-      </c>
-      <c r="P107" s="1">
-        <f>AVERAGE(O97:O117)</f>
-        <v>103.72938733333335</v>
-      </c>
-      <c r="Q107" s="17">
-        <f>AVERAGE(K104:K112)</f>
-        <v>455785.9</v>
-      </c>
-      <c r="R107" s="17">
-        <f>AVERAGE(Q97:Q117)</f>
-        <v>332419.03333333338</v>
-      </c>
-    </row>
-    <row r="108" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B108" s="30"/>
-      <c r="C108" s="24"/>
-      <c r="D108" s="24"/>
-      <c r="E108" s="24"/>
-      <c r="F108" s="26"/>
-      <c r="G108" s="24"/>
-      <c r="H108" s="24"/>
+      <c r="O107" s="61"/>
+      <c r="P107" s="64"/>
+      <c r="Q107" s="73"/>
+      <c r="R107" s="75"/>
+      <c r="S107" s="67"/>
+      <c r="T107" s="70"/>
+    </row>
+    <row r="108" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B108" s="48"/>
+      <c r="C108" s="36"/>
+      <c r="D108" s="36"/>
+      <c r="E108" s="36"/>
+      <c r="F108" s="45"/>
+      <c r="G108" s="36"/>
+      <c r="H108" s="36"/>
       <c r="I108" s="20" t="s">
         <v>17</v>
       </c>
       <c r="J108" s="21">
         <v>46194000</v>
       </c>
-      <c r="K108" s="21"/>
-      <c r="L108" s="40" t="e">
+      <c r="K108" s="26">
+        <v>362195.20000000001</v>
+      </c>
+      <c r="L108" s="29">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M108" s="42" t="e">
+        <v>127.53896241584648</v>
+      </c>
+      <c r="M108" s="31">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N108" s="6"/>
-    </row>
-    <row r="109" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B109" s="30"/>
-      <c r="C109" s="24"/>
-      <c r="D109" s="24"/>
-      <c r="E109" s="24"/>
-      <c r="F109" s="26"/>
-      <c r="G109" s="24"/>
-      <c r="H109" s="24"/>
+        <v>21.056428794937535</v>
+      </c>
+      <c r="N108" s="6">
+        <v>67.955517</v>
+      </c>
+      <c r="O108" s="61"/>
+      <c r="P108" s="64"/>
+      <c r="Q108" s="73"/>
+      <c r="R108" s="75"/>
+      <c r="S108" s="67"/>
+      <c r="T108" s="70"/>
+    </row>
+    <row r="109" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B109" s="48"/>
+      <c r="C109" s="36"/>
+      <c r="D109" s="36"/>
+      <c r="E109" s="36"/>
+      <c r="F109" s="45"/>
+      <c r="G109" s="36"/>
+      <c r="H109" s="36"/>
       <c r="I109" s="20" t="s">
         <v>18</v>
       </c>
       <c r="J109" s="21">
         <v>83384000</v>
       </c>
-      <c r="K109" s="21"/>
-      <c r="L109" s="40" t="e">
+      <c r="K109" s="26">
+        <v>545713.4</v>
+      </c>
+      <c r="L109" s="29">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M109" s="42" t="e">
+        <v>152.79815375616579</v>
+      </c>
+      <c r="M109" s="31">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N109" s="6"/>
-    </row>
-    <row r="110" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B110" s="30"/>
-      <c r="C110" s="24"/>
-      <c r="D110" s="24"/>
-      <c r="E110" s="24"/>
-      <c r="F110" s="26"/>
-      <c r="G110" s="24"/>
-      <c r="H110" s="24"/>
+        <v>21.841181067373576</v>
+      </c>
+      <c r="N109" s="6">
+        <v>98.894293000000005</v>
+      </c>
+      <c r="O109" s="61"/>
+      <c r="P109" s="64"/>
+      <c r="Q109" s="73"/>
+      <c r="R109" s="75"/>
+      <c r="S109" s="67"/>
+      <c r="T109" s="70"/>
+    </row>
+    <row r="110" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B110" s="48"/>
+      <c r="C110" s="36"/>
+      <c r="D110" s="36"/>
+      <c r="E110" s="36"/>
+      <c r="F110" s="45"/>
+      <c r="G110" s="36"/>
+      <c r="H110" s="36"/>
       <c r="I110" s="20" t="s">
         <v>19</v>
       </c>
       <c r="J110" s="21">
         <v>125950000</v>
       </c>
-      <c r="K110" s="21"/>
-      <c r="L110" s="40" t="e">
+      <c r="K110" s="26">
+        <v>632196.5</v>
+      </c>
+      <c r="L110" s="29">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M110" s="42" t="e">
+        <v>199.22603177967611</v>
+      </c>
+      <c r="M110" s="31">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N110" s="6"/>
-    </row>
-    <row r="111" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B111" s="30"/>
-      <c r="C111" s="24"/>
-      <c r="D111" s="24"/>
-      <c r="E111" s="24"/>
-      <c r="F111" s="26"/>
-      <c r="G111" s="24"/>
-      <c r="H111" s="24"/>
+        <v>22.993460846882023</v>
+      </c>
+      <c r="N110" s="6">
+        <v>82.621986000000007</v>
+      </c>
+      <c r="O110" s="61"/>
+      <c r="P110" s="64"/>
+      <c r="Q110" s="73"/>
+      <c r="R110" s="75"/>
+      <c r="S110" s="67"/>
+      <c r="T110" s="70"/>
+    </row>
+    <row r="111" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B111" s="48"/>
+      <c r="C111" s="36"/>
+      <c r="D111" s="36"/>
+      <c r="E111" s="36"/>
+      <c r="F111" s="45"/>
+      <c r="G111" s="36"/>
+      <c r="H111" s="36"/>
       <c r="I111" s="20"/>
       <c r="J111" s="20"/>
       <c r="K111" s="21"/>
-      <c r="L111" s="40" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M111" s="42" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="L111" s="29"/>
+      <c r="M111" s="31"/>
       <c r="N111" s="6"/>
-    </row>
-    <row r="112" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B112" s="30"/>
-      <c r="C112" s="24"/>
-      <c r="D112" s="24"/>
-      <c r="E112" s="24"/>
-      <c r="F112" s="26"/>
-      <c r="G112" s="25"/>
-      <c r="H112" s="25"/>
+      <c r="O111" s="61"/>
+      <c r="P111" s="64"/>
+      <c r="Q111" s="73"/>
+      <c r="R111" s="75"/>
+      <c r="S111" s="67"/>
+      <c r="T111" s="70"/>
+    </row>
+    <row r="112" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B112" s="48"/>
+      <c r="C112" s="36"/>
+      <c r="D112" s="36"/>
+      <c r="E112" s="36"/>
+      <c r="F112" s="45"/>
+      <c r="G112" s="39"/>
+      <c r="H112" s="39"/>
       <c r="I112" s="20"/>
       <c r="J112" s="20"/>
       <c r="K112" s="20"/>
-      <c r="L112" s="40" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M112" s="42" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="L112" s="29"/>
+      <c r="M112" s="31"/>
       <c r="N112" s="6"/>
-    </row>
-    <row r="113" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B113" s="30"/>
-      <c r="C113" s="24"/>
-      <c r="D113" s="24"/>
-      <c r="E113" s="24"/>
-      <c r="F113" s="27" t="s">
+      <c r="O112" s="61"/>
+      <c r="P112" s="64"/>
+      <c r="Q112" s="73"/>
+      <c r="R112" s="75"/>
+      <c r="S112" s="67"/>
+      <c r="T112" s="70"/>
+    </row>
+    <row r="113" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B113" s="48"/>
+      <c r="C113" s="36"/>
+      <c r="D113" s="36"/>
+      <c r="E113" s="36"/>
+      <c r="F113" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="G113" s="23">
+      <c r="G113" s="38">
         <v>266.737977</v>
       </c>
-      <c r="H113" s="37">
+      <c r="H113" s="35">
         <v>14246790</v>
       </c>
       <c r="I113" s="20" t="s">
@@ -6493,100 +7418,149 @@
       <c r="J113" s="21">
         <v>4682500</v>
       </c>
-      <c r="K113" s="21"/>
-      <c r="L113" s="40" t="e">
+      <c r="K113" s="26">
+        <v>65875.59</v>
+      </c>
+      <c r="L113" s="29">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M113" s="42" t="e">
+        <v>71.080957301482997</v>
+      </c>
+      <c r="M113" s="31">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N113" s="6"/>
-    </row>
-    <row r="114" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B114" s="30"/>
-      <c r="C114" s="24"/>
-      <c r="D114" s="24"/>
-      <c r="E114" s="24"/>
-      <c r="F114" s="27"/>
-      <c r="G114" s="24"/>
-      <c r="H114" s="24"/>
+        <v>18.517532681477821</v>
+      </c>
+      <c r="N113" s="6">
+        <v>11.611152000000001</v>
+      </c>
+      <c r="O113" s="61">
+        <f>AVERAGE(N114:N122)</f>
+        <v>93.326467857142845</v>
+      </c>
+      <c r="P113" s="64"/>
+      <c r="Q113" s="73">
+        <f>AVERAGE(K114:K122)</f>
+        <v>413799.71428571426</v>
+      </c>
+      <c r="R113" s="75"/>
+      <c r="S113" s="67">
+        <f>AVERAGE(M114:M122)</f>
+        <v>21.052079157272708</v>
+      </c>
+      <c r="T113" s="70"/>
+    </row>
+    <row r="114" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B114" s="48"/>
+      <c r="C114" s="36"/>
+      <c r="D114" s="36"/>
+      <c r="E114" s="36"/>
+      <c r="F114" s="44"/>
+      <c r="G114" s="36"/>
+      <c r="H114" s="36"/>
       <c r="I114" s="20" t="s">
         <v>10</v>
       </c>
       <c r="J114" s="21">
         <v>47216000</v>
       </c>
-      <c r="K114" s="21"/>
-      <c r="L114" s="40" t="e">
+      <c r="K114" s="26">
+        <v>464312.1</v>
+      </c>
+      <c r="L114" s="29">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M114" s="42" t="e">
+        <v>101.69022086652491</v>
+      </c>
+      <c r="M114" s="31">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N114" s="6"/>
-    </row>
-    <row r="115" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B115" s="30"/>
-      <c r="C115" s="24"/>
-      <c r="D115" s="24"/>
-      <c r="E115" s="24"/>
-      <c r="F115" s="27"/>
-      <c r="G115" s="24"/>
-      <c r="H115" s="24"/>
+        <v>20.072791906030893</v>
+      </c>
+      <c r="N114" s="6">
+        <v>104.094043</v>
+      </c>
+      <c r="O114" s="61"/>
+      <c r="P114" s="64"/>
+      <c r="Q114" s="73"/>
+      <c r="R114" s="75"/>
+      <c r="S114" s="67"/>
+      <c r="T114" s="70"/>
+    </row>
+    <row r="115" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B115" s="48"/>
+      <c r="C115" s="36"/>
+      <c r="D115" s="36"/>
+      <c r="E115" s="36"/>
+      <c r="F115" s="44"/>
+      <c r="G115" s="36"/>
+      <c r="H115" s="36"/>
       <c r="I115" s="20" t="s">
         <v>14</v>
       </c>
       <c r="J115" s="21">
         <v>14333000</v>
       </c>
-      <c r="K115" s="20"/>
-      <c r="L115" s="40" t="e">
+      <c r="K115" s="26">
+        <v>149541.9</v>
+      </c>
+      <c r="L115" s="29">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M115" s="42" t="e">
+        <v>95.84604716136414</v>
+      </c>
+      <c r="M115" s="31">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N115" s="6"/>
-    </row>
-    <row r="116" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B116" s="30"/>
-      <c r="C116" s="24"/>
-      <c r="D116" s="24"/>
-      <c r="E116" s="24"/>
-      <c r="F116" s="27"/>
-      <c r="G116" s="24"/>
-      <c r="H116" s="24"/>
+        <v>19.815742066099446</v>
+      </c>
+      <c r="N115" s="6">
+        <v>91.560816000000003</v>
+      </c>
+      <c r="O115" s="61"/>
+      <c r="P115" s="64"/>
+      <c r="Q115" s="73"/>
+      <c r="R115" s="75"/>
+      <c r="S115" s="67"/>
+      <c r="T115" s="70"/>
+    </row>
+    <row r="116" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B116" s="48"/>
+      <c r="C116" s="36"/>
+      <c r="D116" s="36"/>
+      <c r="E116" s="36"/>
+      <c r="F116" s="44"/>
+      <c r="G116" s="36"/>
+      <c r="H116" s="36"/>
       <c r="I116" s="20" t="s">
         <v>15</v>
       </c>
       <c r="J116" s="21">
         <v>36544000</v>
       </c>
-      <c r="K116" s="21"/>
-      <c r="L116" s="40" t="e">
+      <c r="K116" s="26">
+        <v>358518.1</v>
+      </c>
+      <c r="L116" s="29">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M116" s="42" t="e">
+        <v>101.93069750174399</v>
+      </c>
+      <c r="M116" s="31">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N116" s="6"/>
-    </row>
-    <row r="117" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B117" s="30"/>
-      <c r="C117" s="24"/>
-      <c r="D117" s="24"/>
-      <c r="E117" s="24"/>
-      <c r="F117" s="27"/>
-      <c r="G117" s="24"/>
-      <c r="H117" s="24"/>
+        <v>20.083049960566211</v>
+      </c>
+      <c r="N116" s="6">
+        <v>119.385496</v>
+      </c>
+      <c r="O116" s="61"/>
+      <c r="P116" s="64"/>
+      <c r="Q116" s="73"/>
+      <c r="R116" s="75"/>
+      <c r="S116" s="67"/>
+      <c r="T116" s="70"/>
+    </row>
+    <row r="117" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B117" s="48"/>
+      <c r="C117" s="36"/>
+      <c r="D117" s="36"/>
+      <c r="E117" s="36"/>
+      <c r="F117" s="44"/>
+      <c r="G117" s="36"/>
+      <c r="H117" s="36"/>
       <c r="I117" s="20" t="s">
         <v>16</v>
       </c>
@@ -6596,145 +7570,253 @@
       <c r="K117" s="21">
         <v>430959.9</v>
       </c>
-      <c r="L117" s="40">
+      <c r="L117" s="29">
         <f t="shared" si="2"/>
         <v>126.56397961852134</v>
       </c>
-      <c r="M117" s="42">
+      <c r="M117" s="31">
         <f t="shared" si="3"/>
         <v>21.023101221206627</v>
       </c>
       <c r="N117" s="6">
         <v>110.454609</v>
       </c>
-      <c r="O117" s="1">
-        <f>AVERAGE(N114:N122)</f>
-        <v>110.454609</v>
-      </c>
-      <c r="Q117" s="17">
-        <f>AVERAGE(K114:K122)</f>
-        <v>430959.9</v>
-      </c>
-    </row>
-    <row r="118" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B118" s="30"/>
-      <c r="C118" s="24"/>
-      <c r="D118" s="24"/>
-      <c r="E118" s="24"/>
-      <c r="F118" s="27"/>
-      <c r="G118" s="24"/>
-      <c r="H118" s="24"/>
+      <c r="O117" s="61"/>
+      <c r="P117" s="64"/>
+      <c r="Q117" s="73"/>
+      <c r="R117" s="75"/>
+      <c r="S117" s="67"/>
+      <c r="T117" s="70"/>
+    </row>
+    <row r="118" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B118" s="48"/>
+      <c r="C118" s="36"/>
+      <c r="D118" s="36"/>
+      <c r="E118" s="36"/>
+      <c r="F118" s="44"/>
+      <c r="G118" s="36"/>
+      <c r="H118" s="36"/>
       <c r="I118" s="20" t="s">
         <v>17</v>
       </c>
       <c r="J118" s="21">
         <v>46194000</v>
       </c>
-      <c r="K118" s="20"/>
-      <c r="L118" s="40" t="e">
+      <c r="K118" s="26">
+        <v>344152.5</v>
+      </c>
+      <c r="L118" s="29">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M118" s="42" t="e">
+        <v>134.22537973718048</v>
+      </c>
+      <c r="M118" s="31">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N118" s="6"/>
-    </row>
-    <row r="119" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B119" s="30"/>
-      <c r="C119" s="24"/>
-      <c r="D119" s="24"/>
-      <c r="E119" s="24"/>
-      <c r="F119" s="27"/>
-      <c r="G119" s="24"/>
-      <c r="H119" s="24"/>
+        <v>21.278346413000456</v>
+      </c>
+      <c r="N118" s="6">
+        <v>66.617474999999999</v>
+      </c>
+      <c r="O118" s="61"/>
+      <c r="P118" s="64"/>
+      <c r="Q118" s="73"/>
+      <c r="R118" s="75"/>
+      <c r="S118" s="67"/>
+      <c r="T118" s="70"/>
+    </row>
+    <row r="119" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B119" s="48"/>
+      <c r="C119" s="36"/>
+      <c r="D119" s="36"/>
+      <c r="E119" s="36"/>
+      <c r="F119" s="44"/>
+      <c r="G119" s="36"/>
+      <c r="H119" s="36"/>
       <c r="I119" s="20" t="s">
         <v>18</v>
       </c>
       <c r="J119" s="21">
         <v>83384000</v>
       </c>
-      <c r="K119" s="20"/>
-      <c r="L119" s="40" t="e">
+      <c r="K119" s="26">
+        <v>504329.6</v>
+      </c>
+      <c r="L119" s="29">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M119" s="42" t="e">
+        <v>165.33631974010649</v>
+      </c>
+      <c r="M119" s="31">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N119" s="6"/>
-    </row>
-    <row r="120" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B120" s="30"/>
-      <c r="C120" s="24"/>
-      <c r="D120" s="24"/>
-      <c r="E120" s="24"/>
-      <c r="F120" s="27"/>
-      <c r="G120" s="24"/>
-      <c r="H120" s="24"/>
+        <v>22.183682663366771</v>
+      </c>
+      <c r="N119" s="6">
+        <v>88.424206999999996</v>
+      </c>
+      <c r="O119" s="61"/>
+      <c r="P119" s="64"/>
+      <c r="Q119" s="73"/>
+      <c r="R119" s="75"/>
+      <c r="S119" s="67"/>
+      <c r="T119" s="70"/>
+    </row>
+    <row r="120" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B120" s="48"/>
+      <c r="C120" s="36"/>
+      <c r="D120" s="36"/>
+      <c r="E120" s="36"/>
+      <c r="F120" s="44"/>
+      <c r="G120" s="36"/>
+      <c r="H120" s="36"/>
       <c r="I120" s="20" t="s">
         <v>19</v>
       </c>
       <c r="J120" s="21">
         <v>125950000</v>
       </c>
-      <c r="K120" s="20"/>
-      <c r="L120" s="40" t="e">
+      <c r="K120" s="26">
+        <v>644783.9</v>
+      </c>
+      <c r="L120" s="29">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M120" s="42" t="e">
+        <v>195.3367632163272</v>
+      </c>
+      <c r="M120" s="31">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N120" s="6"/>
-    </row>
-    <row r="121" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B121" s="30"/>
-      <c r="C121" s="24"/>
-      <c r="D121" s="24"/>
-      <c r="E121" s="24"/>
-      <c r="F121" s="27"/>
-      <c r="G121" s="24"/>
-      <c r="H121" s="24"/>
+        <v>22.907839870638554</v>
+      </c>
+      <c r="N120" s="6">
+        <v>72.748628999999994</v>
+      </c>
+      <c r="O120" s="61"/>
+      <c r="P120" s="64"/>
+      <c r="Q120" s="73"/>
+      <c r="R120" s="75"/>
+      <c r="S120" s="67"/>
+      <c r="T120" s="70"/>
+    </row>
+    <row r="121" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B121" s="48"/>
+      <c r="C121" s="36"/>
+      <c r="D121" s="36"/>
+      <c r="E121" s="36"/>
+      <c r="F121" s="44"/>
+      <c r="G121" s="36"/>
+      <c r="H121" s="36"/>
       <c r="I121" s="20"/>
       <c r="J121" s="20"/>
       <c r="K121" s="20"/>
-      <c r="L121" s="40" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M121" s="42" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="L121" s="29"/>
+      <c r="M121" s="31"/>
       <c r="N121" s="6"/>
-    </row>
-    <row r="122" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="31"/>
-      <c r="C122" s="32"/>
-      <c r="D122" s="32"/>
-      <c r="E122" s="32"/>
-      <c r="F122" s="28"/>
-      <c r="G122" s="32"/>
-      <c r="H122" s="32"/>
+      <c r="O121" s="61"/>
+      <c r="P121" s="64"/>
+      <c r="Q121" s="73"/>
+      <c r="R121" s="75"/>
+      <c r="S121" s="67"/>
+      <c r="T121" s="70"/>
+    </row>
+    <row r="122" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="49"/>
+      <c r="C122" s="37"/>
+      <c r="D122" s="37"/>
+      <c r="E122" s="37"/>
+      <c r="F122" s="46"/>
+      <c r="G122" s="37"/>
+      <c r="H122" s="37"/>
       <c r="I122" s="19"/>
       <c r="J122" s="19"/>
       <c r="K122" s="8"/>
-      <c r="L122" s="43" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M122" s="44" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="L122" s="32"/>
+      <c r="M122" s="33"/>
       <c r="N122" s="9"/>
+      <c r="O122" s="63"/>
+      <c r="P122" s="66"/>
+      <c r="Q122" s="78"/>
+      <c r="R122" s="77"/>
+      <c r="S122" s="69"/>
+      <c r="T122" s="72"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="95">
+    <mergeCell ref="R63:R92"/>
+    <mergeCell ref="P63:P92"/>
+    <mergeCell ref="T63:T92"/>
+    <mergeCell ref="S63:S72"/>
+    <mergeCell ref="S73:S82"/>
+    <mergeCell ref="S83:S92"/>
+    <mergeCell ref="Q73:Q82"/>
+    <mergeCell ref="Q63:Q72"/>
+    <mergeCell ref="Q83:Q92"/>
+    <mergeCell ref="T33:T62"/>
+    <mergeCell ref="O43:O52"/>
+    <mergeCell ref="O53:O62"/>
+    <mergeCell ref="Q33:Q42"/>
+    <mergeCell ref="Q43:Q52"/>
+    <mergeCell ref="Q53:Q62"/>
+    <mergeCell ref="S33:S42"/>
+    <mergeCell ref="S43:S52"/>
+    <mergeCell ref="S53:S62"/>
+    <mergeCell ref="Q3:Q12"/>
+    <mergeCell ref="Q13:Q22"/>
+    <mergeCell ref="Q23:Q32"/>
+    <mergeCell ref="R3:R32"/>
+    <mergeCell ref="O33:O42"/>
+    <mergeCell ref="P33:P62"/>
+    <mergeCell ref="R33:R62"/>
+    <mergeCell ref="Q93:Q102"/>
+    <mergeCell ref="P93:P122"/>
+    <mergeCell ref="R93:R122"/>
+    <mergeCell ref="T93:T122"/>
+    <mergeCell ref="S93:S102"/>
+    <mergeCell ref="S103:S112"/>
+    <mergeCell ref="S113:S122"/>
+    <mergeCell ref="Q103:Q112"/>
+    <mergeCell ref="Q113:Q122"/>
+    <mergeCell ref="S3:S12"/>
+    <mergeCell ref="S13:S22"/>
+    <mergeCell ref="S23:S32"/>
+    <mergeCell ref="T3:T32"/>
+    <mergeCell ref="P3:P32"/>
+    <mergeCell ref="G113:G122"/>
+    <mergeCell ref="H113:H122"/>
+    <mergeCell ref="G83:G92"/>
+    <mergeCell ref="H83:H92"/>
+    <mergeCell ref="O3:O12"/>
+    <mergeCell ref="O13:O22"/>
+    <mergeCell ref="O23:O32"/>
+    <mergeCell ref="O93:O102"/>
+    <mergeCell ref="O103:O112"/>
+    <mergeCell ref="O113:O122"/>
+    <mergeCell ref="O63:O72"/>
+    <mergeCell ref="O83:O92"/>
+    <mergeCell ref="O73:O82"/>
+    <mergeCell ref="G93:G102"/>
+    <mergeCell ref="H93:H102"/>
+    <mergeCell ref="F103:F112"/>
+    <mergeCell ref="G103:G112"/>
+    <mergeCell ref="H103:H112"/>
+    <mergeCell ref="H63:H72"/>
+    <mergeCell ref="F73:F82"/>
+    <mergeCell ref="G73:G82"/>
+    <mergeCell ref="H73:H82"/>
+    <mergeCell ref="F83:F92"/>
+    <mergeCell ref="F63:F72"/>
+    <mergeCell ref="G63:G72"/>
+    <mergeCell ref="H33:H42"/>
+    <mergeCell ref="F43:F52"/>
+    <mergeCell ref="G43:G52"/>
+    <mergeCell ref="H43:H52"/>
+    <mergeCell ref="F53:F62"/>
+    <mergeCell ref="G53:G62"/>
+    <mergeCell ref="H53:H62"/>
+    <mergeCell ref="G33:G42"/>
+    <mergeCell ref="H3:H12"/>
+    <mergeCell ref="F13:F22"/>
+    <mergeCell ref="G13:G22"/>
+    <mergeCell ref="H13:H22"/>
+    <mergeCell ref="F23:F32"/>
+    <mergeCell ref="G23:G32"/>
+    <mergeCell ref="H23:H32"/>
+    <mergeCell ref="G3:G12"/>
     <mergeCell ref="B3:B122"/>
     <mergeCell ref="C3:C62"/>
     <mergeCell ref="D3:D32"/>
@@ -6743,47 +7825,15 @@
     <mergeCell ref="D33:D62"/>
     <mergeCell ref="E33:E62"/>
     <mergeCell ref="F33:F42"/>
-    <mergeCell ref="H3:H12"/>
-    <mergeCell ref="F13:F22"/>
-    <mergeCell ref="G13:G22"/>
-    <mergeCell ref="H13:H22"/>
-    <mergeCell ref="F23:F32"/>
-    <mergeCell ref="G23:G32"/>
-    <mergeCell ref="H23:H32"/>
-    <mergeCell ref="G3:G12"/>
-    <mergeCell ref="H33:H42"/>
-    <mergeCell ref="F43:F52"/>
-    <mergeCell ref="G43:G52"/>
-    <mergeCell ref="H43:H52"/>
-    <mergeCell ref="F53:F62"/>
-    <mergeCell ref="G53:G62"/>
-    <mergeCell ref="H53:H62"/>
-    <mergeCell ref="G33:G42"/>
-    <mergeCell ref="H63:H72"/>
-    <mergeCell ref="F73:F82"/>
-    <mergeCell ref="G73:G82"/>
-    <mergeCell ref="H73:H82"/>
-    <mergeCell ref="F83:F92"/>
     <mergeCell ref="C63:C122"/>
     <mergeCell ref="D63:D92"/>
     <mergeCell ref="E63:E92"/>
-    <mergeCell ref="F63:F72"/>
-    <mergeCell ref="G63:G72"/>
     <mergeCell ref="D93:D122"/>
     <mergeCell ref="E93:E122"/>
     <mergeCell ref="F93:F102"/>
-    <mergeCell ref="G93:G102"/>
-    <mergeCell ref="H93:H102"/>
-    <mergeCell ref="F103:F112"/>
-    <mergeCell ref="G103:G112"/>
-    <mergeCell ref="H103:H112"/>
     <mergeCell ref="F113:F122"/>
-    <mergeCell ref="G113:G122"/>
-    <mergeCell ref="H113:H122"/>
-    <mergeCell ref="G83:G92"/>
-    <mergeCell ref="H83:H92"/>
   </mergeCells>
-  <conditionalFormatting sqref="N97:N116 N37:N95 N17:N26 N2:N15 N118:N1048576 N28:N35">
+  <conditionalFormatting sqref="N97:N116 N17:N26 N2:N15 N118:N1048576 N28:N35 N37:N95">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -6795,7 +7845,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K97:K116 K37:K95 K17:K26 K1:M4 N1 K123:M1048576 K28:K35 K118:K122 K5:K15 L5:M122">
+  <conditionalFormatting sqref="K97:K116 K17:K26 K1:M4 N1 K123:M1048576 K28:K35 K118:K122 K5:K15 L5:M122 K37:K95">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1094" documentId="8_{F6C52FA1-06A6-4BA5-A029-C2E64A93D517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF0EEA2B-B688-4174-B83C-A3E8641996DC}"/>
   <bookViews>
-    <workbookView xWindow="6510" yWindow="1635" windowWidth="28800" windowHeight="15600" activeTab="1" xr2:uid="{C9739BE2-A4AE-4755-88B7-610C6B0CB3CA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" activeTab="1" xr2:uid="{C9739BE2-A4AE-4755-88B7-610C6B0CB3CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -814,21 +814,60 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -841,40 +880,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -886,67 +895,58 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1319,25 +1319,25 @@
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="56">
+      <c r="B3" s="69">
         <v>0.01</v>
       </c>
-      <c r="C3" s="60">
+      <c r="C3" s="64">
         <v>2</v>
       </c>
-      <c r="D3" s="60">
+      <c r="D3" s="64">
         <v>2</v>
       </c>
-      <c r="E3" s="60">
+      <c r="E3" s="64">
         <v>16</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="60">
+      <c r="G3" s="64">
         <v>0.45</v>
       </c>
-      <c r="H3" s="61">
+      <c r="H3" s="65">
         <v>176667.9</v>
       </c>
       <c r="I3" s="10" t="s">
@@ -1351,12 +1351,12 @@
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="57"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="62"/>
       <c r="I4" s="14" t="s">
         <v>10</v>
@@ -1369,12 +1369,12 @@
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="57"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
       <c r="H5" s="62"/>
       <c r="I5" s="14" t="s">
         <v>14</v>
@@ -1387,12 +1387,12 @@
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="57"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
       <c r="H6" s="62"/>
       <c r="I6" s="14" t="s">
         <v>15</v>
@@ -1405,12 +1405,12 @@
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="57"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
       <c r="H7" s="62"/>
       <c r="I7" s="14" t="s">
         <v>16</v>
@@ -1435,12 +1435,12 @@
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="57"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
       <c r="H8" s="62"/>
       <c r="I8" s="14" t="s">
         <v>17</v>
@@ -1453,12 +1453,12 @@
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="57"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
       <c r="H9" s="62"/>
       <c r="I9" s="14" t="s">
         <v>18</v>
@@ -1471,12 +1471,12 @@
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="57"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
       <c r="H10" s="62"/>
       <c r="I10" s="14" t="s">
         <v>19</v>
@@ -1489,41 +1489,41 @@
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="57"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
       <c r="H11" s="62"/>
       <c r="I11" s="14"/>
       <c r="J11" s="15"/>
       <c r="K11" s="6"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="57"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="52"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="61"/>
       <c r="H12" s="63"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
       <c r="K12" s="6"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="57"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="53" t="s">
+      <c r="B13" s="70"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="50">
+      <c r="G13" s="60">
         <v>0.72914400000000001</v>
       </c>
-      <c r="H13" s="64">
+      <c r="H13" s="57">
         <v>4359112</v>
       </c>
       <c r="I13" s="14" t="s">
@@ -1537,13 +1537,13 @@
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="57"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
       <c r="I14" s="14" t="s">
         <v>10</v>
       </c>
@@ -1555,13 +1555,13 @@
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="57"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
       <c r="I15" s="14" t="s">
         <v>14</v>
       </c>
@@ -1573,13 +1573,13 @@
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="57"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
       <c r="I16" s="14" t="s">
         <v>15</v>
       </c>
@@ -1591,13 +1591,13 @@
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="57"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
       <c r="I17" s="14" t="s">
         <v>16</v>
       </c>
@@ -1625,13 +1625,13 @@
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="57"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
       <c r="I18" s="14" t="s">
         <v>17</v>
       </c>
@@ -1643,13 +1643,13 @@
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="57"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
       <c r="I19" s="14" t="s">
         <v>18</v>
       </c>
@@ -1661,13 +1661,13 @@
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="57"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
       <c r="I20" s="14" t="s">
         <v>19</v>
       </c>
@@ -1679,41 +1679,41 @@
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="57"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
       <c r="I21" s="14"/>
       <c r="J21" s="15"/>
       <c r="K21" s="6"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="57"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
       <c r="K22" s="6"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="57"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="54" t="s">
+      <c r="B23" s="70"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="50">
+      <c r="G23" s="60">
         <v>0.340559</v>
       </c>
-      <c r="H23" s="64">
+      <c r="H23" s="57">
         <v>4038082</v>
       </c>
       <c r="I23" s="14" t="s">
@@ -1727,13 +1727,13 @@
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="57"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
       <c r="I24" s="14" t="s">
         <v>10</v>
       </c>
@@ -1745,13 +1745,13 @@
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="57"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
       <c r="I25" s="14" t="s">
         <v>14</v>
       </c>
@@ -1763,13 +1763,13 @@
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="57"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
       <c r="I26" s="14" t="s">
         <v>15</v>
       </c>
@@ -1777,13 +1777,13 @@
       <c r="K26" s="6"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="57"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
       <c r="I27" s="14" t="s">
         <v>16</v>
       </c>
@@ -1799,13 +1799,13 @@
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="57"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
       <c r="I28" s="14" t="s">
         <v>17</v>
       </c>
@@ -1813,13 +1813,13 @@
       <c r="K28" s="6"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="57"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
       <c r="I29" s="14" t="s">
         <v>18</v>
       </c>
@@ -1827,13 +1827,13 @@
       <c r="K29" s="6"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="57"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
       <c r="I30" s="14" t="s">
         <v>19</v>
       </c>
@@ -1841,45 +1841,45 @@
       <c r="K30" s="6"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="57"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
       <c r="K31" s="6"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="57"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
       <c r="I32" s="14"/>
       <c r="J32" s="14"/>
       <c r="K32" s="6"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="57"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="50">
+      <c r="B33" s="70"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="60">
         <v>4</v>
       </c>
-      <c r="E33" s="50">
+      <c r="E33" s="60">
         <v>256</v>
       </c>
-      <c r="F33" s="50" t="s">
+      <c r="F33" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="G33" s="50">
+      <c r="G33" s="60">
         <v>101.49420600000001</v>
       </c>
-      <c r="H33" s="64">
+      <c r="H33" s="57">
         <v>212488.9</v>
       </c>
       <c r="I33" s="14" t="s">
@@ -1893,12 +1893,12 @@
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="57"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
       <c r="H34" s="62"/>
       <c r="I34" s="14" t="s">
         <v>10</v>
@@ -1911,12 +1911,12 @@
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="57"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
       <c r="H35" s="62"/>
       <c r="I35" s="14" t="s">
         <v>14</v>
@@ -1929,12 +1929,12 @@
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="57"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
       <c r="H36" s="62"/>
       <c r="I36" s="14" t="s">
         <v>15</v>
@@ -1947,12 +1947,12 @@
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="57"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
       <c r="H37" s="62"/>
       <c r="I37" s="14" t="s">
         <v>16</v>
@@ -1977,12 +1977,12 @@
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="57"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
       <c r="H38" s="62"/>
       <c r="I38" s="14" t="s">
         <v>17</v>
@@ -1995,12 +1995,12 @@
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="57"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
       <c r="H39" s="62"/>
       <c r="I39" s="14" t="s">
         <v>18</v>
@@ -2013,12 +2013,12 @@
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="57"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="58"/>
       <c r="H40" s="62"/>
       <c r="I40" s="14" t="s">
         <v>19</v>
@@ -2031,41 +2031,41 @@
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="57"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
       <c r="H41" s="62"/>
       <c r="I41" s="14"/>
       <c r="J41" s="15"/>
       <c r="K41" s="6"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="57"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="52"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
       <c r="H42" s="63"/>
       <c r="I42" s="14"/>
       <c r="J42" s="14"/>
       <c r="K42" s="6"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B43" s="57"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="53" t="s">
+      <c r="B43" s="70"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="G43" s="50">
+      <c r="G43" s="60">
         <v>115.934093</v>
       </c>
-      <c r="H43" s="64">
+      <c r="H43" s="57">
         <v>3701125</v>
       </c>
       <c r="I43" s="14" t="s">
@@ -2079,13 +2079,13 @@
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="57"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51"/>
+      <c r="B44" s="70"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="58"/>
       <c r="I44" s="14" t="s">
         <v>10</v>
       </c>
@@ -2097,13 +2097,13 @@
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B45" s="57"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51"/>
+      <c r="B45" s="70"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
       <c r="I45" s="14" t="s">
         <v>14</v>
       </c>
@@ -2115,13 +2115,13 @@
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B46" s="57"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="51"/>
+      <c r="B46" s="70"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="58"/>
       <c r="I46" s="14" t="s">
         <v>15</v>
       </c>
@@ -2133,13 +2133,13 @@
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B47" s="57"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="51"/>
+      <c r="B47" s="70"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="58"/>
       <c r="I47" s="14" t="s">
         <v>16</v>
       </c>
@@ -2167,13 +2167,13 @@
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B48" s="57"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="53"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="51"/>
+      <c r="B48" s="70"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="58"/>
       <c r="I48" s="14" t="s">
         <v>17</v>
       </c>
@@ -2185,13 +2185,13 @@
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B49" s="57"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="51"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="51"/>
-      <c r="H49" s="51"/>
+      <c r="B49" s="70"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="58"/>
       <c r="I49" s="14" t="s">
         <v>18</v>
       </c>
@@ -2203,13 +2203,13 @@
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B50" s="57"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="51"/>
-      <c r="E50" s="51"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="51"/>
+      <c r="B50" s="70"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="58"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="58"/>
       <c r="I50" s="14" t="s">
         <v>19</v>
       </c>
@@ -2221,41 +2221,41 @@
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B51" s="57"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="51"/>
-      <c r="F51" s="53"/>
-      <c r="G51" s="51"/>
-      <c r="H51" s="51"/>
+      <c r="B51" s="70"/>
+      <c r="C51" s="58"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="58"/>
+      <c r="H51" s="58"/>
       <c r="I51" s="14"/>
       <c r="J51" s="15"/>
       <c r="K51" s="6"/>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B52" s="57"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="51"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="52"/>
-      <c r="H52" s="52"/>
+      <c r="B52" s="70"/>
+      <c r="C52" s="58"/>
+      <c r="D52" s="58"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="61"/>
+      <c r="H52" s="61"/>
       <c r="I52" s="14"/>
       <c r="J52" s="14"/>
       <c r="K52" s="6"/>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B53" s="57"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="51"/>
-      <c r="F53" s="54" t="s">
+      <c r="B53" s="70"/>
+      <c r="C53" s="58"/>
+      <c r="D53" s="58"/>
+      <c r="E53" s="58"/>
+      <c r="F53" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="G53" s="50">
+      <c r="G53" s="60">
         <v>97.172319000000002</v>
       </c>
-      <c r="H53" s="64">
+      <c r="H53" s="57">
         <v>4766750</v>
       </c>
       <c r="I53" s="14" t="s">
@@ -2269,13 +2269,13 @@
       </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B54" s="57"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51"/>
-      <c r="E54" s="51"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="51"/>
-      <c r="H54" s="51"/>
+      <c r="B54" s="70"/>
+      <c r="C54" s="58"/>
+      <c r="D54" s="58"/>
+      <c r="E54" s="58"/>
+      <c r="F54" s="66"/>
+      <c r="G54" s="58"/>
+      <c r="H54" s="58"/>
       <c r="I54" s="14" t="s">
         <v>10</v>
       </c>
@@ -2287,13 +2287,13 @@
       </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B55" s="57"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="51"/>
-      <c r="F55" s="54"/>
-      <c r="G55" s="51"/>
-      <c r="H55" s="51"/>
+      <c r="B55" s="70"/>
+      <c r="C55" s="58"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="58"/>
+      <c r="F55" s="66"/>
+      <c r="G55" s="58"/>
+      <c r="H55" s="58"/>
       <c r="I55" s="14" t="s">
         <v>14</v>
       </c>
@@ -2301,13 +2301,13 @@
       <c r="K55" s="6"/>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B56" s="57"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="51"/>
-      <c r="E56" s="51"/>
-      <c r="F56" s="54"/>
-      <c r="G56" s="51"/>
-      <c r="H56" s="51"/>
+      <c r="B56" s="70"/>
+      <c r="C56" s="58"/>
+      <c r="D56" s="58"/>
+      <c r="E56" s="58"/>
+      <c r="F56" s="66"/>
+      <c r="G56" s="58"/>
+      <c r="H56" s="58"/>
       <c r="I56" s="14" t="s">
         <v>15</v>
       </c>
@@ -2315,13 +2315,13 @@
       <c r="K56" s="6"/>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B57" s="57"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
-      <c r="E57" s="51"/>
-      <c r="F57" s="54"/>
-      <c r="G57" s="51"/>
-      <c r="H57" s="51"/>
+      <c r="B57" s="70"/>
+      <c r="C57" s="58"/>
+      <c r="D57" s="58"/>
+      <c r="E57" s="58"/>
+      <c r="F57" s="66"/>
+      <c r="G57" s="58"/>
+      <c r="H57" s="58"/>
       <c r="I57" s="14" t="s">
         <v>16</v>
       </c>
@@ -2337,13 +2337,13 @@
       </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B58" s="57"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51"/>
-      <c r="E58" s="51"/>
-      <c r="F58" s="54"/>
-      <c r="G58" s="51"/>
-      <c r="H58" s="51"/>
+      <c r="B58" s="70"/>
+      <c r="C58" s="58"/>
+      <c r="D58" s="58"/>
+      <c r="E58" s="58"/>
+      <c r="F58" s="66"/>
+      <c r="G58" s="58"/>
+      <c r="H58" s="58"/>
       <c r="I58" s="14" t="s">
         <v>17</v>
       </c>
@@ -2351,13 +2351,13 @@
       <c r="K58" s="6"/>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B59" s="57"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="51"/>
-      <c r="E59" s="51"/>
-      <c r="F59" s="54"/>
-      <c r="G59" s="51"/>
-      <c r="H59" s="51"/>
+      <c r="B59" s="70"/>
+      <c r="C59" s="58"/>
+      <c r="D59" s="58"/>
+      <c r="E59" s="58"/>
+      <c r="F59" s="66"/>
+      <c r="G59" s="58"/>
+      <c r="H59" s="58"/>
       <c r="I59" s="14" t="s">
         <v>18</v>
       </c>
@@ -2365,13 +2365,13 @@
       <c r="K59" s="6"/>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B60" s="57"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51"/>
-      <c r="E60" s="51"/>
-      <c r="F60" s="54"/>
-      <c r="G60" s="51"/>
-      <c r="H60" s="51"/>
+      <c r="B60" s="70"/>
+      <c r="C60" s="58"/>
+      <c r="D60" s="58"/>
+      <c r="E60" s="58"/>
+      <c r="F60" s="66"/>
+      <c r="G60" s="58"/>
+      <c r="H60" s="58"/>
       <c r="I60" s="14" t="s">
         <v>19</v>
       </c>
@@ -2379,47 +2379,47 @@
       <c r="K60" s="6"/>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B61" s="57"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51"/>
-      <c r="E61" s="51"/>
-      <c r="F61" s="54"/>
-      <c r="G61" s="51"/>
-      <c r="H61" s="51"/>
+      <c r="B61" s="70"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="58"/>
+      <c r="E61" s="58"/>
+      <c r="F61" s="66"/>
+      <c r="G61" s="58"/>
+      <c r="H61" s="58"/>
       <c r="I61" s="14"/>
       <c r="J61" s="14"/>
       <c r="K61" s="6"/>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B62" s="57"/>
-      <c r="C62" s="51"/>
-      <c r="D62" s="51"/>
-      <c r="E62" s="51"/>
-      <c r="F62" s="54"/>
-      <c r="G62" s="52"/>
-      <c r="H62" s="52"/>
+      <c r="B62" s="70"/>
+      <c r="C62" s="58"/>
+      <c r="D62" s="58"/>
+      <c r="E62" s="58"/>
+      <c r="F62" s="66"/>
+      <c r="G62" s="61"/>
+      <c r="H62" s="61"/>
       <c r="I62" s="16"/>
       <c r="J62" s="16"/>
       <c r="K62" s="7"/>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B63" s="57"/>
-      <c r="C63" s="50">
+      <c r="B63" s="70"/>
+      <c r="C63" s="60">
         <v>4</v>
       </c>
-      <c r="D63" s="50">
+      <c r="D63" s="60">
         <v>1</v>
       </c>
-      <c r="E63" s="50">
+      <c r="E63" s="60">
         <v>16</v>
       </c>
-      <c r="F63" s="51" t="s">
+      <c r="F63" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="G63" s="50">
+      <c r="G63" s="60">
         <v>0.317722</v>
       </c>
-      <c r="H63" s="64">
+      <c r="H63" s="57">
         <v>474584.2</v>
       </c>
       <c r="I63" s="14" t="s">
@@ -2433,12 +2433,12 @@
       </c>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B64" s="57"/>
-      <c r="C64" s="51"/>
-      <c r="D64" s="51"/>
-      <c r="E64" s="51"/>
-      <c r="F64" s="51"/>
-      <c r="G64" s="51"/>
+      <c r="B64" s="70"/>
+      <c r="C64" s="58"/>
+      <c r="D64" s="58"/>
+      <c r="E64" s="58"/>
+      <c r="F64" s="58"/>
+      <c r="G64" s="58"/>
       <c r="H64" s="62"/>
       <c r="I64" s="14" t="s">
         <v>10</v>
@@ -2451,12 +2451,12 @@
       </c>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B65" s="57"/>
-      <c r="C65" s="51"/>
-      <c r="D65" s="51"/>
-      <c r="E65" s="51"/>
-      <c r="F65" s="51"/>
-      <c r="G65" s="51"/>
+      <c r="B65" s="70"/>
+      <c r="C65" s="58"/>
+      <c r="D65" s="58"/>
+      <c r="E65" s="58"/>
+      <c r="F65" s="58"/>
+      <c r="G65" s="58"/>
       <c r="H65" s="62"/>
       <c r="I65" s="14" t="s">
         <v>14</v>
@@ -2469,12 +2469,12 @@
       </c>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B66" s="57"/>
-      <c r="C66" s="51"/>
-      <c r="D66" s="51"/>
-      <c r="E66" s="51"/>
-      <c r="F66" s="51"/>
-      <c r="G66" s="51"/>
+      <c r="B66" s="70"/>
+      <c r="C66" s="58"/>
+      <c r="D66" s="58"/>
+      <c r="E66" s="58"/>
+      <c r="F66" s="58"/>
+      <c r="G66" s="58"/>
       <c r="H66" s="62"/>
       <c r="I66" s="14" t="s">
         <v>15</v>
@@ -2487,12 +2487,12 @@
       </c>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B67" s="57"/>
-      <c r="C67" s="51"/>
-      <c r="D67" s="51"/>
-      <c r="E67" s="51"/>
-      <c r="F67" s="51"/>
-      <c r="G67" s="51"/>
+      <c r="B67" s="70"/>
+      <c r="C67" s="58"/>
+      <c r="D67" s="58"/>
+      <c r="E67" s="58"/>
+      <c r="F67" s="58"/>
+      <c r="G67" s="58"/>
       <c r="H67" s="62"/>
       <c r="I67" s="14" t="s">
         <v>16</v>
@@ -2517,12 +2517,12 @@
       </c>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B68" s="57"/>
-      <c r="C68" s="51"/>
-      <c r="D68" s="51"/>
-      <c r="E68" s="51"/>
-      <c r="F68" s="51"/>
-      <c r="G68" s="51"/>
+      <c r="B68" s="70"/>
+      <c r="C68" s="58"/>
+      <c r="D68" s="58"/>
+      <c r="E68" s="58"/>
+      <c r="F68" s="58"/>
+      <c r="G68" s="58"/>
       <c r="H68" s="62"/>
       <c r="I68" s="14" t="s">
         <v>17</v>
@@ -2535,12 +2535,12 @@
       </c>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B69" s="57"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
-      <c r="E69" s="51"/>
-      <c r="F69" s="51"/>
-      <c r="G69" s="51"/>
+      <c r="B69" s="70"/>
+      <c r="C69" s="58"/>
+      <c r="D69" s="58"/>
+      <c r="E69" s="58"/>
+      <c r="F69" s="58"/>
+      <c r="G69" s="58"/>
       <c r="H69" s="62"/>
       <c r="I69" s="14" t="s">
         <v>18</v>
@@ -2553,12 +2553,12 @@
       </c>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B70" s="57"/>
-      <c r="C70" s="51"/>
-      <c r="D70" s="51"/>
-      <c r="E70" s="51"/>
-      <c r="F70" s="51"/>
-      <c r="G70" s="51"/>
+      <c r="B70" s="70"/>
+      <c r="C70" s="58"/>
+      <c r="D70" s="58"/>
+      <c r="E70" s="58"/>
+      <c r="F70" s="58"/>
+      <c r="G70" s="58"/>
       <c r="H70" s="62"/>
       <c r="I70" s="14" t="s">
         <v>19</v>
@@ -2571,41 +2571,41 @@
       </c>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B71" s="57"/>
-      <c r="C71" s="51"/>
-      <c r="D71" s="51"/>
-      <c r="E71" s="51"/>
-      <c r="F71" s="51"/>
-      <c r="G71" s="51"/>
+      <c r="B71" s="70"/>
+      <c r="C71" s="58"/>
+      <c r="D71" s="58"/>
+      <c r="E71" s="58"/>
+      <c r="F71" s="58"/>
+      <c r="G71" s="58"/>
       <c r="H71" s="62"/>
       <c r="I71" s="14"/>
       <c r="J71" s="15"/>
       <c r="K71" s="6"/>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B72" s="57"/>
-      <c r="C72" s="51"/>
-      <c r="D72" s="51"/>
-      <c r="E72" s="51"/>
-      <c r="F72" s="51"/>
-      <c r="G72" s="52"/>
+      <c r="B72" s="70"/>
+      <c r="C72" s="58"/>
+      <c r="D72" s="58"/>
+      <c r="E72" s="58"/>
+      <c r="F72" s="58"/>
+      <c r="G72" s="61"/>
       <c r="H72" s="63"/>
       <c r="I72" s="14"/>
       <c r="J72" s="14"/>
       <c r="K72" s="6"/>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B73" s="57"/>
-      <c r="C73" s="51"/>
-      <c r="D73" s="51"/>
-      <c r="E73" s="51"/>
-      <c r="F73" s="53" t="s">
+      <c r="B73" s="70"/>
+      <c r="C73" s="58"/>
+      <c r="D73" s="58"/>
+      <c r="E73" s="58"/>
+      <c r="F73" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="G73" s="50">
+      <c r="G73" s="60">
         <v>0.38735700000000001</v>
       </c>
-      <c r="H73" s="64">
+      <c r="H73" s="57">
         <v>16262100</v>
       </c>
       <c r="I73" s="14" t="s">
@@ -2619,13 +2619,13 @@
       </c>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B74" s="57"/>
-      <c r="C74" s="51"/>
-      <c r="D74" s="51"/>
-      <c r="E74" s="51"/>
-      <c r="F74" s="53"/>
-      <c r="G74" s="51"/>
-      <c r="H74" s="51"/>
+      <c r="B74" s="70"/>
+      <c r="C74" s="58"/>
+      <c r="D74" s="58"/>
+      <c r="E74" s="58"/>
+      <c r="F74" s="67"/>
+      <c r="G74" s="58"/>
+      <c r="H74" s="58"/>
       <c r="I74" s="14" t="s">
         <v>10</v>
       </c>
@@ -2637,13 +2637,13 @@
       </c>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B75" s="57"/>
-      <c r="C75" s="51"/>
-      <c r="D75" s="51"/>
-      <c r="E75" s="51"/>
-      <c r="F75" s="53"/>
-      <c r="G75" s="51"/>
-      <c r="H75" s="51"/>
+      <c r="B75" s="70"/>
+      <c r="C75" s="58"/>
+      <c r="D75" s="58"/>
+      <c r="E75" s="58"/>
+      <c r="F75" s="67"/>
+      <c r="G75" s="58"/>
+      <c r="H75" s="58"/>
       <c r="I75" s="14" t="s">
         <v>14</v>
       </c>
@@ -2655,13 +2655,13 @@
       </c>
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B76" s="57"/>
-      <c r="C76" s="51"/>
-      <c r="D76" s="51"/>
-      <c r="E76" s="51"/>
-      <c r="F76" s="53"/>
-      <c r="G76" s="51"/>
-      <c r="H76" s="51"/>
+      <c r="B76" s="70"/>
+      <c r="C76" s="58"/>
+      <c r="D76" s="58"/>
+      <c r="E76" s="58"/>
+      <c r="F76" s="67"/>
+      <c r="G76" s="58"/>
+      <c r="H76" s="58"/>
       <c r="I76" s="14" t="s">
         <v>15</v>
       </c>
@@ -2673,13 +2673,13 @@
       </c>
     </row>
     <row r="77" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B77" s="57"/>
-      <c r="C77" s="51"/>
-      <c r="D77" s="51"/>
-      <c r="E77" s="51"/>
-      <c r="F77" s="53"/>
-      <c r="G77" s="51"/>
-      <c r="H77" s="51"/>
+      <c r="B77" s="70"/>
+      <c r="C77" s="58"/>
+      <c r="D77" s="58"/>
+      <c r="E77" s="58"/>
+      <c r="F77" s="67"/>
+      <c r="G77" s="58"/>
+      <c r="H77" s="58"/>
       <c r="I77" s="14" t="s">
         <v>16</v>
       </c>
@@ -2707,13 +2707,13 @@
       </c>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B78" s="57"/>
-      <c r="C78" s="51"/>
-      <c r="D78" s="51"/>
-      <c r="E78" s="51"/>
-      <c r="F78" s="53"/>
-      <c r="G78" s="51"/>
-      <c r="H78" s="51"/>
+      <c r="B78" s="70"/>
+      <c r="C78" s="58"/>
+      <c r="D78" s="58"/>
+      <c r="E78" s="58"/>
+      <c r="F78" s="67"/>
+      <c r="G78" s="58"/>
+      <c r="H78" s="58"/>
       <c r="I78" s="14" t="s">
         <v>17</v>
       </c>
@@ -2725,13 +2725,13 @@
       </c>
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B79" s="57"/>
-      <c r="C79" s="51"/>
-      <c r="D79" s="51"/>
-      <c r="E79" s="51"/>
-      <c r="F79" s="53"/>
-      <c r="G79" s="51"/>
-      <c r="H79" s="51"/>
+      <c r="B79" s="70"/>
+      <c r="C79" s="58"/>
+      <c r="D79" s="58"/>
+      <c r="E79" s="58"/>
+      <c r="F79" s="67"/>
+      <c r="G79" s="58"/>
+      <c r="H79" s="58"/>
       <c r="I79" s="14" t="s">
         <v>18</v>
       </c>
@@ -2743,13 +2743,13 @@
       </c>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B80" s="57"/>
-      <c r="C80" s="51"/>
-      <c r="D80" s="51"/>
-      <c r="E80" s="51"/>
-      <c r="F80" s="53"/>
-      <c r="G80" s="51"/>
-      <c r="H80" s="51"/>
+      <c r="B80" s="70"/>
+      <c r="C80" s="58"/>
+      <c r="D80" s="58"/>
+      <c r="E80" s="58"/>
+      <c r="F80" s="67"/>
+      <c r="G80" s="58"/>
+      <c r="H80" s="58"/>
       <c r="I80" s="14" t="s">
         <v>19</v>
       </c>
@@ -2761,41 +2761,41 @@
       </c>
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B81" s="57"/>
-      <c r="C81" s="51"/>
-      <c r="D81" s="51"/>
-      <c r="E81" s="51"/>
-      <c r="F81" s="53"/>
-      <c r="G81" s="51"/>
-      <c r="H81" s="51"/>
+      <c r="B81" s="70"/>
+      <c r="C81" s="58"/>
+      <c r="D81" s="58"/>
+      <c r="E81" s="58"/>
+      <c r="F81" s="67"/>
+      <c r="G81" s="58"/>
+      <c r="H81" s="58"/>
       <c r="I81" s="14"/>
       <c r="J81" s="15"/>
       <c r="K81" s="6"/>
     </row>
     <row r="82" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B82" s="57"/>
-      <c r="C82" s="51"/>
-      <c r="D82" s="51"/>
-      <c r="E82" s="51"/>
-      <c r="F82" s="53"/>
-      <c r="G82" s="52"/>
-      <c r="H82" s="52"/>
+      <c r="B82" s="70"/>
+      <c r="C82" s="58"/>
+      <c r="D82" s="58"/>
+      <c r="E82" s="58"/>
+      <c r="F82" s="67"/>
+      <c r="G82" s="61"/>
+      <c r="H82" s="61"/>
       <c r="I82" s="14"/>
       <c r="J82" s="14"/>
       <c r="K82" s="6"/>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B83" s="57"/>
-      <c r="C83" s="51"/>
-      <c r="D83" s="51"/>
-      <c r="E83" s="51"/>
-      <c r="F83" s="54" t="s">
+      <c r="B83" s="70"/>
+      <c r="C83" s="58"/>
+      <c r="D83" s="58"/>
+      <c r="E83" s="58"/>
+      <c r="F83" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="G83" s="50">
+      <c r="G83" s="60">
         <v>0.73894599999999999</v>
       </c>
-      <c r="H83" s="64">
+      <c r="H83" s="57">
         <v>45744900</v>
       </c>
       <c r="I83" s="14" t="s">
@@ -2809,13 +2809,13 @@
       </c>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B84" s="57"/>
-      <c r="C84" s="51"/>
-      <c r="D84" s="51"/>
-      <c r="E84" s="51"/>
-      <c r="F84" s="54"/>
-      <c r="G84" s="51"/>
-      <c r="H84" s="51"/>
+      <c r="B84" s="70"/>
+      <c r="C84" s="58"/>
+      <c r="D84" s="58"/>
+      <c r="E84" s="58"/>
+      <c r="F84" s="66"/>
+      <c r="G84" s="58"/>
+      <c r="H84" s="58"/>
       <c r="I84" s="14" t="s">
         <v>10</v>
       </c>
@@ -2827,13 +2827,13 @@
       </c>
     </row>
     <row r="85" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B85" s="57"/>
-      <c r="C85" s="51"/>
-      <c r="D85" s="51"/>
-      <c r="E85" s="51"/>
-      <c r="F85" s="54"/>
-      <c r="G85" s="51"/>
-      <c r="H85" s="51"/>
+      <c r="B85" s="70"/>
+      <c r="C85" s="58"/>
+      <c r="D85" s="58"/>
+      <c r="E85" s="58"/>
+      <c r="F85" s="66"/>
+      <c r="G85" s="58"/>
+      <c r="H85" s="58"/>
       <c r="I85" s="14" t="s">
         <v>14</v>
       </c>
@@ -2841,13 +2841,13 @@
       <c r="K85" s="6"/>
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B86" s="57"/>
-      <c r="C86" s="51"/>
-      <c r="D86" s="51"/>
-      <c r="E86" s="51"/>
-      <c r="F86" s="54"/>
-      <c r="G86" s="51"/>
-      <c r="H86" s="51"/>
+      <c r="B86" s="70"/>
+      <c r="C86" s="58"/>
+      <c r="D86" s="58"/>
+      <c r="E86" s="58"/>
+      <c r="F86" s="66"/>
+      <c r="G86" s="58"/>
+      <c r="H86" s="58"/>
       <c r="I86" s="14" t="s">
         <v>15</v>
       </c>
@@ -2855,13 +2855,13 @@
       <c r="K86" s="6"/>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B87" s="57"/>
-      <c r="C87" s="51"/>
-      <c r="D87" s="51"/>
-      <c r="E87" s="51"/>
-      <c r="F87" s="54"/>
-      <c r="G87" s="51"/>
-      <c r="H87" s="51"/>
+      <c r="B87" s="70"/>
+      <c r="C87" s="58"/>
+      <c r="D87" s="58"/>
+      <c r="E87" s="58"/>
+      <c r="F87" s="66"/>
+      <c r="G87" s="58"/>
+      <c r="H87" s="58"/>
       <c r="I87" s="14" t="s">
         <v>16</v>
       </c>
@@ -2877,13 +2877,13 @@
       </c>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B88" s="57"/>
-      <c r="C88" s="51"/>
-      <c r="D88" s="51"/>
-      <c r="E88" s="51"/>
-      <c r="F88" s="54"/>
-      <c r="G88" s="51"/>
-      <c r="H88" s="51"/>
+      <c r="B88" s="70"/>
+      <c r="C88" s="58"/>
+      <c r="D88" s="58"/>
+      <c r="E88" s="58"/>
+      <c r="F88" s="66"/>
+      <c r="G88" s="58"/>
+      <c r="H88" s="58"/>
       <c r="I88" s="14" t="s">
         <v>17</v>
       </c>
@@ -2891,13 +2891,13 @@
       <c r="K88" s="6"/>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B89" s="57"/>
-      <c r="C89" s="51"/>
-      <c r="D89" s="51"/>
-      <c r="E89" s="51"/>
-      <c r="F89" s="54"/>
-      <c r="G89" s="51"/>
-      <c r="H89" s="51"/>
+      <c r="B89" s="70"/>
+      <c r="C89" s="58"/>
+      <c r="D89" s="58"/>
+      <c r="E89" s="58"/>
+      <c r="F89" s="66"/>
+      <c r="G89" s="58"/>
+      <c r="H89" s="58"/>
       <c r="I89" s="14" t="s">
         <v>18</v>
       </c>
@@ -2905,13 +2905,13 @@
       <c r="K89" s="6"/>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B90" s="57"/>
-      <c r="C90" s="51"/>
-      <c r="D90" s="51"/>
-      <c r="E90" s="51"/>
-      <c r="F90" s="54"/>
-      <c r="G90" s="51"/>
-      <c r="H90" s="51"/>
+      <c r="B90" s="70"/>
+      <c r="C90" s="58"/>
+      <c r="D90" s="58"/>
+      <c r="E90" s="58"/>
+      <c r="F90" s="66"/>
+      <c r="G90" s="58"/>
+      <c r="H90" s="58"/>
       <c r="I90" s="14" t="s">
         <v>19</v>
       </c>
@@ -2919,45 +2919,45 @@
       <c r="K90" s="6"/>
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B91" s="57"/>
-      <c r="C91" s="51"/>
-      <c r="D91" s="51"/>
-      <c r="E91" s="51"/>
-      <c r="F91" s="54"/>
-      <c r="G91" s="51"/>
-      <c r="H91" s="51"/>
+      <c r="B91" s="70"/>
+      <c r="C91" s="58"/>
+      <c r="D91" s="58"/>
+      <c r="E91" s="58"/>
+      <c r="F91" s="66"/>
+      <c r="G91" s="58"/>
+      <c r="H91" s="58"/>
       <c r="I91" s="14"/>
       <c r="J91" s="14"/>
       <c r="K91" s="6"/>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B92" s="57"/>
-      <c r="C92" s="51"/>
-      <c r="D92" s="51"/>
-      <c r="E92" s="51"/>
-      <c r="F92" s="54"/>
-      <c r="G92" s="52"/>
-      <c r="H92" s="52"/>
+      <c r="B92" s="70"/>
+      <c r="C92" s="58"/>
+      <c r="D92" s="58"/>
+      <c r="E92" s="58"/>
+      <c r="F92" s="66"/>
+      <c r="G92" s="61"/>
+      <c r="H92" s="61"/>
       <c r="I92" s="14"/>
       <c r="J92" s="14"/>
       <c r="K92" s="6"/>
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B93" s="57"/>
-      <c r="C93" s="51"/>
-      <c r="D93" s="50">
+      <c r="B93" s="70"/>
+      <c r="C93" s="58"/>
+      <c r="D93" s="60">
         <v>2</v>
       </c>
-      <c r="E93" s="50">
+      <c r="E93" s="60">
         <v>256</v>
       </c>
-      <c r="F93" s="50" t="s">
+      <c r="F93" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="G93" s="50">
+      <c r="G93" s="60">
         <v>84.790594999999996</v>
       </c>
-      <c r="H93" s="64">
+      <c r="H93" s="57">
         <v>2851762</v>
       </c>
       <c r="I93" s="14" t="s">
@@ -2971,12 +2971,12 @@
       </c>
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B94" s="57"/>
-      <c r="C94" s="51"/>
-      <c r="D94" s="51"/>
-      <c r="E94" s="51"/>
-      <c r="F94" s="51"/>
-      <c r="G94" s="51"/>
+      <c r="B94" s="70"/>
+      <c r="C94" s="58"/>
+      <c r="D94" s="58"/>
+      <c r="E94" s="58"/>
+      <c r="F94" s="58"/>
+      <c r="G94" s="58"/>
       <c r="H94" s="62"/>
       <c r="I94" s="14" t="s">
         <v>10</v>
@@ -2989,12 +2989,12 @@
       </c>
     </row>
     <row r="95" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B95" s="57"/>
-      <c r="C95" s="51"/>
-      <c r="D95" s="51"/>
-      <c r="E95" s="51"/>
-      <c r="F95" s="51"/>
-      <c r="G95" s="51"/>
+      <c r="B95" s="70"/>
+      <c r="C95" s="58"/>
+      <c r="D95" s="58"/>
+      <c r="E95" s="58"/>
+      <c r="F95" s="58"/>
+      <c r="G95" s="58"/>
       <c r="H95" s="62"/>
       <c r="I95" s="14" t="s">
         <v>14</v>
@@ -3007,12 +3007,12 @@
       </c>
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B96" s="57"/>
-      <c r="C96" s="51"/>
-      <c r="D96" s="51"/>
-      <c r="E96" s="51"/>
-      <c r="F96" s="51"/>
-      <c r="G96" s="51"/>
+      <c r="B96" s="70"/>
+      <c r="C96" s="58"/>
+      <c r="D96" s="58"/>
+      <c r="E96" s="58"/>
+      <c r="F96" s="58"/>
+      <c r="G96" s="58"/>
       <c r="H96" s="62"/>
       <c r="I96" s="14" t="s">
         <v>15</v>
@@ -3025,12 +3025,12 @@
       </c>
     </row>
     <row r="97" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B97" s="57"/>
-      <c r="C97" s="51"/>
-      <c r="D97" s="51"/>
-      <c r="E97" s="51"/>
-      <c r="F97" s="51"/>
-      <c r="G97" s="51"/>
+      <c r="B97" s="70"/>
+      <c r="C97" s="58"/>
+      <c r="D97" s="58"/>
+      <c r="E97" s="58"/>
+      <c r="F97" s="58"/>
+      <c r="G97" s="58"/>
       <c r="H97" s="62"/>
       <c r="I97" s="14" t="s">
         <v>16</v>
@@ -3055,12 +3055,12 @@
       </c>
     </row>
     <row r="98" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B98" s="57"/>
-      <c r="C98" s="51"/>
-      <c r="D98" s="51"/>
-      <c r="E98" s="51"/>
-      <c r="F98" s="51"/>
-      <c r="G98" s="51"/>
+      <c r="B98" s="70"/>
+      <c r="C98" s="58"/>
+      <c r="D98" s="58"/>
+      <c r="E98" s="58"/>
+      <c r="F98" s="58"/>
+      <c r="G98" s="58"/>
       <c r="H98" s="62"/>
       <c r="I98" s="14" t="s">
         <v>17</v>
@@ -3073,12 +3073,12 @@
       </c>
     </row>
     <row r="99" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B99" s="57"/>
-      <c r="C99" s="51"/>
-      <c r="D99" s="51"/>
-      <c r="E99" s="51"/>
-      <c r="F99" s="51"/>
-      <c r="G99" s="51"/>
+      <c r="B99" s="70"/>
+      <c r="C99" s="58"/>
+      <c r="D99" s="58"/>
+      <c r="E99" s="58"/>
+      <c r="F99" s="58"/>
+      <c r="G99" s="58"/>
       <c r="H99" s="62"/>
       <c r="I99" s="14" t="s">
         <v>18</v>
@@ -3091,12 +3091,12 @@
       </c>
     </row>
     <row r="100" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B100" s="57"/>
-      <c r="C100" s="51"/>
-      <c r="D100" s="51"/>
-      <c r="E100" s="51"/>
-      <c r="F100" s="51"/>
-      <c r="G100" s="51"/>
+      <c r="B100" s="70"/>
+      <c r="C100" s="58"/>
+      <c r="D100" s="58"/>
+      <c r="E100" s="58"/>
+      <c r="F100" s="58"/>
+      <c r="G100" s="58"/>
       <c r="H100" s="62"/>
       <c r="I100" s="14" t="s">
         <v>19</v>
@@ -3109,41 +3109,41 @@
       </c>
     </row>
     <row r="101" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B101" s="57"/>
-      <c r="C101" s="51"/>
-      <c r="D101" s="51"/>
-      <c r="E101" s="51"/>
-      <c r="F101" s="51"/>
-      <c r="G101" s="51"/>
+      <c r="B101" s="70"/>
+      <c r="C101" s="58"/>
+      <c r="D101" s="58"/>
+      <c r="E101" s="58"/>
+      <c r="F101" s="58"/>
+      <c r="G101" s="58"/>
       <c r="H101" s="62"/>
       <c r="I101" s="14"/>
       <c r="J101" s="14"/>
       <c r="K101" s="6"/>
     </row>
     <row r="102" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B102" s="57"/>
-      <c r="C102" s="51"/>
-      <c r="D102" s="51"/>
-      <c r="E102" s="51"/>
-      <c r="F102" s="52"/>
-      <c r="G102" s="52"/>
+      <c r="B102" s="70"/>
+      <c r="C102" s="58"/>
+      <c r="D102" s="58"/>
+      <c r="E102" s="58"/>
+      <c r="F102" s="61"/>
+      <c r="G102" s="61"/>
       <c r="H102" s="63"/>
       <c r="I102" s="14"/>
       <c r="J102" s="14"/>
       <c r="K102" s="6"/>
     </row>
     <row r="103" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B103" s="57"/>
-      <c r="C103" s="51"/>
-      <c r="D103" s="51"/>
-      <c r="E103" s="51"/>
-      <c r="F103" s="53" t="s">
+      <c r="B103" s="70"/>
+      <c r="C103" s="58"/>
+      <c r="D103" s="58"/>
+      <c r="E103" s="58"/>
+      <c r="F103" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="G103" s="50">
+      <c r="G103" s="60">
         <v>95.217349999999996</v>
       </c>
-      <c r="H103" s="64">
+      <c r="H103" s="57">
         <v>23730060</v>
       </c>
       <c r="I103" s="14" t="s">
@@ -3157,13 +3157,13 @@
       </c>
     </row>
     <row r="104" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B104" s="57"/>
-      <c r="C104" s="51"/>
-      <c r="D104" s="51"/>
-      <c r="E104" s="51"/>
-      <c r="F104" s="53"/>
-      <c r="G104" s="51"/>
-      <c r="H104" s="51"/>
+      <c r="B104" s="70"/>
+      <c r="C104" s="58"/>
+      <c r="D104" s="58"/>
+      <c r="E104" s="58"/>
+      <c r="F104" s="67"/>
+      <c r="G104" s="58"/>
+      <c r="H104" s="58"/>
       <c r="I104" s="14" t="s">
         <v>10</v>
       </c>
@@ -3175,13 +3175,13 @@
       </c>
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B105" s="57"/>
-      <c r="C105" s="51"/>
-      <c r="D105" s="51"/>
-      <c r="E105" s="51"/>
-      <c r="F105" s="53"/>
-      <c r="G105" s="51"/>
-      <c r="H105" s="51"/>
+      <c r="B105" s="70"/>
+      <c r="C105" s="58"/>
+      <c r="D105" s="58"/>
+      <c r="E105" s="58"/>
+      <c r="F105" s="67"/>
+      <c r="G105" s="58"/>
+      <c r="H105" s="58"/>
       <c r="I105" s="14" t="s">
         <v>14</v>
       </c>
@@ -3193,13 +3193,13 @@
       </c>
     </row>
     <row r="106" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B106" s="57"/>
-      <c r="C106" s="51"/>
-      <c r="D106" s="51"/>
-      <c r="E106" s="51"/>
-      <c r="F106" s="53"/>
-      <c r="G106" s="51"/>
-      <c r="H106" s="51"/>
+      <c r="B106" s="70"/>
+      <c r="C106" s="58"/>
+      <c r="D106" s="58"/>
+      <c r="E106" s="58"/>
+      <c r="F106" s="67"/>
+      <c r="G106" s="58"/>
+      <c r="H106" s="58"/>
       <c r="I106" s="14" t="s">
         <v>15</v>
       </c>
@@ -3211,13 +3211,13 @@
       </c>
     </row>
     <row r="107" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B107" s="57"/>
-      <c r="C107" s="51"/>
-      <c r="D107" s="51"/>
-      <c r="E107" s="51"/>
-      <c r="F107" s="53"/>
-      <c r="G107" s="51"/>
-      <c r="H107" s="51"/>
+      <c r="B107" s="70"/>
+      <c r="C107" s="58"/>
+      <c r="D107" s="58"/>
+      <c r="E107" s="58"/>
+      <c r="F107" s="67"/>
+      <c r="G107" s="58"/>
+      <c r="H107" s="58"/>
       <c r="I107" s="14" t="s">
         <v>16</v>
       </c>
@@ -3245,13 +3245,13 @@
       </c>
     </row>
     <row r="108" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B108" s="57"/>
-      <c r="C108" s="51"/>
-      <c r="D108" s="51"/>
-      <c r="E108" s="51"/>
-      <c r="F108" s="53"/>
-      <c r="G108" s="51"/>
-      <c r="H108" s="51"/>
+      <c r="B108" s="70"/>
+      <c r="C108" s="58"/>
+      <c r="D108" s="58"/>
+      <c r="E108" s="58"/>
+      <c r="F108" s="67"/>
+      <c r="G108" s="58"/>
+      <c r="H108" s="58"/>
       <c r="I108" s="14" t="s">
         <v>17</v>
       </c>
@@ -3263,13 +3263,13 @@
       </c>
     </row>
     <row r="109" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B109" s="57"/>
-      <c r="C109" s="51"/>
-      <c r="D109" s="51"/>
-      <c r="E109" s="51"/>
-      <c r="F109" s="53"/>
-      <c r="G109" s="51"/>
-      <c r="H109" s="51"/>
+      <c r="B109" s="70"/>
+      <c r="C109" s="58"/>
+      <c r="D109" s="58"/>
+      <c r="E109" s="58"/>
+      <c r="F109" s="67"/>
+      <c r="G109" s="58"/>
+      <c r="H109" s="58"/>
       <c r="I109" s="14" t="s">
         <v>18</v>
       </c>
@@ -3281,13 +3281,13 @@
       </c>
     </row>
     <row r="110" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B110" s="57"/>
-      <c r="C110" s="51"/>
-      <c r="D110" s="51"/>
-      <c r="E110" s="51"/>
-      <c r="F110" s="53"/>
-      <c r="G110" s="51"/>
-      <c r="H110" s="51"/>
+      <c r="B110" s="70"/>
+      <c r="C110" s="58"/>
+      <c r="D110" s="58"/>
+      <c r="E110" s="58"/>
+      <c r="F110" s="67"/>
+      <c r="G110" s="58"/>
+      <c r="H110" s="58"/>
       <c r="I110" s="14" t="s">
         <v>19</v>
       </c>
@@ -3299,41 +3299,41 @@
       </c>
     </row>
     <row r="111" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B111" s="57"/>
-      <c r="C111" s="51"/>
-      <c r="D111" s="51"/>
-      <c r="E111" s="51"/>
-      <c r="F111" s="53"/>
-      <c r="G111" s="51"/>
-      <c r="H111" s="51"/>
+      <c r="B111" s="70"/>
+      <c r="C111" s="58"/>
+      <c r="D111" s="58"/>
+      <c r="E111" s="58"/>
+      <c r="F111" s="67"/>
+      <c r="G111" s="58"/>
+      <c r="H111" s="58"/>
       <c r="I111" s="14"/>
       <c r="J111" s="15"/>
       <c r="K111" s="6"/>
     </row>
     <row r="112" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B112" s="57"/>
-      <c r="C112" s="51"/>
-      <c r="D112" s="51"/>
-      <c r="E112" s="51"/>
-      <c r="F112" s="53"/>
-      <c r="G112" s="52"/>
-      <c r="H112" s="52"/>
+      <c r="B112" s="70"/>
+      <c r="C112" s="58"/>
+      <c r="D112" s="58"/>
+      <c r="E112" s="58"/>
+      <c r="F112" s="67"/>
+      <c r="G112" s="61"/>
+      <c r="H112" s="61"/>
       <c r="I112" s="14"/>
       <c r="J112" s="14"/>
       <c r="K112" s="6"/>
     </row>
     <row r="113" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B113" s="57"/>
-      <c r="C113" s="51"/>
-      <c r="D113" s="51"/>
-      <c r="E113" s="51"/>
-      <c r="F113" s="54" t="s">
+      <c r="B113" s="70"/>
+      <c r="C113" s="58"/>
+      <c r="D113" s="58"/>
+      <c r="E113" s="58"/>
+      <c r="F113" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="G113" s="50">
+      <c r="G113" s="60">
         <v>88.165481999999997</v>
       </c>
-      <c r="H113" s="64">
+      <c r="H113" s="57">
         <v>47494650</v>
       </c>
       <c r="I113" s="14" t="s">
@@ -3347,13 +3347,13 @@
       </c>
     </row>
     <row r="114" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B114" s="57"/>
-      <c r="C114" s="51"/>
-      <c r="D114" s="51"/>
-      <c r="E114" s="51"/>
-      <c r="F114" s="54"/>
-      <c r="G114" s="51"/>
-      <c r="H114" s="51"/>
+      <c r="B114" s="70"/>
+      <c r="C114" s="58"/>
+      <c r="D114" s="58"/>
+      <c r="E114" s="58"/>
+      <c r="F114" s="66"/>
+      <c r="G114" s="58"/>
+      <c r="H114" s="58"/>
       <c r="I114" s="14" t="s">
         <v>10</v>
       </c>
@@ -3365,13 +3365,13 @@
       </c>
     </row>
     <row r="115" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B115" s="57"/>
-      <c r="C115" s="51"/>
-      <c r="D115" s="51"/>
-      <c r="E115" s="51"/>
-      <c r="F115" s="54"/>
-      <c r="G115" s="51"/>
-      <c r="H115" s="51"/>
+      <c r="B115" s="70"/>
+      <c r="C115" s="58"/>
+      <c r="D115" s="58"/>
+      <c r="E115" s="58"/>
+      <c r="F115" s="66"/>
+      <c r="G115" s="58"/>
+      <c r="H115" s="58"/>
       <c r="I115" s="14" t="s">
         <v>14</v>
       </c>
@@ -3379,13 +3379,13 @@
       <c r="K115" s="6"/>
     </row>
     <row r="116" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B116" s="57"/>
-      <c r="C116" s="51"/>
-      <c r="D116" s="51"/>
-      <c r="E116" s="51"/>
-      <c r="F116" s="54"/>
-      <c r="G116" s="51"/>
-      <c r="H116" s="51"/>
+      <c r="B116" s="70"/>
+      <c r="C116" s="58"/>
+      <c r="D116" s="58"/>
+      <c r="E116" s="58"/>
+      <c r="F116" s="66"/>
+      <c r="G116" s="58"/>
+      <c r="H116" s="58"/>
       <c r="I116" s="14" t="s">
         <v>15</v>
       </c>
@@ -3393,13 +3393,13 @@
       <c r="K116" s="6"/>
     </row>
     <row r="117" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B117" s="57"/>
-      <c r="C117" s="51"/>
-      <c r="D117" s="51"/>
-      <c r="E117" s="51"/>
-      <c r="F117" s="54"/>
-      <c r="G117" s="51"/>
-      <c r="H117" s="51"/>
+      <c r="B117" s="70"/>
+      <c r="C117" s="58"/>
+      <c r="D117" s="58"/>
+      <c r="E117" s="58"/>
+      <c r="F117" s="66"/>
+      <c r="G117" s="58"/>
+      <c r="H117" s="58"/>
       <c r="I117" s="14" t="s">
         <v>16</v>
       </c>
@@ -3415,13 +3415,13 @@
       </c>
     </row>
     <row r="118" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B118" s="57"/>
-      <c r="C118" s="51"/>
-      <c r="D118" s="51"/>
-      <c r="E118" s="51"/>
-      <c r="F118" s="54"/>
-      <c r="G118" s="51"/>
-      <c r="H118" s="51"/>
+      <c r="B118" s="70"/>
+      <c r="C118" s="58"/>
+      <c r="D118" s="58"/>
+      <c r="E118" s="58"/>
+      <c r="F118" s="66"/>
+      <c r="G118" s="58"/>
+      <c r="H118" s="58"/>
       <c r="I118" s="14" t="s">
         <v>17</v>
       </c>
@@ -3429,13 +3429,13 @@
       <c r="K118" s="6"/>
     </row>
     <row r="119" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B119" s="57"/>
-      <c r="C119" s="51"/>
-      <c r="D119" s="51"/>
-      <c r="E119" s="51"/>
-      <c r="F119" s="54"/>
-      <c r="G119" s="51"/>
-      <c r="H119" s="51"/>
+      <c r="B119" s="70"/>
+      <c r="C119" s="58"/>
+      <c r="D119" s="58"/>
+      <c r="E119" s="58"/>
+      <c r="F119" s="66"/>
+      <c r="G119" s="58"/>
+      <c r="H119" s="58"/>
       <c r="I119" s="14" t="s">
         <v>18</v>
       </c>
@@ -3443,13 +3443,13 @@
       <c r="K119" s="6"/>
     </row>
     <row r="120" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B120" s="57"/>
-      <c r="C120" s="51"/>
-      <c r="D120" s="51"/>
-      <c r="E120" s="51"/>
-      <c r="F120" s="54"/>
-      <c r="G120" s="51"/>
-      <c r="H120" s="51"/>
+      <c r="B120" s="70"/>
+      <c r="C120" s="58"/>
+      <c r="D120" s="58"/>
+      <c r="E120" s="58"/>
+      <c r="F120" s="66"/>
+      <c r="G120" s="58"/>
+      <c r="H120" s="58"/>
       <c r="I120" s="14" t="s">
         <v>19</v>
       </c>
@@ -3457,23 +3457,23 @@
       <c r="K120" s="6"/>
     </row>
     <row r="121" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B121" s="57"/>
-      <c r="C121" s="51"/>
-      <c r="D121" s="51"/>
-      <c r="E121" s="51"/>
-      <c r="F121" s="54"/>
-      <c r="G121" s="51"/>
-      <c r="H121" s="51"/>
+      <c r="B121" s="70"/>
+      <c r="C121" s="58"/>
+      <c r="D121" s="58"/>
+      <c r="E121" s="58"/>
+      <c r="F121" s="66"/>
+      <c r="G121" s="58"/>
+      <c r="H121" s="58"/>
       <c r="I121" s="14"/>
       <c r="J121" s="14"/>
       <c r="K121" s="6"/>
     </row>
     <row r="122" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="58"/>
+      <c r="B122" s="71"/>
       <c r="C122" s="59"/>
       <c r="D122" s="59"/>
       <c r="E122" s="59"/>
-      <c r="F122" s="55"/>
+      <c r="F122" s="68"/>
       <c r="G122" s="59"/>
       <c r="H122" s="59"/>
       <c r="I122" s="13"/>
@@ -3482,37 +3482,6 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="H113:H122"/>
-    <mergeCell ref="G113:G122"/>
-    <mergeCell ref="G43:G52"/>
-    <mergeCell ref="H43:H52"/>
-    <mergeCell ref="G53:G62"/>
-    <mergeCell ref="H53:H62"/>
-    <mergeCell ref="G93:G102"/>
-    <mergeCell ref="H93:H102"/>
-    <mergeCell ref="G103:G112"/>
-    <mergeCell ref="H103:H112"/>
-    <mergeCell ref="G73:G82"/>
-    <mergeCell ref="H73:H82"/>
-    <mergeCell ref="G83:G92"/>
-    <mergeCell ref="H83:H92"/>
-    <mergeCell ref="G3:G12"/>
-    <mergeCell ref="H3:H12"/>
-    <mergeCell ref="G33:G42"/>
-    <mergeCell ref="H33:H42"/>
-    <mergeCell ref="H63:H72"/>
-    <mergeCell ref="G63:G72"/>
-    <mergeCell ref="G13:G22"/>
-    <mergeCell ref="H13:H22"/>
-    <mergeCell ref="G23:G32"/>
-    <mergeCell ref="H23:H32"/>
-    <mergeCell ref="F23:F32"/>
-    <mergeCell ref="F33:F42"/>
-    <mergeCell ref="E3:E32"/>
-    <mergeCell ref="E33:E62"/>
-    <mergeCell ref="C3:C62"/>
-    <mergeCell ref="D3:D32"/>
-    <mergeCell ref="D33:D62"/>
     <mergeCell ref="F93:F102"/>
     <mergeCell ref="F103:F112"/>
     <mergeCell ref="F113:F122"/>
@@ -3529,6 +3498,37 @@
     <mergeCell ref="E93:E122"/>
     <mergeCell ref="F3:F12"/>
     <mergeCell ref="F13:F22"/>
+    <mergeCell ref="F23:F32"/>
+    <mergeCell ref="F33:F42"/>
+    <mergeCell ref="E3:E32"/>
+    <mergeCell ref="E33:E62"/>
+    <mergeCell ref="C3:C62"/>
+    <mergeCell ref="D3:D32"/>
+    <mergeCell ref="D33:D62"/>
+    <mergeCell ref="G3:G12"/>
+    <mergeCell ref="H3:H12"/>
+    <mergeCell ref="G33:G42"/>
+    <mergeCell ref="H33:H42"/>
+    <mergeCell ref="H63:H72"/>
+    <mergeCell ref="G63:G72"/>
+    <mergeCell ref="G13:G22"/>
+    <mergeCell ref="H13:H22"/>
+    <mergeCell ref="G23:G32"/>
+    <mergeCell ref="H23:H32"/>
+    <mergeCell ref="H113:H122"/>
+    <mergeCell ref="G113:G122"/>
+    <mergeCell ref="G43:G52"/>
+    <mergeCell ref="H43:H52"/>
+    <mergeCell ref="G53:G62"/>
+    <mergeCell ref="H53:H62"/>
+    <mergeCell ref="G93:G102"/>
+    <mergeCell ref="H93:H102"/>
+    <mergeCell ref="G103:G112"/>
+    <mergeCell ref="H103:H112"/>
+    <mergeCell ref="G73:G82"/>
+    <mergeCell ref="H73:H82"/>
+    <mergeCell ref="G83:G92"/>
+    <mergeCell ref="H83:H92"/>
   </mergeCells>
   <conditionalFormatting sqref="K97:K1048576 K37:K95 K17:K35 K2:K15">
     <cfRule type="colorScale" priority="8">
@@ -3635,8 +3635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947424B0-4895-4D75-80FF-AA0EF9787147}">
   <dimension ref="B1:AB122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13:U22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S103" sqref="S103:S112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3725,25 +3725,25 @@
       </c>
     </row>
     <row r="3" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="56">
+      <c r="B3" s="69">
         <v>0.01</v>
       </c>
-      <c r="C3" s="60">
+      <c r="C3" s="64">
         <v>2</v>
       </c>
-      <c r="D3" s="84">
+      <c r="D3" s="78">
         <v>2</v>
       </c>
-      <c r="E3" s="56">
+      <c r="E3" s="69">
         <v>16</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="60">
+      <c r="G3" s="64">
         <v>1.2880910000000001</v>
       </c>
-      <c r="H3" s="61">
+      <c r="H3" s="65">
         <v>151116.20000000001</v>
       </c>
       <c r="I3" s="37" t="s">
@@ -3755,59 +3755,59 @@
       <c r="K3" s="38">
         <v>136981.79999999999</v>
       </c>
-      <c r="L3" s="92">
+      <c r="L3" s="54">
         <f>J3/K3</f>
         <v>34.183373265645514</v>
       </c>
-      <c r="M3" s="93">
+      <c r="M3" s="55">
         <f>10*LOG10(L3)</f>
         <v>15.338149173188826</v>
       </c>
-      <c r="N3" s="94">
+      <c r="N3" s="56">
         <v>1.380978</v>
       </c>
-      <c r="O3" s="82">
+      <c r="O3" s="83">
         <f>AVERAGE(N4:N12)</f>
         <v>11.565943874999999</v>
       </c>
-      <c r="P3" s="68">
+      <c r="P3" s="86">
         <f>AVERAGE(O3:O26)</f>
         <v>11.930688875</v>
       </c>
-      <c r="Q3" s="78">
+      <c r="Q3" s="89">
         <f>AVERAGE(K4:K12)</f>
         <v>6077922.1624999996</v>
       </c>
-      <c r="R3" s="65">
+      <c r="R3" s="91">
         <f>AVERAGE(Q3:Q26)</f>
         <v>3015129.3583333329</v>
       </c>
-      <c r="S3" s="74">
+      <c r="S3" s="72">
         <f>AVERAGE(M4:M10)</f>
         <v>10.346967882464828</v>
       </c>
-      <c r="T3" s="71">
+      <c r="T3" s="74">
         <f>AVERAGE(S3:S26)</f>
         <v>13.827577964925169</v>
       </c>
-      <c r="U3" s="74">
+      <c r="U3" s="72">
         <f>AVERAGE(M3:M11)</f>
         <v>11.26291967011489</v>
       </c>
-      <c r="V3" s="71">
+      <c r="V3" s="74">
         <f>AVERAGE(U3:U32)</f>
         <v>13.448095220688208</v>
       </c>
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B4" s="57"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="89" t="s">
+      <c r="B4" s="70"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="51" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="12">
@@ -3827,24 +3827,24 @@
       <c r="N4" s="11">
         <v>13.808681999999999</v>
       </c>
-      <c r="O4" s="80"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="75"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="75"/>
-      <c r="V4" s="72"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="87"/>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="92"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="75"/>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B5" s="57"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="90" t="s">
+      <c r="B5" s="70"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="52" t="s">
         <v>14</v>
       </c>
       <c r="J5" s="36">
@@ -3864,24 +3864,24 @@
       <c r="N5" s="6">
         <v>16.719774999999998</v>
       </c>
-      <c r="O5" s="80"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="75"/>
-      <c r="T5" s="72"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="72"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="92"/>
+      <c r="S5" s="73"/>
+      <c r="T5" s="75"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="75"/>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B6" s="57"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="90" t="s">
+      <c r="B6" s="70"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="52" t="s">
         <v>15</v>
       </c>
       <c r="J6" s="36">
@@ -3901,24 +3901,24 @@
       <c r="N6" s="6">
         <v>15.747567999999999</v>
       </c>
-      <c r="O6" s="80"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="77"/>
-      <c r="R6" s="66"/>
-      <c r="S6" s="75"/>
-      <c r="T6" s="72"/>
-      <c r="U6" s="75"/>
-      <c r="V6" s="72"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="87"/>
+      <c r="Q6" s="90"/>
+      <c r="R6" s="92"/>
+      <c r="S6" s="73"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="73"/>
+      <c r="V6" s="75"/>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B7" s="57"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="90" t="s">
+      <c r="B7" s="70"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="52" t="s">
         <v>16</v>
       </c>
       <c r="J7" s="36">
@@ -3938,24 +3938,24 @@
       <c r="N7" s="6">
         <v>14.094391</v>
       </c>
-      <c r="O7" s="80"/>
-      <c r="P7" s="69"/>
-      <c r="Q7" s="77"/>
-      <c r="R7" s="66"/>
-      <c r="S7" s="75"/>
-      <c r="T7" s="72"/>
-      <c r="U7" s="75"/>
-      <c r="V7" s="72"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="87"/>
+      <c r="Q7" s="90"/>
+      <c r="R7" s="92"/>
+      <c r="S7" s="73"/>
+      <c r="T7" s="75"/>
+      <c r="U7" s="73"/>
+      <c r="V7" s="75"/>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B8" s="57"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="90" t="s">
+      <c r="B8" s="70"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="52" t="s">
         <v>17</v>
       </c>
       <c r="J8" s="36">
@@ -3975,24 +3975,24 @@
       <c r="N8" s="6">
         <v>8.7398450000000008</v>
       </c>
-      <c r="O8" s="80"/>
-      <c r="P8" s="69"/>
-      <c r="Q8" s="77"/>
-      <c r="R8" s="66"/>
-      <c r="S8" s="75"/>
-      <c r="T8" s="72"/>
-      <c r="U8" s="75"/>
-      <c r="V8" s="72"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="87"/>
+      <c r="Q8" s="90"/>
+      <c r="R8" s="92"/>
+      <c r="S8" s="73"/>
+      <c r="T8" s="75"/>
+      <c r="U8" s="73"/>
+      <c r="V8" s="75"/>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B9" s="57"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="90" t="s">
+      <c r="B9" s="70"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="52" t="s">
         <v>18</v>
       </c>
       <c r="J9" s="36">
@@ -4012,30 +4012,30 @@
       <c r="N9" s="6">
         <v>12.131944000000001</v>
       </c>
-      <c r="O9" s="80"/>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="77"/>
-      <c r="R9" s="66"/>
-      <c r="S9" s="75"/>
-      <c r="T9" s="72"/>
-      <c r="U9" s="75"/>
-      <c r="V9" s="72"/>
+      <c r="O9" s="84"/>
+      <c r="P9" s="87"/>
+      <c r="Q9" s="90"/>
+      <c r="R9" s="92"/>
+      <c r="S9" s="73"/>
+      <c r="T9" s="75"/>
+      <c r="U9" s="73"/>
+      <c r="V9" s="75"/>
     </row>
     <row r="10" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="57"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="87"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="81"/>
       <c r="I10" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="91">
+      <c r="J10" s="53">
         <v>125950000</v>
       </c>
-      <c r="K10" s="91">
+      <c r="K10" s="53">
         <v>15272390</v>
       </c>
       <c r="L10" s="30">
@@ -4049,22 +4049,22 @@
       <c r="N10" s="44">
         <v>9.9472799999999992</v>
       </c>
-      <c r="O10" s="80"/>
-      <c r="P10" s="69"/>
-      <c r="Q10" s="77"/>
-      <c r="R10" s="66"/>
-      <c r="S10" s="75"/>
-      <c r="T10" s="72"/>
-      <c r="U10" s="75"/>
-      <c r="V10" s="72"/>
+      <c r="O10" s="84"/>
+      <c r="P10" s="87"/>
+      <c r="Q10" s="90"/>
+      <c r="R10" s="92"/>
+      <c r="S10" s="73"/>
+      <c r="T10" s="75"/>
+      <c r="U10" s="73"/>
+      <c r="V10" s="75"/>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B11" s="57"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
       <c r="H11" s="62"/>
       <c r="I11" s="23" t="s">
         <v>26</v>
@@ -4086,22 +4086,22 @@
       <c r="N11" s="6">
         <v>1.338066</v>
       </c>
-      <c r="O11" s="80"/>
-      <c r="P11" s="69"/>
-      <c r="Q11" s="77"/>
-      <c r="R11" s="66"/>
-      <c r="S11" s="75"/>
-      <c r="T11" s="72"/>
-      <c r="U11" s="75"/>
-      <c r="V11" s="72"/>
+      <c r="O11" s="84"/>
+      <c r="P11" s="87"/>
+      <c r="Q11" s="90"/>
+      <c r="R11" s="92"/>
+      <c r="S11" s="73"/>
+      <c r="T11" s="75"/>
+      <c r="U11" s="73"/>
+      <c r="V11" s="75"/>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B12" s="57"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="52"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="61"/>
       <c r="H12" s="63"/>
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
@@ -4109,27 +4109,27 @@
       <c r="L12" s="27"/>
       <c r="M12" s="29"/>
       <c r="N12" s="6"/>
-      <c r="O12" s="80"/>
-      <c r="P12" s="69"/>
-      <c r="Q12" s="77"/>
-      <c r="R12" s="66"/>
-      <c r="S12" s="75"/>
-      <c r="T12" s="72"/>
-      <c r="U12" s="75"/>
-      <c r="V12" s="72"/>
+      <c r="O12" s="84"/>
+      <c r="P12" s="87"/>
+      <c r="Q12" s="90"/>
+      <c r="R12" s="92"/>
+      <c r="S12" s="73"/>
+      <c r="T12" s="75"/>
+      <c r="U12" s="73"/>
+      <c r="V12" s="75"/>
     </row>
     <row r="13" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="57"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="53" t="s">
+      <c r="B13" s="70"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="50">
+      <c r="G13" s="60">
         <v>0.748201</v>
       </c>
-      <c r="H13" s="64">
+      <c r="H13" s="57">
         <v>4357841</v>
       </c>
       <c r="I13" s="33" t="s">
@@ -4149,29 +4149,29 @@
         <f t="shared" si="1"/>
         <v>9.9855442017823286</v>
       </c>
-      <c r="N13" s="88">
+      <c r="N13" s="50">
         <v>1.49281</v>
       </c>
-      <c r="O13" s="80">
+      <c r="O13" s="84">
         <f>AVERAGE(N14:N22)</f>
         <v>12.061352374999998</v>
       </c>
-      <c r="P13" s="69"/>
-      <c r="Q13" s="77">
+      <c r="P13" s="87"/>
+      <c r="Q13" s="90">
         <f>AVERAGE(K14:K22)</f>
         <v>2016755.2374999998</v>
       </c>
-      <c r="R13" s="66"/>
-      <c r="S13" s="75">
+      <c r="R13" s="92"/>
+      <c r="S13" s="73">
         <f>AVERAGE(M14:M20)</f>
         <v>14.151338945896716</v>
       </c>
-      <c r="T13" s="72"/>
-      <c r="U13" s="75">
+      <c r="T13" s="75"/>
+      <c r="U13" s="73">
         <f>AVERAGE(M13:M21)</f>
         <v>13.219588941788437</v>
       </c>
-      <c r="V13" s="72"/>
+      <c r="V13" s="75"/>
       <c r="W13" s="40">
         <f>(M13+M3+M23)/3</f>
         <v>12.550264281297801</v>
@@ -4186,14 +4186,14 @@
       </c>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B14" s="57"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="89" t="s">
+      <c r="B14" s="70"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="51" t="s">
         <v>10</v>
       </c>
       <c r="J14" s="12">
@@ -4213,24 +4213,24 @@
       <c r="N14" s="11">
         <v>17.004883</v>
       </c>
-      <c r="O14" s="80"/>
-      <c r="P14" s="69"/>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="66"/>
-      <c r="S14" s="75"/>
-      <c r="T14" s="72"/>
-      <c r="U14" s="75"/>
-      <c r="V14" s="72"/>
+      <c r="O14" s="84"/>
+      <c r="P14" s="87"/>
+      <c r="Q14" s="90"/>
+      <c r="R14" s="92"/>
+      <c r="S14" s="73"/>
+      <c r="T14" s="75"/>
+      <c r="U14" s="73"/>
+      <c r="V14" s="75"/>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B15" s="57"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="90" t="s">
+      <c r="B15" s="70"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="52" t="s">
         <v>14</v>
       </c>
       <c r="J15" s="36">
@@ -4250,24 +4250,24 @@
       <c r="N15" s="6">
         <v>17.440650000000002</v>
       </c>
-      <c r="O15" s="80"/>
-      <c r="P15" s="69"/>
-      <c r="Q15" s="77"/>
-      <c r="R15" s="66"/>
-      <c r="S15" s="75"/>
-      <c r="T15" s="72"/>
-      <c r="U15" s="75"/>
-      <c r="V15" s="72"/>
+      <c r="O15" s="84"/>
+      <c r="P15" s="87"/>
+      <c r="Q15" s="90"/>
+      <c r="R15" s="92"/>
+      <c r="S15" s="73"/>
+      <c r="T15" s="75"/>
+      <c r="U15" s="73"/>
+      <c r="V15" s="75"/>
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B16" s="57"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="90" t="s">
+      <c r="B16" s="70"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="52" t="s">
         <v>15</v>
       </c>
       <c r="J16" s="36">
@@ -4287,24 +4287,24 @@
       <c r="N16" s="6">
         <v>13.60632</v>
       </c>
-      <c r="O16" s="80"/>
-      <c r="P16" s="69"/>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="66"/>
-      <c r="S16" s="75"/>
-      <c r="T16" s="72"/>
-      <c r="U16" s="75"/>
-      <c r="V16" s="72"/>
+      <c r="O16" s="84"/>
+      <c r="P16" s="87"/>
+      <c r="Q16" s="90"/>
+      <c r="R16" s="92"/>
+      <c r="S16" s="73"/>
+      <c r="T16" s="75"/>
+      <c r="U16" s="73"/>
+      <c r="V16" s="75"/>
     </row>
     <row r="17" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B17" s="57"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="90" t="s">
+      <c r="B17" s="70"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="52" t="s">
         <v>16</v>
       </c>
       <c r="J17" s="36">
@@ -4324,24 +4324,24 @@
       <c r="N17" s="6">
         <v>13.809574</v>
       </c>
-      <c r="O17" s="80"/>
-      <c r="P17" s="69"/>
-      <c r="Q17" s="77"/>
-      <c r="R17" s="66"/>
-      <c r="S17" s="75"/>
-      <c r="T17" s="72"/>
-      <c r="U17" s="75"/>
-      <c r="V17" s="72"/>
+      <c r="O17" s="84"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="90"/>
+      <c r="R17" s="92"/>
+      <c r="S17" s="73"/>
+      <c r="T17" s="75"/>
+      <c r="U17" s="73"/>
+      <c r="V17" s="75"/>
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B18" s="57"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="90" t="s">
+      <c r="B18" s="70"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="52" t="s">
         <v>17</v>
       </c>
       <c r="J18" s="36">
@@ -4361,24 +4361,24 @@
       <c r="N18" s="6">
         <v>9.8107340000000001</v>
       </c>
-      <c r="O18" s="80"/>
-      <c r="P18" s="69"/>
-      <c r="Q18" s="77"/>
-      <c r="R18" s="66"/>
-      <c r="S18" s="75"/>
-      <c r="T18" s="72"/>
-      <c r="U18" s="75"/>
-      <c r="V18" s="72"/>
+      <c r="O18" s="84"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="90"/>
+      <c r="R18" s="92"/>
+      <c r="S18" s="73"/>
+      <c r="T18" s="75"/>
+      <c r="U18" s="73"/>
+      <c r="V18" s="75"/>
     </row>
     <row r="19" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B19" s="57"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="90" t="s">
+      <c r="B19" s="70"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="52" t="s">
         <v>18</v>
       </c>
       <c r="J19" s="36">
@@ -4398,30 +4398,30 @@
       <c r="N19" s="6">
         <v>13.146990000000001</v>
       </c>
-      <c r="O19" s="80"/>
-      <c r="P19" s="69"/>
-      <c r="Q19" s="77"/>
-      <c r="R19" s="66"/>
-      <c r="S19" s="75"/>
-      <c r="T19" s="72"/>
-      <c r="U19" s="75"/>
-      <c r="V19" s="72"/>
+      <c r="O19" s="84"/>
+      <c r="P19" s="87"/>
+      <c r="Q19" s="90"/>
+      <c r="R19" s="92"/>
+      <c r="S19" s="73"/>
+      <c r="T19" s="75"/>
+      <c r="U19" s="73"/>
+      <c r="V19" s="75"/>
     </row>
     <row r="20" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="57"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="85"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="79"/>
       <c r="I20" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="91">
+      <c r="J20" s="53">
         <v>125950000</v>
       </c>
-      <c r="K20" s="91">
+      <c r="K20" s="53">
         <v>4067454</v>
       </c>
       <c r="L20" s="30">
@@ -4435,23 +4435,23 @@
       <c r="N20" s="44">
         <v>10.182309</v>
       </c>
-      <c r="O20" s="80"/>
-      <c r="P20" s="69"/>
-      <c r="Q20" s="77"/>
-      <c r="R20" s="66"/>
-      <c r="S20" s="75"/>
-      <c r="T20" s="72"/>
-      <c r="U20" s="75"/>
-      <c r="V20" s="72"/>
+      <c r="O20" s="84"/>
+      <c r="P20" s="87"/>
+      <c r="Q20" s="90"/>
+      <c r="R20" s="92"/>
+      <c r="S20" s="73"/>
+      <c r="T20" s="75"/>
+      <c r="U20" s="73"/>
+      <c r="V20" s="75"/>
     </row>
     <row r="21" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B21" s="57"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
       <c r="I21" s="34" t="s">
         <v>26</v>
       </c>
@@ -4472,14 +4472,14 @@
       <c r="N21" s="6">
         <v>1.4893590000000001</v>
       </c>
-      <c r="O21" s="80"/>
-      <c r="P21" s="69"/>
-      <c r="Q21" s="77"/>
-      <c r="R21" s="66"/>
-      <c r="S21" s="75"/>
-      <c r="T21" s="72"/>
-      <c r="U21" s="75"/>
-      <c r="V21" s="72"/>
+      <c r="O21" s="84"/>
+      <c r="P21" s="87"/>
+      <c r="Q21" s="90"/>
+      <c r="R21" s="92"/>
+      <c r="S21" s="73"/>
+      <c r="T21" s="75"/>
+      <c r="U21" s="73"/>
+      <c r="V21" s="75"/>
       <c r="W21" s="47">
         <f>(M21+M11+M31)/3</f>
         <v>11.689546950419881</v>
@@ -4494,40 +4494,40 @@
       </c>
     </row>
     <row r="22" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B22" s="57"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
       <c r="I22" s="23"/>
       <c r="J22" s="23"/>
       <c r="K22" s="34"/>
       <c r="L22" s="27"/>
       <c r="M22" s="29"/>
       <c r="N22" s="6"/>
-      <c r="O22" s="80"/>
-      <c r="P22" s="69"/>
-      <c r="Q22" s="77"/>
-      <c r="R22" s="66"/>
-      <c r="S22" s="75"/>
-      <c r="T22" s="72"/>
-      <c r="U22" s="75"/>
-      <c r="V22" s="72"/>
+      <c r="O22" s="84"/>
+      <c r="P22" s="87"/>
+      <c r="Q22" s="90"/>
+      <c r="R22" s="92"/>
+      <c r="S22" s="73"/>
+      <c r="T22" s="75"/>
+      <c r="U22" s="73"/>
+      <c r="V22" s="75"/>
     </row>
     <row r="23" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="57"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="54" t="s">
+      <c r="B23" s="70"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="50">
+      <c r="G23" s="60">
         <v>2.5743520000000002</v>
       </c>
-      <c r="H23" s="64">
+      <c r="H23" s="57">
         <v>2474968</v>
       </c>
       <c r="I23" s="33" t="s">
@@ -4547,39 +4547,39 @@
         <f t="shared" si="1"/>
         <v>12.327099468922251</v>
       </c>
-      <c r="N23" s="88">
+      <c r="N23" s="50">
         <v>1.613235</v>
       </c>
-      <c r="O23" s="80">
+      <c r="O23" s="84">
         <f>AVERAGE(N24:N32)</f>
         <v>12.164770374999998</v>
       </c>
-      <c r="P23" s="69"/>
-      <c r="Q23" s="77">
+      <c r="P23" s="87"/>
+      <c r="Q23" s="90">
         <f>AVERAGE(K24:K32)</f>
         <v>950710.67499999993</v>
       </c>
-      <c r="R23" s="66"/>
-      <c r="S23" s="75">
+      <c r="R23" s="92"/>
+      <c r="S23" s="73">
         <f>AVERAGE(M24:M30)</f>
         <v>16.984427066413964</v>
       </c>
-      <c r="T23" s="72"/>
-      <c r="U23" s="75">
+      <c r="T23" s="75"/>
+      <c r="U23" s="73">
         <f t="shared" ref="U23" si="4">AVERAGE(M23:M31)</f>
         <v>15.861777050161294</v>
       </c>
-      <c r="V23" s="72"/>
+      <c r="V23" s="75"/>
     </row>
     <row r="24" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B24" s="57"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="89" t="s">
+      <c r="B24" s="70"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="51" t="s">
         <v>10</v>
       </c>
       <c r="J24" s="12">
@@ -4599,24 +4599,24 @@
       <c r="N24" s="11">
         <v>15.427098000000001</v>
       </c>
-      <c r="O24" s="80"/>
-      <c r="P24" s="69"/>
-      <c r="Q24" s="77"/>
-      <c r="R24" s="66"/>
-      <c r="S24" s="75"/>
-      <c r="T24" s="72"/>
-      <c r="U24" s="75"/>
-      <c r="V24" s="72"/>
+      <c r="O24" s="84"/>
+      <c r="P24" s="87"/>
+      <c r="Q24" s="90"/>
+      <c r="R24" s="92"/>
+      <c r="S24" s="73"/>
+      <c r="T24" s="75"/>
+      <c r="U24" s="73"/>
+      <c r="V24" s="75"/>
     </row>
     <row r="25" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B25" s="57"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="90" t="s">
+      <c r="B25" s="70"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="52" t="s">
         <v>14</v>
       </c>
       <c r="J25" s="36">
@@ -4636,24 +4636,24 @@
       <c r="N25" s="6">
         <v>18.027346999999999</v>
       </c>
-      <c r="O25" s="80"/>
-      <c r="P25" s="69"/>
-      <c r="Q25" s="77"/>
-      <c r="R25" s="66"/>
-      <c r="S25" s="75"/>
-      <c r="T25" s="72"/>
-      <c r="U25" s="75"/>
-      <c r="V25" s="72"/>
+      <c r="O25" s="84"/>
+      <c r="P25" s="87"/>
+      <c r="Q25" s="90"/>
+      <c r="R25" s="92"/>
+      <c r="S25" s="73"/>
+      <c r="T25" s="75"/>
+      <c r="U25" s="73"/>
+      <c r="V25" s="75"/>
     </row>
     <row r="26" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B26" s="57"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="90" t="s">
+      <c r="B26" s="70"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="52" t="s">
         <v>15</v>
       </c>
       <c r="J26" s="36">
@@ -4673,24 +4673,24 @@
       <c r="N26" s="6">
         <v>16.781103999999999</v>
       </c>
-      <c r="O26" s="80"/>
-      <c r="P26" s="69"/>
-      <c r="Q26" s="77"/>
-      <c r="R26" s="66"/>
-      <c r="S26" s="75"/>
-      <c r="T26" s="72"/>
-      <c r="U26" s="75"/>
-      <c r="V26" s="72"/>
+      <c r="O26" s="84"/>
+      <c r="P26" s="87"/>
+      <c r="Q26" s="90"/>
+      <c r="R26" s="92"/>
+      <c r="S26" s="73"/>
+      <c r="T26" s="75"/>
+      <c r="U26" s="73"/>
+      <c r="V26" s="75"/>
     </row>
     <row r="27" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B27" s="57"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="85"/>
-      <c r="I27" s="90" t="s">
+      <c r="B27" s="70"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="52" t="s">
         <v>16</v>
       </c>
       <c r="J27" s="36">
@@ -4710,14 +4710,14 @@
       <c r="N27" s="6">
         <v>15.510705</v>
       </c>
-      <c r="O27" s="80"/>
-      <c r="P27" s="69"/>
-      <c r="Q27" s="77"/>
-      <c r="R27" s="66"/>
-      <c r="S27" s="75"/>
-      <c r="T27" s="72"/>
-      <c r="U27" s="75"/>
-      <c r="V27" s="72"/>
+      <c r="O27" s="84"/>
+      <c r="P27" s="87"/>
+      <c r="Q27" s="90"/>
+      <c r="R27" s="92"/>
+      <c r="S27" s="73"/>
+      <c r="T27" s="75"/>
+      <c r="U27" s="73"/>
+      <c r="V27" s="75"/>
       <c r="W27" s="47">
         <f>H13/H23</f>
         <v>1.7607666038510397</v>
@@ -4736,14 +4736,14 @@
       </c>
     </row>
     <row r="28" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B28" s="57"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="90" t="s">
+      <c r="B28" s="70"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="52" t="s">
         <v>17</v>
       </c>
       <c r="J28" s="36">
@@ -4763,24 +4763,24 @@
       <c r="N28" s="6">
         <v>8.9991800000000008</v>
       </c>
-      <c r="O28" s="80"/>
-      <c r="P28" s="69"/>
-      <c r="Q28" s="77"/>
-      <c r="R28" s="66"/>
-      <c r="S28" s="75"/>
-      <c r="T28" s="72"/>
-      <c r="U28" s="75"/>
-      <c r="V28" s="72"/>
+      <c r="O28" s="84"/>
+      <c r="P28" s="87"/>
+      <c r="Q28" s="90"/>
+      <c r="R28" s="92"/>
+      <c r="S28" s="73"/>
+      <c r="T28" s="75"/>
+      <c r="U28" s="73"/>
+      <c r="V28" s="75"/>
     </row>
     <row r="29" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B29" s="57"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="85"/>
-      <c r="I29" s="90" t="s">
+      <c r="B29" s="70"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="52" t="s">
         <v>18</v>
       </c>
       <c r="J29" s="36">
@@ -4800,30 +4800,30 @@
       <c r="N29" s="6">
         <v>11.870108999999999</v>
       </c>
-      <c r="O29" s="80"/>
-      <c r="P29" s="69"/>
-      <c r="Q29" s="77"/>
-      <c r="R29" s="66"/>
-      <c r="S29" s="75"/>
-      <c r="T29" s="72"/>
-      <c r="U29" s="75"/>
-      <c r="V29" s="72"/>
+      <c r="O29" s="84"/>
+      <c r="P29" s="87"/>
+      <c r="Q29" s="90"/>
+      <c r="R29" s="92"/>
+      <c r="S29" s="73"/>
+      <c r="T29" s="75"/>
+      <c r="U29" s="73"/>
+      <c r="V29" s="75"/>
     </row>
     <row r="30" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="57"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="85"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="79"/>
       <c r="I30" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="J30" s="91">
+      <c r="J30" s="53">
         <v>125950000</v>
       </c>
-      <c r="K30" s="91">
+      <c r="K30" s="53">
         <v>1633296</v>
       </c>
       <c r="L30" s="30">
@@ -4837,23 +4837,23 @@
       <c r="N30" s="44">
         <v>9.3859840000000005</v>
       </c>
-      <c r="O30" s="80"/>
-      <c r="P30" s="69"/>
-      <c r="Q30" s="77"/>
-      <c r="R30" s="66"/>
-      <c r="S30" s="75"/>
-      <c r="T30" s="72"/>
-      <c r="U30" s="75"/>
-      <c r="V30" s="72"/>
+      <c r="O30" s="84"/>
+      <c r="P30" s="87"/>
+      <c r="Q30" s="90"/>
+      <c r="R30" s="92"/>
+      <c r="S30" s="73"/>
+      <c r="T30" s="75"/>
+      <c r="U30" s="73"/>
+      <c r="V30" s="75"/>
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B31" s="57"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
       <c r="I31" s="34" t="s">
         <v>26</v>
       </c>
@@ -4874,21 +4874,21 @@
       <c r="N31" s="6">
         <v>1.3166359999999999</v>
       </c>
-      <c r="O31" s="80"/>
-      <c r="P31" s="69"/>
-      <c r="Q31" s="77"/>
-      <c r="R31" s="66"/>
-      <c r="S31" s="75"/>
-      <c r="T31" s="72"/>
-      <c r="U31" s="75"/>
-      <c r="V31" s="72"/>
+      <c r="O31" s="84"/>
+      <c r="P31" s="87"/>
+      <c r="Q31" s="90"/>
+      <c r="R31" s="92"/>
+      <c r="S31" s="73"/>
+      <c r="T31" s="75"/>
+      <c r="U31" s="73"/>
+      <c r="V31" s="75"/>
     </row>
     <row r="32" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="57"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="55"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="68"/>
       <c r="G32" s="59"/>
       <c r="H32" s="59"/>
       <c r="I32" s="24"/>
@@ -4897,28 +4897,28 @@
       <c r="L32" s="30"/>
       <c r="M32" s="31"/>
       <c r="N32" s="44"/>
-      <c r="O32" s="81"/>
-      <c r="P32" s="70"/>
-      <c r="Q32" s="79"/>
-      <c r="R32" s="67"/>
-      <c r="S32" s="76"/>
-      <c r="T32" s="73"/>
-      <c r="U32" s="76"/>
-      <c r="V32" s="73"/>
+      <c r="O32" s="85"/>
+      <c r="P32" s="88"/>
+      <c r="Q32" s="94"/>
+      <c r="R32" s="93"/>
+      <c r="S32" s="77"/>
+      <c r="T32" s="76"/>
+      <c r="U32" s="77"/>
+      <c r="V32" s="76"/>
     </row>
     <row r="33" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="57"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="50">
+      <c r="B33" s="70"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="60">
         <v>4</v>
       </c>
-      <c r="E33" s="51">
+      <c r="E33" s="58">
         <v>256</v>
       </c>
-      <c r="F33" s="51" t="s">
+      <c r="F33" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="G33" s="51">
+      <c r="G33" s="58">
         <v>179.087603</v>
       </c>
       <c r="H33" s="62">
@@ -4941,51 +4941,51 @@
         <f t="shared" si="1"/>
         <v>26.611909502638365</v>
       </c>
-      <c r="N33" s="88">
+      <c r="N33" s="50">
         <v>17.347313</v>
       </c>
-      <c r="O33" s="82">
+      <c r="O33" s="83">
         <f>AVERAGE(N34:N42)</f>
         <v>166.30230949999998</v>
       </c>
-      <c r="P33" s="68">
+      <c r="P33" s="86">
         <f>AVERAGE(O33:O56)</f>
         <v>167.12150170833331</v>
       </c>
-      <c r="Q33" s="78">
+      <c r="Q33" s="89">
         <f>AVERAGE(K34:K42)</f>
         <v>696916.51500000001</v>
       </c>
-      <c r="R33" s="65">
+      <c r="R33" s="91">
         <f>AVERAGE(Q33:Q56)</f>
         <v>297590.83833333332</v>
       </c>
-      <c r="S33" s="74">
+      <c r="S33" s="72">
         <f>AVERAGE(M34:M40)</f>
         <v>20.309566055145716</v>
       </c>
-      <c r="T33" s="71">
+      <c r="T33" s="74">
         <f>AVERAGE(S33:S56)</f>
         <v>24.666780597619752</v>
       </c>
-      <c r="U33" s="75">
+      <c r="U33" s="73">
         <f t="shared" ref="U33" si="5">AVERAGE(M33:M41)</f>
         <v>21.452939869638946</v>
       </c>
-      <c r="V33" s="72">
+      <c r="V33" s="75">
         <f t="shared" ref="V33" si="6">AVERAGE(U33:U62)</f>
         <v>24.189618573989787</v>
       </c>
     </row>
     <row r="34" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B34" s="57"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="87"/>
-      <c r="I34" s="89" t="s">
+      <c r="B34" s="70"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="81"/>
+      <c r="I34" s="51" t="s">
         <v>10</v>
       </c>
       <c r="J34" s="12">
@@ -5005,24 +5005,24 @@
       <c r="N34" s="11">
         <v>213.74604099999999</v>
       </c>
-      <c r="O34" s="80"/>
-      <c r="P34" s="69"/>
-      <c r="Q34" s="77"/>
-      <c r="R34" s="66"/>
-      <c r="S34" s="75"/>
-      <c r="T34" s="72"/>
-      <c r="U34" s="75"/>
-      <c r="V34" s="72"/>
+      <c r="O34" s="84"/>
+      <c r="P34" s="87"/>
+      <c r="Q34" s="90"/>
+      <c r="R34" s="92"/>
+      <c r="S34" s="73"/>
+      <c r="T34" s="75"/>
+      <c r="U34" s="73"/>
+      <c r="V34" s="75"/>
     </row>
     <row r="35" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B35" s="57"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="87"/>
-      <c r="I35" s="90" t="s">
+      <c r="B35" s="70"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="81"/>
+      <c r="I35" s="52" t="s">
         <v>14</v>
       </c>
       <c r="J35" s="36">
@@ -5042,24 +5042,24 @@
       <c r="N35" s="6">
         <v>219.54982000000001</v>
       </c>
-      <c r="O35" s="80"/>
-      <c r="P35" s="69"/>
-      <c r="Q35" s="77"/>
-      <c r="R35" s="66"/>
-      <c r="S35" s="75"/>
-      <c r="T35" s="72"/>
-      <c r="U35" s="75"/>
-      <c r="V35" s="72"/>
+      <c r="O35" s="84"/>
+      <c r="P35" s="87"/>
+      <c r="Q35" s="90"/>
+      <c r="R35" s="92"/>
+      <c r="S35" s="73"/>
+      <c r="T35" s="75"/>
+      <c r="U35" s="73"/>
+      <c r="V35" s="75"/>
     </row>
     <row r="36" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B36" s="57"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="87"/>
-      <c r="I36" s="90" t="s">
+      <c r="B36" s="70"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="81"/>
+      <c r="I36" s="52" t="s">
         <v>15</v>
       </c>
       <c r="J36" s="36">
@@ -5079,24 +5079,24 @@
       <c r="N36" s="6">
         <v>224.815876</v>
       </c>
-      <c r="O36" s="80"/>
-      <c r="P36" s="69"/>
-      <c r="Q36" s="77"/>
-      <c r="R36" s="66"/>
-      <c r="S36" s="75"/>
-      <c r="T36" s="72"/>
-      <c r="U36" s="75"/>
-      <c r="V36" s="72"/>
+      <c r="O36" s="84"/>
+      <c r="P36" s="87"/>
+      <c r="Q36" s="90"/>
+      <c r="R36" s="92"/>
+      <c r="S36" s="73"/>
+      <c r="T36" s="75"/>
+      <c r="U36" s="73"/>
+      <c r="V36" s="75"/>
     </row>
     <row r="37" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B37" s="57"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="87"/>
-      <c r="I37" s="90" t="s">
+      <c r="B37" s="70"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="52" t="s">
         <v>16</v>
       </c>
       <c r="J37" s="36">
@@ -5116,24 +5116,24 @@
       <c r="N37" s="6">
         <v>210.14760000000001</v>
       </c>
-      <c r="O37" s="80"/>
-      <c r="P37" s="69"/>
-      <c r="Q37" s="77"/>
-      <c r="R37" s="66"/>
-      <c r="S37" s="75"/>
-      <c r="T37" s="72"/>
-      <c r="U37" s="75"/>
-      <c r="V37" s="72"/>
+      <c r="O37" s="84"/>
+      <c r="P37" s="87"/>
+      <c r="Q37" s="90"/>
+      <c r="R37" s="92"/>
+      <c r="S37" s="73"/>
+      <c r="T37" s="75"/>
+      <c r="U37" s="73"/>
+      <c r="V37" s="75"/>
     </row>
     <row r="38" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B38" s="57"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="90" t="s">
+      <c r="B38" s="70"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="52" t="s">
         <v>17</v>
       </c>
       <c r="J38" s="36">
@@ -5153,24 +5153,24 @@
       <c r="N38" s="6">
         <v>137.07539800000001</v>
       </c>
-      <c r="O38" s="80"/>
-      <c r="P38" s="69"/>
-      <c r="Q38" s="77"/>
-      <c r="R38" s="66"/>
-      <c r="S38" s="75"/>
-      <c r="T38" s="72"/>
-      <c r="U38" s="75"/>
-      <c r="V38" s="72"/>
+      <c r="O38" s="84"/>
+      <c r="P38" s="87"/>
+      <c r="Q38" s="90"/>
+      <c r="R38" s="92"/>
+      <c r="S38" s="73"/>
+      <c r="T38" s="75"/>
+      <c r="U38" s="73"/>
+      <c r="V38" s="75"/>
     </row>
     <row r="39" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B39" s="57"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="90" t="s">
+      <c r="B39" s="70"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="81"/>
+      <c r="I39" s="52" t="s">
         <v>18</v>
       </c>
       <c r="J39" s="36">
@@ -5190,30 +5190,30 @@
       <c r="N39" s="6">
         <v>171.29201699999999</v>
       </c>
-      <c r="O39" s="80"/>
-      <c r="P39" s="69"/>
-      <c r="Q39" s="77"/>
-      <c r="R39" s="66"/>
-      <c r="S39" s="75"/>
-      <c r="T39" s="72"/>
-      <c r="U39" s="75"/>
-      <c r="V39" s="72"/>
+      <c r="O39" s="84"/>
+      <c r="P39" s="87"/>
+      <c r="Q39" s="90"/>
+      <c r="R39" s="92"/>
+      <c r="S39" s="73"/>
+      <c r="T39" s="75"/>
+      <c r="U39" s="73"/>
+      <c r="V39" s="75"/>
     </row>
     <row r="40" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="57"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="87"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="81"/>
       <c r="I40" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="J40" s="91">
+      <c r="J40" s="53">
         <v>125950000</v>
       </c>
-      <c r="K40" s="91">
+      <c r="K40" s="53">
         <v>1586014</v>
       </c>
       <c r="L40" s="30">
@@ -5227,22 +5227,22 @@
       <c r="N40" s="44">
         <v>136.30701999999999</v>
       </c>
-      <c r="O40" s="80"/>
-      <c r="P40" s="69"/>
-      <c r="Q40" s="77"/>
-      <c r="R40" s="66"/>
-      <c r="S40" s="75"/>
-      <c r="T40" s="72"/>
-      <c r="U40" s="75"/>
-      <c r="V40" s="72"/>
+      <c r="O40" s="84"/>
+      <c r="P40" s="87"/>
+      <c r="Q40" s="90"/>
+      <c r="R40" s="92"/>
+      <c r="S40" s="73"/>
+      <c r="T40" s="75"/>
+      <c r="U40" s="73"/>
+      <c r="V40" s="75"/>
     </row>
     <row r="41" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B41" s="57"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
       <c r="H41" s="62"/>
       <c r="I41" s="34" t="s">
         <v>26</v>
@@ -5264,22 +5264,22 @@
       <c r="N41" s="6">
         <v>17.484704000000001</v>
       </c>
-      <c r="O41" s="80"/>
-      <c r="P41" s="69"/>
-      <c r="Q41" s="77"/>
-      <c r="R41" s="66"/>
-      <c r="S41" s="75"/>
-      <c r="T41" s="72"/>
-      <c r="U41" s="75"/>
-      <c r="V41" s="72"/>
+      <c r="O41" s="84"/>
+      <c r="P41" s="87"/>
+      <c r="Q41" s="90"/>
+      <c r="R41" s="92"/>
+      <c r="S41" s="73"/>
+      <c r="T41" s="75"/>
+      <c r="U41" s="73"/>
+      <c r="V41" s="75"/>
     </row>
     <row r="42" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B42" s="57"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="52"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
       <c r="H42" s="63"/>
       <c r="I42" s="20"/>
       <c r="J42" s="20"/>
@@ -5287,27 +5287,27 @@
       <c r="L42" s="27"/>
       <c r="M42" s="29"/>
       <c r="N42" s="6"/>
-      <c r="O42" s="80"/>
-      <c r="P42" s="69"/>
-      <c r="Q42" s="77"/>
-      <c r="R42" s="66"/>
-      <c r="S42" s="75"/>
-      <c r="T42" s="72"/>
-      <c r="U42" s="75"/>
-      <c r="V42" s="72"/>
+      <c r="O42" s="84"/>
+      <c r="P42" s="87"/>
+      <c r="Q42" s="90"/>
+      <c r="R42" s="92"/>
+      <c r="S42" s="73"/>
+      <c r="T42" s="75"/>
+      <c r="U42" s="73"/>
+      <c r="V42" s="75"/>
     </row>
     <row r="43" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="57"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="53" t="s">
+      <c r="B43" s="70"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="G43" s="50">
+      <c r="G43" s="60">
         <v>114.405906</v>
       </c>
-      <c r="H43" s="64">
+      <c r="H43" s="57">
         <v>3707944</v>
       </c>
       <c r="I43" s="33" t="s">
@@ -5327,29 +5327,29 @@
         <f t="shared" si="1"/>
         <v>19.464913513275505</v>
       </c>
-      <c r="N43" s="88">
+      <c r="N43" s="50">
         <v>16.377182999999999</v>
       </c>
-      <c r="O43" s="80">
+      <c r="O43" s="84">
         <f>AVERAGE(N44:N52)</f>
         <v>163.319878625</v>
       </c>
-      <c r="P43" s="69"/>
-      <c r="Q43" s="77">
+      <c r="P43" s="87"/>
+      <c r="Q43" s="90">
         <f>AVERAGE(K44:K52)</f>
         <v>103332.67874999999</v>
       </c>
-      <c r="R43" s="66"/>
-      <c r="S43" s="75">
+      <c r="R43" s="92"/>
+      <c r="S43" s="73">
         <f>AVERAGE(M44:M50)</f>
         <v>26.630533247028097</v>
       </c>
-      <c r="T43" s="72"/>
-      <c r="U43" s="75">
+      <c r="T43" s="75"/>
+      <c r="U43" s="73">
         <f t="shared" ref="U43" si="7">AVERAGE(M43:M51)</f>
         <v>25.00541054238856</v>
       </c>
-      <c r="V43" s="72"/>
+      <c r="V43" s="75"/>
       <c r="W43" s="40">
         <f>(M43+M33+M53)/3</f>
         <v>23.170140589728572</v>
@@ -5364,14 +5364,14 @@
       </c>
     </row>
     <row r="44" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B44" s="57"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="85"/>
-      <c r="I44" s="89" t="s">
+      <c r="B44" s="70"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="79"/>
+      <c r="I44" s="51" t="s">
         <v>10</v>
       </c>
       <c r="J44" s="12">
@@ -5391,24 +5391,24 @@
       <c r="N44" s="11">
         <v>207.23990699999999</v>
       </c>
-      <c r="O44" s="80"/>
-      <c r="P44" s="69"/>
-      <c r="Q44" s="77"/>
-      <c r="R44" s="66"/>
-      <c r="S44" s="75"/>
-      <c r="T44" s="72"/>
-      <c r="U44" s="75"/>
-      <c r="V44" s="72"/>
+      <c r="O44" s="84"/>
+      <c r="P44" s="87"/>
+      <c r="Q44" s="90"/>
+      <c r="R44" s="92"/>
+      <c r="S44" s="73"/>
+      <c r="T44" s="75"/>
+      <c r="U44" s="73"/>
+      <c r="V44" s="75"/>
     </row>
     <row r="45" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B45" s="57"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="85"/>
-      <c r="I45" s="90" t="s">
+      <c r="B45" s="70"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="79"/>
+      <c r="I45" s="52" t="s">
         <v>14</v>
       </c>
       <c r="J45" s="36">
@@ -5428,24 +5428,24 @@
       <c r="N45" s="6">
         <v>162.38388900000001</v>
       </c>
-      <c r="O45" s="80"/>
-      <c r="P45" s="69"/>
-      <c r="Q45" s="77"/>
-      <c r="R45" s="66"/>
-      <c r="S45" s="75"/>
-      <c r="T45" s="72"/>
-      <c r="U45" s="75"/>
-      <c r="V45" s="72"/>
+      <c r="O45" s="84"/>
+      <c r="P45" s="87"/>
+      <c r="Q45" s="90"/>
+      <c r="R45" s="92"/>
+      <c r="S45" s="73"/>
+      <c r="T45" s="75"/>
+      <c r="U45" s="73"/>
+      <c r="V45" s="75"/>
     </row>
     <row r="46" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B46" s="57"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="85"/>
-      <c r="I46" s="90" t="s">
+      <c r="B46" s="70"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="79"/>
+      <c r="I46" s="52" t="s">
         <v>15</v>
       </c>
       <c r="J46" s="36">
@@ -5465,24 +5465,24 @@
       <c r="N46" s="6">
         <v>232.204307</v>
       </c>
-      <c r="O46" s="80"/>
-      <c r="P46" s="69"/>
-      <c r="Q46" s="77"/>
-      <c r="R46" s="66"/>
-      <c r="S46" s="75"/>
-      <c r="T46" s="72"/>
-      <c r="U46" s="75"/>
-      <c r="V46" s="72"/>
+      <c r="O46" s="84"/>
+      <c r="P46" s="87"/>
+      <c r="Q46" s="90"/>
+      <c r="R46" s="92"/>
+      <c r="S46" s="73"/>
+      <c r="T46" s="75"/>
+      <c r="U46" s="73"/>
+      <c r="V46" s="75"/>
     </row>
     <row r="47" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B47" s="57"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="85"/>
-      <c r="I47" s="90" t="s">
+      <c r="B47" s="70"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="79"/>
+      <c r="I47" s="52" t="s">
         <v>16</v>
       </c>
       <c r="J47" s="36">
@@ -5502,24 +5502,24 @@
       <c r="N47" s="6">
         <v>208.98937799999999</v>
       </c>
-      <c r="O47" s="80"/>
-      <c r="P47" s="69"/>
-      <c r="Q47" s="77"/>
-      <c r="R47" s="66"/>
-      <c r="S47" s="75"/>
-      <c r="T47" s="72"/>
-      <c r="U47" s="75"/>
-      <c r="V47" s="72"/>
+      <c r="O47" s="84"/>
+      <c r="P47" s="87"/>
+      <c r="Q47" s="90"/>
+      <c r="R47" s="92"/>
+      <c r="S47" s="73"/>
+      <c r="T47" s="75"/>
+      <c r="U47" s="73"/>
+      <c r="V47" s="75"/>
     </row>
     <row r="48" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B48" s="57"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="53"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="85"/>
-      <c r="I48" s="90" t="s">
+      <c r="B48" s="70"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="79"/>
+      <c r="I48" s="52" t="s">
         <v>17</v>
       </c>
       <c r="J48" s="36">
@@ -5539,24 +5539,24 @@
       <c r="N48" s="6">
         <v>142.517167</v>
       </c>
-      <c r="O48" s="80"/>
-      <c r="P48" s="69"/>
-      <c r="Q48" s="77"/>
-      <c r="R48" s="66"/>
-      <c r="S48" s="75"/>
-      <c r="T48" s="72"/>
-      <c r="U48" s="75"/>
-      <c r="V48" s="72"/>
+      <c r="O48" s="84"/>
+      <c r="P48" s="87"/>
+      <c r="Q48" s="90"/>
+      <c r="R48" s="92"/>
+      <c r="S48" s="73"/>
+      <c r="T48" s="75"/>
+      <c r="U48" s="73"/>
+      <c r="V48" s="75"/>
     </row>
     <row r="49" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B49" s="57"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="51"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="51"/>
-      <c r="H49" s="85"/>
-      <c r="I49" s="90" t="s">
+      <c r="B49" s="70"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="79"/>
+      <c r="I49" s="52" t="s">
         <v>18</v>
       </c>
       <c r="J49" s="36">
@@ -5576,30 +5576,30 @@
       <c r="N49" s="6">
         <v>184.21198100000001</v>
       </c>
-      <c r="O49" s="80"/>
-      <c r="P49" s="69"/>
-      <c r="Q49" s="77"/>
-      <c r="R49" s="66"/>
-      <c r="S49" s="75"/>
-      <c r="T49" s="72"/>
-      <c r="U49" s="75"/>
-      <c r="V49" s="72"/>
+      <c r="O49" s="84"/>
+      <c r="P49" s="87"/>
+      <c r="Q49" s="90"/>
+      <c r="R49" s="92"/>
+      <c r="S49" s="73"/>
+      <c r="T49" s="75"/>
+      <c r="U49" s="73"/>
+      <c r="V49" s="75"/>
     </row>
     <row r="50" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="57"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="51"/>
-      <c r="E50" s="51"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="85"/>
+      <c r="B50" s="70"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="58"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="79"/>
       <c r="I50" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="J50" s="91">
+      <c r="J50" s="53">
         <v>125950000</v>
       </c>
-      <c r="K50" s="91">
+      <c r="K50" s="53">
         <v>150010.9</v>
       </c>
       <c r="L50" s="30">
@@ -5613,23 +5613,23 @@
       <c r="N50" s="44">
         <v>148.414276</v>
       </c>
-      <c r="O50" s="80"/>
-      <c r="P50" s="69"/>
-      <c r="Q50" s="77"/>
-      <c r="R50" s="66"/>
-      <c r="S50" s="75"/>
-      <c r="T50" s="72"/>
-      <c r="U50" s="75"/>
-      <c r="V50" s="72"/>
+      <c r="O50" s="84"/>
+      <c r="P50" s="87"/>
+      <c r="Q50" s="90"/>
+      <c r="R50" s="92"/>
+      <c r="S50" s="73"/>
+      <c r="T50" s="75"/>
+      <c r="U50" s="73"/>
+      <c r="V50" s="75"/>
     </row>
     <row r="51" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B51" s="57"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="51"/>
-      <c r="F51" s="53"/>
-      <c r="G51" s="51"/>
-      <c r="H51" s="51"/>
+      <c r="B51" s="70"/>
+      <c r="C51" s="58"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="58"/>
+      <c r="H51" s="58"/>
       <c r="I51" s="34" t="s">
         <v>26</v>
       </c>
@@ -5650,14 +5650,14 @@
       <c r="N51" s="6">
         <v>20.598123999999999</v>
       </c>
-      <c r="O51" s="80"/>
-      <c r="P51" s="69"/>
-      <c r="Q51" s="77"/>
-      <c r="R51" s="66"/>
-      <c r="S51" s="75"/>
-      <c r="T51" s="72"/>
-      <c r="U51" s="75"/>
-      <c r="V51" s="72"/>
+      <c r="O51" s="84"/>
+      <c r="P51" s="87"/>
+      <c r="Q51" s="90"/>
+      <c r="R51" s="92"/>
+      <c r="S51" s="73"/>
+      <c r="T51" s="75"/>
+      <c r="U51" s="73"/>
+      <c r="V51" s="75"/>
       <c r="W51" s="47">
         <f>(M51+M41+M61)/3</f>
         <v>21.868962392841279</v>
@@ -5672,40 +5672,40 @@
       </c>
     </row>
     <row r="52" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B52" s="57"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="51"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="52"/>
-      <c r="H52" s="52"/>
+      <c r="B52" s="70"/>
+      <c r="C52" s="58"/>
+      <c r="D52" s="58"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="61"/>
+      <c r="H52" s="61"/>
       <c r="I52" s="20"/>
       <c r="J52" s="20"/>
       <c r="K52" s="20"/>
       <c r="L52" s="27"/>
       <c r="M52" s="29"/>
       <c r="N52" s="6"/>
-      <c r="O52" s="80"/>
-      <c r="P52" s="69"/>
-      <c r="Q52" s="77"/>
-      <c r="R52" s="66"/>
-      <c r="S52" s="75"/>
-      <c r="T52" s="72"/>
-      <c r="U52" s="75"/>
-      <c r="V52" s="72"/>
+      <c r="O52" s="84"/>
+      <c r="P52" s="87"/>
+      <c r="Q52" s="90"/>
+      <c r="R52" s="92"/>
+      <c r="S52" s="73"/>
+      <c r="T52" s="75"/>
+      <c r="U52" s="73"/>
+      <c r="V52" s="75"/>
     </row>
     <row r="53" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="57"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="51"/>
-      <c r="F53" s="54" t="s">
+      <c r="B53" s="70"/>
+      <c r="C53" s="58"/>
+      <c r="D53" s="58"/>
+      <c r="E53" s="58"/>
+      <c r="F53" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="G53" s="50">
+      <c r="G53" s="60">
         <v>556.13250200000004</v>
       </c>
-      <c r="H53" s="64">
+      <c r="H53" s="57">
         <v>1929043</v>
       </c>
       <c r="I53" s="33" t="s">
@@ -5725,39 +5725,39 @@
         <f t="shared" si="1"/>
         <v>23.433598753271838</v>
       </c>
-      <c r="N53" s="88">
+      <c r="N53" s="50">
         <v>19.718518</v>
       </c>
-      <c r="O53" s="80">
+      <c r="O53" s="84">
         <f>AVERAGE(N54:N62)</f>
         <v>171.74231699999999</v>
       </c>
-      <c r="P53" s="69"/>
-      <c r="Q53" s="77">
+      <c r="P53" s="87"/>
+      <c r="Q53" s="90">
         <f>AVERAGE(K54:K62)</f>
         <v>92523.321249999994</v>
       </c>
-      <c r="R53" s="66"/>
-      <c r="S53" s="75">
+      <c r="R53" s="92"/>
+      <c r="S53" s="73">
         <f>AVERAGE(M54:M60)</f>
         <v>27.060242490685443</v>
       </c>
-      <c r="T53" s="72"/>
-      <c r="U53" s="75">
+      <c r="T53" s="75"/>
+      <c r="U53" s="73">
         <f t="shared" ref="U53" si="8">AVERAGE(M53:M61)</f>
         <v>26.110505309941857</v>
       </c>
-      <c r="V53" s="72"/>
+      <c r="V53" s="75"/>
     </row>
     <row r="54" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B54" s="57"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51"/>
-      <c r="E54" s="51"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="51"/>
-      <c r="H54" s="85"/>
-      <c r="I54" s="89" t="s">
+      <c r="B54" s="70"/>
+      <c r="C54" s="58"/>
+      <c r="D54" s="58"/>
+      <c r="E54" s="58"/>
+      <c r="F54" s="66"/>
+      <c r="G54" s="58"/>
+      <c r="H54" s="79"/>
+      <c r="I54" s="51" t="s">
         <v>10</v>
       </c>
       <c r="J54" s="12">
@@ -5777,24 +5777,24 @@
       <c r="N54" s="11">
         <v>218.426962</v>
       </c>
-      <c r="O54" s="80"/>
-      <c r="P54" s="69"/>
-      <c r="Q54" s="77"/>
-      <c r="R54" s="66"/>
-      <c r="S54" s="75"/>
-      <c r="T54" s="72"/>
-      <c r="U54" s="75"/>
-      <c r="V54" s="72"/>
+      <c r="O54" s="84"/>
+      <c r="P54" s="87"/>
+      <c r="Q54" s="90"/>
+      <c r="R54" s="92"/>
+      <c r="S54" s="73"/>
+      <c r="T54" s="75"/>
+      <c r="U54" s="73"/>
+      <c r="V54" s="75"/>
     </row>
     <row r="55" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B55" s="57"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="51"/>
-      <c r="F55" s="54"/>
-      <c r="G55" s="51"/>
-      <c r="H55" s="85"/>
-      <c r="I55" s="90" t="s">
+      <c r="B55" s="70"/>
+      <c r="C55" s="58"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="58"/>
+      <c r="F55" s="66"/>
+      <c r="G55" s="58"/>
+      <c r="H55" s="79"/>
+      <c r="I55" s="52" t="s">
         <v>14</v>
       </c>
       <c r="J55" s="36">
@@ -5814,24 +5814,24 @@
       <c r="N55" s="6">
         <v>184.367312</v>
       </c>
-      <c r="O55" s="80"/>
-      <c r="P55" s="69"/>
-      <c r="Q55" s="77"/>
-      <c r="R55" s="66"/>
-      <c r="S55" s="75"/>
-      <c r="T55" s="72"/>
-      <c r="U55" s="75"/>
-      <c r="V55" s="72"/>
+      <c r="O55" s="84"/>
+      <c r="P55" s="87"/>
+      <c r="Q55" s="90"/>
+      <c r="R55" s="92"/>
+      <c r="S55" s="73"/>
+      <c r="T55" s="75"/>
+      <c r="U55" s="73"/>
+      <c r="V55" s="75"/>
     </row>
     <row r="56" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B56" s="57"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="51"/>
-      <c r="E56" s="51"/>
-      <c r="F56" s="54"/>
-      <c r="G56" s="51"/>
-      <c r="H56" s="85"/>
-      <c r="I56" s="90" t="s">
+      <c r="B56" s="70"/>
+      <c r="C56" s="58"/>
+      <c r="D56" s="58"/>
+      <c r="E56" s="58"/>
+      <c r="F56" s="66"/>
+      <c r="G56" s="58"/>
+      <c r="H56" s="79"/>
+      <c r="I56" s="52" t="s">
         <v>15</v>
       </c>
       <c r="J56" s="36">
@@ -5851,24 +5851,24 @@
       <c r="N56" s="6">
         <v>253.90728899999999</v>
       </c>
-      <c r="O56" s="80"/>
-      <c r="P56" s="69"/>
-      <c r="Q56" s="77"/>
-      <c r="R56" s="66"/>
-      <c r="S56" s="75"/>
-      <c r="T56" s="72"/>
-      <c r="U56" s="75"/>
-      <c r="V56" s="72"/>
+      <c r="O56" s="84"/>
+      <c r="P56" s="87"/>
+      <c r="Q56" s="90"/>
+      <c r="R56" s="92"/>
+      <c r="S56" s="73"/>
+      <c r="T56" s="75"/>
+      <c r="U56" s="73"/>
+      <c r="V56" s="75"/>
     </row>
     <row r="57" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B57" s="57"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
-      <c r="E57" s="51"/>
-      <c r="F57" s="54"/>
-      <c r="G57" s="51"/>
-      <c r="H57" s="85"/>
-      <c r="I57" s="90" t="s">
+      <c r="B57" s="70"/>
+      <c r="C57" s="58"/>
+      <c r="D57" s="58"/>
+      <c r="E57" s="58"/>
+      <c r="F57" s="66"/>
+      <c r="G57" s="58"/>
+      <c r="H57" s="79"/>
+      <c r="I57" s="52" t="s">
         <v>16</v>
       </c>
       <c r="J57" s="36">
@@ -5888,14 +5888,14 @@
       <c r="N57" s="6">
         <v>204.961679</v>
       </c>
-      <c r="O57" s="80"/>
-      <c r="P57" s="69"/>
-      <c r="Q57" s="77"/>
-      <c r="R57" s="66"/>
-      <c r="S57" s="75"/>
-      <c r="T57" s="72"/>
-      <c r="U57" s="75"/>
-      <c r="V57" s="72"/>
+      <c r="O57" s="84"/>
+      <c r="P57" s="87"/>
+      <c r="Q57" s="90"/>
+      <c r="R57" s="92"/>
+      <c r="S57" s="73"/>
+      <c r="T57" s="75"/>
+      <c r="U57" s="73"/>
+      <c r="V57" s="75"/>
       <c r="W57" s="47">
         <f>H43/H53</f>
         <v>1.9221676240498526</v>
@@ -5914,14 +5914,14 @@
       </c>
     </row>
     <row r="58" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B58" s="57"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51"/>
-      <c r="E58" s="51"/>
-      <c r="F58" s="54"/>
-      <c r="G58" s="51"/>
-      <c r="H58" s="85"/>
-      <c r="I58" s="90" t="s">
+      <c r="B58" s="70"/>
+      <c r="C58" s="58"/>
+      <c r="D58" s="58"/>
+      <c r="E58" s="58"/>
+      <c r="F58" s="66"/>
+      <c r="G58" s="58"/>
+      <c r="H58" s="79"/>
+      <c r="I58" s="52" t="s">
         <v>17</v>
       </c>
       <c r="J58" s="36">
@@ -5941,24 +5941,24 @@
       <c r="N58" s="6">
         <v>151.05023700000001</v>
       </c>
-      <c r="O58" s="80"/>
-      <c r="P58" s="69"/>
-      <c r="Q58" s="77"/>
-      <c r="R58" s="66"/>
-      <c r="S58" s="75"/>
-      <c r="T58" s="72"/>
-      <c r="U58" s="75"/>
-      <c r="V58" s="72"/>
+      <c r="O58" s="84"/>
+      <c r="P58" s="87"/>
+      <c r="Q58" s="90"/>
+      <c r="R58" s="92"/>
+      <c r="S58" s="73"/>
+      <c r="T58" s="75"/>
+      <c r="U58" s="73"/>
+      <c r="V58" s="75"/>
     </row>
     <row r="59" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B59" s="57"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="51"/>
-      <c r="E59" s="51"/>
-      <c r="F59" s="54"/>
-      <c r="G59" s="51"/>
-      <c r="H59" s="85"/>
-      <c r="I59" s="90" t="s">
+      <c r="B59" s="70"/>
+      <c r="C59" s="58"/>
+      <c r="D59" s="58"/>
+      <c r="E59" s="58"/>
+      <c r="F59" s="66"/>
+      <c r="G59" s="58"/>
+      <c r="H59" s="79"/>
+      <c r="I59" s="52" t="s">
         <v>18</v>
       </c>
       <c r="J59" s="36">
@@ -5978,30 +5978,30 @@
       <c r="N59" s="6">
         <v>193.48936699999999</v>
       </c>
-      <c r="O59" s="80"/>
-      <c r="P59" s="69"/>
-      <c r="Q59" s="77"/>
-      <c r="R59" s="66"/>
-      <c r="S59" s="75"/>
-      <c r="T59" s="72"/>
-      <c r="U59" s="75"/>
-      <c r="V59" s="72"/>
+      <c r="O59" s="84"/>
+      <c r="P59" s="87"/>
+      <c r="Q59" s="90"/>
+      <c r="R59" s="92"/>
+      <c r="S59" s="73"/>
+      <c r="T59" s="75"/>
+      <c r="U59" s="73"/>
+      <c r="V59" s="75"/>
     </row>
     <row r="60" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="57"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51"/>
-      <c r="E60" s="51"/>
-      <c r="F60" s="54"/>
-      <c r="G60" s="51"/>
-      <c r="H60" s="85"/>
+      <c r="B60" s="70"/>
+      <c r="C60" s="58"/>
+      <c r="D60" s="58"/>
+      <c r="E60" s="58"/>
+      <c r="F60" s="66"/>
+      <c r="G60" s="58"/>
+      <c r="H60" s="79"/>
       <c r="I60" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="J60" s="91">
+      <c r="J60" s="53">
         <v>125950000</v>
       </c>
-      <c r="K60" s="91">
+      <c r="K60" s="53">
         <v>147983.1</v>
       </c>
       <c r="L60" s="30">
@@ -6015,23 +6015,23 @@
       <c r="N60" s="44">
         <v>149.47504000000001</v>
       </c>
-      <c r="O60" s="80"/>
-      <c r="P60" s="69"/>
-      <c r="Q60" s="77"/>
-      <c r="R60" s="66"/>
-      <c r="S60" s="75"/>
-      <c r="T60" s="72"/>
-      <c r="U60" s="75"/>
-      <c r="V60" s="72"/>
+      <c r="O60" s="84"/>
+      <c r="P60" s="87"/>
+      <c r="Q60" s="90"/>
+      <c r="R60" s="92"/>
+      <c r="S60" s="73"/>
+      <c r="T60" s="75"/>
+      <c r="U60" s="73"/>
+      <c r="V60" s="75"/>
     </row>
     <row r="61" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B61" s="57"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51"/>
-      <c r="E61" s="51"/>
-      <c r="F61" s="54"/>
-      <c r="G61" s="51"/>
-      <c r="H61" s="51"/>
+      <c r="B61" s="70"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="58"/>
+      <c r="E61" s="58"/>
+      <c r="F61" s="66"/>
+      <c r="G61" s="58"/>
+      <c r="H61" s="58"/>
       <c r="I61" s="34" t="s">
         <v>26</v>
       </c>
@@ -6052,56 +6052,56 @@
       <c r="N61" s="6">
         <v>18.260649999999998</v>
       </c>
-      <c r="O61" s="80"/>
-      <c r="P61" s="69"/>
-      <c r="Q61" s="77"/>
-      <c r="R61" s="66"/>
-      <c r="S61" s="75"/>
-      <c r="T61" s="72"/>
-      <c r="U61" s="75"/>
-      <c r="V61" s="72"/>
+      <c r="O61" s="84"/>
+      <c r="P61" s="87"/>
+      <c r="Q61" s="90"/>
+      <c r="R61" s="92"/>
+      <c r="S61" s="73"/>
+      <c r="T61" s="75"/>
+      <c r="U61" s="73"/>
+      <c r="V61" s="75"/>
     </row>
     <row r="62" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="57"/>
-      <c r="C62" s="51"/>
-      <c r="D62" s="51"/>
-      <c r="E62" s="51"/>
-      <c r="F62" s="83"/>
-      <c r="G62" s="51"/>
-      <c r="H62" s="51"/>
+      <c r="B62" s="70"/>
+      <c r="C62" s="58"/>
+      <c r="D62" s="58"/>
+      <c r="E62" s="58"/>
+      <c r="F62" s="82"/>
+      <c r="G62" s="58"/>
+      <c r="H62" s="58"/>
       <c r="I62" s="21"/>
       <c r="J62" s="22"/>
       <c r="K62" s="21"/>
       <c r="L62" s="41"/>
       <c r="M62" s="42"/>
       <c r="N62" s="43"/>
-      <c r="O62" s="81"/>
-      <c r="P62" s="70"/>
-      <c r="Q62" s="79"/>
-      <c r="R62" s="67"/>
-      <c r="S62" s="76"/>
-      <c r="T62" s="73"/>
-      <c r="U62" s="75"/>
-      <c r="V62" s="72"/>
+      <c r="O62" s="85"/>
+      <c r="P62" s="88"/>
+      <c r="Q62" s="94"/>
+      <c r="R62" s="93"/>
+      <c r="S62" s="77"/>
+      <c r="T62" s="76"/>
+      <c r="U62" s="73"/>
+      <c r="V62" s="75"/>
     </row>
     <row r="63" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="57"/>
-      <c r="C63" s="50">
+      <c r="B63" s="70"/>
+      <c r="C63" s="60">
         <v>4</v>
       </c>
-      <c r="D63" s="86">
+      <c r="D63" s="80">
         <v>1</v>
       </c>
-      <c r="E63" s="56">
+      <c r="E63" s="69">
         <v>16</v>
       </c>
-      <c r="F63" s="60" t="s">
+      <c r="F63" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="G63" s="60">
+      <c r="G63" s="64">
         <v>0.445967</v>
       </c>
-      <c r="H63" s="61">
+      <c r="H63" s="65">
         <v>447684.6</v>
       </c>
       <c r="I63" s="37" t="s">
@@ -6113,59 +6113,59 @@
       <c r="K63" s="38">
         <v>199181.2</v>
       </c>
-      <c r="L63" s="92">
+      <c r="L63" s="54">
         <f t="shared" si="0"/>
         <v>23.508744801216178</v>
       </c>
-      <c r="M63" s="93">
+      <c r="M63" s="55">
         <f t="shared" si="1"/>
         <v>13.712294415256983</v>
       </c>
-      <c r="N63" s="94">
+      <c r="N63" s="56">
         <v>0.76542600000000005</v>
       </c>
-      <c r="O63" s="82">
+      <c r="O63" s="83">
         <f>AVERAGE(N64:N72)</f>
         <v>6.0934838750000004</v>
       </c>
-      <c r="P63" s="68">
+      <c r="P63" s="86">
         <f>AVERAGE(O63:O86)</f>
         <v>6.0326039583333335</v>
       </c>
-      <c r="Q63" s="78">
+      <c r="Q63" s="89">
         <f>AVERAGE(K64:K72)</f>
         <v>6413699.6374999993</v>
       </c>
-      <c r="R63" s="65">
+      <c r="R63" s="91">
         <f>AVERAGE(Q63:Q86)</f>
         <v>3927034.2624999997</v>
       </c>
-      <c r="S63" s="74">
+      <c r="S63" s="72">
         <f>AVERAGE(M64:M70)</f>
         <v>9.6620570529805025</v>
       </c>
-      <c r="T63" s="71">
+      <c r="T63" s="74">
         <f>AVERAGE(S63:S86)</f>
         <v>11.799041724398654</v>
       </c>
-      <c r="U63" s="74">
+      <c r="U63" s="72">
         <f t="shared" ref="U63" si="9">AVERAGE(M63:M71)</f>
         <v>10.240600641902899</v>
       </c>
-      <c r="V63" s="71">
+      <c r="V63" s="74">
         <f t="shared" ref="V63" si="10">AVERAGE(U63:U92)</f>
         <v>11.252341945182087</v>
       </c>
     </row>
     <row r="64" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B64" s="57"/>
-      <c r="C64" s="51"/>
-      <c r="D64" s="85"/>
-      <c r="E64" s="57"/>
-      <c r="F64" s="51"/>
-      <c r="G64" s="51"/>
-      <c r="H64" s="87"/>
-      <c r="I64" s="89" t="s">
+      <c r="B64" s="70"/>
+      <c r="C64" s="58"/>
+      <c r="D64" s="79"/>
+      <c r="E64" s="70"/>
+      <c r="F64" s="58"/>
+      <c r="G64" s="58"/>
+      <c r="H64" s="81"/>
+      <c r="I64" s="51" t="s">
         <v>10</v>
       </c>
       <c r="J64" s="12">
@@ -6185,24 +6185,24 @@
       <c r="N64" s="11">
         <v>7.9798</v>
       </c>
-      <c r="O64" s="80"/>
-      <c r="P64" s="69"/>
-      <c r="Q64" s="77"/>
-      <c r="R64" s="66"/>
-      <c r="S64" s="75"/>
-      <c r="T64" s="72"/>
-      <c r="U64" s="75"/>
-      <c r="V64" s="72"/>
+      <c r="O64" s="84"/>
+      <c r="P64" s="87"/>
+      <c r="Q64" s="90"/>
+      <c r="R64" s="92"/>
+      <c r="S64" s="73"/>
+      <c r="T64" s="75"/>
+      <c r="U64" s="73"/>
+      <c r="V64" s="75"/>
     </row>
     <row r="65" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B65" s="57"/>
-      <c r="C65" s="51"/>
-      <c r="D65" s="85"/>
-      <c r="E65" s="57"/>
-      <c r="F65" s="51"/>
-      <c r="G65" s="51"/>
-      <c r="H65" s="87"/>
-      <c r="I65" s="90" t="s">
+      <c r="B65" s="70"/>
+      <c r="C65" s="58"/>
+      <c r="D65" s="79"/>
+      <c r="E65" s="70"/>
+      <c r="F65" s="58"/>
+      <c r="G65" s="58"/>
+      <c r="H65" s="81"/>
+      <c r="I65" s="52" t="s">
         <v>14</v>
       </c>
       <c r="J65" s="36">
@@ -6222,24 +6222,24 @@
       <c r="N65" s="6">
         <v>6.9851159999999997</v>
       </c>
-      <c r="O65" s="80"/>
-      <c r="P65" s="69"/>
-      <c r="Q65" s="77"/>
-      <c r="R65" s="66"/>
-      <c r="S65" s="75"/>
-      <c r="T65" s="72"/>
-      <c r="U65" s="75"/>
-      <c r="V65" s="72"/>
+      <c r="O65" s="84"/>
+      <c r="P65" s="87"/>
+      <c r="Q65" s="90"/>
+      <c r="R65" s="92"/>
+      <c r="S65" s="73"/>
+      <c r="T65" s="75"/>
+      <c r="U65" s="73"/>
+      <c r="V65" s="75"/>
     </row>
     <row r="66" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B66" s="57"/>
-      <c r="C66" s="51"/>
-      <c r="D66" s="85"/>
-      <c r="E66" s="57"/>
-      <c r="F66" s="51"/>
-      <c r="G66" s="51"/>
-      <c r="H66" s="87"/>
-      <c r="I66" s="90" t="s">
+      <c r="B66" s="70"/>
+      <c r="C66" s="58"/>
+      <c r="D66" s="79"/>
+      <c r="E66" s="70"/>
+      <c r="F66" s="58"/>
+      <c r="G66" s="58"/>
+      <c r="H66" s="81"/>
+      <c r="I66" s="52" t="s">
         <v>15</v>
       </c>
       <c r="J66" s="36">
@@ -6259,24 +6259,24 @@
       <c r="N66" s="6">
         <v>8.8036809999999992</v>
       </c>
-      <c r="O66" s="80"/>
-      <c r="P66" s="69"/>
-      <c r="Q66" s="77"/>
-      <c r="R66" s="66"/>
-      <c r="S66" s="75"/>
-      <c r="T66" s="72"/>
-      <c r="U66" s="75"/>
-      <c r="V66" s="72"/>
+      <c r="O66" s="84"/>
+      <c r="P66" s="87"/>
+      <c r="Q66" s="90"/>
+      <c r="R66" s="92"/>
+      <c r="S66" s="73"/>
+      <c r="T66" s="75"/>
+      <c r="U66" s="73"/>
+      <c r="V66" s="75"/>
     </row>
     <row r="67" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B67" s="57"/>
-      <c r="C67" s="51"/>
-      <c r="D67" s="85"/>
-      <c r="E67" s="57"/>
-      <c r="F67" s="51"/>
-      <c r="G67" s="51"/>
-      <c r="H67" s="87"/>
-      <c r="I67" s="90" t="s">
+      <c r="B67" s="70"/>
+      <c r="C67" s="58"/>
+      <c r="D67" s="79"/>
+      <c r="E67" s="70"/>
+      <c r="F67" s="58"/>
+      <c r="G67" s="58"/>
+      <c r="H67" s="81"/>
+      <c r="I67" s="52" t="s">
         <v>16</v>
       </c>
       <c r="J67" s="36">
@@ -6296,24 +6296,24 @@
       <c r="N67" s="6">
         <v>7.5578770000000004</v>
       </c>
-      <c r="O67" s="80"/>
-      <c r="P67" s="69"/>
-      <c r="Q67" s="77"/>
-      <c r="R67" s="66"/>
-      <c r="S67" s="75"/>
-      <c r="T67" s="72"/>
-      <c r="U67" s="75"/>
-      <c r="V67" s="72"/>
+      <c r="O67" s="84"/>
+      <c r="P67" s="87"/>
+      <c r="Q67" s="90"/>
+      <c r="R67" s="92"/>
+      <c r="S67" s="73"/>
+      <c r="T67" s="75"/>
+      <c r="U67" s="73"/>
+      <c r="V67" s="75"/>
     </row>
     <row r="68" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B68" s="57"/>
-      <c r="C68" s="51"/>
-      <c r="D68" s="85"/>
-      <c r="E68" s="57"/>
-      <c r="F68" s="51"/>
-      <c r="G68" s="51"/>
-      <c r="H68" s="87"/>
-      <c r="I68" s="90" t="s">
+      <c r="B68" s="70"/>
+      <c r="C68" s="58"/>
+      <c r="D68" s="79"/>
+      <c r="E68" s="70"/>
+      <c r="F68" s="58"/>
+      <c r="G68" s="58"/>
+      <c r="H68" s="81"/>
+      <c r="I68" s="52" t="s">
         <v>17</v>
       </c>
       <c r="J68" s="36">
@@ -6333,24 +6333,24 @@
       <c r="N68" s="6">
         <v>5.0440459999999998</v>
       </c>
-      <c r="O68" s="80"/>
-      <c r="P68" s="69"/>
-      <c r="Q68" s="77"/>
-      <c r="R68" s="66"/>
-      <c r="S68" s="75"/>
-      <c r="T68" s="72"/>
-      <c r="U68" s="75"/>
-      <c r="V68" s="72"/>
+      <c r="O68" s="84"/>
+      <c r="P68" s="87"/>
+      <c r="Q68" s="90"/>
+      <c r="R68" s="92"/>
+      <c r="S68" s="73"/>
+      <c r="T68" s="75"/>
+      <c r="U68" s="73"/>
+      <c r="V68" s="75"/>
     </row>
     <row r="69" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B69" s="57"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="85"/>
-      <c r="E69" s="57"/>
-      <c r="F69" s="51"/>
-      <c r="G69" s="51"/>
-      <c r="H69" s="87"/>
-      <c r="I69" s="90" t="s">
+      <c r="B69" s="70"/>
+      <c r="C69" s="58"/>
+      <c r="D69" s="79"/>
+      <c r="E69" s="70"/>
+      <c r="F69" s="58"/>
+      <c r="G69" s="58"/>
+      <c r="H69" s="81"/>
+      <c r="I69" s="52" t="s">
         <v>18</v>
       </c>
       <c r="J69" s="36">
@@ -6370,30 +6370,30 @@
       <c r="N69" s="6">
         <v>6.9642460000000002</v>
       </c>
-      <c r="O69" s="80"/>
-      <c r="P69" s="69"/>
-      <c r="Q69" s="77"/>
-      <c r="R69" s="66"/>
-      <c r="S69" s="75"/>
-      <c r="T69" s="72"/>
-      <c r="U69" s="75"/>
-      <c r="V69" s="72"/>
+      <c r="O69" s="84"/>
+      <c r="P69" s="87"/>
+      <c r="Q69" s="90"/>
+      <c r="R69" s="92"/>
+      <c r="S69" s="73"/>
+      <c r="T69" s="75"/>
+      <c r="U69" s="73"/>
+      <c r="V69" s="75"/>
     </row>
     <row r="70" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="57"/>
-      <c r="C70" s="51"/>
-      <c r="D70" s="85"/>
-      <c r="E70" s="57"/>
-      <c r="F70" s="51"/>
-      <c r="G70" s="51"/>
-      <c r="H70" s="87"/>
+      <c r="B70" s="70"/>
+      <c r="C70" s="58"/>
+      <c r="D70" s="79"/>
+      <c r="E70" s="70"/>
+      <c r="F70" s="58"/>
+      <c r="G70" s="58"/>
+      <c r="H70" s="81"/>
       <c r="I70" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="J70" s="91">
+      <c r="J70" s="53">
         <v>125950000</v>
       </c>
-      <c r="K70" s="91">
+      <c r="K70" s="53">
         <v>15052060</v>
       </c>
       <c r="L70" s="30">
@@ -6407,22 +6407,22 @@
       <c r="N70" s="44">
         <v>4.6389800000000001</v>
       </c>
-      <c r="O70" s="80"/>
-      <c r="P70" s="69"/>
-      <c r="Q70" s="77"/>
-      <c r="R70" s="66"/>
-      <c r="S70" s="75"/>
-      <c r="T70" s="72"/>
-      <c r="U70" s="75"/>
-      <c r="V70" s="72"/>
+      <c r="O70" s="84"/>
+      <c r="P70" s="87"/>
+      <c r="Q70" s="90"/>
+      <c r="R70" s="92"/>
+      <c r="S70" s="73"/>
+      <c r="T70" s="75"/>
+      <c r="U70" s="73"/>
+      <c r="V70" s="75"/>
     </row>
     <row r="71" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B71" s="57"/>
-      <c r="C71" s="51"/>
-      <c r="D71" s="85"/>
-      <c r="E71" s="57"/>
-      <c r="F71" s="51"/>
-      <c r="G71" s="51"/>
+      <c r="B71" s="70"/>
+      <c r="C71" s="58"/>
+      <c r="D71" s="79"/>
+      <c r="E71" s="70"/>
+      <c r="F71" s="58"/>
+      <c r="G71" s="58"/>
       <c r="H71" s="62"/>
       <c r="I71" s="34" t="s">
         <v>26</v>
@@ -6444,22 +6444,22 @@
       <c r="N71" s="6">
         <v>0.77412499999999995</v>
       </c>
-      <c r="O71" s="80"/>
-      <c r="P71" s="69"/>
-      <c r="Q71" s="77"/>
-      <c r="R71" s="66"/>
-      <c r="S71" s="75"/>
-      <c r="T71" s="72"/>
-      <c r="U71" s="75"/>
-      <c r="V71" s="72"/>
+      <c r="O71" s="84"/>
+      <c r="P71" s="87"/>
+      <c r="Q71" s="90"/>
+      <c r="R71" s="92"/>
+      <c r="S71" s="73"/>
+      <c r="T71" s="75"/>
+      <c r="U71" s="73"/>
+      <c r="V71" s="75"/>
     </row>
     <row r="72" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B72" s="57"/>
-      <c r="C72" s="51"/>
-      <c r="D72" s="85"/>
-      <c r="E72" s="57"/>
-      <c r="F72" s="51"/>
-      <c r="G72" s="52"/>
+      <c r="B72" s="70"/>
+      <c r="C72" s="58"/>
+      <c r="D72" s="79"/>
+      <c r="E72" s="70"/>
+      <c r="F72" s="58"/>
+      <c r="G72" s="61"/>
       <c r="H72" s="63"/>
       <c r="I72" s="23"/>
       <c r="J72" s="23"/>
@@ -6467,27 +6467,27 @@
       <c r="L72" s="27"/>
       <c r="M72" s="29"/>
       <c r="N72" s="6"/>
-      <c r="O72" s="80"/>
-      <c r="P72" s="69"/>
-      <c r="Q72" s="77"/>
-      <c r="R72" s="66"/>
-      <c r="S72" s="75"/>
-      <c r="T72" s="72"/>
-      <c r="U72" s="75"/>
-      <c r="V72" s="72"/>
+      <c r="O72" s="84"/>
+      <c r="P72" s="87"/>
+      <c r="Q72" s="90"/>
+      <c r="R72" s="92"/>
+      <c r="S72" s="73"/>
+      <c r="T72" s="75"/>
+      <c r="U72" s="73"/>
+      <c r="V72" s="75"/>
     </row>
     <row r="73" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="57"/>
-      <c r="C73" s="51"/>
-      <c r="D73" s="85"/>
-      <c r="E73" s="57"/>
-      <c r="F73" s="53" t="s">
+      <c r="B73" s="70"/>
+      <c r="C73" s="58"/>
+      <c r="D73" s="79"/>
+      <c r="E73" s="70"/>
+      <c r="F73" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="G73" s="50">
+      <c r="G73" s="60">
         <v>0.472194</v>
       </c>
-      <c r="H73" s="64">
+      <c r="H73" s="57">
         <v>33111130</v>
       </c>
       <c r="I73" s="33" t="s">
@@ -6507,29 +6507,29 @@
         <f t="shared" si="12"/>
         <v>5.4465767515210919</v>
       </c>
-      <c r="N73" s="88">
+      <c r="N73" s="50">
         <v>0.757969</v>
       </c>
-      <c r="O73" s="80">
+      <c r="O73" s="84">
         <f>AVERAGE(N74:N82)</f>
         <v>5.9226822500000003</v>
       </c>
-      <c r="P73" s="69"/>
-      <c r="Q73" s="77">
+      <c r="P73" s="87"/>
+      <c r="Q73" s="90">
         <f>AVERAGE(K74:K82)</f>
         <v>3560619.75</v>
       </c>
-      <c r="R73" s="66"/>
-      <c r="S73" s="75">
+      <c r="R73" s="92"/>
+      <c r="S73" s="73">
         <f>AVERAGE(M74:M80)</f>
         <v>11.565865243299879</v>
       </c>
-      <c r="T73" s="72"/>
-      <c r="U73" s="75">
+      <c r="T73" s="75"/>
+      <c r="U73" s="73">
         <f t="shared" ref="U73" si="13">AVERAGE(M73:M81)</f>
         <v>10.209381703617773</v>
       </c>
-      <c r="V73" s="72"/>
+      <c r="V73" s="75"/>
       <c r="W73" s="40">
         <f>(M73+M63+M83)/3</f>
         <v>10.09602632719443</v>
@@ -6544,14 +6544,14 @@
       </c>
     </row>
     <row r="74" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B74" s="57"/>
-      <c r="C74" s="51"/>
-      <c r="D74" s="85"/>
-      <c r="E74" s="57"/>
-      <c r="F74" s="53"/>
-      <c r="G74" s="51"/>
-      <c r="H74" s="85"/>
-      <c r="I74" s="89" t="s">
+      <c r="B74" s="70"/>
+      <c r="C74" s="58"/>
+      <c r="D74" s="79"/>
+      <c r="E74" s="70"/>
+      <c r="F74" s="67"/>
+      <c r="G74" s="58"/>
+      <c r="H74" s="79"/>
+      <c r="I74" s="51" t="s">
         <v>10</v>
       </c>
       <c r="J74" s="12">
@@ -6571,24 +6571,24 @@
       <c r="N74" s="11">
         <v>8.016686</v>
       </c>
-      <c r="O74" s="80"/>
-      <c r="P74" s="69"/>
-      <c r="Q74" s="77"/>
-      <c r="R74" s="66"/>
-      <c r="S74" s="75"/>
-      <c r="T74" s="72"/>
-      <c r="U74" s="75"/>
-      <c r="V74" s="72"/>
+      <c r="O74" s="84"/>
+      <c r="P74" s="87"/>
+      <c r="Q74" s="90"/>
+      <c r="R74" s="92"/>
+      <c r="S74" s="73"/>
+      <c r="T74" s="75"/>
+      <c r="U74" s="73"/>
+      <c r="V74" s="75"/>
     </row>
     <row r="75" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B75" s="57"/>
-      <c r="C75" s="51"/>
-      <c r="D75" s="85"/>
-      <c r="E75" s="57"/>
-      <c r="F75" s="53"/>
-      <c r="G75" s="51"/>
-      <c r="H75" s="85"/>
-      <c r="I75" s="90" t="s">
+      <c r="B75" s="70"/>
+      <c r="C75" s="58"/>
+      <c r="D75" s="79"/>
+      <c r="E75" s="70"/>
+      <c r="F75" s="67"/>
+      <c r="G75" s="58"/>
+      <c r="H75" s="79"/>
+      <c r="I75" s="52" t="s">
         <v>14</v>
       </c>
       <c r="J75" s="36">
@@ -6608,24 +6608,24 @@
       <c r="N75" s="6">
         <v>6.6183490000000003</v>
       </c>
-      <c r="O75" s="80"/>
-      <c r="P75" s="69"/>
-      <c r="Q75" s="77"/>
-      <c r="R75" s="66"/>
-      <c r="S75" s="75"/>
-      <c r="T75" s="72"/>
-      <c r="U75" s="75"/>
-      <c r="V75" s="72"/>
+      <c r="O75" s="84"/>
+      <c r="P75" s="87"/>
+      <c r="Q75" s="90"/>
+      <c r="R75" s="92"/>
+      <c r="S75" s="73"/>
+      <c r="T75" s="75"/>
+      <c r="U75" s="73"/>
+      <c r="V75" s="75"/>
     </row>
     <row r="76" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B76" s="57"/>
-      <c r="C76" s="51"/>
-      <c r="D76" s="85"/>
-      <c r="E76" s="57"/>
-      <c r="F76" s="53"/>
-      <c r="G76" s="51"/>
-      <c r="H76" s="85"/>
-      <c r="I76" s="90" t="s">
+      <c r="B76" s="70"/>
+      <c r="C76" s="58"/>
+      <c r="D76" s="79"/>
+      <c r="E76" s="70"/>
+      <c r="F76" s="67"/>
+      <c r="G76" s="58"/>
+      <c r="H76" s="79"/>
+      <c r="I76" s="52" t="s">
         <v>15</v>
       </c>
       <c r="J76" s="36">
@@ -6645,24 +6645,24 @@
       <c r="N76" s="32">
         <v>7.9898790000000002</v>
       </c>
-      <c r="O76" s="80"/>
-      <c r="P76" s="69"/>
-      <c r="Q76" s="77"/>
-      <c r="R76" s="66"/>
-      <c r="S76" s="75"/>
-      <c r="T76" s="72"/>
-      <c r="U76" s="75"/>
-      <c r="V76" s="72"/>
+      <c r="O76" s="84"/>
+      <c r="P76" s="87"/>
+      <c r="Q76" s="90"/>
+      <c r="R76" s="92"/>
+      <c r="S76" s="73"/>
+      <c r="T76" s="75"/>
+      <c r="U76" s="73"/>
+      <c r="V76" s="75"/>
     </row>
     <row r="77" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B77" s="57"/>
-      <c r="C77" s="51"/>
-      <c r="D77" s="85"/>
-      <c r="E77" s="57"/>
-      <c r="F77" s="53"/>
-      <c r="G77" s="51"/>
-      <c r="H77" s="85"/>
-      <c r="I77" s="90" t="s">
+      <c r="B77" s="70"/>
+      <c r="C77" s="58"/>
+      <c r="D77" s="79"/>
+      <c r="E77" s="70"/>
+      <c r="F77" s="67"/>
+      <c r="G77" s="58"/>
+      <c r="H77" s="79"/>
+      <c r="I77" s="52" t="s">
         <v>16</v>
       </c>
       <c r="J77" s="36">
@@ -6682,24 +6682,24 @@
       <c r="N77" s="6">
         <v>7.1455599999999997</v>
       </c>
-      <c r="O77" s="80"/>
-      <c r="P77" s="69"/>
-      <c r="Q77" s="77"/>
-      <c r="R77" s="66"/>
-      <c r="S77" s="75"/>
-      <c r="T77" s="72"/>
-      <c r="U77" s="75"/>
-      <c r="V77" s="72"/>
+      <c r="O77" s="84"/>
+      <c r="P77" s="87"/>
+      <c r="Q77" s="90"/>
+      <c r="R77" s="92"/>
+      <c r="S77" s="73"/>
+      <c r="T77" s="75"/>
+      <c r="U77" s="73"/>
+      <c r="V77" s="75"/>
     </row>
     <row r="78" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B78" s="57"/>
-      <c r="C78" s="51"/>
-      <c r="D78" s="85"/>
-      <c r="E78" s="57"/>
-      <c r="F78" s="53"/>
-      <c r="G78" s="51"/>
-      <c r="H78" s="85"/>
-      <c r="I78" s="90" t="s">
+      <c r="B78" s="70"/>
+      <c r="C78" s="58"/>
+      <c r="D78" s="79"/>
+      <c r="E78" s="70"/>
+      <c r="F78" s="67"/>
+      <c r="G78" s="58"/>
+      <c r="H78" s="79"/>
+      <c r="I78" s="52" t="s">
         <v>17</v>
       </c>
       <c r="J78" s="36">
@@ -6719,24 +6719,24 @@
       <c r="N78" s="6">
         <v>5.30783</v>
       </c>
-      <c r="O78" s="80"/>
-      <c r="P78" s="69"/>
-      <c r="Q78" s="77"/>
-      <c r="R78" s="66"/>
-      <c r="S78" s="75"/>
-      <c r="T78" s="72"/>
-      <c r="U78" s="75"/>
-      <c r="V78" s="72"/>
+      <c r="O78" s="84"/>
+      <c r="P78" s="87"/>
+      <c r="Q78" s="90"/>
+      <c r="R78" s="92"/>
+      <c r="S78" s="73"/>
+      <c r="T78" s="75"/>
+      <c r="U78" s="73"/>
+      <c r="V78" s="75"/>
     </row>
     <row r="79" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B79" s="57"/>
-      <c r="C79" s="51"/>
-      <c r="D79" s="85"/>
-      <c r="E79" s="57"/>
-      <c r="F79" s="53"/>
-      <c r="G79" s="51"/>
-      <c r="H79" s="85"/>
-      <c r="I79" s="90" t="s">
+      <c r="B79" s="70"/>
+      <c r="C79" s="58"/>
+      <c r="D79" s="79"/>
+      <c r="E79" s="70"/>
+      <c r="F79" s="67"/>
+      <c r="G79" s="58"/>
+      <c r="H79" s="79"/>
+      <c r="I79" s="52" t="s">
         <v>18</v>
       </c>
       <c r="J79" s="36">
@@ -6756,30 +6756,30 @@
       <c r="N79" s="6">
         <v>6.4029360000000004</v>
       </c>
-      <c r="O79" s="80"/>
-      <c r="P79" s="69"/>
-      <c r="Q79" s="77"/>
-      <c r="R79" s="66"/>
-      <c r="S79" s="75"/>
-      <c r="T79" s="72"/>
-      <c r="U79" s="75"/>
-      <c r="V79" s="72"/>
+      <c r="O79" s="84"/>
+      <c r="P79" s="87"/>
+      <c r="Q79" s="90"/>
+      <c r="R79" s="92"/>
+      <c r="S79" s="73"/>
+      <c r="T79" s="75"/>
+      <c r="U79" s="73"/>
+      <c r="V79" s="75"/>
     </row>
     <row r="80" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="57"/>
-      <c r="C80" s="51"/>
-      <c r="D80" s="85"/>
-      <c r="E80" s="57"/>
-      <c r="F80" s="53"/>
-      <c r="G80" s="51"/>
-      <c r="H80" s="85"/>
+      <c r="B80" s="70"/>
+      <c r="C80" s="58"/>
+      <c r="D80" s="79"/>
+      <c r="E80" s="70"/>
+      <c r="F80" s="67"/>
+      <c r="G80" s="58"/>
+      <c r="H80" s="79"/>
       <c r="I80" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="J80" s="91">
+      <c r="J80" s="53">
         <v>125950000</v>
       </c>
-      <c r="K80" s="91">
+      <c r="K80" s="53">
         <v>6687215</v>
       </c>
       <c r="L80" s="30">
@@ -6793,23 +6793,23 @@
       <c r="N80" s="44">
         <v>5.0740800000000004</v>
       </c>
-      <c r="O80" s="80"/>
-      <c r="P80" s="69"/>
-      <c r="Q80" s="77"/>
-      <c r="R80" s="66"/>
-      <c r="S80" s="75"/>
-      <c r="T80" s="72"/>
-      <c r="U80" s="75"/>
-      <c r="V80" s="72"/>
+      <c r="O80" s="84"/>
+      <c r="P80" s="87"/>
+      <c r="Q80" s="90"/>
+      <c r="R80" s="92"/>
+      <c r="S80" s="73"/>
+      <c r="T80" s="75"/>
+      <c r="U80" s="73"/>
+      <c r="V80" s="75"/>
     </row>
     <row r="81" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B81" s="57"/>
-      <c r="C81" s="51"/>
-      <c r="D81" s="85"/>
-      <c r="E81" s="57"/>
-      <c r="F81" s="53"/>
-      <c r="G81" s="51"/>
-      <c r="H81" s="51"/>
+      <c r="B81" s="70"/>
+      <c r="C81" s="58"/>
+      <c r="D81" s="79"/>
+      <c r="E81" s="70"/>
+      <c r="F81" s="67"/>
+      <c r="G81" s="58"/>
+      <c r="H81" s="58"/>
       <c r="I81" s="34" t="s">
         <v>26</v>
       </c>
@@ -6830,14 +6830,14 @@
       <c r="N81" s="6">
         <v>0.82613800000000004</v>
       </c>
-      <c r="O81" s="80"/>
-      <c r="P81" s="69"/>
-      <c r="Q81" s="77"/>
-      <c r="R81" s="66"/>
-      <c r="S81" s="75"/>
-      <c r="T81" s="72"/>
-      <c r="U81" s="75"/>
-      <c r="V81" s="72"/>
+      <c r="O81" s="84"/>
+      <c r="P81" s="87"/>
+      <c r="Q81" s="90"/>
+      <c r="R81" s="92"/>
+      <c r="S81" s="73"/>
+      <c r="T81" s="75"/>
+      <c r="U81" s="73"/>
+      <c r="V81" s="75"/>
       <c r="W81" s="47">
         <f>(M81+M71+M91)/3</f>
         <v>8.5817591086537757</v>
@@ -6852,40 +6852,40 @@
       </c>
     </row>
     <row r="82" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B82" s="57"/>
-      <c r="C82" s="51"/>
-      <c r="D82" s="85"/>
-      <c r="E82" s="57"/>
-      <c r="F82" s="53"/>
-      <c r="G82" s="52"/>
-      <c r="H82" s="52"/>
+      <c r="B82" s="70"/>
+      <c r="C82" s="58"/>
+      <c r="D82" s="79"/>
+      <c r="E82" s="70"/>
+      <c r="F82" s="67"/>
+      <c r="G82" s="61"/>
+      <c r="H82" s="61"/>
       <c r="I82" s="23"/>
       <c r="J82" s="23"/>
       <c r="K82" s="23"/>
       <c r="L82" s="27"/>
       <c r="M82" s="29"/>
       <c r="N82" s="6"/>
-      <c r="O82" s="80"/>
-      <c r="P82" s="69"/>
-      <c r="Q82" s="77"/>
-      <c r="R82" s="66"/>
-      <c r="S82" s="75"/>
-      <c r="T82" s="72"/>
-      <c r="U82" s="75"/>
-      <c r="V82" s="72"/>
+      <c r="O82" s="84"/>
+      <c r="P82" s="87"/>
+      <c r="Q82" s="90"/>
+      <c r="R82" s="92"/>
+      <c r="S82" s="73"/>
+      <c r="T82" s="75"/>
+      <c r="U82" s="73"/>
+      <c r="V82" s="75"/>
     </row>
     <row r="83" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="57"/>
-      <c r="C83" s="51"/>
-      <c r="D83" s="85"/>
-      <c r="E83" s="57"/>
-      <c r="F83" s="54" t="s">
+      <c r="B83" s="70"/>
+      <c r="C83" s="58"/>
+      <c r="D83" s="79"/>
+      <c r="E83" s="70"/>
+      <c r="F83" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="G83" s="50">
+      <c r="G83" s="60">
         <v>1.206914</v>
       </c>
-      <c r="H83" s="64">
+      <c r="H83" s="57">
         <v>9698399</v>
       </c>
       <c r="I83" s="33" t="s">
@@ -6905,39 +6905,39 @@
         <f t="shared" si="12"/>
         <v>11.129207814805218</v>
       </c>
-      <c r="N83" s="88">
+      <c r="N83" s="50">
         <v>0.70852899999999996</v>
       </c>
-      <c r="O83" s="80">
+      <c r="O83" s="84">
         <f>AVERAGE(N84:N92)</f>
         <v>6.0816457500000007</v>
       </c>
-      <c r="P83" s="69"/>
-      <c r="Q83" s="77">
+      <c r="P83" s="87"/>
+      <c r="Q83" s="90">
         <f>AVERAGE(K84:K92)</f>
         <v>1806783.4000000001</v>
       </c>
-      <c r="R83" s="66"/>
-      <c r="S83" s="75">
+      <c r="R83" s="92"/>
+      <c r="S83" s="73">
         <f>AVERAGE(M84:M90)</f>
         <v>14.16920287691558</v>
       </c>
-      <c r="T83" s="72"/>
-      <c r="U83" s="75">
+      <c r="T83" s="75"/>
+      <c r="U83" s="73">
         <f t="shared" ref="U83" si="14">AVERAGE(M83:M91)</f>
         <v>13.307043490025588</v>
       </c>
-      <c r="V83" s="72"/>
+      <c r="V83" s="75"/>
     </row>
     <row r="84" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B84" s="57"/>
-      <c r="C84" s="51"/>
-      <c r="D84" s="85"/>
-      <c r="E84" s="57"/>
-      <c r="F84" s="54"/>
-      <c r="G84" s="51"/>
-      <c r="H84" s="85"/>
-      <c r="I84" s="89" t="s">
+      <c r="B84" s="70"/>
+      <c r="C84" s="58"/>
+      <c r="D84" s="79"/>
+      <c r="E84" s="70"/>
+      <c r="F84" s="66"/>
+      <c r="G84" s="58"/>
+      <c r="H84" s="79"/>
+      <c r="I84" s="51" t="s">
         <v>10</v>
       </c>
       <c r="J84" s="12">
@@ -6957,24 +6957,24 @@
       <c r="N84" s="11">
         <v>7.3678229999999996</v>
       </c>
-      <c r="O84" s="80"/>
-      <c r="P84" s="69"/>
-      <c r="Q84" s="77"/>
-      <c r="R84" s="66"/>
-      <c r="S84" s="75"/>
-      <c r="T84" s="72"/>
-      <c r="U84" s="75"/>
-      <c r="V84" s="72"/>
+      <c r="O84" s="84"/>
+      <c r="P84" s="87"/>
+      <c r="Q84" s="90"/>
+      <c r="R84" s="92"/>
+      <c r="S84" s="73"/>
+      <c r="T84" s="75"/>
+      <c r="U84" s="73"/>
+      <c r="V84" s="75"/>
     </row>
     <row r="85" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B85" s="57"/>
-      <c r="C85" s="51"/>
-      <c r="D85" s="85"/>
-      <c r="E85" s="57"/>
-      <c r="F85" s="54"/>
-      <c r="G85" s="51"/>
-      <c r="H85" s="85"/>
-      <c r="I85" s="90" t="s">
+      <c r="B85" s="70"/>
+      <c r="C85" s="58"/>
+      <c r="D85" s="79"/>
+      <c r="E85" s="70"/>
+      <c r="F85" s="66"/>
+      <c r="G85" s="58"/>
+      <c r="H85" s="79"/>
+      <c r="I85" s="52" t="s">
         <v>14</v>
       </c>
       <c r="J85" s="36">
@@ -6994,24 +6994,24 @@
       <c r="N85" s="6">
         <v>7.2086810000000003</v>
       </c>
-      <c r="O85" s="80"/>
-      <c r="P85" s="69"/>
-      <c r="Q85" s="77"/>
-      <c r="R85" s="66"/>
-      <c r="S85" s="75"/>
-      <c r="T85" s="72"/>
-      <c r="U85" s="75"/>
-      <c r="V85" s="72"/>
+      <c r="O85" s="84"/>
+      <c r="P85" s="87"/>
+      <c r="Q85" s="90"/>
+      <c r="R85" s="92"/>
+      <c r="S85" s="73"/>
+      <c r="T85" s="75"/>
+      <c r="U85" s="73"/>
+      <c r="V85" s="75"/>
     </row>
     <row r="86" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B86" s="57"/>
-      <c r="C86" s="51"/>
-      <c r="D86" s="85"/>
-      <c r="E86" s="57"/>
-      <c r="F86" s="54"/>
-      <c r="G86" s="51"/>
-      <c r="H86" s="85"/>
-      <c r="I86" s="90" t="s">
+      <c r="B86" s="70"/>
+      <c r="C86" s="58"/>
+      <c r="D86" s="79"/>
+      <c r="E86" s="70"/>
+      <c r="F86" s="66"/>
+      <c r="G86" s="58"/>
+      <c r="H86" s="79"/>
+      <c r="I86" s="52" t="s">
         <v>15</v>
       </c>
       <c r="J86" s="36">
@@ -7031,24 +7031,24 @@
       <c r="N86" s="6">
         <v>8.2397080000000003</v>
       </c>
-      <c r="O86" s="80"/>
-      <c r="P86" s="69"/>
-      <c r="Q86" s="77"/>
-      <c r="R86" s="66"/>
-      <c r="S86" s="75"/>
-      <c r="T86" s="72"/>
-      <c r="U86" s="75"/>
-      <c r="V86" s="72"/>
+      <c r="O86" s="84"/>
+      <c r="P86" s="87"/>
+      <c r="Q86" s="90"/>
+      <c r="R86" s="92"/>
+      <c r="S86" s="73"/>
+      <c r="T86" s="75"/>
+      <c r="U86" s="73"/>
+      <c r="V86" s="75"/>
     </row>
     <row r="87" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B87" s="57"/>
-      <c r="C87" s="51"/>
-      <c r="D87" s="85"/>
-      <c r="E87" s="57"/>
-      <c r="F87" s="54"/>
-      <c r="G87" s="51"/>
-      <c r="H87" s="85"/>
-      <c r="I87" s="90" t="s">
+      <c r="B87" s="70"/>
+      <c r="C87" s="58"/>
+      <c r="D87" s="79"/>
+      <c r="E87" s="70"/>
+      <c r="F87" s="66"/>
+      <c r="G87" s="58"/>
+      <c r="H87" s="79"/>
+      <c r="I87" s="52" t="s">
         <v>16</v>
       </c>
       <c r="J87" s="36">
@@ -7068,14 +7068,14 @@
       <c r="N87" s="6">
         <v>8.2393210000000003</v>
       </c>
-      <c r="O87" s="80"/>
-      <c r="P87" s="69"/>
-      <c r="Q87" s="77"/>
-      <c r="R87" s="66"/>
-      <c r="S87" s="75"/>
-      <c r="T87" s="72"/>
-      <c r="U87" s="75"/>
-      <c r="V87" s="72"/>
+      <c r="O87" s="84"/>
+      <c r="P87" s="87"/>
+      <c r="Q87" s="90"/>
+      <c r="R87" s="92"/>
+      <c r="S87" s="73"/>
+      <c r="T87" s="75"/>
+      <c r="U87" s="73"/>
+      <c r="V87" s="75"/>
       <c r="W87" s="47">
         <f>H73/H83</f>
         <v>3.4140820562239189</v>
@@ -7094,14 +7094,14 @@
       </c>
     </row>
     <row r="88" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B88" s="57"/>
-      <c r="C88" s="51"/>
-      <c r="D88" s="85"/>
-      <c r="E88" s="57"/>
-      <c r="F88" s="54"/>
-      <c r="G88" s="51"/>
-      <c r="H88" s="85"/>
-      <c r="I88" s="90" t="s">
+      <c r="B88" s="70"/>
+      <c r="C88" s="58"/>
+      <c r="D88" s="79"/>
+      <c r="E88" s="70"/>
+      <c r="F88" s="66"/>
+      <c r="G88" s="58"/>
+      <c r="H88" s="79"/>
+      <c r="I88" s="52" t="s">
         <v>17</v>
       </c>
       <c r="J88" s="36">
@@ -7121,24 +7121,24 @@
       <c r="N88" s="6">
         <v>5.0682270000000003</v>
       </c>
-      <c r="O88" s="80"/>
-      <c r="P88" s="69"/>
-      <c r="Q88" s="77"/>
-      <c r="R88" s="66"/>
-      <c r="S88" s="75"/>
-      <c r="T88" s="72"/>
-      <c r="U88" s="75"/>
-      <c r="V88" s="72"/>
+      <c r="O88" s="84"/>
+      <c r="P88" s="87"/>
+      <c r="Q88" s="90"/>
+      <c r="R88" s="92"/>
+      <c r="S88" s="73"/>
+      <c r="T88" s="75"/>
+      <c r="U88" s="73"/>
+      <c r="V88" s="75"/>
     </row>
     <row r="89" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B89" s="57"/>
-      <c r="C89" s="51"/>
-      <c r="D89" s="85"/>
-      <c r="E89" s="57"/>
-      <c r="F89" s="54"/>
-      <c r="G89" s="51"/>
-      <c r="H89" s="85"/>
-      <c r="I89" s="90" t="s">
+      <c r="B89" s="70"/>
+      <c r="C89" s="58"/>
+      <c r="D89" s="79"/>
+      <c r="E89" s="70"/>
+      <c r="F89" s="66"/>
+      <c r="G89" s="58"/>
+      <c r="H89" s="79"/>
+      <c r="I89" s="52" t="s">
         <v>18</v>
       </c>
       <c r="J89" s="36">
@@ -7158,30 +7158,30 @@
       <c r="N89" s="6">
         <v>6.5038429999999998</v>
       </c>
-      <c r="O89" s="80"/>
-      <c r="P89" s="69"/>
-      <c r="Q89" s="77"/>
-      <c r="R89" s="66"/>
-      <c r="S89" s="75"/>
-      <c r="T89" s="72"/>
-      <c r="U89" s="75"/>
-      <c r="V89" s="72"/>
+      <c r="O89" s="84"/>
+      <c r="P89" s="87"/>
+      <c r="Q89" s="90"/>
+      <c r="R89" s="92"/>
+      <c r="S89" s="73"/>
+      <c r="T89" s="75"/>
+      <c r="U89" s="73"/>
+      <c r="V89" s="75"/>
     </row>
     <row r="90" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="57"/>
-      <c r="C90" s="51"/>
-      <c r="D90" s="85"/>
-      <c r="E90" s="57"/>
-      <c r="F90" s="54"/>
-      <c r="G90" s="51"/>
-      <c r="H90" s="85"/>
+      <c r="B90" s="70"/>
+      <c r="C90" s="58"/>
+      <c r="D90" s="79"/>
+      <c r="E90" s="70"/>
+      <c r="F90" s="66"/>
+      <c r="G90" s="58"/>
+      <c r="H90" s="79"/>
       <c r="I90" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="J90" s="91">
+      <c r="J90" s="53">
         <v>125950000</v>
       </c>
-      <c r="K90" s="91">
+      <c r="K90" s="53">
         <v>2754819</v>
       </c>
       <c r="L90" s="30">
@@ -7195,23 +7195,23 @@
       <c r="N90" s="44">
         <v>5.2577199999999999</v>
       </c>
-      <c r="O90" s="80"/>
-      <c r="P90" s="69"/>
-      <c r="Q90" s="77"/>
-      <c r="R90" s="66"/>
-      <c r="S90" s="75"/>
-      <c r="T90" s="72"/>
-      <c r="U90" s="75"/>
-      <c r="V90" s="72"/>
+      <c r="O90" s="84"/>
+      <c r="P90" s="87"/>
+      <c r="Q90" s="90"/>
+      <c r="R90" s="92"/>
+      <c r="S90" s="73"/>
+      <c r="T90" s="75"/>
+      <c r="U90" s="73"/>
+      <c r="V90" s="75"/>
     </row>
     <row r="91" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B91" s="57"/>
-      <c r="C91" s="51"/>
-      <c r="D91" s="85"/>
-      <c r="E91" s="57"/>
-      <c r="F91" s="54"/>
-      <c r="G91" s="51"/>
-      <c r="H91" s="51"/>
+      <c r="B91" s="70"/>
+      <c r="C91" s="58"/>
+      <c r="D91" s="79"/>
+      <c r="E91" s="70"/>
+      <c r="F91" s="66"/>
+      <c r="G91" s="58"/>
+      <c r="H91" s="58"/>
       <c r="I91" s="34" t="s">
         <v>26</v>
       </c>
@@ -7232,21 +7232,21 @@
       <c r="N91" s="6">
         <v>0.76784300000000005</v>
       </c>
-      <c r="O91" s="80"/>
-      <c r="P91" s="69"/>
-      <c r="Q91" s="77"/>
-      <c r="R91" s="66"/>
-      <c r="S91" s="75"/>
-      <c r="T91" s="72"/>
-      <c r="U91" s="75"/>
-      <c r="V91" s="72"/>
+      <c r="O91" s="84"/>
+      <c r="P91" s="87"/>
+      <c r="Q91" s="90"/>
+      <c r="R91" s="92"/>
+      <c r="S91" s="73"/>
+      <c r="T91" s="75"/>
+      <c r="U91" s="73"/>
+      <c r="V91" s="75"/>
     </row>
     <row r="92" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="57"/>
-      <c r="C92" s="51"/>
-      <c r="D92" s="85"/>
-      <c r="E92" s="58"/>
-      <c r="F92" s="55"/>
+      <c r="B92" s="70"/>
+      <c r="C92" s="58"/>
+      <c r="D92" s="79"/>
+      <c r="E92" s="71"/>
+      <c r="F92" s="68"/>
       <c r="G92" s="59"/>
       <c r="H92" s="59"/>
       <c r="I92" s="24"/>
@@ -7255,28 +7255,28 @@
       <c r="L92" s="30"/>
       <c r="M92" s="31"/>
       <c r="N92" s="44"/>
-      <c r="O92" s="81"/>
-      <c r="P92" s="70"/>
-      <c r="Q92" s="79"/>
-      <c r="R92" s="67"/>
-      <c r="S92" s="76"/>
-      <c r="T92" s="73"/>
-      <c r="U92" s="76"/>
-      <c r="V92" s="73"/>
+      <c r="O92" s="85"/>
+      <c r="P92" s="88"/>
+      <c r="Q92" s="94"/>
+      <c r="R92" s="93"/>
+      <c r="S92" s="77"/>
+      <c r="T92" s="76"/>
+      <c r="U92" s="77"/>
+      <c r="V92" s="76"/>
     </row>
     <row r="93" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="57"/>
-      <c r="C93" s="51"/>
-      <c r="D93" s="50">
+      <c r="B93" s="70"/>
+      <c r="C93" s="58"/>
+      <c r="D93" s="60">
         <v>2</v>
       </c>
-      <c r="E93" s="51">
+      <c r="E93" s="58">
         <v>256</v>
       </c>
-      <c r="F93" s="51" t="s">
+      <c r="F93" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="G93" s="51">
+      <c r="G93" s="58">
         <v>86.017674</v>
       </c>
       <c r="H93" s="62">
@@ -7299,51 +7299,51 @@
         <f t="shared" si="12"/>
         <v>20.458639581866066</v>
       </c>
-      <c r="N93" s="88">
+      <c r="N93" s="50">
         <v>10.798170000000001</v>
       </c>
-      <c r="O93" s="82">
+      <c r="O93" s="83">
         <f>AVERAGE(N94:N102)</f>
         <v>84.660664124999997</v>
       </c>
-      <c r="P93" s="68">
+      <c r="P93" s="86">
         <f>AVERAGE(O93:O116)</f>
         <v>84.701443374999997</v>
       </c>
-      <c r="Q93" s="78">
+      <c r="Q93" s="89">
         <f>AVERAGE(K94:K102)</f>
         <v>1182193.1587499999</v>
       </c>
-      <c r="R93" s="65">
+      <c r="R93" s="91">
         <f>AVERAGE(Q93:Q116)</f>
         <v>652338.00291666656</v>
       </c>
-      <c r="S93" s="74">
+      <c r="S93" s="72">
         <f>AVERAGE(M94:M100)</f>
         <v>17.251473648487512</v>
       </c>
-      <c r="T93" s="71">
+      <c r="T93" s="74">
         <f>AVERAGE(S93:S116)</f>
         <v>19.681315897547329</v>
       </c>
-      <c r="U93" s="75">
+      <c r="U93" s="73">
         <f t="shared" ref="U93" si="15">AVERAGE(M93:M101)</f>
         <v>17.787205776261182</v>
       </c>
-      <c r="V93" s="72">
+      <c r="V93" s="75">
         <f t="shared" ref="V93" si="16">AVERAGE(U93:U122)</f>
         <v>19.193554496506</v>
       </c>
     </row>
     <row r="94" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B94" s="57"/>
-      <c r="C94" s="51"/>
-      <c r="D94" s="51"/>
-      <c r="E94" s="51"/>
-      <c r="F94" s="51"/>
-      <c r="G94" s="51"/>
-      <c r="H94" s="87"/>
-      <c r="I94" s="89" t="s">
+      <c r="B94" s="70"/>
+      <c r="C94" s="58"/>
+      <c r="D94" s="58"/>
+      <c r="E94" s="58"/>
+      <c r="F94" s="58"/>
+      <c r="G94" s="58"/>
+      <c r="H94" s="81"/>
+      <c r="I94" s="51" t="s">
         <v>10</v>
       </c>
       <c r="J94" s="12">
@@ -7363,24 +7363,24 @@
       <c r="N94" s="11">
         <v>109.05508</v>
       </c>
-      <c r="O94" s="80"/>
-      <c r="P94" s="69"/>
-      <c r="Q94" s="77"/>
-      <c r="R94" s="66"/>
-      <c r="S94" s="75"/>
-      <c r="T94" s="72"/>
-      <c r="U94" s="75"/>
-      <c r="V94" s="72"/>
+      <c r="O94" s="84"/>
+      <c r="P94" s="87"/>
+      <c r="Q94" s="90"/>
+      <c r="R94" s="92"/>
+      <c r="S94" s="73"/>
+      <c r="T94" s="75"/>
+      <c r="U94" s="73"/>
+      <c r="V94" s="75"/>
     </row>
     <row r="95" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B95" s="57"/>
-      <c r="C95" s="51"/>
-      <c r="D95" s="51"/>
-      <c r="E95" s="51"/>
-      <c r="F95" s="51"/>
-      <c r="G95" s="51"/>
-      <c r="H95" s="87"/>
-      <c r="I95" s="90" t="s">
+      <c r="B95" s="70"/>
+      <c r="C95" s="58"/>
+      <c r="D95" s="58"/>
+      <c r="E95" s="58"/>
+      <c r="F95" s="58"/>
+      <c r="G95" s="58"/>
+      <c r="H95" s="81"/>
+      <c r="I95" s="52" t="s">
         <v>14</v>
       </c>
       <c r="J95" s="36">
@@ -7400,24 +7400,24 @@
       <c r="N95" s="6">
         <v>92.174993999999998</v>
       </c>
-      <c r="O95" s="80"/>
-      <c r="P95" s="69"/>
-      <c r="Q95" s="77"/>
-      <c r="R95" s="66"/>
-      <c r="S95" s="75"/>
-      <c r="T95" s="72"/>
-      <c r="U95" s="75"/>
-      <c r="V95" s="72"/>
+      <c r="O95" s="84"/>
+      <c r="P95" s="87"/>
+      <c r="Q95" s="90"/>
+      <c r="R95" s="92"/>
+      <c r="S95" s="73"/>
+      <c r="T95" s="75"/>
+      <c r="U95" s="73"/>
+      <c r="V95" s="75"/>
     </row>
     <row r="96" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B96" s="57"/>
-      <c r="C96" s="51"/>
-      <c r="D96" s="51"/>
-      <c r="E96" s="51"/>
-      <c r="F96" s="51"/>
-      <c r="G96" s="51"/>
-      <c r="H96" s="87"/>
-      <c r="I96" s="90" t="s">
+      <c r="B96" s="70"/>
+      <c r="C96" s="58"/>
+      <c r="D96" s="58"/>
+      <c r="E96" s="58"/>
+      <c r="F96" s="58"/>
+      <c r="G96" s="58"/>
+      <c r="H96" s="81"/>
+      <c r="I96" s="52" t="s">
         <v>15</v>
       </c>
       <c r="J96" s="36">
@@ -7437,24 +7437,24 @@
       <c r="N96" s="6">
         <v>118.505728</v>
       </c>
-      <c r="O96" s="80"/>
-      <c r="P96" s="69"/>
-      <c r="Q96" s="77"/>
-      <c r="R96" s="66"/>
-      <c r="S96" s="75"/>
-      <c r="T96" s="72"/>
-      <c r="U96" s="75"/>
-      <c r="V96" s="72"/>
+      <c r="O96" s="84"/>
+      <c r="P96" s="87"/>
+      <c r="Q96" s="90"/>
+      <c r="R96" s="92"/>
+      <c r="S96" s="73"/>
+      <c r="T96" s="75"/>
+      <c r="U96" s="73"/>
+      <c r="V96" s="75"/>
     </row>
     <row r="97" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B97" s="57"/>
-      <c r="C97" s="51"/>
-      <c r="D97" s="51"/>
-      <c r="E97" s="51"/>
-      <c r="F97" s="51"/>
-      <c r="G97" s="51"/>
-      <c r="H97" s="87"/>
-      <c r="I97" s="90" t="s">
+      <c r="B97" s="70"/>
+      <c r="C97" s="58"/>
+      <c r="D97" s="58"/>
+      <c r="E97" s="58"/>
+      <c r="F97" s="58"/>
+      <c r="G97" s="58"/>
+      <c r="H97" s="81"/>
+      <c r="I97" s="52" t="s">
         <v>16</v>
       </c>
       <c r="J97" s="36">
@@ -7474,24 +7474,24 @@
       <c r="N97" s="6">
         <v>109.10365</v>
       </c>
-      <c r="O97" s="80"/>
-      <c r="P97" s="69"/>
-      <c r="Q97" s="77"/>
-      <c r="R97" s="66"/>
-      <c r="S97" s="75"/>
-      <c r="T97" s="72"/>
-      <c r="U97" s="75"/>
-      <c r="V97" s="72"/>
+      <c r="O97" s="84"/>
+      <c r="P97" s="87"/>
+      <c r="Q97" s="90"/>
+      <c r="R97" s="92"/>
+      <c r="S97" s="73"/>
+      <c r="T97" s="75"/>
+      <c r="U97" s="73"/>
+      <c r="V97" s="75"/>
     </row>
     <row r="98" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B98" s="57"/>
-      <c r="C98" s="51"/>
-      <c r="D98" s="51"/>
-      <c r="E98" s="51"/>
-      <c r="F98" s="51"/>
-      <c r="G98" s="51"/>
-      <c r="H98" s="87"/>
-      <c r="I98" s="90" t="s">
+      <c r="B98" s="70"/>
+      <c r="C98" s="58"/>
+      <c r="D98" s="58"/>
+      <c r="E98" s="58"/>
+      <c r="F98" s="58"/>
+      <c r="G98" s="58"/>
+      <c r="H98" s="81"/>
+      <c r="I98" s="52" t="s">
         <v>17</v>
       </c>
       <c r="J98" s="36">
@@ -7511,24 +7511,24 @@
       <c r="N98" s="6">
         <v>70.263121999999996</v>
       </c>
-      <c r="O98" s="80"/>
-      <c r="P98" s="69"/>
-      <c r="Q98" s="77"/>
-      <c r="R98" s="66"/>
-      <c r="S98" s="75"/>
-      <c r="T98" s="72"/>
-      <c r="U98" s="75"/>
-      <c r="V98" s="72"/>
+      <c r="O98" s="84"/>
+      <c r="P98" s="87"/>
+      <c r="Q98" s="90"/>
+      <c r="R98" s="92"/>
+      <c r="S98" s="73"/>
+      <c r="T98" s="75"/>
+      <c r="U98" s="73"/>
+      <c r="V98" s="75"/>
     </row>
     <row r="99" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B99" s="57"/>
-      <c r="C99" s="51"/>
-      <c r="D99" s="51"/>
-      <c r="E99" s="51"/>
-      <c r="F99" s="51"/>
-      <c r="G99" s="51"/>
-      <c r="H99" s="87"/>
-      <c r="I99" s="90" t="s">
+      <c r="B99" s="70"/>
+      <c r="C99" s="58"/>
+      <c r="D99" s="58"/>
+      <c r="E99" s="58"/>
+      <c r="F99" s="58"/>
+      <c r="G99" s="58"/>
+      <c r="H99" s="81"/>
+      <c r="I99" s="52" t="s">
         <v>18</v>
       </c>
       <c r="J99" s="36">
@@ -7548,30 +7548,30 @@
       <c r="N99" s="6">
         <v>94.931640000000002</v>
       </c>
-      <c r="O99" s="80"/>
-      <c r="P99" s="69"/>
-      <c r="Q99" s="77"/>
-      <c r="R99" s="66"/>
-      <c r="S99" s="75"/>
-      <c r="T99" s="72"/>
-      <c r="U99" s="75"/>
-      <c r="V99" s="72"/>
+      <c r="O99" s="84"/>
+      <c r="P99" s="87"/>
+      <c r="Q99" s="90"/>
+      <c r="R99" s="92"/>
+      <c r="S99" s="73"/>
+      <c r="T99" s="75"/>
+      <c r="U99" s="73"/>
+      <c r="V99" s="75"/>
     </row>
     <row r="100" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="57"/>
-      <c r="C100" s="51"/>
-      <c r="D100" s="51"/>
-      <c r="E100" s="51"/>
-      <c r="F100" s="51"/>
-      <c r="G100" s="51"/>
-      <c r="H100" s="87"/>
+      <c r="B100" s="70"/>
+      <c r="C100" s="58"/>
+      <c r="D100" s="58"/>
+      <c r="E100" s="58"/>
+      <c r="F100" s="58"/>
+      <c r="G100" s="58"/>
+      <c r="H100" s="81"/>
       <c r="I100" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="J100" s="91">
+      <c r="J100" s="53">
         <v>125950000</v>
       </c>
-      <c r="K100" s="91">
+      <c r="K100" s="53">
         <v>2638675</v>
       </c>
       <c r="L100" s="30">
@@ -7585,22 +7585,22 @@
       <c r="N100" s="44">
         <v>72.907331999999997</v>
       </c>
-      <c r="O100" s="80"/>
-      <c r="P100" s="69"/>
-      <c r="Q100" s="77"/>
-      <c r="R100" s="66"/>
-      <c r="S100" s="75"/>
-      <c r="T100" s="72"/>
-      <c r="U100" s="75"/>
-      <c r="V100" s="72"/>
+      <c r="O100" s="84"/>
+      <c r="P100" s="87"/>
+      <c r="Q100" s="90"/>
+      <c r="R100" s="92"/>
+      <c r="S100" s="73"/>
+      <c r="T100" s="75"/>
+      <c r="U100" s="73"/>
+      <c r="V100" s="75"/>
     </row>
     <row r="101" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B101" s="57"/>
-      <c r="C101" s="51"/>
-      <c r="D101" s="51"/>
-      <c r="E101" s="51"/>
-      <c r="F101" s="51"/>
-      <c r="G101" s="51"/>
+      <c r="B101" s="70"/>
+      <c r="C101" s="58"/>
+      <c r="D101" s="58"/>
+      <c r="E101" s="58"/>
+      <c r="F101" s="58"/>
+      <c r="G101" s="58"/>
       <c r="H101" s="62"/>
       <c r="I101" s="34" t="s">
         <v>26</v>
@@ -7622,22 +7622,22 @@
       <c r="N101" s="6">
         <v>10.343767</v>
       </c>
-      <c r="O101" s="80"/>
-      <c r="P101" s="69"/>
-      <c r="Q101" s="77"/>
-      <c r="R101" s="66"/>
-      <c r="S101" s="75"/>
-      <c r="T101" s="72"/>
-      <c r="U101" s="75"/>
-      <c r="V101" s="72"/>
+      <c r="O101" s="84"/>
+      <c r="P101" s="87"/>
+      <c r="Q101" s="90"/>
+      <c r="R101" s="92"/>
+      <c r="S101" s="73"/>
+      <c r="T101" s="75"/>
+      <c r="U101" s="73"/>
+      <c r="V101" s="75"/>
     </row>
     <row r="102" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B102" s="57"/>
-      <c r="C102" s="51"/>
-      <c r="D102" s="51"/>
-      <c r="E102" s="51"/>
-      <c r="F102" s="52"/>
-      <c r="G102" s="52"/>
+      <c r="B102" s="70"/>
+      <c r="C102" s="58"/>
+      <c r="D102" s="58"/>
+      <c r="E102" s="58"/>
+      <c r="F102" s="61"/>
+      <c r="G102" s="61"/>
       <c r="H102" s="63"/>
       <c r="I102" s="20"/>
       <c r="J102" s="20"/>
@@ -7645,27 +7645,27 @@
       <c r="L102" s="27"/>
       <c r="M102" s="29"/>
       <c r="N102" s="6"/>
-      <c r="O102" s="80"/>
-      <c r="P102" s="69"/>
-      <c r="Q102" s="77"/>
-      <c r="R102" s="66"/>
-      <c r="S102" s="75"/>
-      <c r="T102" s="72"/>
-      <c r="U102" s="75"/>
-      <c r="V102" s="72"/>
+      <c r="O102" s="84"/>
+      <c r="P102" s="87"/>
+      <c r="Q102" s="90"/>
+      <c r="R102" s="92"/>
+      <c r="S102" s="73"/>
+      <c r="T102" s="75"/>
+      <c r="U102" s="73"/>
+      <c r="V102" s="75"/>
     </row>
     <row r="103" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="57"/>
-      <c r="C103" s="51"/>
-      <c r="D103" s="51"/>
-      <c r="E103" s="51"/>
-      <c r="F103" s="53" t="s">
+      <c r="B103" s="70"/>
+      <c r="C103" s="58"/>
+      <c r="D103" s="58"/>
+      <c r="E103" s="58"/>
+      <c r="F103" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="G103" s="50">
+      <c r="G103" s="60">
         <v>55.812477000000001</v>
       </c>
-      <c r="H103" s="64">
+      <c r="H103" s="57">
         <v>27047460</v>
       </c>
       <c r="I103" s="33" t="s">
@@ -7685,29 +7685,29 @@
         <f t="shared" si="12"/>
         <v>16.014530989062891</v>
       </c>
-      <c r="N103" s="88">
+      <c r="N103" s="50">
         <v>8.3059370000000001</v>
       </c>
-      <c r="O103" s="80">
+      <c r="O103" s="84">
         <f>AVERAGE(N104:N112)</f>
         <v>86.598956625</v>
       </c>
-      <c r="P103" s="69"/>
-      <c r="Q103" s="77">
+      <c r="P103" s="87"/>
+      <c r="Q103" s="90">
         <f>AVERAGE(K104:K112)</f>
         <v>398281.21250000002</v>
       </c>
-      <c r="R103" s="66"/>
-      <c r="S103" s="75">
+      <c r="R103" s="92"/>
+      <c r="S103" s="73">
         <f>AVERAGE(M104:M110)</f>
         <v>20.740394886881766</v>
       </c>
-      <c r="T103" s="72"/>
-      <c r="U103" s="75">
+      <c r="T103" s="75"/>
+      <c r="U103" s="73">
         <f t="shared" ref="U103" si="17">AVERAGE(M103:M111)</f>
         <v>19.568740792885002</v>
       </c>
-      <c r="V103" s="72"/>
+      <c r="V103" s="75"/>
       <c r="W103" s="40">
         <f>(M103+M93+M113)/3</f>
         <v>18.330234417468926</v>
@@ -7722,14 +7722,14 @@
       </c>
     </row>
     <row r="104" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B104" s="57"/>
-      <c r="C104" s="51"/>
-      <c r="D104" s="51"/>
-      <c r="E104" s="51"/>
-      <c r="F104" s="53"/>
-      <c r="G104" s="51"/>
-      <c r="H104" s="85"/>
-      <c r="I104" s="89" t="s">
+      <c r="B104" s="70"/>
+      <c r="C104" s="58"/>
+      <c r="D104" s="58"/>
+      <c r="E104" s="58"/>
+      <c r="F104" s="67"/>
+      <c r="G104" s="58"/>
+      <c r="H104" s="79"/>
+      <c r="I104" s="51" t="s">
         <v>10</v>
       </c>
       <c r="J104" s="12">
@@ -7749,24 +7749,24 @@
       <c r="N104" s="11">
         <v>111.363974</v>
       </c>
-      <c r="O104" s="80"/>
-      <c r="P104" s="69"/>
-      <c r="Q104" s="77"/>
-      <c r="R104" s="66"/>
-      <c r="S104" s="75"/>
-      <c r="T104" s="72"/>
-      <c r="U104" s="75"/>
-      <c r="V104" s="72"/>
+      <c r="O104" s="84"/>
+      <c r="P104" s="87"/>
+      <c r="Q104" s="90"/>
+      <c r="R104" s="92"/>
+      <c r="S104" s="73"/>
+      <c r="T104" s="75"/>
+      <c r="U104" s="73"/>
+      <c r="V104" s="75"/>
     </row>
     <row r="105" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B105" s="57"/>
-      <c r="C105" s="51"/>
-      <c r="D105" s="51"/>
-      <c r="E105" s="51"/>
-      <c r="F105" s="53"/>
-      <c r="G105" s="51"/>
-      <c r="H105" s="85"/>
-      <c r="I105" s="90" t="s">
+      <c r="B105" s="70"/>
+      <c r="C105" s="58"/>
+      <c r="D105" s="58"/>
+      <c r="E105" s="58"/>
+      <c r="F105" s="67"/>
+      <c r="G105" s="58"/>
+      <c r="H105" s="79"/>
+      <c r="I105" s="52" t="s">
         <v>14</v>
       </c>
       <c r="J105" s="36">
@@ -7786,24 +7786,24 @@
       <c r="N105" s="6">
         <v>90.218546000000003</v>
       </c>
-      <c r="O105" s="80"/>
-      <c r="P105" s="69"/>
-      <c r="Q105" s="77"/>
-      <c r="R105" s="66"/>
-      <c r="S105" s="75"/>
-      <c r="T105" s="72"/>
-      <c r="U105" s="75"/>
-      <c r="V105" s="72"/>
+      <c r="O105" s="84"/>
+      <c r="P105" s="87"/>
+      <c r="Q105" s="90"/>
+      <c r="R105" s="92"/>
+      <c r="S105" s="73"/>
+      <c r="T105" s="75"/>
+      <c r="U105" s="73"/>
+      <c r="V105" s="75"/>
     </row>
     <row r="106" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B106" s="57"/>
-      <c r="C106" s="51"/>
-      <c r="D106" s="51"/>
-      <c r="E106" s="51"/>
-      <c r="F106" s="53"/>
-      <c r="G106" s="51"/>
-      <c r="H106" s="85"/>
-      <c r="I106" s="90" t="s">
+      <c r="B106" s="70"/>
+      <c r="C106" s="58"/>
+      <c r="D106" s="58"/>
+      <c r="E106" s="58"/>
+      <c r="F106" s="67"/>
+      <c r="G106" s="58"/>
+      <c r="H106" s="79"/>
+      <c r="I106" s="52" t="s">
         <v>15</v>
       </c>
       <c r="J106" s="36">
@@ -7823,24 +7823,24 @@
       <c r="N106" s="6">
         <v>123.81653900000001</v>
       </c>
-      <c r="O106" s="80"/>
-      <c r="P106" s="69"/>
-      <c r="Q106" s="77"/>
-      <c r="R106" s="66"/>
-      <c r="S106" s="75"/>
-      <c r="T106" s="72"/>
-      <c r="U106" s="75"/>
-      <c r="V106" s="72"/>
+      <c r="O106" s="84"/>
+      <c r="P106" s="87"/>
+      <c r="Q106" s="90"/>
+      <c r="R106" s="92"/>
+      <c r="S106" s="73"/>
+      <c r="T106" s="75"/>
+      <c r="U106" s="73"/>
+      <c r="V106" s="75"/>
     </row>
     <row r="107" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B107" s="57"/>
-      <c r="C107" s="51"/>
-      <c r="D107" s="51"/>
-      <c r="E107" s="51"/>
-      <c r="F107" s="53"/>
-      <c r="G107" s="51"/>
-      <c r="H107" s="85"/>
-      <c r="I107" s="90" t="s">
+      <c r="B107" s="70"/>
+      <c r="C107" s="58"/>
+      <c r="D107" s="58"/>
+      <c r="E107" s="58"/>
+      <c r="F107" s="67"/>
+      <c r="G107" s="58"/>
+      <c r="H107" s="79"/>
+      <c r="I107" s="52" t="s">
         <v>16</v>
       </c>
       <c r="J107" s="36">
@@ -7860,24 +7860,24 @@
       <c r="N107" s="6">
         <v>108.558559</v>
       </c>
-      <c r="O107" s="80"/>
-      <c r="P107" s="69"/>
-      <c r="Q107" s="77"/>
-      <c r="R107" s="66"/>
-      <c r="S107" s="75"/>
-      <c r="T107" s="72"/>
-      <c r="U107" s="75"/>
-      <c r="V107" s="72"/>
+      <c r="O107" s="84"/>
+      <c r="P107" s="87"/>
+      <c r="Q107" s="90"/>
+      <c r="R107" s="92"/>
+      <c r="S107" s="73"/>
+      <c r="T107" s="75"/>
+      <c r="U107" s="73"/>
+      <c r="V107" s="75"/>
     </row>
     <row r="108" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B108" s="57"/>
-      <c r="C108" s="51"/>
-      <c r="D108" s="51"/>
-      <c r="E108" s="51"/>
-      <c r="F108" s="53"/>
-      <c r="G108" s="51"/>
-      <c r="H108" s="85"/>
-      <c r="I108" s="90" t="s">
+      <c r="B108" s="70"/>
+      <c r="C108" s="58"/>
+      <c r="D108" s="58"/>
+      <c r="E108" s="58"/>
+      <c r="F108" s="67"/>
+      <c r="G108" s="58"/>
+      <c r="H108" s="79"/>
+      <c r="I108" s="52" t="s">
         <v>17</v>
       </c>
       <c r="J108" s="36">
@@ -7897,24 +7897,24 @@
       <c r="N108" s="6">
         <v>67.955517</v>
       </c>
-      <c r="O108" s="80"/>
-      <c r="P108" s="69"/>
-      <c r="Q108" s="77"/>
-      <c r="R108" s="66"/>
-      <c r="S108" s="75"/>
-      <c r="T108" s="72"/>
-      <c r="U108" s="75"/>
-      <c r="V108" s="72"/>
+      <c r="O108" s="84"/>
+      <c r="P108" s="87"/>
+      <c r="Q108" s="90"/>
+      <c r="R108" s="92"/>
+      <c r="S108" s="73"/>
+      <c r="T108" s="75"/>
+      <c r="U108" s="73"/>
+      <c r="V108" s="75"/>
     </row>
     <row r="109" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B109" s="57"/>
-      <c r="C109" s="51"/>
-      <c r="D109" s="51"/>
-      <c r="E109" s="51"/>
-      <c r="F109" s="53"/>
-      <c r="G109" s="51"/>
-      <c r="H109" s="85"/>
-      <c r="I109" s="90" t="s">
+      <c r="B109" s="70"/>
+      <c r="C109" s="58"/>
+      <c r="D109" s="58"/>
+      <c r="E109" s="58"/>
+      <c r="F109" s="67"/>
+      <c r="G109" s="58"/>
+      <c r="H109" s="79"/>
+      <c r="I109" s="52" t="s">
         <v>18</v>
       </c>
       <c r="J109" s="36">
@@ -7934,30 +7934,30 @@
       <c r="N109" s="6">
         <v>98.894293000000005</v>
       </c>
-      <c r="O109" s="80"/>
-      <c r="P109" s="69"/>
-      <c r="Q109" s="77"/>
-      <c r="R109" s="66"/>
-      <c r="S109" s="75"/>
-      <c r="T109" s="72"/>
-      <c r="U109" s="75"/>
-      <c r="V109" s="72"/>
+      <c r="O109" s="84"/>
+      <c r="P109" s="87"/>
+      <c r="Q109" s="90"/>
+      <c r="R109" s="92"/>
+      <c r="S109" s="73"/>
+      <c r="T109" s="75"/>
+      <c r="U109" s="73"/>
+      <c r="V109" s="75"/>
     </row>
     <row r="110" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="57"/>
-      <c r="C110" s="51"/>
-      <c r="D110" s="51"/>
-      <c r="E110" s="51"/>
-      <c r="F110" s="53"/>
-      <c r="G110" s="51"/>
-      <c r="H110" s="85"/>
+      <c r="B110" s="70"/>
+      <c r="C110" s="58"/>
+      <c r="D110" s="58"/>
+      <c r="E110" s="58"/>
+      <c r="F110" s="67"/>
+      <c r="G110" s="58"/>
+      <c r="H110" s="79"/>
       <c r="I110" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="J110" s="91">
+      <c r="J110" s="53">
         <v>125950000</v>
       </c>
-      <c r="K110" s="91">
+      <c r="K110" s="53">
         <v>632196.5</v>
       </c>
       <c r="L110" s="30">
@@ -7971,23 +7971,23 @@
       <c r="N110" s="44">
         <v>82.621986000000007</v>
       </c>
-      <c r="O110" s="80"/>
-      <c r="P110" s="69"/>
-      <c r="Q110" s="77"/>
-      <c r="R110" s="66"/>
-      <c r="S110" s="75"/>
-      <c r="T110" s="72"/>
-      <c r="U110" s="75"/>
-      <c r="V110" s="72"/>
+      <c r="O110" s="84"/>
+      <c r="P110" s="87"/>
+      <c r="Q110" s="90"/>
+      <c r="R110" s="92"/>
+      <c r="S110" s="73"/>
+      <c r="T110" s="75"/>
+      <c r="U110" s="73"/>
+      <c r="V110" s="75"/>
     </row>
     <row r="111" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B111" s="57"/>
-      <c r="C111" s="51"/>
-      <c r="D111" s="51"/>
-      <c r="E111" s="51"/>
-      <c r="F111" s="53"/>
-      <c r="G111" s="51"/>
-      <c r="H111" s="51"/>
+      <c r="B111" s="70"/>
+      <c r="C111" s="58"/>
+      <c r="D111" s="58"/>
+      <c r="E111" s="58"/>
+      <c r="F111" s="67"/>
+      <c r="G111" s="58"/>
+      <c r="H111" s="58"/>
       <c r="I111" s="34" t="s">
         <v>26</v>
       </c>
@@ -8008,14 +8008,14 @@
       <c r="N111" s="6">
         <v>9.3622390000000006</v>
       </c>
-      <c r="O111" s="80"/>
-      <c r="P111" s="69"/>
-      <c r="Q111" s="77"/>
-      <c r="R111" s="66"/>
-      <c r="S111" s="75"/>
-      <c r="T111" s="72"/>
-      <c r="U111" s="75"/>
-      <c r="V111" s="72"/>
+      <c r="O111" s="84"/>
+      <c r="P111" s="87"/>
+      <c r="Q111" s="90"/>
+      <c r="R111" s="92"/>
+      <c r="S111" s="73"/>
+      <c r="T111" s="75"/>
+      <c r="U111" s="73"/>
+      <c r="V111" s="75"/>
       <c r="W111" s="47">
         <f>(M111+M101+M121)/3</f>
         <v>16.642544768253781</v>
@@ -8030,40 +8030,40 @@
       </c>
     </row>
     <row r="112" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B112" s="57"/>
-      <c r="C112" s="51"/>
-      <c r="D112" s="51"/>
-      <c r="E112" s="51"/>
-      <c r="F112" s="53"/>
-      <c r="G112" s="52"/>
-      <c r="H112" s="52"/>
+      <c r="B112" s="70"/>
+      <c r="C112" s="58"/>
+      <c r="D112" s="58"/>
+      <c r="E112" s="58"/>
+      <c r="F112" s="67"/>
+      <c r="G112" s="61"/>
+      <c r="H112" s="61"/>
       <c r="I112" s="20"/>
       <c r="J112" s="20"/>
       <c r="K112" s="20"/>
       <c r="L112" s="27"/>
       <c r="M112" s="29"/>
       <c r="N112" s="6"/>
-      <c r="O112" s="80"/>
-      <c r="P112" s="69"/>
-      <c r="Q112" s="77"/>
-      <c r="R112" s="66"/>
-      <c r="S112" s="75"/>
-      <c r="T112" s="72"/>
-      <c r="U112" s="75"/>
-      <c r="V112" s="72"/>
+      <c r="O112" s="84"/>
+      <c r="P112" s="87"/>
+      <c r="Q112" s="90"/>
+      <c r="R112" s="92"/>
+      <c r="S112" s="73"/>
+      <c r="T112" s="75"/>
+      <c r="U112" s="73"/>
+      <c r="V112" s="75"/>
     </row>
     <row r="113" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="57"/>
-      <c r="C113" s="51"/>
-      <c r="D113" s="51"/>
-      <c r="E113" s="51"/>
-      <c r="F113" s="54" t="s">
+      <c r="B113" s="70"/>
+      <c r="C113" s="58"/>
+      <c r="D113" s="58"/>
+      <c r="E113" s="58"/>
+      <c r="F113" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="G113" s="50">
+      <c r="G113" s="60">
         <v>266.737977</v>
       </c>
-      <c r="H113" s="64">
+      <c r="H113" s="57">
         <v>14246790</v>
       </c>
       <c r="I113" s="33" t="s">
@@ -8083,39 +8083,39 @@
         <f t="shared" si="12"/>
         <v>18.517532681477821</v>
       </c>
-      <c r="N113" s="88">
+      <c r="N113" s="50">
         <v>11.611152000000001</v>
       </c>
-      <c r="O113" s="80">
+      <c r="O113" s="84">
         <f>AVERAGE(N114:N122)</f>
         <v>82.844709374999994</v>
       </c>
-      <c r="P113" s="69"/>
-      <c r="Q113" s="77">
+      <c r="P113" s="87"/>
+      <c r="Q113" s="90">
         <f>AVERAGE(K114:K122)</f>
         <v>376539.63750000001</v>
       </c>
-      <c r="R113" s="66"/>
-      <c r="S113" s="75">
+      <c r="R113" s="92"/>
+      <c r="S113" s="73">
         <f>AVERAGE(M114:M120)</f>
         <v>21.052079157272708</v>
       </c>
-      <c r="T113" s="72"/>
-      <c r="U113" s="75">
+      <c r="T113" s="75"/>
+      <c r="U113" s="73">
         <f t="shared" ref="U113" si="18">AVERAGE(M113:M121)</f>
         <v>20.224716920371819</v>
       </c>
-      <c r="V113" s="72"/>
+      <c r="V113" s="75"/>
     </row>
     <row r="114" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B114" s="57"/>
-      <c r="C114" s="51"/>
-      <c r="D114" s="51"/>
-      <c r="E114" s="51"/>
-      <c r="F114" s="54"/>
-      <c r="G114" s="51"/>
-      <c r="H114" s="85"/>
-      <c r="I114" s="89" t="s">
+      <c r="B114" s="70"/>
+      <c r="C114" s="58"/>
+      <c r="D114" s="58"/>
+      <c r="E114" s="58"/>
+      <c r="F114" s="66"/>
+      <c r="G114" s="58"/>
+      <c r="H114" s="79"/>
+      <c r="I114" s="51" t="s">
         <v>10</v>
       </c>
       <c r="J114" s="12">
@@ -8135,24 +8135,24 @@
       <c r="N114" s="11">
         <v>104.094043</v>
       </c>
-      <c r="O114" s="80"/>
-      <c r="P114" s="69"/>
-      <c r="Q114" s="77"/>
-      <c r="R114" s="66"/>
-      <c r="S114" s="75"/>
-      <c r="T114" s="72"/>
-      <c r="U114" s="75"/>
-      <c r="V114" s="72"/>
+      <c r="O114" s="84"/>
+      <c r="P114" s="87"/>
+      <c r="Q114" s="90"/>
+      <c r="R114" s="92"/>
+      <c r="S114" s="73"/>
+      <c r="T114" s="75"/>
+      <c r="U114" s="73"/>
+      <c r="V114" s="75"/>
     </row>
     <row r="115" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B115" s="57"/>
-      <c r="C115" s="51"/>
-      <c r="D115" s="51"/>
-      <c r="E115" s="51"/>
-      <c r="F115" s="54"/>
-      <c r="G115" s="51"/>
-      <c r="H115" s="85"/>
-      <c r="I115" s="90" t="s">
+      <c r="B115" s="70"/>
+      <c r="C115" s="58"/>
+      <c r="D115" s="58"/>
+      <c r="E115" s="58"/>
+      <c r="F115" s="66"/>
+      <c r="G115" s="58"/>
+      <c r="H115" s="79"/>
+      <c r="I115" s="52" t="s">
         <v>14</v>
       </c>
       <c r="J115" s="36">
@@ -8172,24 +8172,24 @@
       <c r="N115" s="6">
         <v>91.560816000000003</v>
       </c>
-      <c r="O115" s="80"/>
-      <c r="P115" s="69"/>
-      <c r="Q115" s="77"/>
-      <c r="R115" s="66"/>
-      <c r="S115" s="75"/>
-      <c r="T115" s="72"/>
-      <c r="U115" s="75"/>
-      <c r="V115" s="72"/>
+      <c r="O115" s="84"/>
+      <c r="P115" s="87"/>
+      <c r="Q115" s="90"/>
+      <c r="R115" s="92"/>
+      <c r="S115" s="73"/>
+      <c r="T115" s="75"/>
+      <c r="U115" s="73"/>
+      <c r="V115" s="75"/>
     </row>
     <row r="116" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B116" s="57"/>
-      <c r="C116" s="51"/>
-      <c r="D116" s="51"/>
-      <c r="E116" s="51"/>
-      <c r="F116" s="54"/>
-      <c r="G116" s="51"/>
-      <c r="H116" s="85"/>
-      <c r="I116" s="90" t="s">
+      <c r="B116" s="70"/>
+      <c r="C116" s="58"/>
+      <c r="D116" s="58"/>
+      <c r="E116" s="58"/>
+      <c r="F116" s="66"/>
+      <c r="G116" s="58"/>
+      <c r="H116" s="79"/>
+      <c r="I116" s="52" t="s">
         <v>15</v>
       </c>
       <c r="J116" s="36">
@@ -8209,24 +8209,24 @@
       <c r="N116" s="6">
         <v>119.385496</v>
       </c>
-      <c r="O116" s="80"/>
-      <c r="P116" s="69"/>
-      <c r="Q116" s="77"/>
-      <c r="R116" s="66"/>
-      <c r="S116" s="75"/>
-      <c r="T116" s="72"/>
-      <c r="U116" s="75"/>
-      <c r="V116" s="72"/>
+      <c r="O116" s="84"/>
+      <c r="P116" s="87"/>
+      <c r="Q116" s="90"/>
+      <c r="R116" s="92"/>
+      <c r="S116" s="73"/>
+      <c r="T116" s="75"/>
+      <c r="U116" s="73"/>
+      <c r="V116" s="75"/>
     </row>
     <row r="117" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B117" s="57"/>
-      <c r="C117" s="51"/>
-      <c r="D117" s="51"/>
-      <c r="E117" s="51"/>
-      <c r="F117" s="54"/>
-      <c r="G117" s="51"/>
-      <c r="H117" s="85"/>
-      <c r="I117" s="90" t="s">
+      <c r="B117" s="70"/>
+      <c r="C117" s="58"/>
+      <c r="D117" s="58"/>
+      <c r="E117" s="58"/>
+      <c r="F117" s="66"/>
+      <c r="G117" s="58"/>
+      <c r="H117" s="79"/>
+      <c r="I117" s="52" t="s">
         <v>16</v>
       </c>
       <c r="J117" s="36">
@@ -8246,14 +8246,14 @@
       <c r="N117" s="6">
         <v>110.454609</v>
       </c>
-      <c r="O117" s="80"/>
-      <c r="P117" s="69"/>
-      <c r="Q117" s="77"/>
-      <c r="R117" s="66"/>
-      <c r="S117" s="75"/>
-      <c r="T117" s="72"/>
-      <c r="U117" s="75"/>
-      <c r="V117" s="72"/>
+      <c r="O117" s="84"/>
+      <c r="P117" s="87"/>
+      <c r="Q117" s="90"/>
+      <c r="R117" s="92"/>
+      <c r="S117" s="73"/>
+      <c r="T117" s="75"/>
+      <c r="U117" s="73"/>
+      <c r="V117" s="75"/>
       <c r="W117" s="47">
         <f>H103/H113</f>
         <v>1.8984950294066243</v>
@@ -8272,14 +8272,14 @@
       </c>
     </row>
     <row r="118" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B118" s="57"/>
-      <c r="C118" s="51"/>
-      <c r="D118" s="51"/>
-      <c r="E118" s="51"/>
-      <c r="F118" s="54"/>
-      <c r="G118" s="51"/>
-      <c r="H118" s="85"/>
-      <c r="I118" s="90" t="s">
+      <c r="B118" s="70"/>
+      <c r="C118" s="58"/>
+      <c r="D118" s="58"/>
+      <c r="E118" s="58"/>
+      <c r="F118" s="66"/>
+      <c r="G118" s="58"/>
+      <c r="H118" s="79"/>
+      <c r="I118" s="52" t="s">
         <v>17</v>
       </c>
       <c r="J118" s="36">
@@ -8299,24 +8299,24 @@
       <c r="N118" s="6">
         <v>66.617474999999999</v>
       </c>
-      <c r="O118" s="80"/>
-      <c r="P118" s="69"/>
-      <c r="Q118" s="77"/>
-      <c r="R118" s="66"/>
-      <c r="S118" s="75"/>
-      <c r="T118" s="72"/>
-      <c r="U118" s="75"/>
-      <c r="V118" s="72"/>
+      <c r="O118" s="84"/>
+      <c r="P118" s="87"/>
+      <c r="Q118" s="90"/>
+      <c r="R118" s="92"/>
+      <c r="S118" s="73"/>
+      <c r="T118" s="75"/>
+      <c r="U118" s="73"/>
+      <c r="V118" s="75"/>
     </row>
     <row r="119" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B119" s="57"/>
-      <c r="C119" s="51"/>
-      <c r="D119" s="51"/>
-      <c r="E119" s="51"/>
-      <c r="F119" s="54"/>
-      <c r="G119" s="51"/>
-      <c r="H119" s="85"/>
-      <c r="I119" s="90" t="s">
+      <c r="B119" s="70"/>
+      <c r="C119" s="58"/>
+      <c r="D119" s="58"/>
+      <c r="E119" s="58"/>
+      <c r="F119" s="66"/>
+      <c r="G119" s="58"/>
+      <c r="H119" s="79"/>
+      <c r="I119" s="52" t="s">
         <v>18</v>
       </c>
       <c r="J119" s="36">
@@ -8336,30 +8336,30 @@
       <c r="N119" s="6">
         <v>88.424206999999996</v>
       </c>
-      <c r="O119" s="80"/>
-      <c r="P119" s="69"/>
-      <c r="Q119" s="77"/>
-      <c r="R119" s="66"/>
-      <c r="S119" s="75"/>
-      <c r="T119" s="72"/>
-      <c r="U119" s="75"/>
-      <c r="V119" s="72"/>
+      <c r="O119" s="84"/>
+      <c r="P119" s="87"/>
+      <c r="Q119" s="90"/>
+      <c r="R119" s="92"/>
+      <c r="S119" s="73"/>
+      <c r="T119" s="75"/>
+      <c r="U119" s="73"/>
+      <c r="V119" s="75"/>
     </row>
     <row r="120" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="57"/>
-      <c r="C120" s="51"/>
-      <c r="D120" s="51"/>
-      <c r="E120" s="51"/>
-      <c r="F120" s="54"/>
-      <c r="G120" s="51"/>
-      <c r="H120" s="85"/>
+      <c r="B120" s="70"/>
+      <c r="C120" s="58"/>
+      <c r="D120" s="58"/>
+      <c r="E120" s="58"/>
+      <c r="F120" s="66"/>
+      <c r="G120" s="58"/>
+      <c r="H120" s="79"/>
       <c r="I120" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="J120" s="91">
+      <c r="J120" s="53">
         <v>125950000</v>
       </c>
-      <c r="K120" s="91">
+      <c r="K120" s="53">
         <v>644783.9</v>
       </c>
       <c r="L120" s="30">
@@ -8373,23 +8373,23 @@
       <c r="N120" s="44">
         <v>72.748628999999994</v>
       </c>
-      <c r="O120" s="80"/>
-      <c r="P120" s="69"/>
-      <c r="Q120" s="77"/>
-      <c r="R120" s="66"/>
-      <c r="S120" s="75"/>
-      <c r="T120" s="72"/>
-      <c r="U120" s="75"/>
-      <c r="V120" s="72"/>
+      <c r="O120" s="84"/>
+      <c r="P120" s="87"/>
+      <c r="Q120" s="90"/>
+      <c r="R120" s="92"/>
+      <c r="S120" s="73"/>
+      <c r="T120" s="75"/>
+      <c r="U120" s="73"/>
+      <c r="V120" s="75"/>
     </row>
     <row r="121" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B121" s="57"/>
-      <c r="C121" s="51"/>
-      <c r="D121" s="51"/>
-      <c r="E121" s="51"/>
-      <c r="F121" s="54"/>
-      <c r="G121" s="51"/>
-      <c r="H121" s="51"/>
+      <c r="B121" s="70"/>
+      <c r="C121" s="58"/>
+      <c r="D121" s="58"/>
+      <c r="E121" s="58"/>
+      <c r="F121" s="66"/>
+      <c r="G121" s="58"/>
+      <c r="H121" s="58"/>
       <c r="I121" s="34" t="s">
         <v>26</v>
       </c>
@@ -8410,21 +8410,21 @@
       <c r="N121" s="6">
         <v>9.4724000000000004</v>
       </c>
-      <c r="O121" s="80"/>
-      <c r="P121" s="69"/>
-      <c r="Q121" s="77"/>
-      <c r="R121" s="66"/>
-      <c r="S121" s="75"/>
-      <c r="T121" s="72"/>
-      <c r="U121" s="75"/>
-      <c r="V121" s="72"/>
+      <c r="O121" s="84"/>
+      <c r="P121" s="87"/>
+      <c r="Q121" s="90"/>
+      <c r="R121" s="92"/>
+      <c r="S121" s="73"/>
+      <c r="T121" s="75"/>
+      <c r="U121" s="73"/>
+      <c r="V121" s="75"/>
     </row>
     <row r="122" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="58"/>
+      <c r="B122" s="71"/>
       <c r="C122" s="59"/>
       <c r="D122" s="59"/>
       <c r="E122" s="59"/>
-      <c r="F122" s="55"/>
+      <c r="F122" s="68"/>
       <c r="G122" s="59"/>
       <c r="H122" s="59"/>
       <c r="I122" s="19"/>
@@ -8433,89 +8433,29 @@
       <c r="L122" s="30"/>
       <c r="M122" s="31"/>
       <c r="N122" s="9"/>
-      <c r="O122" s="81"/>
-      <c r="P122" s="70"/>
-      <c r="Q122" s="79"/>
-      <c r="R122" s="67"/>
-      <c r="S122" s="76"/>
-      <c r="T122" s="73"/>
-      <c r="U122" s="76"/>
-      <c r="V122" s="73"/>
+      <c r="O122" s="85"/>
+      <c r="P122" s="88"/>
+      <c r="Q122" s="94"/>
+      <c r="R122" s="93"/>
+      <c r="S122" s="77"/>
+      <c r="T122" s="76"/>
+      <c r="U122" s="77"/>
+      <c r="V122" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="111">
-    <mergeCell ref="U63:U72"/>
-    <mergeCell ref="V63:V92"/>
-    <mergeCell ref="U73:U82"/>
-    <mergeCell ref="U83:U92"/>
-    <mergeCell ref="U93:U102"/>
-    <mergeCell ref="V93:V122"/>
-    <mergeCell ref="U103:U112"/>
-    <mergeCell ref="U113:U122"/>
-    <mergeCell ref="U3:U12"/>
-    <mergeCell ref="V3:V32"/>
-    <mergeCell ref="U13:U22"/>
-    <mergeCell ref="U23:U32"/>
-    <mergeCell ref="U33:U42"/>
-    <mergeCell ref="V33:V62"/>
-    <mergeCell ref="U43:U52"/>
-    <mergeCell ref="U53:U62"/>
-    <mergeCell ref="B3:B122"/>
-    <mergeCell ref="C3:C62"/>
-    <mergeCell ref="D3:D32"/>
-    <mergeCell ref="E3:E32"/>
-    <mergeCell ref="F3:F12"/>
-    <mergeCell ref="D33:D62"/>
-    <mergeCell ref="E33:E62"/>
-    <mergeCell ref="F33:F42"/>
-    <mergeCell ref="C63:C122"/>
-    <mergeCell ref="D63:D92"/>
-    <mergeCell ref="E63:E92"/>
-    <mergeCell ref="D93:D122"/>
-    <mergeCell ref="E93:E122"/>
-    <mergeCell ref="F93:F102"/>
-    <mergeCell ref="F113:F122"/>
-    <mergeCell ref="G33:G42"/>
-    <mergeCell ref="H3:H12"/>
-    <mergeCell ref="F13:F22"/>
-    <mergeCell ref="G13:G22"/>
-    <mergeCell ref="H13:H22"/>
-    <mergeCell ref="F23:F32"/>
-    <mergeCell ref="G23:G32"/>
-    <mergeCell ref="H23:H32"/>
-    <mergeCell ref="G3:G12"/>
-    <mergeCell ref="F43:F52"/>
-    <mergeCell ref="G43:G52"/>
-    <mergeCell ref="H43:H52"/>
-    <mergeCell ref="F53:F62"/>
-    <mergeCell ref="G53:G62"/>
-    <mergeCell ref="H53:H62"/>
-    <mergeCell ref="F103:F112"/>
-    <mergeCell ref="G103:G112"/>
-    <mergeCell ref="H103:H112"/>
-    <mergeCell ref="H63:H72"/>
-    <mergeCell ref="F73:F82"/>
-    <mergeCell ref="G73:G82"/>
-    <mergeCell ref="H73:H82"/>
-    <mergeCell ref="F83:F92"/>
-    <mergeCell ref="F63:F72"/>
-    <mergeCell ref="G63:G72"/>
-    <mergeCell ref="G113:G122"/>
-    <mergeCell ref="H113:H122"/>
-    <mergeCell ref="G83:G92"/>
-    <mergeCell ref="H83:H92"/>
-    <mergeCell ref="O3:O12"/>
-    <mergeCell ref="O13:O22"/>
-    <mergeCell ref="O23:O32"/>
-    <mergeCell ref="O93:O102"/>
-    <mergeCell ref="O103:O112"/>
-    <mergeCell ref="O113:O122"/>
-    <mergeCell ref="O63:O72"/>
-    <mergeCell ref="O83:O92"/>
-    <mergeCell ref="O73:O82"/>
-    <mergeCell ref="G93:G102"/>
-    <mergeCell ref="H93:H102"/>
-    <mergeCell ref="H33:H42"/>
+    <mergeCell ref="S33:S42"/>
+    <mergeCell ref="S43:S52"/>
+    <mergeCell ref="S53:S62"/>
+    <mergeCell ref="R63:R92"/>
+    <mergeCell ref="P63:P92"/>
+    <mergeCell ref="T63:T92"/>
+    <mergeCell ref="S63:S72"/>
+    <mergeCell ref="S73:S82"/>
+    <mergeCell ref="S83:S92"/>
+    <mergeCell ref="Q73:Q82"/>
+    <mergeCell ref="Q63:Q72"/>
+    <mergeCell ref="Q83:Q92"/>
     <mergeCell ref="S3:S12"/>
     <mergeCell ref="S13:S22"/>
     <mergeCell ref="S23:S32"/>
@@ -8534,27 +8474,87 @@
     <mergeCell ref="Q13:Q22"/>
     <mergeCell ref="Q23:Q32"/>
     <mergeCell ref="R3:R32"/>
-    <mergeCell ref="O33:O42"/>
     <mergeCell ref="P33:P62"/>
     <mergeCell ref="R33:R62"/>
     <mergeCell ref="T33:T62"/>
-    <mergeCell ref="O43:O52"/>
-    <mergeCell ref="O53:O62"/>
     <mergeCell ref="Q33:Q42"/>
     <mergeCell ref="Q43:Q52"/>
     <mergeCell ref="Q53:Q62"/>
-    <mergeCell ref="S33:S42"/>
-    <mergeCell ref="S43:S52"/>
-    <mergeCell ref="S53:S62"/>
-    <mergeCell ref="R63:R92"/>
-    <mergeCell ref="P63:P92"/>
-    <mergeCell ref="T63:T92"/>
-    <mergeCell ref="S63:S72"/>
-    <mergeCell ref="S73:S82"/>
-    <mergeCell ref="S83:S92"/>
-    <mergeCell ref="Q73:Q82"/>
-    <mergeCell ref="Q63:Q72"/>
-    <mergeCell ref="Q83:Q92"/>
+    <mergeCell ref="G113:G122"/>
+    <mergeCell ref="H113:H122"/>
+    <mergeCell ref="G83:G92"/>
+    <mergeCell ref="H83:H92"/>
+    <mergeCell ref="O3:O12"/>
+    <mergeCell ref="O13:O22"/>
+    <mergeCell ref="O23:O32"/>
+    <mergeCell ref="O93:O102"/>
+    <mergeCell ref="O103:O112"/>
+    <mergeCell ref="O113:O122"/>
+    <mergeCell ref="O63:O72"/>
+    <mergeCell ref="O83:O92"/>
+    <mergeCell ref="O73:O82"/>
+    <mergeCell ref="G93:G102"/>
+    <mergeCell ref="H93:H102"/>
+    <mergeCell ref="H33:H42"/>
+    <mergeCell ref="O33:O42"/>
+    <mergeCell ref="O43:O52"/>
+    <mergeCell ref="O53:O62"/>
+    <mergeCell ref="G43:G52"/>
+    <mergeCell ref="H43:H52"/>
+    <mergeCell ref="F53:F62"/>
+    <mergeCell ref="G53:G62"/>
+    <mergeCell ref="H53:H62"/>
+    <mergeCell ref="F103:F112"/>
+    <mergeCell ref="G103:G112"/>
+    <mergeCell ref="H103:H112"/>
+    <mergeCell ref="H63:H72"/>
+    <mergeCell ref="F73:F82"/>
+    <mergeCell ref="G73:G82"/>
+    <mergeCell ref="H73:H82"/>
+    <mergeCell ref="F83:F92"/>
+    <mergeCell ref="F63:F72"/>
+    <mergeCell ref="G63:G72"/>
+    <mergeCell ref="G33:G42"/>
+    <mergeCell ref="H3:H12"/>
+    <mergeCell ref="F13:F22"/>
+    <mergeCell ref="G13:G22"/>
+    <mergeCell ref="H13:H22"/>
+    <mergeCell ref="F23:F32"/>
+    <mergeCell ref="G23:G32"/>
+    <mergeCell ref="H23:H32"/>
+    <mergeCell ref="G3:G12"/>
+    <mergeCell ref="B3:B122"/>
+    <mergeCell ref="C3:C62"/>
+    <mergeCell ref="D3:D32"/>
+    <mergeCell ref="E3:E32"/>
+    <mergeCell ref="F3:F12"/>
+    <mergeCell ref="D33:D62"/>
+    <mergeCell ref="E33:E62"/>
+    <mergeCell ref="F33:F42"/>
+    <mergeCell ref="C63:C122"/>
+    <mergeCell ref="D63:D92"/>
+    <mergeCell ref="E63:E92"/>
+    <mergeCell ref="D93:D122"/>
+    <mergeCell ref="E93:E122"/>
+    <mergeCell ref="F93:F102"/>
+    <mergeCell ref="F113:F122"/>
+    <mergeCell ref="F43:F52"/>
+    <mergeCell ref="U63:U72"/>
+    <mergeCell ref="V63:V92"/>
+    <mergeCell ref="U73:U82"/>
+    <mergeCell ref="U83:U92"/>
+    <mergeCell ref="U93:U102"/>
+    <mergeCell ref="V93:V122"/>
+    <mergeCell ref="U103:U112"/>
+    <mergeCell ref="U113:U122"/>
+    <mergeCell ref="U3:U12"/>
+    <mergeCell ref="V3:V32"/>
+    <mergeCell ref="U13:U22"/>
+    <mergeCell ref="U23:U32"/>
+    <mergeCell ref="U33:U42"/>
+    <mergeCell ref="V33:V62"/>
+    <mergeCell ref="U43:U52"/>
+    <mergeCell ref="U53:U62"/>
   </mergeCells>
   <conditionalFormatting sqref="N97:N116 N17:N26 N2:N15 N118:N1048576 N28:N35 N37:N95">
     <cfRule type="colorScale" priority="26">
